--- a/public/uploads/Besoin.xlsx
+++ b/public/uploads/Besoin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\arco\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1316E8F-171A-4852-B4D8-0F8DC9A9D9BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E87B60-76DA-4B86-9F9A-6BC442EC21AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="4200" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -29,435 +29,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="166">
-  <si>
-    <t>AS451</t>
-  </si>
-  <si>
-    <t>AS452</t>
-  </si>
-  <si>
-    <t>AS453</t>
-  </si>
-  <si>
-    <t>AS454</t>
-  </si>
-  <si>
-    <t>AS455</t>
-  </si>
-  <si>
-    <t>AS456</t>
-  </si>
-  <si>
-    <t>AS462</t>
-  </si>
-  <si>
-    <t>AS463</t>
-  </si>
-  <si>
-    <t>AS464</t>
-  </si>
-  <si>
-    <t>AS465</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>B120408</t>
-  </si>
-  <si>
-    <t>B120508</t>
-  </si>
-  <si>
-    <t>B120708</t>
-  </si>
-  <si>
-    <t>B120908</t>
-  </si>
-  <si>
-    <t>B121108</t>
-  </si>
-  <si>
-    <t>B121308</t>
-  </si>
-  <si>
-    <t>B121408</t>
-  </si>
-  <si>
-    <t>C30107</t>
-  </si>
-  <si>
-    <t>C30109</t>
-  </si>
-  <si>
-    <t>C30114</t>
-  </si>
-  <si>
-    <t>C30116</t>
-  </si>
-  <si>
-    <t>DE830C</t>
-  </si>
-  <si>
-    <t>KCM13</t>
-  </si>
-  <si>
-    <t>KCM14</t>
-  </si>
-  <si>
-    <t>KCM15</t>
-  </si>
-  <si>
-    <t>KCM16</t>
-  </si>
-  <si>
-    <t>KCM17</t>
-  </si>
-  <si>
-    <t>KCM18</t>
-  </si>
-  <si>
-    <t>KCM19</t>
-  </si>
-  <si>
-    <t>KCM45</t>
-  </si>
-  <si>
-    <t>KCM45SP</t>
-  </si>
-  <si>
-    <t>KCM48</t>
-  </si>
-  <si>
-    <t>MF210</t>
-  </si>
-  <si>
-    <t>NV870C</t>
-  </si>
-  <si>
-    <t>P2236</t>
-  </si>
-  <si>
-    <t>P2237</t>
-  </si>
-  <si>
-    <t>SA267</t>
-  </si>
-  <si>
-    <t>SEC4392</t>
-  </si>
-  <si>
-    <t>SE501215</t>
-  </si>
-  <si>
-    <t>SE501275</t>
-  </si>
-  <si>
-    <t>SE501285</t>
-  </si>
-  <si>
-    <t>SE501295</t>
-  </si>
-  <si>
-    <t>SE501615</t>
-  </si>
-  <si>
-    <t>SE503531</t>
-  </si>
-  <si>
-    <t>SE503555R</t>
-  </si>
-  <si>
-    <t>SE503556R</t>
-  </si>
-  <si>
-    <t>SE507205</t>
-  </si>
-  <si>
-    <t>SE507255</t>
-  </si>
-  <si>
-    <t>SE507531</t>
-  </si>
-  <si>
-    <t>SE507555R</t>
-  </si>
-  <si>
-    <t>SE507556R</t>
-  </si>
-  <si>
-    <t>SE507635</t>
-  </si>
-  <si>
-    <t>SL1111</t>
-  </si>
-  <si>
-    <t>SL1113</t>
-  </si>
-  <si>
-    <t>SL1116</t>
-  </si>
-  <si>
-    <t>SL1117</t>
-  </si>
-  <si>
-    <t>SL1132</t>
-  </si>
-  <si>
-    <t>SL1133</t>
-  </si>
-  <si>
-    <t>0046001</t>
-  </si>
-  <si>
-    <t>00462</t>
-  </si>
-  <si>
-    <t>00463</t>
-  </si>
-  <si>
-    <t>00472</t>
-  </si>
-  <si>
-    <t>0047201</t>
-  </si>
-  <si>
-    <t>0112308</t>
-  </si>
-  <si>
-    <t>0112408</t>
-  </si>
-  <si>
-    <t>0112608</t>
-  </si>
-  <si>
-    <t>0112708</t>
-  </si>
-  <si>
-    <t>0112808</t>
-  </si>
-  <si>
-    <t>0112908</t>
-  </si>
-  <si>
-    <t>0113108</t>
-  </si>
-  <si>
-    <t>0113108B</t>
-  </si>
-  <si>
-    <t>0113508</t>
-  </si>
-  <si>
-    <t>0113708</t>
-  </si>
-  <si>
-    <t>0113808</t>
-  </si>
-  <si>
-    <t>0120308</t>
-  </si>
-  <si>
-    <t>0120408</t>
-  </si>
-  <si>
-    <t>0120508</t>
-  </si>
-  <si>
-    <t>0120708</t>
-  </si>
-  <si>
-    <t>0120908</t>
-  </si>
-  <si>
-    <t>0121008</t>
-  </si>
-  <si>
-    <t>0121108</t>
-  </si>
-  <si>
-    <t>0121308</t>
-  </si>
-  <si>
-    <t>0121408</t>
-  </si>
-  <si>
-    <t>0121508</t>
-  </si>
-  <si>
-    <t>02229</t>
-  </si>
-  <si>
-    <t>02236</t>
-  </si>
-  <si>
-    <t>02267</t>
-  </si>
-  <si>
-    <t>02267U</t>
-  </si>
-  <si>
-    <t>02285</t>
-  </si>
-  <si>
-    <t>0233510</t>
-  </si>
-  <si>
-    <t>02400MAC</t>
-  </si>
-  <si>
-    <t>02400MAC02</t>
-  </si>
-  <si>
-    <t>02402MAC</t>
-  </si>
-  <si>
-    <t>02402MAC02</t>
-  </si>
-  <si>
-    <t>1TECH</t>
-  </si>
-  <si>
-    <t>1007711</t>
-  </si>
-  <si>
-    <t>1300186</t>
-  </si>
-  <si>
-    <t>1301280</t>
-  </si>
-  <si>
-    <t>1330320</t>
-  </si>
-  <si>
-    <t>1420151</t>
-  </si>
-  <si>
-    <t>1420280</t>
-  </si>
-  <si>
-    <t>191208</t>
-  </si>
-  <si>
-    <t>2TECH</t>
-  </si>
-  <si>
-    <t>201015</t>
-  </si>
-  <si>
-    <t>20101501</t>
-  </si>
-  <si>
-    <t>208020</t>
-  </si>
-  <si>
-    <t>212005U</t>
-  </si>
-  <si>
-    <t>36115</t>
-  </si>
-  <si>
-    <t>36320</t>
-  </si>
-  <si>
-    <t>36330</t>
-  </si>
-  <si>
-    <t>36420</t>
-  </si>
-  <si>
-    <t>37515</t>
-  </si>
-  <si>
-    <t>37525</t>
-  </si>
-  <si>
-    <t>37720</t>
-  </si>
-  <si>
-    <t>5TECH</t>
-  </si>
-  <si>
-    <t>501215</t>
-  </si>
-  <si>
-    <t>501275</t>
-  </si>
-  <si>
-    <t>501285</t>
-  </si>
-  <si>
-    <t>503200</t>
-  </si>
-  <si>
-    <t>503205</t>
-  </si>
-  <si>
-    <t>503210</t>
-  </si>
-  <si>
-    <t>503215</t>
-  </si>
-  <si>
-    <t>503255</t>
-  </si>
-  <si>
-    <t>503265</t>
-  </si>
-  <si>
-    <t>503270</t>
-  </si>
-  <si>
-    <t>503505</t>
-  </si>
-  <si>
-    <t>507205</t>
-  </si>
-  <si>
-    <t>507210</t>
-  </si>
-  <si>
-    <t>507215</t>
-  </si>
-  <si>
-    <t>507255</t>
-  </si>
-  <si>
-    <t>507265</t>
-  </si>
-  <si>
-    <t>507305</t>
-  </si>
-  <si>
-    <t>507340</t>
-  </si>
-  <si>
-    <t>507365</t>
-  </si>
-  <si>
-    <t>507505</t>
-  </si>
-  <si>
-    <t>876010</t>
-  </si>
-  <si>
-    <t>876020</t>
-  </si>
-  <si>
-    <t>876040</t>
-  </si>
-  <si>
-    <t>876220</t>
-  </si>
-  <si>
-    <t>876240</t>
-  </si>
-  <si>
-    <t>876410</t>
-  </si>
-  <si>
-    <t>876420</t>
-  </si>
-  <si>
-    <t>876440</t>
   </si>
   <si>
     <t>id</t>
@@ -527,6 +101,108 @@
   </si>
   <si>
     <t>s1</t>
+  </si>
+  <si>
+    <t>1007710</t>
+  </si>
+  <si>
+    <t>1301300M</t>
+  </si>
+  <si>
+    <t>1301300E</t>
+  </si>
+  <si>
+    <t>1000702E</t>
+  </si>
+  <si>
+    <t>1030004</t>
+  </si>
+  <si>
+    <t>1007708</t>
+  </si>
+  <si>
+    <t>1030357</t>
+  </si>
+  <si>
+    <t>1030185</t>
+  </si>
+  <si>
+    <t>1030358</t>
+  </si>
+  <si>
+    <t>1007596</t>
+  </si>
+  <si>
+    <t>1031139</t>
+  </si>
+  <si>
+    <t>1007622</t>
+  </si>
+  <si>
+    <t>1033129</t>
+  </si>
+  <si>
+    <t>1007620</t>
+  </si>
+  <si>
+    <t>1033131</t>
+  </si>
+  <si>
+    <t>1007628</t>
+  </si>
+  <si>
+    <t>1033133</t>
+  </si>
+  <si>
+    <t>1009950E</t>
+  </si>
+  <si>
+    <t>1009910E</t>
+  </si>
+  <si>
+    <t>1009940G</t>
+  </si>
+  <si>
+    <t>1300178</t>
+  </si>
+  <si>
+    <t>1009941M</t>
+  </si>
+  <si>
+    <t>1009920M</t>
+  </si>
+  <si>
+    <t>1300069MP</t>
+  </si>
+  <si>
+    <t>1309548M</t>
+  </si>
+  <si>
+    <t>1300179E</t>
+  </si>
+  <si>
+    <t>1008900E</t>
+  </si>
+  <si>
+    <t>1309548E</t>
+  </si>
+  <si>
+    <t>1000701E</t>
+  </si>
+  <si>
+    <t>1030007</t>
+  </si>
+  <si>
+    <t>1007624</t>
+  </si>
+  <si>
+    <t>1030166</t>
+  </si>
+  <si>
+    <t>1030187</t>
+  </si>
+  <si>
+    <t>1008880E</t>
   </si>
 </sst>
 </file>
@@ -908,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1021,6 +697,15 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1150,7 +835,7 @@
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1161,7 +846,9 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="124">
     <cellStyle name="20 % - Accent1" xfId="100" builtinId="30" customBuiltin="1"/>
@@ -1568,86 +1255,86 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:W349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>148</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="P1" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="Q1" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="R1" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="S1" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="T1" t="s">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="U1" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="V1" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="W1" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5">
@@ -8471,92 +8158,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ACAE54-B3E6-44BA-9EA0-30D1932E1BEF}">
   <dimension ref="A1:W349"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="7"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>143</v>
-      </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>148</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="P1" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="Q1" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="R1" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="S1" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="T1" t="s">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="U1" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="V1" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="W1" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="A2" s="7" t="s">
+        <v>27</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="6">
+        <v>433</v>
+      </c>
       <c r="C2" s="6">
-        <v>1448</v>
+        <v>433</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3">
+        <v>433</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -8573,14 +8264,12 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
+      <c r="A3" s="8" t="s">
+        <v>28</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5">
-        <v>1323</v>
+      <c r="D3" s="3">
+        <v>0</v>
       </c>
-      <c r="D3" s="3"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -8597,14 +8286,18 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
+      <c r="A4" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5">
-        <v>5817</v>
+      <c r="B4" s="6">
+        <v>7211</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="C4" s="6">
+        <v>7211</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7211</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -8621,14 +8314,14 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
+      <c r="A5" s="8" t="s">
+        <v>30</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5">
-        <v>10080</v>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="3">
+        <v>0</v>
       </c>
-      <c r="D5" s="3"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -8645,14 +8338,14 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
+      <c r="A6" s="8" t="s">
+        <v>24</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5">
-        <v>20622</v>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3">
+        <v>0</v>
       </c>
-      <c r="D6" s="3"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -8669,14 +8362,14 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
+      <c r="A7" s="8" t="s">
+        <v>31</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5">
-        <v>9429</v>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3">
+        <v>0</v>
       </c>
-      <c r="D7" s="3"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -8693,14 +8386,12 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
+      <c r="A8" s="8" t="s">
+        <v>32</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5">
-        <v>84</v>
+      <c r="D8" s="3">
+        <v>0</v>
       </c>
-      <c r="D8" s="3"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -8717,14 +8408,18 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
+      <c r="A9" s="8" t="s">
+        <v>33</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5">
-        <v>21</v>
+      <c r="B9">
+        <v>687</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="C9">
+        <v>687</v>
+      </c>
+      <c r="D9" s="3">
+        <v>687</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -8741,14 +8436,18 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
+      <c r="A10" s="8" t="s">
+        <v>34</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5">
-        <v>2310</v>
+      <c r="B10">
+        <v>3106</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="C10">
+        <v>3106</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3106</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -8765,14 +8464,18 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
+      <c r="A11" s="8" t="s">
+        <v>35</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5">
-        <v>132</v>
+      <c r="B11" s="6">
+        <v>1474</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="C11" s="6">
+        <v>1474</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1474</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -8789,14 +8492,18 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
+      <c r="A12" s="8" t="s">
+        <v>36</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5">
-        <v>240</v>
+      <c r="B12">
+        <v>1221</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="C12">
+        <v>1221</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1221</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -8813,14 +8520,18 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
+      <c r="A13" s="8" t="s">
+        <v>37</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5">
-        <v>2500</v>
+      <c r="B13">
+        <v>1152</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="C13">
+        <v>1152</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1152</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -8837,14 +8548,12 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
+      <c r="A14" s="8" t="s">
+        <v>38</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5">
-        <v>1400</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
-      <c r="D14" s="3"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -8861,14 +8570,12 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
+      <c r="A15" s="8" t="s">
+        <v>39</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5">
-        <v>900</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
-      <c r="D15" s="3"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -8885,14 +8592,12 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
+      <c r="A16" s="8" t="s">
+        <v>40</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5">
-        <v>312</v>
+      <c r="D16" s="3">
+        <v>0</v>
       </c>
-      <c r="D16" s="3"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -8909,14 +8614,18 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
+      <c r="A17" s="8" t="s">
+        <v>26</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5">
-        <v>320</v>
+      <c r="B17">
+        <v>24150</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="C17">
+        <v>24150</v>
+      </c>
+      <c r="D17" s="3">
+        <v>24150</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -8933,14 +8642,18 @@
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
+      <c r="A18" s="8" t="s">
+        <v>41</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5">
-        <v>160</v>
+      <c r="B18">
+        <v>300</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="C18">
+        <v>300</v>
+      </c>
+      <c r="D18" s="3">
+        <v>300</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -8957,14 +8670,18 @@
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
+      <c r="A19" s="8" t="s">
+        <v>42</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5">
-        <v>192</v>
+      <c r="B19">
+        <v>3050</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="C19">
+        <v>3050</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3050</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -8981,14 +8698,12 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
+      <c r="A20" s="8" t="s">
+        <v>43</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5">
-        <v>480</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
-      <c r="D20" s="3"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -9005,14 +8720,14 @@
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
+      <c r="A21" s="8" t="s">
+        <v>44</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5">
-        <v>1170</v>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
-      <c r="D21" s="3"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -9029,14 +8744,18 @@
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
+      <c r="A22" s="8" t="s">
+        <v>25</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5">
-        <v>192</v>
+      <c r="B22">
+        <v>581</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="C22">
+        <v>581</v>
+      </c>
+      <c r="D22" s="3">
+        <v>581</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -9053,14 +8772,14 @@
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
+      <c r="A23" s="8" t="s">
+        <v>45</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5">
-        <v>5600</v>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
-      <c r="D23" s="3"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -9077,14 +8796,14 @@
       <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
+      <c r="A24" s="8" t="s">
+        <v>46</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5">
-        <v>90</v>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
-      <c r="D24" s="3"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -9101,14 +8820,14 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
+      <c r="A25" s="8" t="s">
+        <v>47</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5">
-        <v>300</v>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="3">
+        <v>0</v>
       </c>
-      <c r="D25" s="3"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -9125,14 +8844,12 @@
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
+      <c r="A26" s="8" t="s">
+        <v>48</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5">
-        <v>6630</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
-      <c r="D26" s="3"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -9149,14 +8866,18 @@
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
+      <c r="A27" s="8" t="s">
+        <v>49</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5">
-        <v>23850</v>
+      <c r="B27">
+        <v>823</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="C27">
+        <v>823</v>
+      </c>
+      <c r="D27" s="3">
+        <v>823</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -9173,14 +8894,12 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
+      <c r="A28" s="8" t="s">
+        <v>50</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5">
-        <v>11130</v>
+      <c r="D28" s="3">
+        <v>0</v>
       </c>
-      <c r="D28" s="3"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -9197,14 +8916,14 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
+      <c r="A29" s="8" t="s">
+        <v>51</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5">
-        <v>450</v>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
-      <c r="D29" s="3"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -9221,14 +8940,14 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
+      <c r="A30" s="8" t="s">
+        <v>52</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5">
-        <v>300</v>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="3">
+        <v>0</v>
       </c>
-      <c r="D30" s="3"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -9245,14 +8964,18 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>29</v>
+      <c r="A31" s="8" t="s">
+        <v>53</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5">
-        <v>1500</v>
+      <c r="B31">
+        <v>240</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="C31">
+        <v>240</v>
+      </c>
+      <c r="D31" s="3">
+        <v>240</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -9269,14 +8992,18 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
+      <c r="A32" s="8" t="s">
+        <v>54</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5">
-        <v>360</v>
+      <c r="B32">
+        <v>600</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="C32">
+        <v>600</v>
+      </c>
+      <c r="D32" s="3">
+        <v>600</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -9293,14 +9020,14 @@
       <c r="R32" s="1"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
+      <c r="A33" s="8" t="s">
+        <v>55</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5">
-        <v>330</v>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
-      <c r="D33" s="3"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -9317,14 +9044,14 @@
       <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>32</v>
+      <c r="A34" s="8" t="s">
+        <v>56</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5">
-        <v>7400</v>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="3">
+        <v>0</v>
       </c>
-      <c r="D34" s="3"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -9341,14 +9068,12 @@
       <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>33</v>
+      <c r="A35" s="8" t="s">
+        <v>57</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5">
-        <v>12857</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
-      <c r="D35" s="3"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -9365,13 +9090,7 @@
       <c r="R35" s="1"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5">
-        <v>2100</v>
-      </c>
+      <c r="A36" s="8"/>
       <c r="D36" s="3"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -9389,13 +9108,7 @@
       <c r="R36" s="1"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5">
-        <v>500</v>
-      </c>
+      <c r="A37" s="8"/>
       <c r="D37" s="3"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -9413,13 +9126,7 @@
       <c r="R37" s="1"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5">
-        <v>13500</v>
-      </c>
+      <c r="A38" s="8"/>
       <c r="D38" s="3"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -9437,13 +9144,9 @@
       <c r="R38" s="1"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5">
-        <v>2550</v>
-      </c>
+      <c r="A39" s="8"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="3"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -9461,13 +9164,9 @@
       <c r="R39" s="1"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5">
-        <v>4080</v>
-      </c>
+      <c r="A40" s="8"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="3"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -9485,13 +9184,7 @@
       <c r="R40" s="1"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5">
-        <v>1620</v>
-      </c>
+      <c r="A41" s="8"/>
       <c r="D41" s="3"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -9509,13 +9202,7 @@
       <c r="R41" s="1"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5">
-        <v>1320</v>
-      </c>
+      <c r="A42" s="8"/>
       <c r="D42" s="3"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -9533,13 +9220,7 @@
       <c r="R42" s="1"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5">
-        <v>120</v>
-      </c>
+      <c r="A43" s="8"/>
       <c r="D43" s="3"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -9557,13 +9238,7 @@
       <c r="R43" s="1"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5">
-        <v>900</v>
-      </c>
+      <c r="A44" s="8"/>
       <c r="D44" s="3"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -9581,13 +9256,7 @@
       <c r="R44" s="1"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5">
-        <v>540</v>
-      </c>
+      <c r="A45" s="8"/>
       <c r="D45" s="3"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -9605,13 +9274,7 @@
       <c r="R45" s="1"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5">
-        <v>840</v>
-      </c>
+      <c r="A46" s="8"/>
       <c r="D46" s="3"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -9629,13 +9292,7 @@
       <c r="R46" s="1"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5">
-        <v>230</v>
-      </c>
+      <c r="A47" s="8"/>
       <c r="D47" s="3"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -9653,13 +9310,7 @@
       <c r="R47" s="1"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5">
-        <v>4440</v>
-      </c>
+      <c r="A48" s="8"/>
       <c r="D48" s="3"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -9677,13 +9328,7 @@
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5">
-        <v>5970</v>
-      </c>
+      <c r="A49" s="8"/>
       <c r="D49" s="3"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -9701,13 +9346,7 @@
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5">
-        <v>506</v>
-      </c>
+      <c r="A50" s="8"/>
       <c r="D50" s="3"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -9725,13 +9364,7 @@
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5">
-        <v>960</v>
-      </c>
+      <c r="A51" s="8"/>
       <c r="D51" s="3"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -9749,13 +9382,9 @@
       <c r="R51" s="1"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5">
-        <v>304</v>
-      </c>
+      <c r="A52" s="8"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
       <c r="D52" s="3"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -9773,13 +9402,7 @@
       <c r="R52" s="1"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5">
-        <v>640</v>
-      </c>
+      <c r="A53" s="8"/>
       <c r="D53" s="3"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -9797,13 +9420,7 @@
       <c r="R53" s="1"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5">
-        <v>40</v>
-      </c>
+      <c r="A54" s="8"/>
       <c r="D54" s="3"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -9821,13 +9438,9 @@
       <c r="R54" s="1"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5">
-        <v>720</v>
-      </c>
+      <c r="A55" s="8"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
       <c r="D55" s="3"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -9845,13 +9458,9 @@
       <c r="R55" s="1"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5">
-        <v>72</v>
-      </c>
+      <c r="A56" s="8"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
       <c r="D56" s="3"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -9869,13 +9478,9 @@
       <c r="R56" s="1"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5">
-        <v>40</v>
-      </c>
+      <c r="A57" s="8"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
       <c r="D57" s="3"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -9893,13 +9498,9 @@
       <c r="R57" s="1"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5">
-        <v>450</v>
-      </c>
+      <c r="A58" s="8"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
       <c r="D58" s="3"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -9917,13 +9518,7 @@
       <c r="R58" s="1"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5">
-        <v>640</v>
-      </c>
+      <c r="A59" s="8"/>
       <c r="D59" s="3"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -9941,13 +9536,7 @@
       <c r="R59" s="1"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5">
-        <v>528</v>
-      </c>
+      <c r="A60" s="8"/>
       <c r="D60" s="3"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -9965,13 +9554,7 @@
       <c r="R60" s="1"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5">
-        <v>3600</v>
-      </c>
+      <c r="A61" s="8"/>
       <c r="D61" s="3"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -9989,13 +9572,9 @@
       <c r="R61" s="1"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5">
-        <v>360</v>
-      </c>
+      <c r="A62" s="8"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
       <c r="D62" s="3"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -10013,13 +9592,9 @@
       <c r="R62" s="1"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5">
-        <v>12960</v>
-      </c>
+      <c r="A63" s="8"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
       <c r="D63" s="3"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -10037,13 +9612,9 @@
       <c r="R63" s="1"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5">
-        <v>1080</v>
-      </c>
+      <c r="A64" s="8"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
       <c r="D64" s="3"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -10061,13 +9632,9 @@
       <c r="R64" s="1"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5">
-        <v>180</v>
-      </c>
+      <c r="A65" s="8"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
       <c r="D65" s="3"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -10085,13 +9652,7 @@
       <c r="R65" s="1"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5">
-        <v>480</v>
-      </c>
+      <c r="A66" s="8"/>
       <c r="D66" s="3"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -10109,13 +9670,9 @@
       <c r="R66" s="1"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5">
-        <v>600</v>
-      </c>
+      <c r="A67" s="8"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
       <c r="D67" s="3"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -10133,13 +9690,9 @@
       <c r="R67" s="1"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5">
-        <v>4500</v>
-      </c>
+      <c r="A68" s="8"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
       <c r="D68" s="3"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -10157,13 +9710,9 @@
       <c r="R68" s="1"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5">
-        <v>6750</v>
-      </c>
+      <c r="A69" s="8"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
       <c r="D69" s="3"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -10181,13 +9730,7 @@
       <c r="R69" s="1"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5">
-        <v>4200</v>
-      </c>
+      <c r="A70" s="8"/>
       <c r="D70" s="3"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -10205,13 +9748,7 @@
       <c r="R70" s="1"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5">
-        <v>300</v>
-      </c>
+      <c r="A71" s="8"/>
       <c r="D71" s="3"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -10229,13 +9766,7 @@
       <c r="R71" s="1"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5">
-        <v>5469</v>
-      </c>
+      <c r="A72" s="8"/>
       <c r="D72" s="3"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -10253,13 +9784,9 @@
       <c r="R72" s="1"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5">
-        <v>16</v>
-      </c>
+      <c r="A73" s="8"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
       <c r="D73" s="3"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -10277,13 +9804,9 @@
       <c r="R73" s="1"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5">
-        <v>400</v>
-      </c>
+      <c r="A74" s="8"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
       <c r="D74" s="3"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -10301,13 +9824,9 @@
       <c r="R74" s="1"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5">
-        <v>1600</v>
-      </c>
+      <c r="A75" s="8"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
       <c r="D75" s="3"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -10325,13 +9844,9 @@
       <c r="R75" s="1"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5">
-        <v>1200</v>
-      </c>
+      <c r="A76" s="8"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
       <c r="D76" s="3"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -10349,13 +9864,9 @@
       <c r="R76" s="1"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5">
-        <v>1860</v>
-      </c>
+      <c r="A77" s="8"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
       <c r="D77" s="3"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -10373,13 +9884,9 @@
       <c r="R77" s="1"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5">
-        <v>18000</v>
-      </c>
+      <c r="A78" s="8"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
       <c r="D78" s="3"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -10397,13 +9904,9 @@
       <c r="R78" s="1"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5">
-        <v>13480</v>
-      </c>
+      <c r="A79" s="8"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
       <c r="D79" s="3"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -10421,13 +9924,7 @@
       <c r="R79" s="1"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5">
-        <v>9660</v>
-      </c>
+      <c r="A80" s="8"/>
       <c r="D80" s="3"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -10445,13 +9942,7 @@
       <c r="R80" s="1"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5">
-        <v>1240</v>
-      </c>
+      <c r="A81" s="8"/>
       <c r="D81" s="3"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -10469,13 +9960,9 @@
       <c r="R81" s="1"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5">
-        <v>3780</v>
-      </c>
+      <c r="A82" s="8"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
       <c r="D82" s="3"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -10493,13 +9980,9 @@
       <c r="R82" s="1"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5">
-        <v>2880</v>
-      </c>
+      <c r="A83" s="8"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
       <c r="D83" s="3"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -10517,13 +10000,9 @@
       <c r="R83" s="1"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5">
-        <v>3060</v>
-      </c>
+      <c r="A84" s="8"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
       <c r="D84" s="3"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -10541,13 +10020,9 @@
       <c r="R84" s="1"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5">
-        <v>160</v>
-      </c>
+      <c r="A85" s="8"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
       <c r="D85" s="3"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -10565,13 +10040,9 @@
       <c r="R85" s="1"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5">
-        <v>500</v>
-      </c>
+      <c r="A86" s="8"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
       <c r="D86" s="3"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -10589,13 +10060,9 @@
       <c r="R86" s="1"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5">
-        <v>1300</v>
-      </c>
+      <c r="A87" s="8"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
       <c r="D87" s="3"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -10613,13 +10080,9 @@
       <c r="R87" s="1"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5">
-        <v>33000</v>
-      </c>
+      <c r="A88" s="8"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
       <c r="D88" s="3"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -10637,13 +10100,9 @@
       <c r="R88" s="1"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5">
-        <v>4100</v>
-      </c>
+      <c r="A89" s="8"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
       <c r="D89" s="3"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -10661,13 +10120,9 @@
       <c r="R89" s="1"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5">
-        <v>2500</v>
-      </c>
+      <c r="A90" s="8"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
       <c r="D90" s="3"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -10685,13 +10140,9 @@
       <c r="R90" s="1"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5">
-        <v>15750</v>
-      </c>
+      <c r="A91" s="8"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
       <c r="D91" s="3"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -10709,13 +10160,9 @@
       <c r="R91" s="1"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5">
-        <v>3960</v>
-      </c>
+      <c r="A92" s="8"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
       <c r="D92" s="3"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -10733,13 +10180,9 @@
       <c r="R92" s="1"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5">
-        <v>1980</v>
-      </c>
+      <c r="A93" s="8"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
       <c r="D93" s="3"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -10757,13 +10200,9 @@
       <c r="R93" s="1"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5">
-        <v>51980</v>
-      </c>
+      <c r="A94" s="8"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
       <c r="D94" s="3"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -10781,13 +10220,9 @@
       <c r="R94" s="1"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5">
-        <v>7200</v>
-      </c>
+      <c r="A95" s="8"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
       <c r="D95" s="3"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -10805,13 +10240,7 @@
       <c r="R95" s="1"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5">
-        <v>200</v>
-      </c>
+      <c r="A96" s="8"/>
       <c r="D96" s="3"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -10829,13 +10258,9 @@
       <c r="R96" s="1"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5">
-        <v>0</v>
-      </c>
+      <c r="A97" s="8"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
       <c r="D97" s="3"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -10853,13 +10278,9 @@
       <c r="R97" s="1"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5">
-        <v>0</v>
-      </c>
+      <c r="A98" s="8"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
       <c r="D98" s="3"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -10877,13 +10298,9 @@
       <c r="R98" s="1"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5">
-        <v>16731</v>
-      </c>
+      <c r="A99" s="8"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
       <c r="D99" s="3"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -10901,13 +10318,9 @@
       <c r="R99" s="1"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5">
-        <v>27457</v>
-      </c>
+      <c r="A100" s="8"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
       <c r="D100" s="3"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -10925,13 +10338,7 @@
       <c r="R100" s="1"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5">
-        <v>5000</v>
-      </c>
+      <c r="A101" s="8"/>
       <c r="D101" s="3"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -10949,13 +10356,9 @@
       <c r="R101" s="1"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5">
-        <v>29211</v>
-      </c>
+      <c r="A102" s="8"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
       <c r="D102" s="3"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -10973,13 +10376,9 @@
       <c r="R102" s="1"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5">
-        <v>237</v>
-      </c>
+      <c r="A103" s="8"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
       <c r="D103" s="3"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -10997,13 +10396,9 @@
       <c r="R103" s="1"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5">
-        <v>126</v>
-      </c>
+      <c r="A104" s="8"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
       <c r="D104" s="3"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -11021,13 +10416,7 @@
       <c r="R104" s="1"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5">
-        <v>1000</v>
-      </c>
+      <c r="A105" s="8"/>
       <c r="D105" s="3"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -11045,13 +10434,7 @@
       <c r="R105" s="1"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5">
-        <v>1000</v>
-      </c>
+      <c r="A106" s="8"/>
       <c r="D106" s="3"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -11069,13 +10452,7 @@
       <c r="R106" s="1"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5">
-        <v>3000</v>
-      </c>
+      <c r="A107" s="8"/>
       <c r="D107" s="3"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -11093,13 +10470,7 @@
       <c r="R107" s="1"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5">
-        <v>8700</v>
-      </c>
+      <c r="A108" s="8"/>
       <c r="D108" s="3"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -11117,13 +10488,7 @@
       <c r="R108" s="1"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5">
-        <v>320</v>
-      </c>
+      <c r="A109" s="8"/>
       <c r="D109" s="3"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -11141,13 +10506,7 @@
       <c r="R109" s="1"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5">
-        <v>1200</v>
-      </c>
+      <c r="A110" s="8"/>
       <c r="D110" s="3"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -11165,13 +10524,9 @@
       <c r="R110" s="1"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5">
-        <v>80</v>
-      </c>
+      <c r="A111" s="8"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
       <c r="D111" s="3"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -11189,13 +10544,7 @@
       <c r="R111" s="1"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5">
-        <v>1580</v>
-      </c>
+      <c r="A112" s="8"/>
       <c r="D112" s="3"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -11213,13 +10562,7 @@
       <c r="R112" s="1"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5">
-        <v>363</v>
-      </c>
+      <c r="A113" s="8"/>
       <c r="D113" s="3"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -11237,13 +10580,7 @@
       <c r="R113" s="1"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5">
-        <v>41</v>
-      </c>
+      <c r="A114" s="8"/>
       <c r="D114" s="3"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -11261,13 +10598,9 @@
       <c r="R114" s="1"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5">
-        <v>600</v>
-      </c>
+      <c r="A115" s="8"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
       <c r="D115" s="3"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -11285,13 +10618,9 @@
       <c r="R115" s="1"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="A116" s="8"/>
       <c r="B116" s="5"/>
-      <c r="C116" s="5">
-        <v>4750</v>
-      </c>
+      <c r="C116" s="5"/>
       <c r="D116" s="3"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -11309,13 +10638,9 @@
       <c r="R116" s="1"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="A117" s="2"/>
       <c r="B117" s="5"/>
-      <c r="C117" s="5">
-        <v>360</v>
-      </c>
+      <c r="C117" s="5"/>
       <c r="D117" s="3"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -11333,13 +10658,9 @@
       <c r="R117" s="1"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="A118" s="2"/>
       <c r="B118" s="5"/>
-      <c r="C118" s="5">
-        <v>1200</v>
-      </c>
+      <c r="C118" s="5"/>
       <c r="D118" s="3"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -11357,13 +10678,9 @@
       <c r="R118" s="1"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A119" s="2"/>
       <c r="B119" s="5"/>
-      <c r="C119" s="5">
-        <v>60</v>
-      </c>
+      <c r="C119" s="5"/>
       <c r="D119" s="3"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -11381,13 +10698,9 @@
       <c r="R119" s="1"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="A120" s="2"/>
       <c r="B120" s="5"/>
-      <c r="C120" s="5">
-        <v>1980</v>
-      </c>
+      <c r="C120" s="5"/>
       <c r="D120" s="3"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -11405,13 +10718,9 @@
       <c r="R120" s="1"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="A121" s="2"/>
       <c r="B121" s="5"/>
-      <c r="C121" s="5">
-        <v>14340</v>
-      </c>
+      <c r="C121" s="5"/>
       <c r="D121" s="3"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -11429,13 +10738,9 @@
       <c r="R121" s="1"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="A122" s="2"/>
       <c r="B122" s="5"/>
-      <c r="C122" s="5">
-        <v>48</v>
-      </c>
+      <c r="C122" s="5"/>
       <c r="D122" s="3"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -11453,13 +10758,9 @@
       <c r="R122" s="1"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="A123" s="2"/>
       <c r="B123" s="5"/>
-      <c r="C123" s="5">
-        <v>1877</v>
-      </c>
+      <c r="C123" s="5"/>
       <c r="D123" s="3"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -11477,13 +10778,9 @@
       <c r="R123" s="1"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="A124" s="2"/>
       <c r="B124" s="5"/>
-      <c r="C124" s="5">
-        <v>2460</v>
-      </c>
+      <c r="C124" s="5"/>
       <c r="D124" s="3"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -11501,13 +10798,9 @@
       <c r="R124" s="1"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="A125" s="2"/>
       <c r="B125" s="5"/>
-      <c r="C125" s="5">
-        <v>6420</v>
-      </c>
+      <c r="C125" s="5"/>
       <c r="D125" s="3"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -11525,13 +10818,9 @@
       <c r="R125" s="1"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="A126" s="2"/>
       <c r="B126" s="5"/>
-      <c r="C126" s="5">
-        <v>768</v>
-      </c>
+      <c r="C126" s="5"/>
       <c r="D126" s="3"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -11549,13 +10838,9 @@
       <c r="R126" s="1"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="A127" s="2"/>
       <c r="B127" s="5"/>
-      <c r="C127" s="5">
-        <v>540</v>
-      </c>
+      <c r="C127" s="5"/>
       <c r="D127" s="3"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -11573,13 +10858,9 @@
       <c r="R127" s="1"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="A128" s="2"/>
       <c r="B128" s="5"/>
-      <c r="C128" s="5">
-        <v>12600</v>
-      </c>
+      <c r="C128" s="5"/>
       <c r="D128" s="3"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -11597,13 +10878,9 @@
       <c r="R128" s="1"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="A129" s="2"/>
       <c r="B129" s="5"/>
-      <c r="C129" s="5">
-        <v>192</v>
-      </c>
+      <c r="C129" s="5"/>
       <c r="D129" s="3"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -11621,13 +10898,9 @@
       <c r="R129" s="1"/>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="A130" s="2"/>
       <c r="B130" s="5"/>
-      <c r="C130" s="5">
-        <v>900</v>
-      </c>
+      <c r="C130" s="5"/>
       <c r="D130" s="3"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -11645,13 +10918,9 @@
       <c r="R130" s="1"/>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="A131" s="2"/>
       <c r="B131" s="5"/>
-      <c r="C131" s="5">
-        <v>1680</v>
-      </c>
+      <c r="C131" s="5"/>
       <c r="D131" s="3"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -11669,13 +10938,9 @@
       <c r="R131" s="1"/>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="A132" s="2"/>
       <c r="B132" s="5"/>
-      <c r="C132" s="5">
-        <v>900</v>
-      </c>
+      <c r="C132" s="5"/>
       <c r="D132" s="3"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -11693,13 +10958,9 @@
       <c r="R132" s="1"/>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="A133" s="2"/>
       <c r="B133" s="5"/>
-      <c r="C133" s="5">
-        <v>5400</v>
-      </c>
+      <c r="C133" s="5"/>
       <c r="D133" s="3"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -11717,13 +10978,9 @@
       <c r="R133" s="1"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="A134" s="2"/>
       <c r="B134" s="5"/>
-      <c r="C134" s="5">
-        <v>20</v>
-      </c>
+      <c r="C134" s="5"/>
       <c r="D134" s="3"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -11741,13 +10998,9 @@
       <c r="R134" s="1"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="A135" s="2"/>
       <c r="B135" s="5"/>
-      <c r="C135" s="5">
-        <v>3600</v>
-      </c>
+      <c r="C135" s="5"/>
       <c r="D135" s="3"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -11765,13 +11018,9 @@
       <c r="R135" s="1"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A136" s="2"/>
       <c r="B136" s="5"/>
-      <c r="C136" s="5">
-        <v>660</v>
-      </c>
+      <c r="C136" s="5"/>
       <c r="D136" s="3"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -11789,13 +11038,9 @@
       <c r="R136" s="1"/>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="A137" s="2"/>
       <c r="B137" s="5"/>
-      <c r="C137" s="5">
-        <v>3607</v>
-      </c>
+      <c r="C137" s="5"/>
       <c r="D137" s="3"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -11813,13 +11058,9 @@
       <c r="R137" s="1"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="A138" s="2"/>
       <c r="B138" s="5"/>
-      <c r="C138" s="5">
-        <v>6940</v>
-      </c>
+      <c r="C138" s="5"/>
       <c r="D138" s="3"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -11837,13 +11078,9 @@
       <c r="R138" s="1"/>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="A139" s="2"/>
       <c r="B139" s="5"/>
-      <c r="C139" s="5">
-        <v>1520</v>
-      </c>
+      <c r="C139" s="5"/>
       <c r="D139" s="3"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -11861,13 +11098,9 @@
       <c r="R139" s="1"/>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="A140" s="2"/>
       <c r="B140" s="5"/>
-      <c r="C140" s="5">
-        <v>2320</v>
-      </c>
+      <c r="C140" s="5"/>
       <c r="D140" s="3"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -11885,13 +11118,9 @@
       <c r="R140" s="1"/>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="A141" s="2"/>
       <c r="B141" s="5"/>
-      <c r="C141" s="5">
-        <v>140</v>
-      </c>
+      <c r="C141" s="5"/>
       <c r="D141" s="3"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -11909,13 +11138,9 @@
       <c r="R141" s="1"/>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="A142" s="2"/>
       <c r="B142" s="5"/>
-      <c r="C142" s="5">
-        <v>4520</v>
-      </c>
+      <c r="C142" s="5"/>
       <c r="D142" s="3"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -11933,13 +11158,9 @@
       <c r="R142" s="1"/>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>141</v>
-      </c>
+      <c r="A143" s="2"/>
       <c r="B143" s="5"/>
-      <c r="C143" s="5">
-        <v>4480</v>
-      </c>
+      <c r="C143" s="5"/>
       <c r="D143" s="3"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -11957,13 +11178,9 @@
       <c r="R143" s="1"/>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="A144" s="2"/>
       <c r="B144" s="5"/>
-      <c r="C144" s="5">
-        <v>1840</v>
-      </c>
+      <c r="C144" s="5"/>
       <c r="D144" s="3"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -11982,7 +11199,6 @@
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
-      <c r="C145" s="5"/>
       <c r="D145" s="3"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -12001,7 +11217,6 @@
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
-      <c r="C146" s="5"/>
       <c r="D146" s="3"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -12020,7 +11235,6 @@
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
-      <c r="C147" s="5"/>
       <c r="D147" s="3"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -12039,7 +11253,6 @@
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
-      <c r="C148" s="5"/>
       <c r="D148" s="3"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -12058,7 +11271,6 @@
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
-      <c r="C149" s="5"/>
       <c r="D149" s="3"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -12077,7 +11289,6 @@
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
-      <c r="C150" s="5"/>
       <c r="D150" s="3"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -12096,7 +11307,6 @@
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
-      <c r="C151" s="5"/>
       <c r="D151" s="3"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -12115,7 +11325,6 @@
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
-      <c r="C152" s="5"/>
       <c r="D152" s="3"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -12134,7 +11343,6 @@
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
-      <c r="C153" s="5"/>
       <c r="D153" s="3"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -12153,7 +11361,6 @@
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
-      <c r="C154" s="5"/>
       <c r="D154" s="3"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -12172,7 +11379,6 @@
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
-      <c r="C155" s="5"/>
       <c r="D155" s="3"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -12191,7 +11397,6 @@
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
-      <c r="C156" s="5"/>
       <c r="D156" s="3"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -12210,7 +11415,6 @@
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
-      <c r="C157" s="5"/>
       <c r="D157" s="3"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -12229,7 +11433,6 @@
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
-      <c r="C158" s="5"/>
       <c r="D158" s="3"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -12248,7 +11451,6 @@
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
-      <c r="C159" s="5"/>
       <c r="D159" s="3"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -12267,7 +11469,6 @@
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
-      <c r="C160" s="5"/>
       <c r="D160" s="3"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -12286,7 +11487,6 @@
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
-      <c r="C161" s="5"/>
       <c r="D161" s="3"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -12305,7 +11505,6 @@
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
-      <c r="C162" s="5"/>
       <c r="D162" s="3"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -12324,7 +11523,6 @@
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
-      <c r="C163" s="5"/>
       <c r="D163" s="3"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -12343,7 +11541,6 @@
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
-      <c r="C164" s="5"/>
       <c r="D164" s="3"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -12362,7 +11559,6 @@
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
-      <c r="C165" s="5"/>
       <c r="D165" s="3"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -12381,7 +11577,6 @@
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
-      <c r="C166" s="5"/>
       <c r="D166" s="3"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -12400,7 +11595,6 @@
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
-      <c r="C167" s="5"/>
       <c r="D167" s="3"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -12419,7 +11613,6 @@
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
-      <c r="C168" s="5"/>
       <c r="D168" s="3"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -12438,7 +11631,6 @@
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
-      <c r="C169" s="5"/>
       <c r="D169" s="3"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -12457,7 +11649,6 @@
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
-      <c r="C170" s="5"/>
       <c r="D170" s="3"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -12476,7 +11667,6 @@
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
-      <c r="C171" s="5"/>
       <c r="D171" s="3"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -12495,7 +11685,6 @@
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
-      <c r="C172" s="5"/>
       <c r="D172" s="3"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -12514,7 +11703,6 @@
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
-      <c r="C173" s="5"/>
       <c r="D173" s="3"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -12533,7 +11721,6 @@
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
-      <c r="C174" s="5"/>
       <c r="D174" s="3"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -12552,7 +11739,6 @@
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
-      <c r="C175" s="5"/>
       <c r="D175" s="3"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -12571,7 +11757,6 @@
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
-      <c r="C176" s="5"/>
       <c r="D176" s="3"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -12590,7 +11775,6 @@
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
-      <c r="C177" s="5"/>
       <c r="D177" s="3"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
@@ -12609,7 +11793,6 @@
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
-      <c r="C178" s="5"/>
       <c r="D178" s="3"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -12628,7 +11811,6 @@
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
-      <c r="C179" s="5"/>
       <c r="D179" s="3"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -12647,7 +11829,6 @@
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
-      <c r="C180" s="5"/>
       <c r="D180" s="3"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -12666,7 +11847,6 @@
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
-      <c r="C181" s="5"/>
       <c r="D181" s="3"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
@@ -12685,7 +11865,6 @@
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
-      <c r="C182" s="5"/>
       <c r="D182" s="3"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
@@ -12704,7 +11883,6 @@
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
-      <c r="C183" s="5"/>
       <c r="D183" s="3"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -12723,7 +11901,6 @@
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
-      <c r="C184" s="5"/>
       <c r="D184" s="3"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
@@ -12742,7 +11919,6 @@
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
-      <c r="C185" s="5"/>
       <c r="D185" s="3"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
@@ -12761,7 +11937,6 @@
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
-      <c r="C186" s="5"/>
       <c r="D186" s="3"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -12780,7 +11955,6 @@
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
-      <c r="C187" s="5"/>
       <c r="D187" s="3"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -12799,7 +11973,6 @@
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
-      <c r="C188" s="5"/>
       <c r="D188" s="3"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -12818,7 +11991,6 @@
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
-      <c r="C189" s="5"/>
       <c r="D189" s="3"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -12837,7 +12009,6 @@
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
-      <c r="C190" s="5"/>
       <c r="D190" s="3"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
@@ -12856,7 +12027,6 @@
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
-      <c r="C191" s="5"/>
       <c r="D191" s="3"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
@@ -12875,7 +12045,6 @@
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
-      <c r="C192" s="5"/>
       <c r="D192" s="3"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
@@ -12894,7 +12063,6 @@
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
-      <c r="C193" s="5"/>
       <c r="D193" s="3"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
@@ -12913,7 +12081,6 @@
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
-      <c r="C194" s="5"/>
       <c r="D194" s="3"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
@@ -12932,7 +12099,6 @@
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
-      <c r="C195" s="5"/>
       <c r="D195" s="3"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
@@ -12951,7 +12117,6 @@
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
-      <c r="C196" s="5"/>
       <c r="D196" s="3"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
@@ -12970,7 +12135,6 @@
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
-      <c r="C197" s="5"/>
       <c r="D197" s="3"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
@@ -12989,7 +12153,6 @@
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
-      <c r="C198" s="5"/>
       <c r="D198" s="3"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
@@ -13008,7 +12171,6 @@
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
-      <c r="C199" s="5"/>
       <c r="D199" s="3"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
@@ -13027,7 +12189,6 @@
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
-      <c r="C200" s="5"/>
       <c r="D200" s="3"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
@@ -13046,7 +12207,6 @@
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
-      <c r="C201" s="5"/>
       <c r="D201" s="3"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
@@ -13065,7 +12225,6 @@
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
-      <c r="C202" s="5"/>
       <c r="D202" s="3"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
@@ -13084,7 +12243,6 @@
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
-      <c r="C203" s="5"/>
       <c r="D203" s="3"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
@@ -13103,7 +12261,6 @@
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
-      <c r="C204" s="5"/>
       <c r="D204" s="3"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
@@ -13122,7 +12279,6 @@
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
-      <c r="C205" s="5"/>
       <c r="D205" s="3"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
@@ -13141,7 +12297,6 @@
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
-      <c r="C206" s="5"/>
       <c r="D206" s="3"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
@@ -13160,7 +12315,6 @@
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
-      <c r="C207" s="5"/>
       <c r="D207" s="3"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
@@ -13179,7 +12333,6 @@
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
-      <c r="C208" s="5"/>
       <c r="D208" s="3"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
@@ -13198,7 +12351,6 @@
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
-      <c r="C209" s="5"/>
       <c r="D209" s="3"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
@@ -13217,7 +12369,6 @@
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
-      <c r="C210" s="5"/>
       <c r="D210" s="3"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
@@ -13236,7 +12387,6 @@
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
-      <c r="C211" s="5"/>
       <c r="D211" s="3"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
@@ -13255,7 +12405,6 @@
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
-      <c r="C212" s="5"/>
       <c r="D212" s="3"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
@@ -13274,7 +12423,6 @@
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
-      <c r="C213" s="5"/>
       <c r="D213" s="3"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
@@ -13293,7 +12441,6 @@
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
-      <c r="C214" s="5"/>
       <c r="D214" s="3"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
@@ -13312,7 +12459,6 @@
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
-      <c r="C215" s="5"/>
       <c r="D215" s="3"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
@@ -13331,7 +12477,6 @@
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
-      <c r="C216" s="5"/>
       <c r="D216" s="3"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
@@ -13350,7 +12495,6 @@
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
-      <c r="C217" s="5"/>
       <c r="D217" s="3"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
@@ -13369,7 +12513,6 @@
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
-      <c r="C218" s="5"/>
       <c r="D218" s="3"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
@@ -13388,7 +12531,6 @@
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
-      <c r="C219" s="5"/>
       <c r="D219" s="3"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
@@ -13407,7 +12549,6 @@
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
-      <c r="C220" s="5"/>
       <c r="D220" s="3"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
@@ -13426,7 +12567,6 @@
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
-      <c r="C221" s="5"/>
       <c r="D221" s="3"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
@@ -13445,7 +12585,6 @@
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
-      <c r="C222" s="5"/>
       <c r="D222" s="3"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
@@ -13464,7 +12603,6 @@
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
-      <c r="C223" s="5"/>
       <c r="D223" s="3"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
@@ -13483,7 +12621,6 @@
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
-      <c r="C224" s="5"/>
       <c r="D224" s="3"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
@@ -13502,7 +12639,6 @@
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
-      <c r="C225" s="5"/>
       <c r="D225" s="3"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
@@ -13521,7 +12657,6 @@
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
-      <c r="C226" s="5"/>
       <c r="D226" s="3"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
@@ -13540,7 +12675,6 @@
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
-      <c r="C227" s="5"/>
       <c r="D227" s="3"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
@@ -13559,7 +12693,6 @@
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
-      <c r="C228" s="5"/>
       <c r="D228" s="3"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
@@ -13578,7 +12711,6 @@
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
-      <c r="C229" s="5"/>
       <c r="D229" s="3"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
@@ -13597,7 +12729,6 @@
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
-      <c r="C230" s="5"/>
       <c r="D230" s="3"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
@@ -13616,7 +12747,6 @@
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
-      <c r="C231" s="5"/>
       <c r="D231" s="3"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
@@ -13635,7 +12765,6 @@
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
-      <c r="C232" s="5"/>
       <c r="D232" s="3"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
@@ -13654,7 +12783,6 @@
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
-      <c r="C233" s="5"/>
       <c r="D233" s="3"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
@@ -13673,7 +12801,6 @@
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
-      <c r="C234" s="5"/>
       <c r="D234" s="3"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
@@ -13692,7 +12819,6 @@
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
-      <c r="C235" s="5"/>
       <c r="D235" s="3"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
@@ -13711,7 +12837,6 @@
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
-      <c r="C236" s="5"/>
       <c r="D236" s="3"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
@@ -13730,7 +12855,6 @@
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
-      <c r="C237" s="5"/>
       <c r="D237" s="3"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
@@ -13749,7 +12873,6 @@
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
-      <c r="C238" s="5"/>
       <c r="D238" s="3"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
@@ -13768,7 +12891,6 @@
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
-      <c r="C239" s="5"/>
       <c r="D239" s="3"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
@@ -13787,7 +12909,6 @@
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
-      <c r="C240" s="5"/>
       <c r="D240" s="3"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
@@ -13806,7 +12927,6 @@
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
-      <c r="C241" s="5"/>
       <c r="D241" s="3"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
@@ -13825,7 +12945,6 @@
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
-      <c r="C242" s="5"/>
       <c r="D242" s="3"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
@@ -13844,7 +12963,6 @@
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
-      <c r="C243" s="5"/>
       <c r="D243" s="3"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
@@ -13863,7 +12981,6 @@
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
-      <c r="C244" s="5"/>
       <c r="D244" s="3"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
@@ -13882,7 +12999,6 @@
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
-      <c r="C245" s="5"/>
       <c r="D245" s="3"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
@@ -13901,7 +13017,6 @@
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
-      <c r="C246" s="5"/>
       <c r="D246" s="3"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
@@ -13920,7 +13035,6 @@
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
-      <c r="C247" s="5"/>
       <c r="D247" s="3"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
@@ -13939,7 +13053,6 @@
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
-      <c r="C248" s="5"/>
       <c r="D248" s="3"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
@@ -13958,7 +13071,6 @@
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
-      <c r="C249" s="5"/>
       <c r="D249" s="3"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
@@ -13977,7 +13089,6 @@
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
-      <c r="C250" s="5"/>
       <c r="D250" s="3"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
@@ -13996,7 +13107,6 @@
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
-      <c r="C251" s="5"/>
       <c r="D251" s="3"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
@@ -14015,7 +13125,6 @@
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
-      <c r="C252" s="5"/>
       <c r="D252" s="3"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
@@ -14034,7 +13143,6 @@
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
-      <c r="C253" s="5"/>
       <c r="D253" s="3"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
@@ -14053,7 +13161,6 @@
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
-      <c r="C254" s="5"/>
       <c r="D254" s="3"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
@@ -14072,7 +13179,6 @@
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
-      <c r="C255" s="5"/>
       <c r="D255" s="3"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
@@ -14091,7 +13197,6 @@
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
-      <c r="C256" s="5"/>
       <c r="D256" s="3"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
@@ -14110,7 +13215,6 @@
     </row>
     <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
-      <c r="C257" s="5"/>
       <c r="D257" s="3"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
@@ -14129,7 +13233,6 @@
     </row>
     <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
-      <c r="C258" s="5"/>
       <c r="D258" s="3"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
@@ -14148,7 +13251,6 @@
     </row>
     <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
-      <c r="C259" s="5"/>
       <c r="D259" s="3"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
@@ -14167,7 +13269,6 @@
     </row>
     <row r="260" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
-      <c r="C260" s="5"/>
       <c r="D260" s="3"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
@@ -14186,7 +13287,6 @@
     </row>
     <row r="261" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
-      <c r="C261" s="5"/>
       <c r="D261" s="3"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
@@ -14205,7 +13305,6 @@
     </row>
     <row r="262" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
-      <c r="C262" s="5"/>
       <c r="D262" s="3"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
@@ -14224,7 +13323,6 @@
     </row>
     <row r="263" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
-      <c r="C263" s="5"/>
       <c r="D263" s="3"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
@@ -14243,7 +13341,6 @@
     </row>
     <row r="264" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
-      <c r="C264" s="5"/>
       <c r="D264" s="3"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
@@ -14262,7 +13359,6 @@
     </row>
     <row r="265" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
-      <c r="C265" s="5"/>
       <c r="D265" s="3"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
@@ -14281,7 +13377,6 @@
     </row>
     <row r="266" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
-      <c r="C266" s="5"/>
       <c r="D266" s="3"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
@@ -14300,7 +13395,6 @@
     </row>
     <row r="267" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
-      <c r="C267" s="5"/>
       <c r="D267" s="3"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
@@ -14319,7 +13413,6 @@
     </row>
     <row r="268" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
-      <c r="C268" s="5"/>
       <c r="D268" s="3"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
@@ -14338,7 +13431,6 @@
     </row>
     <row r="269" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
-      <c r="C269" s="5"/>
       <c r="D269" s="3"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
@@ -14357,7 +13449,6 @@
     </row>
     <row r="270" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
-      <c r="C270" s="5"/>
       <c r="D270" s="3"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
@@ -14376,7 +13467,6 @@
     </row>
     <row r="271" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
-      <c r="C271" s="5"/>
       <c r="D271" s="3"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
@@ -14395,7 +13485,6 @@
     </row>
     <row r="272" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
-      <c r="C272" s="5"/>
       <c r="D272" s="3"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
@@ -14414,7 +13503,6 @@
     </row>
     <row r="273" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
-      <c r="C273" s="5"/>
       <c r="D273" s="3"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
@@ -14433,7 +13521,6 @@
     </row>
     <row r="274" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
-      <c r="C274" s="5"/>
       <c r="D274" s="3"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
@@ -14452,7 +13539,6 @@
     </row>
     <row r="275" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
-      <c r="C275" s="5"/>
       <c r="D275" s="3"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
@@ -14472,7 +13558,7 @@
     <row r="276" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
-      <c r="C276" s="5"/>
+      <c r="C276" s="2"/>
       <c r="D276" s="3"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
@@ -15690,7 +14776,7 @@
       <c r="R336" s="1"/>
     </row>
     <row r="337" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A337" s="4"/>
+      <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
       <c r="D337" s="3"/>
@@ -15930,7 +15016,7 @@
       <c r="R348" s="1"/>
     </row>
     <row r="349" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C349" s="2"/>
+      <c r="A349" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/uploads/Besoin.xlsx
+++ b/public/uploads/Besoin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\arco\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E87B60-76DA-4B86-9F9A-6BC442EC21AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD2212E-D049-4A7D-B2BA-8C091942A4E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="4200" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -29,11 +29,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="401">
   <si>
     <t>B120408</t>
   </si>
   <si>
+    <t>SE507205</t>
+  </si>
+  <si>
+    <t>SE507255</t>
+  </si>
+  <si>
+    <t>1301280</t>
+  </si>
+  <si>
+    <t>5TECH</t>
+  </si>
+  <si>
+    <t>501215</t>
+  </si>
+  <si>
+    <t>501275</t>
+  </si>
+  <si>
+    <t>503200</t>
+  </si>
+  <si>
+    <t>503205</t>
+  </si>
+  <si>
+    <t>503215</t>
+  </si>
+  <si>
+    <t>503255</t>
+  </si>
+  <si>
+    <t>503265</t>
+  </si>
+  <si>
+    <t>503270</t>
+  </si>
+  <si>
+    <t>503505</t>
+  </si>
+  <si>
+    <t>507205</t>
+  </si>
+  <si>
+    <t>507210</t>
+  </si>
+  <si>
+    <t>507215</t>
+  </si>
+  <si>
+    <t>507255</t>
+  </si>
+  <si>
+    <t>507505</t>
+  </si>
+  <si>
+    <t>876010</t>
+  </si>
+  <si>
+    <t>876020</t>
+  </si>
+  <si>
+    <t>876040</t>
+  </si>
+  <si>
+    <t>876220</t>
+  </si>
+  <si>
+    <t>876240</t>
+  </si>
+  <si>
+    <t>876410</t>
+  </si>
+  <si>
+    <t>876420</t>
+  </si>
+  <si>
+    <t>876440</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -103,117 +181,1069 @@
     <t>s1</t>
   </si>
   <si>
-    <t>1007710</t>
+    <t>AS451</t>
+  </si>
+  <si>
+    <t>AS452</t>
+  </si>
+  <si>
+    <t>AS453</t>
+  </si>
+  <si>
+    <t>AS454</t>
+  </si>
+  <si>
+    <t>AS455</t>
+  </si>
+  <si>
+    <t>AS456</t>
+  </si>
+  <si>
+    <t>AS462</t>
+  </si>
+  <si>
+    <t>AS465</t>
+  </si>
+  <si>
+    <t>B120508</t>
+  </si>
+  <si>
+    <t>B120708</t>
+  </si>
+  <si>
+    <t>B120908</t>
+  </si>
+  <si>
+    <t>B121108</t>
+  </si>
+  <si>
+    <t>B121308</t>
+  </si>
+  <si>
+    <t>B121408</t>
+  </si>
+  <si>
+    <t>C30107</t>
+  </si>
+  <si>
+    <t>C30109</t>
+  </si>
+  <si>
+    <t>C30114</t>
+  </si>
+  <si>
+    <t>C30116</t>
+  </si>
+  <si>
+    <t>DE830C</t>
+  </si>
+  <si>
+    <t>KCM14</t>
+  </si>
+  <si>
+    <t>KCM15</t>
+  </si>
+  <si>
+    <t>KCM16</t>
+  </si>
+  <si>
+    <t>KCM17</t>
+  </si>
+  <si>
+    <t>KCM18</t>
+  </si>
+  <si>
+    <t>KCM45</t>
+  </si>
+  <si>
+    <t>KCM48</t>
+  </si>
+  <si>
+    <t>MF210</t>
+  </si>
+  <si>
+    <t>NV870C</t>
+  </si>
+  <si>
+    <t>P2236</t>
+  </si>
+  <si>
+    <t>P2237</t>
+  </si>
+  <si>
+    <t>SA267</t>
+  </si>
+  <si>
+    <t>SE501215</t>
+  </si>
+  <si>
+    <t>SE501615</t>
+  </si>
+  <si>
+    <t>SE503531</t>
+  </si>
+  <si>
+    <t>SE503555R</t>
+  </si>
+  <si>
+    <t>SE503556R</t>
+  </si>
+  <si>
+    <t>SE507531</t>
+  </si>
+  <si>
+    <t>SE507555R</t>
+  </si>
+  <si>
+    <t>SE507556R</t>
+  </si>
+  <si>
+    <t>SE507635</t>
+  </si>
+  <si>
+    <t>SL1111</t>
+  </si>
+  <si>
+    <t>SL1113</t>
+  </si>
+  <si>
+    <t>SL1116</t>
+  </si>
+  <si>
+    <t>SL1117</t>
+  </si>
+  <si>
+    <t>SL1133</t>
+  </si>
+  <si>
+    <t>0113108B</t>
+  </si>
+  <si>
+    <t>02267U</t>
+  </si>
+  <si>
+    <t>02400MAC</t>
+  </si>
+  <si>
+    <t>02400MAC02</t>
+  </si>
+  <si>
+    <t>02402MAC</t>
+  </si>
+  <si>
+    <t>02402MAC02</t>
+  </si>
+  <si>
+    <t>1TECH</t>
+  </si>
+  <si>
+    <t>1181960CR</t>
   </si>
   <si>
     <t>1301300M</t>
   </si>
   <si>
-    <t>1301300E</t>
-  </si>
-  <si>
-    <t>1000702E</t>
-  </si>
-  <si>
-    <t>1030004</t>
-  </si>
-  <si>
-    <t>1007708</t>
-  </si>
-  <si>
-    <t>1030357</t>
-  </si>
-  <si>
-    <t>1030185</t>
-  </si>
-  <si>
-    <t>1030358</t>
-  </si>
-  <si>
-    <t>1007596</t>
-  </si>
-  <si>
-    <t>1031139</t>
-  </si>
-  <si>
-    <t>1007622</t>
-  </si>
-  <si>
-    <t>1033129</t>
-  </si>
-  <si>
-    <t>1007620</t>
-  </si>
-  <si>
-    <t>1033131</t>
-  </si>
-  <si>
-    <t>1007628</t>
-  </si>
-  <si>
-    <t>1033133</t>
-  </si>
-  <si>
-    <t>1009950E</t>
-  </si>
-  <si>
-    <t>1009910E</t>
-  </si>
-  <si>
-    <t>1009940G</t>
-  </si>
-  <si>
-    <t>1300178</t>
-  </si>
-  <si>
-    <t>1009941M</t>
-  </si>
-  <si>
-    <t>1009920M</t>
-  </si>
-  <si>
-    <t>1300069MP</t>
-  </si>
-  <si>
-    <t>1309548M</t>
-  </si>
-  <si>
-    <t>1300179E</t>
-  </si>
-  <si>
-    <t>1008900E</t>
-  </si>
-  <si>
-    <t>1309548E</t>
-  </si>
-  <si>
-    <t>1000701E</t>
-  </si>
-  <si>
-    <t>1030007</t>
-  </si>
-  <si>
-    <t>1007624</t>
-  </si>
-  <si>
-    <t>1030166</t>
-  </si>
-  <si>
-    <t>1030187</t>
-  </si>
-  <si>
-    <t>1008880E</t>
+    <t>2TECH</t>
+  </si>
+  <si>
+    <t>212005U</t>
+  </si>
+  <si>
+    <t>903021A</t>
+  </si>
+  <si>
+    <t>903022A</t>
+  </si>
+  <si>
+    <t>903023A</t>
+  </si>
+  <si>
+    <t>903031A</t>
+  </si>
+  <si>
+    <t>903032A</t>
+  </si>
+  <si>
+    <t>903033A</t>
+  </si>
+  <si>
+    <t>903041A</t>
+  </si>
+  <si>
+    <t>903042A</t>
+  </si>
+  <si>
+    <t>903043A</t>
+  </si>
+  <si>
+    <t>903051A</t>
+  </si>
+  <si>
+    <t>903052A</t>
+  </si>
+  <si>
+    <t>903053A</t>
+  </si>
+  <si>
+    <t>0046001</t>
+  </si>
+  <si>
+    <t>00462</t>
+  </si>
+  <si>
+    <t>00472</t>
+  </si>
+  <si>
+    <t>0112408</t>
+  </si>
+  <si>
+    <t>0112608</t>
+  </si>
+  <si>
+    <t>0112708</t>
+  </si>
+  <si>
+    <t>0112808</t>
+  </si>
+  <si>
+    <t>0112908</t>
+  </si>
+  <si>
+    <t>0113708</t>
+  </si>
+  <si>
+    <t>0113808</t>
+  </si>
+  <si>
+    <t>0120308</t>
+  </si>
+  <si>
+    <t>0120408</t>
+  </si>
+  <si>
+    <t>0120508</t>
+  </si>
+  <si>
+    <t>0120708</t>
+  </si>
+  <si>
+    <t>0120908</t>
+  </si>
+  <si>
+    <t>0121008</t>
+  </si>
+  <si>
+    <t>0121108</t>
+  </si>
+  <si>
+    <t>0121308</t>
+  </si>
+  <si>
+    <t>0121408</t>
+  </si>
+  <si>
+    <t>0121508</t>
+  </si>
+  <si>
+    <t>02229</t>
+  </si>
+  <si>
+    <t>02236</t>
+  </si>
+  <si>
+    <t>02267</t>
+  </si>
+  <si>
+    <t>0233510</t>
+  </si>
+  <si>
+    <t>1007711</t>
+  </si>
+  <si>
+    <t>1180072</t>
+  </si>
+  <si>
+    <t>1180450</t>
+  </si>
+  <si>
+    <t>1180480</t>
+  </si>
+  <si>
+    <t>1180490</t>
+  </si>
+  <si>
+    <t>1180500</t>
+  </si>
+  <si>
+    <t>1181051</t>
+  </si>
+  <si>
+    <t>1181150</t>
+  </si>
+  <si>
+    <t>1182030</t>
+  </si>
+  <si>
+    <t>1182100</t>
+  </si>
+  <si>
+    <t>1182170</t>
+  </si>
+  <si>
+    <t>1189552</t>
+  </si>
+  <si>
+    <t>1189561</t>
+  </si>
+  <si>
+    <t>1300186</t>
+  </si>
+  <si>
+    <t>1300187</t>
+  </si>
+  <si>
+    <t>1330320</t>
+  </si>
+  <si>
+    <t>1420280</t>
+  </si>
+  <si>
+    <t>20101501</t>
+  </si>
+  <si>
+    <t>208020</t>
+  </si>
+  <si>
+    <t>36115</t>
+  </si>
+  <si>
+    <t>36320</t>
+  </si>
+  <si>
+    <t>36420</t>
+  </si>
+  <si>
+    <t>37515</t>
+  </si>
+  <si>
+    <t>37525</t>
+  </si>
+  <si>
+    <t>37720</t>
+  </si>
+  <si>
+    <t>AS461</t>
+  </si>
+  <si>
+    <t>AS463</t>
+  </si>
+  <si>
+    <t>AS464</t>
+  </si>
+  <si>
+    <t>AS466</t>
+  </si>
+  <si>
+    <t>B120308</t>
+  </si>
+  <si>
+    <t>B121508</t>
+  </si>
+  <si>
+    <t>C30108</t>
+  </si>
+  <si>
+    <t>C30113</t>
+  </si>
+  <si>
+    <t>C30115</t>
+  </si>
+  <si>
+    <t>KCM13</t>
+  </si>
+  <si>
+    <t>KCM15SP</t>
+  </si>
+  <si>
+    <t>KCM19</t>
+  </si>
+  <si>
+    <t>KCM45SP</t>
+  </si>
+  <si>
+    <t>KCM46</t>
+  </si>
+  <si>
+    <t>KCM47</t>
+  </si>
+  <si>
+    <t>MF200AD</t>
+  </si>
+  <si>
+    <t>SEAS452</t>
+  </si>
+  <si>
+    <t>SEAS453</t>
+  </si>
+  <si>
+    <t>SEAS455F</t>
+  </si>
+  <si>
+    <t>SEAS456F</t>
+  </si>
+  <si>
+    <t>SEAS464F</t>
+  </si>
+  <si>
+    <t>SEAS465F</t>
+  </si>
+  <si>
+    <t>SEA121108</t>
+  </si>
+  <si>
+    <t>SEA121308</t>
+  </si>
+  <si>
+    <t>SEA121408</t>
+  </si>
+  <si>
+    <t>SEA121508</t>
+  </si>
+  <si>
+    <t>SEC30114</t>
+  </si>
+  <si>
+    <t>SEC30116</t>
+  </si>
+  <si>
+    <t>SEC4392</t>
+  </si>
+  <si>
+    <t>SENV870CF</t>
+  </si>
+  <si>
+    <t>SE0112708</t>
+  </si>
+  <si>
+    <t>SE0112908</t>
+  </si>
+  <si>
+    <t>SE0113108</t>
+  </si>
+  <si>
+    <t>SE0120508SF</t>
+  </si>
+  <si>
+    <t>SE0120708SF</t>
+  </si>
+  <si>
+    <t>SE0120908SF</t>
+  </si>
+  <si>
+    <t>SE01211NBF</t>
+  </si>
+  <si>
+    <t>SE01213NBF</t>
+  </si>
+  <si>
+    <t>SE01214NBF</t>
+  </si>
+  <si>
+    <t>SE01215NBF</t>
+  </si>
+  <si>
+    <t>SE02270</t>
+  </si>
+  <si>
+    <t>SE40100F</t>
+  </si>
+  <si>
+    <t>SE40105</t>
+  </si>
+  <si>
+    <t>SE5TECH</t>
+  </si>
+  <si>
+    <t>SE501225</t>
+  </si>
+  <si>
+    <t>SE501275</t>
+  </si>
+  <si>
+    <t>SE501285</t>
+  </si>
+  <si>
+    <t>SE501295</t>
+  </si>
+  <si>
+    <t>SE503255</t>
+  </si>
+  <si>
+    <t>SE503505</t>
+  </si>
+  <si>
+    <t>SE503506</t>
+  </si>
+  <si>
+    <t>SE503530</t>
+  </si>
+  <si>
+    <t>SE503555</t>
+  </si>
+  <si>
+    <t>SE503556</t>
+  </si>
+  <si>
+    <t>SE503565</t>
+  </si>
+  <si>
+    <t>SE503605</t>
+  </si>
+  <si>
+    <t>SE503655</t>
+  </si>
+  <si>
+    <t>SE507255N</t>
+  </si>
+  <si>
+    <t>SE507265</t>
+  </si>
+  <si>
+    <t>SE507330</t>
+  </si>
+  <si>
+    <t>SE507505</t>
+  </si>
+  <si>
+    <t>SE507506</t>
+  </si>
+  <si>
+    <t>SE507530</t>
+  </si>
+  <si>
+    <t>SE507555</t>
+  </si>
+  <si>
+    <t>SE507556</t>
+  </si>
+  <si>
+    <t>SE507565</t>
+  </si>
+  <si>
+    <t>SE507605</t>
+  </si>
+  <si>
+    <t>SE507655</t>
+  </si>
+  <si>
+    <t>SL1112</t>
+  </si>
+  <si>
+    <t>SL1114</t>
+  </si>
+  <si>
+    <t>SL1115</t>
+  </si>
+  <si>
+    <t>SL1132</t>
+  </si>
+  <si>
+    <t>SL1134</t>
+  </si>
+  <si>
+    <t>S2273A</t>
+  </si>
+  <si>
+    <t>00460</t>
+  </si>
+  <si>
+    <t>00463</t>
+  </si>
+  <si>
+    <t>0047201</t>
+  </si>
+  <si>
+    <t>00473</t>
+  </si>
+  <si>
+    <t>00474</t>
+  </si>
+  <si>
+    <t>0112308</t>
+  </si>
+  <si>
+    <t>0112508</t>
+  </si>
+  <si>
+    <t>01127NB</t>
+  </si>
+  <si>
+    <t>01129NB</t>
+  </si>
+  <si>
+    <t>0113008</t>
+  </si>
+  <si>
+    <t>01131NB</t>
+  </si>
+  <si>
+    <t>0113108</t>
+  </si>
+  <si>
+    <t>0113208</t>
+  </si>
+  <si>
+    <t>0113508</t>
+  </si>
+  <si>
+    <t>0113908</t>
+  </si>
+  <si>
+    <t>0114008</t>
+  </si>
+  <si>
+    <t>0114108</t>
+  </si>
+  <si>
+    <t>0114208</t>
+  </si>
+  <si>
+    <t>0117208</t>
+  </si>
+  <si>
+    <t>0117408</t>
+  </si>
+  <si>
+    <t>0117608</t>
+  </si>
+  <si>
+    <t>0120008</t>
+  </si>
+  <si>
+    <t>0120108</t>
+  </si>
+  <si>
+    <t>01205C</t>
+  </si>
+  <si>
+    <t>01205NB</t>
+  </si>
+  <si>
+    <t>01206NB</t>
+  </si>
+  <si>
+    <t>0120608</t>
+  </si>
+  <si>
+    <t>01207C</t>
+  </si>
+  <si>
+    <t>01207NB</t>
+  </si>
+  <si>
+    <t>0120808</t>
+  </si>
+  <si>
+    <t>01209C</t>
+  </si>
+  <si>
+    <t>01209NB</t>
+  </si>
+  <si>
+    <t>01211NB</t>
+  </si>
+  <si>
+    <t>01213NB</t>
+  </si>
+  <si>
+    <t>01214NB</t>
+  </si>
+  <si>
+    <t>01215NB</t>
+  </si>
+  <si>
+    <t>02237</t>
+  </si>
+  <si>
+    <t>02270</t>
+  </si>
+  <si>
+    <t>02275</t>
+  </si>
+  <si>
+    <t>02285</t>
+  </si>
+  <si>
+    <t>02400MAC01</t>
+  </si>
+  <si>
+    <t>02402MAC03</t>
+  </si>
+  <si>
+    <t>02408MAC</t>
+  </si>
+  <si>
+    <t>03004</t>
+  </si>
+  <si>
+    <t>03104</t>
+  </si>
+  <si>
+    <t>03106</t>
+  </si>
+  <si>
+    <t>03505</t>
+  </si>
+  <si>
+    <t>03702</t>
+  </si>
+  <si>
+    <t>03802</t>
+  </si>
+  <si>
+    <t>03803</t>
+  </si>
+  <si>
+    <t>03901</t>
+  </si>
+  <si>
+    <t>04001</t>
+  </si>
+  <si>
+    <t>1007621</t>
+  </si>
+  <si>
+    <t>1007629</t>
+  </si>
+  <si>
+    <t>1007709</t>
+  </si>
+  <si>
+    <t>1007771M</t>
+  </si>
+  <si>
+    <t>1009940</t>
+  </si>
+  <si>
+    <t>1009940M</t>
+  </si>
+  <si>
+    <t>1033132</t>
+  </si>
+  <si>
+    <t>1033134</t>
+  </si>
+  <si>
+    <t>1180323</t>
+  </si>
+  <si>
+    <t>1180481</t>
+  </si>
+  <si>
+    <t>1180923</t>
+  </si>
+  <si>
+    <t>1181031CR</t>
+  </si>
+  <si>
+    <t>1181375</t>
+  </si>
+  <si>
+    <t>1181530</t>
+  </si>
+  <si>
+    <t>1181930</t>
+  </si>
+  <si>
+    <t>1181952CR</t>
+  </si>
+  <si>
+    <t>1181953CR</t>
+  </si>
+  <si>
+    <t>1182171</t>
+  </si>
+  <si>
+    <t>1182190CR</t>
+  </si>
+  <si>
+    <t>1182191CR</t>
+  </si>
+  <si>
+    <t>1182241CR</t>
+  </si>
+  <si>
+    <t>1182271C</t>
+  </si>
+  <si>
+    <t>1300069</t>
+  </si>
+  <si>
+    <t>1300069B</t>
+  </si>
+  <si>
+    <t>1300069CR</t>
+  </si>
+  <si>
+    <t>1300069P</t>
+  </si>
+  <si>
+    <t>1300179CR</t>
+  </si>
+  <si>
+    <t>1300188</t>
+  </si>
+  <si>
+    <t>1300466CR</t>
+  </si>
+  <si>
+    <t>1300466NI</t>
+  </si>
+  <si>
+    <t>1301300CR</t>
+  </si>
+  <si>
+    <t>1301300NI</t>
+  </si>
+  <si>
+    <t>1309543</t>
+  </si>
+  <si>
+    <t>1309548CR</t>
+  </si>
+  <si>
+    <t>1420151</t>
+  </si>
+  <si>
+    <t>1420154</t>
+  </si>
+  <si>
+    <t>1740743</t>
+  </si>
+  <si>
+    <t>1741171C</t>
+  </si>
+  <si>
+    <t>191206</t>
+  </si>
+  <si>
+    <t>191207</t>
+  </si>
+  <si>
+    <t>191208</t>
+  </si>
+  <si>
+    <t>191209</t>
+  </si>
+  <si>
+    <t>201015</t>
+  </si>
+  <si>
+    <t>2019000</t>
+  </si>
+  <si>
+    <t>2019060</t>
+  </si>
+  <si>
+    <t>207110</t>
+  </si>
+  <si>
+    <t>207150</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>208025</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>36310</t>
+  </si>
+  <si>
+    <t>36330</t>
+  </si>
+  <si>
+    <t>36410</t>
+  </si>
+  <si>
+    <t>36430</t>
+  </si>
+  <si>
+    <t>37510</t>
+  </si>
+  <si>
+    <t>37710</t>
+  </si>
+  <si>
+    <t>37715</t>
+  </si>
+  <si>
+    <t>40100</t>
+  </si>
+  <si>
+    <t>40105</t>
+  </si>
+  <si>
+    <t>501225</t>
+  </si>
+  <si>
+    <t>501285</t>
+  </si>
+  <si>
+    <t>501295</t>
+  </si>
+  <si>
+    <t>503210</t>
+  </si>
+  <si>
+    <t>503240</t>
+  </si>
+  <si>
+    <t>503565</t>
+  </si>
+  <si>
+    <t>507200</t>
+  </si>
+  <si>
+    <t>507240</t>
+  </si>
+  <si>
+    <t>507260</t>
+  </si>
+  <si>
+    <t>507265</t>
+  </si>
+  <si>
+    <t>507270</t>
+  </si>
+  <si>
+    <t>507305</t>
+  </si>
+  <si>
+    <t>507340</t>
+  </si>
+  <si>
+    <t>507365</t>
+  </si>
+  <si>
+    <t>507665</t>
+  </si>
+  <si>
+    <t>6300230</t>
+  </si>
+  <si>
+    <t>6300230N</t>
+  </si>
+  <si>
+    <t>6300230V</t>
+  </si>
+  <si>
+    <t>876060</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>876460</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>1 800</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>Rótulos de fila</t>
+  </si>
+  <si>
+    <t>3 000</t>
+  </si>
+  <si>
+    <t>1 080</t>
+  </si>
+  <si>
+    <t>5 400</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>1 560</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>1 260</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>1 640</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>1 642</t>
+  </si>
+  <si>
+    <t>2 842</t>
+  </si>
+  <si>
+    <t>1 385</t>
+  </si>
+  <si>
+    <t>686</t>
+  </si>
+  <si>
+    <t>1 112</t>
+  </si>
+  <si>
+    <t>493</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>616</t>
+  </si>
+  <si>
+    <t>242</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +1419,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="35">
@@ -584,7 +1619,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -699,17 +1734,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="124">
+  <cellStyleXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -834,8 +1860,14 @@
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -846,11 +1878,21 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="124"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="124"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="124" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="124" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="124" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="129" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="124" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="129" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="124">
+  <cellStyles count="130">
     <cellStyle name="20 % - Accent1" xfId="100" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Accent2" xfId="103" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Accent3" xfId="106" builtinId="38" customBuiltin="1"/>
@@ -880,6 +1922,7 @@
     <cellStyle name="Cellule liée" xfId="93" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="90" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Euro" xfId="41" xr:uid="{6F032425-AA29-4781-BF41-28570BC2A9AF}"/>
+    <cellStyle name="Euro 2" xfId="127" xr:uid="{1E92AD64-30EC-48A0-BB8A-3F110C1966CF}"/>
     <cellStyle name="Insatisfaisant" xfId="89" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Millares 2" xfId="7" xr:uid="{D850CEC9-76FC-4CA8-8BD8-612A50E5D260}"/>
     <cellStyle name="Milliers 2" xfId="4" xr:uid="{9186E3AD-B555-4766-A2EC-2E6603AFE573}"/>
@@ -893,6 +1936,7 @@
     <cellStyle name="Milliers 6" xfId="37" xr:uid="{0AF3428C-9950-4CDD-91F8-98B5D86AF820}"/>
     <cellStyle name="Milliers 6 2" xfId="68" xr:uid="{A5ED4310-6F50-4D28-A442-BA9B8FEFE3F3}"/>
     <cellStyle name="Milliers 7" xfId="82" xr:uid="{47F2368E-C534-4DA7-ACE6-AB90262A9A1F}"/>
+    <cellStyle name="Milliers 8" xfId="129" xr:uid="{7AD866C1-9113-41D2-B32F-F931E225A06C}"/>
     <cellStyle name="Neutre 2" xfId="117" xr:uid="{FD30209F-F33A-4114-B2FF-1DFEB9EF8F65}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="25" xr:uid="{4DA92978-F365-4BE2-A247-2D57F0C10865}"/>
@@ -923,6 +1967,7 @@
     <cellStyle name="Normal 2 12" xfId="45" xr:uid="{5BF41079-4118-447E-9E2C-5A3A13DBD1DF}"/>
     <cellStyle name="Normal 2 13" xfId="53" xr:uid="{56C0AB16-01B6-4E71-AC7F-476101E8BCFC}"/>
     <cellStyle name="Normal 2 13 2" xfId="79" xr:uid="{4F0DBEFF-EA15-418F-9391-DE86FEDAD448}"/>
+    <cellStyle name="Normal 2 13 3" xfId="128" xr:uid="{B55166D7-2A08-4821-9F9E-DE0AAC3AF36E}"/>
     <cellStyle name="Normal 2 2" xfId="5" xr:uid="{8E3D565A-9D3F-45F4-9C7E-549518F34D05}"/>
     <cellStyle name="Normal 2 2 10" xfId="46" xr:uid="{73A14F2F-0849-4B0D-AB40-D79CC07172E4}"/>
     <cellStyle name="Normal 2 2 11" xfId="55" xr:uid="{B61162F9-953F-4405-B8C4-5BD25A5833DC}"/>
@@ -949,6 +1994,7 @@
     <cellStyle name="Normal 21" xfId="52" xr:uid="{49C40330-636C-45A4-A8C6-1935A2AE1769}"/>
     <cellStyle name="Normal 21 2" xfId="78" xr:uid="{518656AC-976A-458C-B19E-5BEF3A42E3D9}"/>
     <cellStyle name="Normal 22" xfId="1" xr:uid="{9BB63E36-ECA0-44E2-B756-67809ED3DEF6}"/>
+    <cellStyle name="Normal 23" xfId="124" xr:uid="{BF5C3DBB-EB42-4410-9AD0-E409CC70925D}"/>
     <cellStyle name="Normal 3" xfId="6" xr:uid="{A6878867-081F-48A1-AD40-A379EE6F00C3}"/>
     <cellStyle name="Normal 3 2" xfId="8" xr:uid="{85DF95D2-F989-4CA9-A30D-794C47AAD4D6}"/>
     <cellStyle name="Normal 3 3" xfId="10" xr:uid="{7B9549DC-6E46-47AB-A5A5-E1F78FA59396}"/>
@@ -957,7 +2003,9 @@
     <cellStyle name="Normal 4" xfId="14" xr:uid="{DCBB47C5-4E91-4884-8CDD-B8539F5ED20D}"/>
     <cellStyle name="Normal 4 2" xfId="59" xr:uid="{B8684E3B-E617-49A9-8DAA-CEE9EE42FF9F}"/>
     <cellStyle name="Normal 5" xfId="19" xr:uid="{6F4BD8E7-4218-4C6C-A40F-9E3CDF806C94}"/>
+    <cellStyle name="Normal 5 2" xfId="126" xr:uid="{FAA83D9E-E56D-4A7A-AE90-5DCF3B96BADE}"/>
     <cellStyle name="Normal 6" xfId="18" xr:uid="{E9FF1DA0-7F2C-4088-8720-3F986825A41F}"/>
+    <cellStyle name="Normal 6 2" xfId="125" xr:uid="{49B5ACD5-52DD-477B-A599-2B0A52994A33}"/>
     <cellStyle name="Normal 7" xfId="20" xr:uid="{FEBA1121-8EFF-40B0-941A-9D50CB0DD322}"/>
     <cellStyle name="Normal 7 2" xfId="61" xr:uid="{127A7CFF-26FD-4C4F-B033-4D70281021D4}"/>
     <cellStyle name="Normal 8" xfId="21" xr:uid="{9D51AB70-1A13-46FD-9838-0FA0551F464E}"/>
@@ -1263,73 +2311,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="O1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="P1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="Q1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="R1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="S1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="T1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="U1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="V1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="W1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -8164,90 +9212,82 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="7"/>
+    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A1" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1" s="14"/>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="O1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="P1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="Q1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="R1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="S1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="T1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="U1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="V1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="W1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="6">
-        <v>433</v>
-      </c>
-      <c r="C2" s="6">
-        <v>433</v>
-      </c>
-      <c r="D2" s="3">
-        <v>433</v>
-      </c>
+      <c r="A2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="14">
+        <v>204</v>
+      </c>
+      <c r="D2" s="7"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -8264,12 +9304,14 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="A3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="14">
         <v>0</v>
       </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -8286,18 +9328,14 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="6">
-        <v>7211</v>
-      </c>
-      <c r="C4" s="6">
-        <v>7211</v>
-      </c>
-      <c r="D4" s="3">
-        <v>7211</v>
-      </c>
+      <c r="A4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="14">
+        <v>735</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -8314,14 +9352,14 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
+      <c r="A5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="14">
+        <v>1680</v>
+      </c>
+      <c r="D5" s="13"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -8338,14 +9376,14 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
+      <c r="A6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="14">
+        <v>1680</v>
+      </c>
+      <c r="D6" s="13"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -8362,14 +9400,14 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
+      <c r="A7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="14">
+        <v>1680</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -8386,12 +9424,14 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="A8" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="14">
         <v>0</v>
       </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -8408,18 +9448,14 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9">
-        <v>687</v>
-      </c>
-      <c r="C9">
-        <v>687</v>
-      </c>
-      <c r="D9" s="3">
-        <v>687</v>
-      </c>
+      <c r="A9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="14">
+        <v>63</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -8436,18 +9472,14 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10">
-        <v>3106</v>
-      </c>
-      <c r="C10">
-        <v>3106</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3106</v>
-      </c>
+      <c r="A10" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -8464,18 +9496,14 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1474</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1474</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1474</v>
-      </c>
+      <c r="A11" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -8492,18 +9520,14 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12">
-        <v>1221</v>
-      </c>
-      <c r="C12">
-        <v>1221</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1221</v>
-      </c>
+      <c r="A12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="14">
+        <v>168</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -8520,18 +9544,14 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13">
-        <v>1152</v>
-      </c>
-      <c r="C13">
-        <v>1152</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1152</v>
-      </c>
+      <c r="A13" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -8548,12 +9568,14 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
+      <c r="A14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="14">
+        <v>60</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -8570,12 +9592,14 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="A15" s="9" t="s">
         <v>0</v>
       </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="14">
+        <v>120</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -8592,12 +9616,14 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
+      <c r="A16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="14">
+        <v>800</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -8614,18 +9640,14 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17">
-        <v>24150</v>
-      </c>
-      <c r="C17">
-        <v>24150</v>
-      </c>
-      <c r="D17" s="3">
-        <v>24150</v>
-      </c>
+      <c r="A17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="14">
+        <v>600</v>
+      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -8642,18 +9664,14 @@
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18">
-        <v>300</v>
-      </c>
-      <c r="C18">
-        <v>300</v>
-      </c>
-      <c r="D18" s="3">
-        <v>300</v>
-      </c>
+      <c r="A18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="14">
+        <v>600</v>
+      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -8670,18 +9688,14 @@
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19">
-        <v>3050</v>
-      </c>
-      <c r="C19">
-        <v>3050</v>
-      </c>
-      <c r="D19" s="3">
-        <v>3050</v>
-      </c>
+      <c r="A19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="14">
+        <v>108</v>
+      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -8698,12 +9712,14 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
+      <c r="A20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="14">
+        <v>80</v>
+      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -8720,14 +9736,14 @@
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
+      <c r="A21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="14">
+        <v>80</v>
+      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -8744,18 +9760,14 @@
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>581</v>
-      </c>
-      <c r="C22">
-        <v>581</v>
-      </c>
-      <c r="D22" s="3">
-        <v>581</v>
-      </c>
+      <c r="A22" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="14">
+        <v>16</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -8772,14 +9784,14 @@
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
+      <c r="A23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="14">
+        <v>128</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -8796,14 +9808,14 @@
       <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="3">
+      <c r="A24" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="14">
         <v>0</v>
       </c>
+      <c r="D24" s="7"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -8820,14 +9832,14 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
+      <c r="A25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="14">
+        <v>180</v>
+      </c>
+      <c r="D25" s="7"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -8844,12 +9856,14 @@
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
+      <c r="A26" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="14">
+        <v>50</v>
+      </c>
+      <c r="D26" s="7"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -8866,18 +9880,14 @@
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27">
-        <v>823</v>
-      </c>
-      <c r="C27">
-        <v>823</v>
-      </c>
-      <c r="D27" s="3">
-        <v>823</v>
-      </c>
+      <c r="A27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="14">
+        <v>675</v>
+      </c>
+      <c r="D27" s="7"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -8894,12 +9904,14 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
+      <c r="A28" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="14">
+        <v>1200</v>
+      </c>
+      <c r="D28" s="13"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -8916,14 +9928,14 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
+      <c r="A29" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="14">
+        <v>132</v>
+      </c>
+      <c r="D29" s="7"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -8940,14 +9952,14 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="3">
+      <c r="A30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="14">
         <v>0</v>
       </c>
+      <c r="D30" s="13"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -8964,18 +9976,14 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31">
-        <v>240</v>
-      </c>
-      <c r="C31">
-        <v>240</v>
-      </c>
-      <c r="D31" s="3">
-        <v>240</v>
-      </c>
+      <c r="A31" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="14">
+        <v>180</v>
+      </c>
+      <c r="D31" s="7"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -8992,18 +10000,14 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32">
-        <v>600</v>
-      </c>
-      <c r="C32">
-        <v>600</v>
-      </c>
-      <c r="D32" s="3">
-        <v>600</v>
-      </c>
+      <c r="A32" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="14">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -9020,14 +10024,14 @@
       <c r="R32" s="1"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
+      <c r="A33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="14">
+        <v>2340</v>
+      </c>
+      <c r="D33" s="7"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -9044,14 +10048,14 @@
       <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="3">
+      <c r="A34" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="14">
         <v>0</v>
       </c>
+      <c r="D34" s="7"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -9068,12 +10072,14 @@
       <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
+      <c r="A35" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="14">
+        <v>10350</v>
+      </c>
+      <c r="D35" s="13"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -9090,8 +10096,14 @@
       <c r="R35" s="1"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="14">
+        <v>6270</v>
+      </c>
+      <c r="D36" s="13"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -9108,8 +10120,14 @@
       <c r="R36" s="1"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="14">
+        <v>150</v>
+      </c>
+      <c r="D37" s="7"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -9126,8 +10144,14 @@
       <c r="R37" s="1"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="14">
+        <v>300</v>
+      </c>
+      <c r="D38" s="7"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -9144,10 +10168,14 @@
       <c r="R38" s="1"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="14">
+        <v>480</v>
+      </c>
+      <c r="D39" s="7"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -9164,10 +10192,14 @@
       <c r="R39" s="1"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="14">
+        <v>540</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -9184,8 +10216,14 @@
       <c r="R40" s="1"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="14">
+        <v>1830</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -9202,8 +10240,14 @@
       <c r="R41" s="1"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="14">
+        <v>58</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -9220,8 +10264,14 @@
       <c r="R42" s="1"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="14">
+        <v>120</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -9238,8 +10288,14 @@
       <c r="R43" s="1"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="14">
+        <v>300</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -9256,8 +10312,14 @@
       <c r="R44" s="1"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="14">
+        <v>10100</v>
+      </c>
+      <c r="D45" s="13"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -9274,8 +10336,14 @@
       <c r="R45" s="1"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="D46" s="3"/>
+      <c r="A46" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="14">
+        <v>3416</v>
+      </c>
+      <c r="D46" s="13"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -9292,8 +10360,14 @@
       <c r="R46" s="1"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="14">
+        <v>700</v>
+      </c>
+      <c r="D47" s="7"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -9310,8 +10384,14 @@
       <c r="R47" s="1"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="D48" s="3"/>
+      <c r="A48" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="14">
+        <v>200</v>
+      </c>
+      <c r="D48" s="7"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -9328,8 +10408,14 @@
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="14">
+        <v>3000</v>
+      </c>
+      <c r="D49" s="13"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -9346,8 +10432,14 @@
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="D50" s="3"/>
+      <c r="A50" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="14">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -9364,8 +10456,14 @@
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="D51" s="3"/>
+      <c r="A51" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="14">
+        <v>0</v>
+      </c>
+      <c r="D51" s="7"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -9382,10 +10480,14 @@
       <c r="R51" s="1"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="3"/>
+      <c r="A52" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="14">
+        <v>0</v>
+      </c>
+      <c r="D52" s="7"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -9402,8 +10504,14 @@
       <c r="R52" s="1"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="D53" s="3"/>
+      <c r="A53" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="14">
+        <v>0</v>
+      </c>
+      <c r="D53" s="7"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -9420,8 +10528,14 @@
       <c r="R53" s="1"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="D54" s="3"/>
+      <c r="A54" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="14">
+        <v>0</v>
+      </c>
+      <c r="D54" s="7"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -9438,10 +10552,14 @@
       <c r="R54" s="1"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="3"/>
+      <c r="A55" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="14">
+        <v>0</v>
+      </c>
+      <c r="D55" s="7"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -9458,10 +10576,14 @@
       <c r="R55" s="1"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="3"/>
+      <c r="A56" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="14">
+        <v>0</v>
+      </c>
+      <c r="D56" s="7"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -9478,10 +10600,14 @@
       <c r="R56" s="1"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="3"/>
+      <c r="A57" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="14">
+        <v>0</v>
+      </c>
+      <c r="D57" s="7"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -9498,10 +10624,14 @@
       <c r="R57" s="1"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="3"/>
+      <c r="A58" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="14">
+        <v>0</v>
+      </c>
+      <c r="D58" s="7"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -9518,8 +10648,14 @@
       <c r="R58" s="1"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="D59" s="3"/>
+      <c r="A59" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="14">
+        <v>0</v>
+      </c>
+      <c r="D59" s="13"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -9536,8 +10672,14 @@
       <c r="R59" s="1"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="D60" s="3"/>
+      <c r="A60" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="14">
+        <v>0</v>
+      </c>
+      <c r="D60" s="7"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -9554,8 +10696,14 @@
       <c r="R60" s="1"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="D61" s="3"/>
+      <c r="A61" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="14">
+        <v>0</v>
+      </c>
+      <c r="D61" s="7"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -9572,10 +10720,14 @@
       <c r="R61" s="1"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="3"/>
+      <c r="A62" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="14">
+        <v>0</v>
+      </c>
+      <c r="D62" s="7"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -9592,10 +10744,14 @@
       <c r="R62" s="1"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="3"/>
+      <c r="A63" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" s="12"/>
+      <c r="C63" s="14">
+        <v>0</v>
+      </c>
+      <c r="D63" s="13"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -9612,10 +10768,14 @@
       <c r="R63" s="1"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="3"/>
+      <c r="A64" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64" s="12"/>
+      <c r="C64" s="14">
+        <v>0</v>
+      </c>
+      <c r="D64" s="7"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -9632,10 +10792,14 @@
       <c r="R64" s="1"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="3"/>
+      <c r="A65" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="C65" s="14">
+        <v>0</v>
+      </c>
+      <c r="D65" s="7"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -9652,8 +10816,14 @@
       <c r="R65" s="1"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="D66" s="3"/>
+      <c r="A66" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="14">
+        <v>0</v>
+      </c>
+      <c r="D66" s="7"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -9670,10 +10840,14 @@
       <c r="R66" s="1"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="3"/>
+      <c r="A67" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="14">
+        <v>0</v>
+      </c>
+      <c r="D67" s="7"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -9690,10 +10864,14 @@
       <c r="R67" s="1"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="3"/>
+      <c r="A68" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="14">
+        <v>0</v>
+      </c>
+      <c r="D68" s="7"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -9710,10 +10888,14 @@
       <c r="R68" s="1"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="3"/>
+      <c r="A69" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="14">
+        <v>0</v>
+      </c>
+      <c r="D69" s="7"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -9730,8 +10912,14 @@
       <c r="R69" s="1"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="D70" s="3"/>
+      <c r="A70" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="14">
+        <v>0</v>
+      </c>
+      <c r="D70" s="7"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -9748,8 +10936,14 @@
       <c r="R70" s="1"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="D71" s="3"/>
+      <c r="A71" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="14">
+        <v>0</v>
+      </c>
+      <c r="D71" s="7"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -9766,8 +10960,14 @@
       <c r="R71" s="1"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="D72" s="3"/>
+      <c r="A72" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B72" s="12"/>
+      <c r="C72" s="14">
+        <v>0</v>
+      </c>
+      <c r="D72" s="7"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -9784,10 +10984,14 @@
       <c r="R72" s="1"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="3"/>
+      <c r="A73" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B73" s="12"/>
+      <c r="C73" s="14">
+        <v>0</v>
+      </c>
+      <c r="D73" s="7"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -9804,10 +11008,14 @@
       <c r="R73" s="1"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="3"/>
+      <c r="A74" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B74" s="12"/>
+      <c r="C74" s="14">
+        <v>4686</v>
+      </c>
+      <c r="D74" s="7"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -9824,10 +11032,14 @@
       <c r="R74" s="1"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="3"/>
+      <c r="A75" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B75" s="12"/>
+      <c r="C75" s="14">
+        <v>0</v>
+      </c>
+      <c r="D75" s="7"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -9844,10 +11056,14 @@
       <c r="R75" s="1"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="3"/>
+      <c r="A76" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="14">
+        <v>0</v>
+      </c>
+      <c r="D76" s="7"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -9864,10 +11080,14 @@
       <c r="R76" s="1"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="3"/>
+      <c r="A77" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77" s="12"/>
+      <c r="C77" s="14">
+        <v>0</v>
+      </c>
+      <c r="D77" s="7"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -9884,10 +11104,14 @@
       <c r="R77" s="1"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="3"/>
+      <c r="A78" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="12"/>
+      <c r="C78" s="14">
+        <v>1380</v>
+      </c>
+      <c r="D78" s="13"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -9904,10 +11128,14 @@
       <c r="R78" s="1"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="3"/>
+      <c r="A79" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B79" s="12"/>
+      <c r="C79" s="14">
+        <v>0</v>
+      </c>
+      <c r="D79" s="7"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -9924,8 +11152,14 @@
       <c r="R79" s="1"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="D80" s="3"/>
+      <c r="A80" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="14">
+        <v>420</v>
+      </c>
+      <c r="D80" s="7"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -9942,8 +11176,14 @@
       <c r="R80" s="1"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-      <c r="D81" s="3"/>
+      <c r="A81" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="14">
+        <v>0</v>
+      </c>
+      <c r="D81" s="7"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -9960,10 +11200,14 @@
       <c r="R81" s="1"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="3"/>
+      <c r="A82" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="14">
+        <v>0</v>
+      </c>
+      <c r="D82" s="7"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -9980,10 +11224,14 @@
       <c r="R82" s="1"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="3"/>
+      <c r="A83" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="12"/>
+      <c r="C83" s="14">
+        <v>360</v>
+      </c>
+      <c r="D83" s="7"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -10000,10 +11248,14 @@
       <c r="R83" s="1"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="3"/>
+      <c r="A84" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B84" s="12"/>
+      <c r="C84" s="14">
+        <v>0</v>
+      </c>
+      <c r="D84" s="7"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -10020,10 +11272,14 @@
       <c r="R84" s="1"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="3"/>
+      <c r="A85" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B85" s="12"/>
+      <c r="C85" s="14">
+        <v>0</v>
+      </c>
+      <c r="D85" s="7"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -10040,10 +11296,14 @@
       <c r="R85" s="1"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="3"/>
+      <c r="A86" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B86" s="12"/>
+      <c r="C86" s="14">
+        <v>0</v>
+      </c>
+      <c r="D86" s="13"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -10060,10 +11320,14 @@
       <c r="R86" s="1"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="3"/>
+      <c r="A87" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B87" s="12"/>
+      <c r="C87" s="14">
+        <v>0</v>
+      </c>
+      <c r="D87" s="7"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -10080,10 +11344,14 @@
       <c r="R87" s="1"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="3"/>
+      <c r="A88" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="12"/>
+      <c r="C88" s="14">
+        <v>0</v>
+      </c>
+      <c r="D88" s="7"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -10100,10 +11368,14 @@
       <c r="R88" s="1"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="3"/>
+      <c r="A89" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B89" s="12"/>
+      <c r="C89" s="14">
+        <v>0</v>
+      </c>
+      <c r="D89" s="13"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -10120,10 +11392,14 @@
       <c r="R89" s="1"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="3"/>
+      <c r="A90" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B90" s="12"/>
+      <c r="C90" s="14">
+        <v>0</v>
+      </c>
+      <c r="D90" s="13"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -10140,10 +11416,14 @@
       <c r="R90" s="1"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="3"/>
+      <c r="A91" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B91" s="12"/>
+      <c r="C91" s="14">
+        <v>0</v>
+      </c>
+      <c r="D91" s="13"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -10160,10 +11440,14 @@
       <c r="R91" s="1"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="3"/>
+      <c r="A92" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" s="12"/>
+      <c r="C92" s="14">
+        <v>9</v>
+      </c>
+      <c r="D92" s="13"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -10180,10 +11464,14 @@
       <c r="R92" s="1"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="3"/>
+      <c r="A93" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B93" s="12"/>
+      <c r="C93" s="14">
+        <v>0</v>
+      </c>
+      <c r="D93" s="13"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -10200,10 +11488,14 @@
       <c r="R93" s="1"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="3"/>
+      <c r="A94" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B94" s="12"/>
+      <c r="C94" s="14">
+        <v>0</v>
+      </c>
+      <c r="D94" s="7"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -10220,10 +11512,14 @@
       <c r="R94" s="1"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="3"/>
+      <c r="A95" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B95" s="12"/>
+      <c r="C95" s="14">
+        <v>0</v>
+      </c>
+      <c r="D95" s="13"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -10240,8 +11536,14 @@
       <c r="R95" s="1"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
-      <c r="D96" s="3"/>
+      <c r="A96" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="12"/>
+      <c r="C96" s="14">
+        <v>0</v>
+      </c>
+      <c r="D96" s="13"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -10258,10 +11560,14 @@
       <c r="R96" s="1"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="8"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="3"/>
+      <c r="A97" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="12"/>
+      <c r="C97" s="14">
+        <v>0</v>
+      </c>
+      <c r="D97" s="13"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -10278,10 +11584,14 @@
       <c r="R97" s="1"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="3"/>
+      <c r="A98" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" s="12"/>
+      <c r="C98" s="14">
+        <v>0</v>
+      </c>
+      <c r="D98" s="13"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -10298,10 +11608,14 @@
       <c r="R98" s="1"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="3"/>
+      <c r="A99" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B99" s="12"/>
+      <c r="C99" s="14">
+        <v>0</v>
+      </c>
+      <c r="D99" s="7"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -10318,10 +11632,14 @@
       <c r="R99" s="1"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="3"/>
+      <c r="A100" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B100" s="12"/>
+      <c r="C100" s="14">
+        <v>0</v>
+      </c>
+      <c r="D100" s="13"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -10338,8 +11656,14 @@
       <c r="R100" s="1"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
-      <c r="D101" s="3"/>
+      <c r="A101" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B101" s="12"/>
+      <c r="C101" s="14">
+        <v>0</v>
+      </c>
+      <c r="D101" s="13"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -10356,10 +11680,14 @@
       <c r="R101" s="1"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="3"/>
+      <c r="A102" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B102" s="12"/>
+      <c r="C102" s="14">
+        <v>0</v>
+      </c>
+      <c r="D102" s="13"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -10376,10 +11704,14 @@
       <c r="R102" s="1"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="3"/>
+      <c r="A103" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B103" s="12"/>
+      <c r="C103" s="14">
+        <v>0</v>
+      </c>
+      <c r="D103" s="13"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -10396,10 +11728,14 @@
       <c r="R103" s="1"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="3"/>
+      <c r="A104" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B104" s="12"/>
+      <c r="C104" s="14">
+        <v>0</v>
+      </c>
+      <c r="D104" s="13"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -10416,8 +11752,14 @@
       <c r="R104" s="1"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
-      <c r="D105" s="3"/>
+      <c r="A105" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B105" s="12"/>
+      <c r="C105" s="14">
+        <v>0</v>
+      </c>
+      <c r="D105" s="7"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -10434,8 +11776,14 @@
       <c r="R105" s="1"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
-      <c r="D106" s="3"/>
+      <c r="A106" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B106" s="12"/>
+      <c r="C106" s="14">
+        <v>0</v>
+      </c>
+      <c r="D106" s="13"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -10452,8 +11800,14 @@
       <c r="R106" s="1"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
-      <c r="D107" s="3"/>
+      <c r="A107" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B107" s="12"/>
+      <c r="C107" s="14">
+        <v>0</v>
+      </c>
+      <c r="D107" s="7"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -10470,8 +11824,14 @@
       <c r="R107" s="1"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
-      <c r="D108" s="3"/>
+      <c r="A108" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B108" s="12"/>
+      <c r="C108" s="14">
+        <v>9</v>
+      </c>
+      <c r="D108" s="7"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -10488,8 +11848,14 @@
       <c r="R108" s="1"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
-      <c r="D109" s="3"/>
+      <c r="A109" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B109" s="12"/>
+      <c r="C109" s="14">
+        <v>0</v>
+      </c>
+      <c r="D109" s="7"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -10506,8 +11872,14 @@
       <c r="R109" s="1"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
-      <c r="D110" s="3"/>
+      <c r="A110" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B110" s="12"/>
+      <c r="C110" s="14">
+        <v>0</v>
+      </c>
+      <c r="D110" s="7"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -10524,10 +11896,14 @@
       <c r="R110" s="1"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="3"/>
+      <c r="A111" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B111" s="12"/>
+      <c r="C111" s="14">
+        <v>296</v>
+      </c>
+      <c r="D111" s="13"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -10544,8 +11920,14 @@
       <c r="R111" s="1"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
-      <c r="D112" s="3"/>
+      <c r="A112" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B112" s="12"/>
+      <c r="C112" s="14">
+        <v>0</v>
+      </c>
+      <c r="D112" s="13"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -10562,8 +11944,14 @@
       <c r="R112" s="1"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
-      <c r="D113" s="3"/>
+      <c r="A113" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B113" s="12"/>
+      <c r="C113" s="14">
+        <v>0</v>
+      </c>
+      <c r="D113" s="7"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -10580,8 +11968,14 @@
       <c r="R113" s="1"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
-      <c r="D114" s="3"/>
+      <c r="A114" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B114" s="12"/>
+      <c r="C114" s="14">
+        <v>0</v>
+      </c>
+      <c r="D114" s="7"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -10598,9 +11992,13 @@
       <c r="R114" s="1"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A115" s="8"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
+      <c r="A115" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B115" s="12"/>
+      <c r="C115" s="14">
+        <v>480</v>
+      </c>
       <c r="D115" s="3"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -10618,17 +12016,21 @@
       <c r="R115" s="1"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
+      <c r="A116" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B116" s="12"/>
+      <c r="C116" s="14">
+        <v>0</v>
+      </c>
       <c r="D116" s="3"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
@@ -10638,18 +12040,22 @@
       <c r="R116" s="1"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
+      <c r="A117" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B117" s="12"/>
+      <c r="C117" s="14">
+        <v>0</v>
+      </c>
       <c r="D117" s="3"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="8"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
@@ -10658,18 +12064,22 @@
       <c r="R117" s="1"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
+      <c r="A118" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B118" s="12"/>
+      <c r="C118" s="14">
+        <v>40</v>
+      </c>
       <c r="D118" s="3"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="8"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
@@ -10678,9 +12088,13 @@
       <c r="R118" s="1"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
+      <c r="A119" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B119" s="12"/>
+      <c r="C119" s="14">
+        <v>0</v>
+      </c>
       <c r="D119" s="3"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -10698,9 +12112,13 @@
       <c r="R119" s="1"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
+      <c r="A120" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" s="12"/>
+      <c r="C120" s="14">
+        <v>100</v>
+      </c>
       <c r="D120" s="3"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -10718,9 +12136,13 @@
       <c r="R120" s="1"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
+      <c r="A121" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B121" s="12"/>
+      <c r="C121" s="14">
+        <v>120</v>
+      </c>
       <c r="D121" s="3"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -10738,9 +12160,13 @@
       <c r="R121" s="1"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
+      <c r="A122" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" s="12"/>
+      <c r="C122" s="14">
+        <v>0</v>
+      </c>
       <c r="D122" s="3"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -10758,9 +12184,13 @@
       <c r="R122" s="1"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
+      <c r="A123" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B123" s="12"/>
+      <c r="C123" s="14">
+        <v>0</v>
+      </c>
       <c r="D123" s="3"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -10778,9 +12208,13 @@
       <c r="R123" s="1"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
+      <c r="A124" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B124" s="12"/>
+      <c r="C124" s="14">
+        <v>1008</v>
+      </c>
       <c r="D124" s="3"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -10798,9 +12232,13 @@
       <c r="R124" s="1"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
+      <c r="A125" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B125" s="12"/>
+      <c r="C125" s="14">
+        <v>0</v>
+      </c>
       <c r="D125" s="3"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -10818,9 +12256,13 @@
       <c r="R125" s="1"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
+      <c r="A126" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B126" s="12"/>
+      <c r="C126" s="14">
+        <v>1440</v>
+      </c>
       <c r="D126" s="3"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -10838,9 +12280,13 @@
       <c r="R126" s="1"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
+      <c r="A127" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B127" s="12"/>
+      <c r="C127" s="14">
+        <v>672</v>
+      </c>
       <c r="D127" s="3"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -10858,9 +12304,13 @@
       <c r="R127" s="1"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
+      <c r="A128" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B128" s="12"/>
+      <c r="C128" s="14">
+        <v>4320</v>
+      </c>
       <c r="D128" s="3"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -10878,9 +12328,13 @@
       <c r="R128" s="1"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
+      <c r="A129" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B129" s="12"/>
+      <c r="C129" s="14">
+        <v>0</v>
+      </c>
       <c r="D129" s="3"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -10898,9 +12352,13 @@
       <c r="R129" s="1"/>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
+      <c r="A130" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B130" s="12"/>
+      <c r="C130" s="14">
+        <v>0</v>
+      </c>
       <c r="D130" s="3"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -10918,9 +12376,13 @@
       <c r="R130" s="1"/>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
+      <c r="A131" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B131" s="12"/>
+      <c r="C131" s="14">
+        <v>0</v>
+      </c>
       <c r="D131" s="3"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -10938,9 +12400,13 @@
       <c r="R131" s="1"/>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
+      <c r="A132" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B132" s="12"/>
+      <c r="C132" s="14">
+        <v>60</v>
+      </c>
       <c r="D132" s="3"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -10958,9 +12424,13 @@
       <c r="R132" s="1"/>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
+      <c r="A133" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B133" s="12"/>
+      <c r="C133" s="14">
+        <v>180</v>
+      </c>
       <c r="D133" s="3"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -10978,9 +12448,13 @@
       <c r="R133" s="1"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
+      <c r="A134" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B134" s="12"/>
+      <c r="C134" s="14">
+        <v>0</v>
+      </c>
       <c r="D134" s="3"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -10998,9 +12472,13 @@
       <c r="R134" s="1"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
+      <c r="A135" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B135" s="12"/>
+      <c r="C135" s="14">
+        <v>300</v>
+      </c>
       <c r="D135" s="3"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -11018,9 +12496,13 @@
       <c r="R135" s="1"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
+      <c r="A136" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B136" s="12"/>
+      <c r="C136" s="14">
+        <v>0</v>
+      </c>
       <c r="D136" s="3"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -11038,9 +12520,13 @@
       <c r="R136" s="1"/>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
+      <c r="A137" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B137" s="12"/>
+      <c r="C137" s="14">
+        <v>2250</v>
+      </c>
       <c r="D137" s="3"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -11058,9 +12544,13 @@
       <c r="R137" s="1"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
+      <c r="A138" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B138" s="12"/>
+      <c r="C138" s="14">
+        <v>9000</v>
+      </c>
       <c r="D138" s="3"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -11078,9 +12568,13 @@
       <c r="R138" s="1"/>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
+      <c r="A139" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B139" s="12"/>
+      <c r="C139" s="14">
+        <v>0</v>
+      </c>
       <c r="D139" s="3"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -11098,9 +12592,13 @@
       <c r="R139" s="1"/>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
+      <c r="A140" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B140" s="12"/>
+      <c r="C140" s="14">
+        <v>1800</v>
+      </c>
       <c r="D140" s="3"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -11118,9 +12616,13 @@
       <c r="R140" s="1"/>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
+      <c r="A141" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B141" s="12"/>
+      <c r="C141" s="14">
+        <v>1800</v>
+      </c>
       <c r="D141" s="3"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -11138,9 +12640,13 @@
       <c r="R141" s="1"/>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
+      <c r="A142" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B142" s="12"/>
+      <c r="C142" s="14">
+        <v>0</v>
+      </c>
       <c r="D142" s="3"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -11158,9 +12664,13 @@
       <c r="R142" s="1"/>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
+      <c r="A143" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B143" s="12"/>
+      <c r="C143" s="14">
+        <v>900</v>
+      </c>
       <c r="D143" s="3"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -11178,9 +12688,13 @@
       <c r="R143" s="1"/>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
+      <c r="A144" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B144" s="12"/>
+      <c r="C144" s="14">
+        <v>342</v>
+      </c>
       <c r="D144" s="3"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -11198,7 +12712,13 @@
       <c r="R144" s="1"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
+      <c r="A145" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B145" s="12"/>
+      <c r="C145" s="9">
+        <v>0</v>
+      </c>
       <c r="D145" s="3"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -11216,7 +12736,13 @@
       <c r="R145" s="1"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
+      <c r="A146" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B146" s="11"/>
+      <c r="C146" s="9">
+        <v>60</v>
+      </c>
       <c r="D146" s="3"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -11234,7 +12760,13 @@
       <c r="R146" s="1"/>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
+      <c r="A147" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B147" s="11"/>
+      <c r="C147" s="9">
+        <v>200</v>
+      </c>
       <c r="D147" s="3"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -11252,7 +12784,13 @@
       <c r="R147" s="1"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
+      <c r="A148" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B148" s="11"/>
+      <c r="C148" s="9">
+        <v>800</v>
+      </c>
       <c r="D148" s="3"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -11270,7 +12808,13 @@
       <c r="R148" s="1"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
+      <c r="A149" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B149" s="11"/>
+      <c r="C149" s="9">
+        <v>0</v>
+      </c>
       <c r="D149" s="3"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -11288,7 +12832,13 @@
       <c r="R149" s="1"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
+      <c r="A150" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B150" s="11"/>
+      <c r="C150" s="9">
+        <v>40</v>
+      </c>
       <c r="D150" s="3"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -11306,7 +12856,13 @@
       <c r="R150" s="1"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
+      <c r="A151" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B151" s="11"/>
+      <c r="C151" s="9">
+        <v>24</v>
+      </c>
       <c r="D151" s="3"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -11324,7 +12880,13 @@
       <c r="R151" s="1"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
+      <c r="A152" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B152" s="11"/>
+      <c r="C152" s="9">
+        <v>0</v>
+      </c>
       <c r="D152" s="3"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -11342,7 +12904,13 @@
       <c r="R152" s="1"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
+      <c r="A153" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B153" s="11"/>
+      <c r="C153" s="9">
+        <v>0</v>
+      </c>
       <c r="D153" s="3"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -11360,7 +12928,13 @@
       <c r="R153" s="1"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
+      <c r="A154" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B154" s="11"/>
+      <c r="C154" s="9">
+        <v>0</v>
+      </c>
       <c r="D154" s="3"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -11378,7 +12952,13 @@
       <c r="R154" s="1"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
+      <c r="A155" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B155" s="11"/>
+      <c r="C155" s="9">
+        <v>0</v>
+      </c>
       <c r="D155" s="3"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -11396,7 +12976,13 @@
       <c r="R155" s="1"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
+      <c r="A156" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B156" s="11"/>
+      <c r="C156" s="9">
+        <v>0</v>
+      </c>
       <c r="D156" s="3"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -11414,7 +13000,13 @@
       <c r="R156" s="1"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
+      <c r="A157" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B157" s="11"/>
+      <c r="C157" s="9">
+        <v>180</v>
+      </c>
       <c r="D157" s="3"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -11432,7 +13024,13 @@
       <c r="R157" s="1"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
+      <c r="A158" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B158" s="11"/>
+      <c r="C158" s="9">
+        <v>480</v>
+      </c>
       <c r="D158" s="3"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -11450,7 +13048,13 @@
       <c r="R158" s="1"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
+      <c r="A159" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B159" s="11"/>
+      <c r="C159" s="9">
+        <v>540</v>
+      </c>
       <c r="D159" s="3"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -11468,7 +13072,13 @@
       <c r="R159" s="1"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
+      <c r="A160" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B160" s="11"/>
+      <c r="C160" s="9">
+        <v>0</v>
+      </c>
       <c r="D160" s="3"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -11486,7 +13096,13 @@
       <c r="R160" s="1"/>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
+      <c r="A161" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B161" s="11"/>
+      <c r="C161" s="9">
+        <v>0</v>
+      </c>
       <c r="D161" s="3"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -11504,7 +13120,13 @@
       <c r="R161" s="1"/>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
+      <c r="A162" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B162" s="11"/>
+      <c r="C162" s="9">
+        <v>9000</v>
+      </c>
       <c r="D162" s="3"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -11522,7 +13144,13 @@
       <c r="R162" s="1"/>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
+      <c r="A163" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B163" s="11"/>
+      <c r="C163" s="9">
+        <v>0</v>
+      </c>
       <c r="D163" s="3"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -11540,7 +13168,13 @@
       <c r="R163" s="1"/>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
+      <c r="A164" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B164" s="11"/>
+      <c r="C164" s="9">
+        <v>2250</v>
+      </c>
       <c r="D164" s="3"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -11558,7 +13192,13 @@
       <c r="R164" s="1"/>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
+      <c r="A165" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B165" s="11"/>
+      <c r="C165" s="9">
+        <v>0</v>
+      </c>
       <c r="D165" s="3"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -11576,7 +13216,13 @@
       <c r="R165" s="1"/>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
+      <c r="A166" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B166" s="11"/>
+      <c r="C166" s="9">
+        <v>0</v>
+      </c>
       <c r="D166" s="3"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -11594,7 +13240,13 @@
       <c r="R166" s="1"/>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
+      <c r="A167" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B167" s="11"/>
+      <c r="C167" s="9">
+        <v>6750</v>
+      </c>
       <c r="D167" s="3"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -11612,7 +13264,13 @@
       <c r="R167" s="1"/>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
+      <c r="A168" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B168" s="11"/>
+      <c r="C168" s="6">
+        <v>1200</v>
+      </c>
       <c r="D168" s="3"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -11630,7 +13288,12 @@
       <c r="R168" s="1"/>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
+      <c r="A169" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C169" s="6">
+        <v>0</v>
+      </c>
       <c r="D169" s="3"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -11648,7 +13311,12 @@
       <c r="R169" s="1"/>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
+      <c r="A170" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C170" s="6">
+        <v>0</v>
+      </c>
       <c r="D170" s="3"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -11666,7 +13334,12 @@
       <c r="R170" s="1"/>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
+      <c r="A171" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C171" s="6">
+        <v>4500</v>
+      </c>
       <c r="D171" s="3"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -11684,7 +13357,12 @@
       <c r="R171" s="1"/>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
+      <c r="A172" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C172" s="6">
+        <v>280</v>
+      </c>
       <c r="D172" s="3"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -11702,7 +13380,12 @@
       <c r="R172" s="1"/>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
+      <c r="A173" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C173" s="6">
+        <v>0</v>
+      </c>
       <c r="D173" s="3"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -11720,7 +13403,12 @@
       <c r="R173" s="1"/>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
+      <c r="A174" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C174" s="6">
+        <v>1080</v>
+      </c>
       <c r="D174" s="3"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -11738,7 +13426,12 @@
       <c r="R174" s="1"/>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
+      <c r="A175" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C175" s="6">
+        <v>0</v>
+      </c>
       <c r="D175" s="3"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -11756,7 +13449,12 @@
       <c r="R175" s="1"/>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
+      <c r="A176" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C176" s="6">
+        <v>720</v>
+      </c>
       <c r="D176" s="3"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -11774,7 +13472,12 @@
       <c r="R176" s="1"/>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
+      <c r="A177" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C177" s="6">
+        <v>0</v>
+      </c>
       <c r="D177" s="3"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
@@ -11792,7 +13495,12 @@
       <c r="R177" s="1"/>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
+      <c r="A178" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C178" s="6">
+        <v>1080</v>
+      </c>
       <c r="D178" s="3"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -11810,7 +13518,12 @@
       <c r="R178" s="1"/>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
+      <c r="A179" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C179" s="6">
+        <v>0</v>
+      </c>
       <c r="D179" s="3"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -11828,7 +13541,12 @@
       <c r="R179" s="1"/>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
+      <c r="A180" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C180" s="6">
+        <v>120</v>
+      </c>
       <c r="D180" s="3"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -11846,7 +13564,12 @@
       <c r="R180" s="1"/>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
+      <c r="A181" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C181" s="6">
+        <v>600</v>
+      </c>
       <c r="D181" s="3"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
@@ -11864,7 +13587,12 @@
       <c r="R181" s="1"/>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A182" s="2"/>
+      <c r="A182" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C182" s="6">
+        <v>700</v>
+      </c>
       <c r="D182" s="3"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
@@ -11882,7 +13610,12 @@
       <c r="R182" s="1"/>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
+      <c r="A183" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C183" s="6">
+        <v>0</v>
+      </c>
       <c r="D183" s="3"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -11900,7 +13633,12 @@
       <c r="R183" s="1"/>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
+      <c r="A184" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C184" s="6">
+        <v>13500</v>
+      </c>
       <c r="D184" s="3"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
@@ -11918,7 +13656,12 @@
       <c r="R184" s="1"/>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
+      <c r="A185" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C185" s="6">
+        <v>2300</v>
+      </c>
       <c r="D185" s="3"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
@@ -11936,7 +13679,12 @@
       <c r="R185" s="1"/>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A186" s="2"/>
+      <c r="A186" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C186" s="6">
+        <v>400</v>
+      </c>
       <c r="D186" s="3"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -11954,7 +13702,12 @@
       <c r="R186" s="1"/>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
+      <c r="A187" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C187" s="6">
+        <v>0</v>
+      </c>
       <c r="D187" s="3"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -11972,7 +13725,12 @@
       <c r="R187" s="1"/>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A188" s="2"/>
+      <c r="A188" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C188" s="6">
+        <v>0</v>
+      </c>
       <c r="D188" s="3"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -11990,7 +13748,12 @@
       <c r="R188" s="1"/>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
+      <c r="A189" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C189" s="6">
+        <v>4500</v>
+      </c>
       <c r="D189" s="3"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -12008,7 +13771,12 @@
       <c r="R189" s="1"/>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A190" s="2"/>
+      <c r="A190" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C190" s="6">
+        <v>3960</v>
+      </c>
       <c r="D190" s="3"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
@@ -12026,7 +13794,12 @@
       <c r="R190" s="1"/>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A191" s="2"/>
+      <c r="A191" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C191" s="6">
+        <v>0</v>
+      </c>
       <c r="D191" s="3"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
@@ -12044,7 +13817,12 @@
       <c r="R191" s="1"/>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A192" s="2"/>
+      <c r="A192" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C192" s="6">
+        <v>0</v>
+      </c>
       <c r="D192" s="3"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
@@ -12062,7 +13840,12 @@
       <c r="R192" s="1"/>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A193" s="2"/>
+      <c r="A193" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C193" s="6">
+        <v>7200</v>
+      </c>
       <c r="D193" s="3"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
@@ -12080,7 +13863,12 @@
       <c r="R193" s="1"/>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A194" s="2"/>
+      <c r="A194" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C194" s="6">
+        <v>0</v>
+      </c>
       <c r="D194" s="3"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
@@ -12098,7 +13886,12 @@
       <c r="R194" s="1"/>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A195" s="2"/>
+      <c r="A195" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C195" s="6">
+        <v>0</v>
+      </c>
       <c r="D195" s="3"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
@@ -12116,7 +13909,12 @@
       <c r="R195" s="1"/>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A196" s="2"/>
+      <c r="A196" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C196" s="6">
+        <v>0</v>
+      </c>
       <c r="D196" s="3"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
@@ -12134,7 +13932,12 @@
       <c r="R196" s="1"/>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A197" s="2"/>
+      <c r="A197" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C197" s="6">
+        <v>0</v>
+      </c>
       <c r="D197" s="3"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
@@ -12152,7 +13955,12 @@
       <c r="R197" s="1"/>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A198" s="2"/>
+      <c r="A198" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C198" s="6">
+        <v>0</v>
+      </c>
       <c r="D198" s="3"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
@@ -12170,7 +13978,12 @@
       <c r="R198" s="1"/>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A199" s="2"/>
+      <c r="A199" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C199" s="6">
+        <v>0</v>
+      </c>
       <c r="D199" s="3"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
@@ -12188,7 +14001,12 @@
       <c r="R199" s="1"/>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A200" s="2"/>
+      <c r="A200" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C200" s="6">
+        <v>0</v>
+      </c>
       <c r="D200" s="3"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
@@ -12206,7 +14024,12 @@
       <c r="R200" s="1"/>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A201" s="2"/>
+      <c r="A201" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C201" s="6">
+        <v>0</v>
+      </c>
       <c r="D201" s="3"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
@@ -12224,7 +14047,12 @@
       <c r="R201" s="1"/>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A202" s="2"/>
+      <c r="A202" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C202" s="6">
+        <v>0</v>
+      </c>
       <c r="D202" s="3"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
@@ -12242,7 +14070,12 @@
       <c r="R202" s="1"/>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A203" s="2"/>
+      <c r="A203" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C203" s="6">
+        <v>0</v>
+      </c>
       <c r="D203" s="3"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
@@ -12260,7 +14093,12 @@
       <c r="R203" s="1"/>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
+      <c r="A204" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C204" s="6">
+        <v>0</v>
+      </c>
       <c r="D204" s="3"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
@@ -12278,7 +14116,12 @@
       <c r="R204" s="1"/>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A205" s="2"/>
+      <c r="A205" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C205" s="6">
+        <v>0</v>
+      </c>
       <c r="D205" s="3"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
@@ -12296,7 +14139,12 @@
       <c r="R205" s="1"/>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A206" s="2"/>
+      <c r="A206" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C206" s="6">
+        <v>200</v>
+      </c>
       <c r="D206" s="3"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
@@ -12314,7 +14162,12 @@
       <c r="R206" s="1"/>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A207" s="2"/>
+      <c r="A207" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C207" s="6">
+        <v>0</v>
+      </c>
       <c r="D207" s="3"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
@@ -12332,7 +14185,12 @@
       <c r="R207" s="1"/>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A208" s="2"/>
+      <c r="A208" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C208" s="6">
+        <v>0</v>
+      </c>
       <c r="D208" s="3"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
@@ -12350,7 +14208,12 @@
       <c r="R208" s="1"/>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A209" s="2"/>
+      <c r="A209" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C209" s="6">
+        <v>0</v>
+      </c>
       <c r="D209" s="3"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
@@ -12368,7 +14231,12 @@
       <c r="R209" s="1"/>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A210" s="2"/>
+      <c r="A210" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C210" s="6">
+        <v>0</v>
+      </c>
       <c r="D210" s="3"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
@@ -12386,7 +14254,12 @@
       <c r="R210" s="1"/>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A211" s="2"/>
+      <c r="A211" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C211" s="6">
+        <v>0</v>
+      </c>
       <c r="D211" s="3"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
@@ -12404,7 +14277,12 @@
       <c r="R211" s="1"/>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A212" s="2"/>
+      <c r="A212" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C212" s="6">
+        <v>0</v>
+      </c>
       <c r="D212" s="3"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
@@ -12422,7 +14300,12 @@
       <c r="R212" s="1"/>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A213" s="2"/>
+      <c r="A213" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C213" s="6">
+        <v>0</v>
+      </c>
       <c r="D213" s="3"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
@@ -12440,7 +14323,12 @@
       <c r="R213" s="1"/>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A214" s="2"/>
+      <c r="A214" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C214" s="6">
+        <v>0</v>
+      </c>
       <c r="D214" s="3"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
@@ -12458,7 +14346,12 @@
       <c r="R214" s="1"/>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A215" s="2"/>
+      <c r="A215" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C215" s="6">
+        <v>0</v>
+      </c>
       <c r="D215" s="3"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
@@ -12476,7 +14369,12 @@
       <c r="R215" s="1"/>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A216" s="2"/>
+      <c r="A216" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C216" s="6">
+        <v>280000</v>
+      </c>
       <c r="D216" s="3"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
@@ -12494,7 +14392,12 @@
       <c r="R216" s="1"/>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A217" s="2"/>
+      <c r="A217" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C217" s="6">
+        <v>5000</v>
+      </c>
       <c r="D217" s="3"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
@@ -12512,7 +14415,12 @@
       <c r="R217" s="1"/>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A218" s="2"/>
+      <c r="A218" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C218" s="6">
+        <v>0</v>
+      </c>
       <c r="D218" s="3"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
@@ -12530,7 +14438,12 @@
       <c r="R218" s="1"/>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A219" s="2"/>
+      <c r="A219" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C219" s="6">
+        <v>7000</v>
+      </c>
       <c r="D219" s="3"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
@@ -12548,7 +14461,12 @@
       <c r="R219" s="1"/>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A220" s="2"/>
+      <c r="A220" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C220" s="6">
+        <v>0</v>
+      </c>
       <c r="D220" s="3"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
@@ -12566,7 +14484,12 @@
       <c r="R220" s="1"/>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A221" s="2"/>
+      <c r="A221" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C221" s="6">
+        <v>257500</v>
+      </c>
       <c r="D221" s="3"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
@@ -12584,7 +14507,12 @@
       <c r="R221" s="1"/>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A222" s="2"/>
+      <c r="A222" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C222" s="6">
+        <v>2500</v>
+      </c>
       <c r="D222" s="3"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
@@ -12602,7 +14530,12 @@
       <c r="R222" s="1"/>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A223" s="2"/>
+      <c r="A223" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C223" s="6">
+        <v>0</v>
+      </c>
       <c r="D223" s="3"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
@@ -12620,7 +14553,12 @@
       <c r="R223" s="1"/>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A224" s="2"/>
+      <c r="A224" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C224" s="6">
+        <v>0</v>
+      </c>
       <c r="D224" s="3"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
@@ -12638,7 +14576,12 @@
       <c r="R224" s="1"/>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A225" s="2"/>
+      <c r="A225" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C225" s="6">
+        <v>0</v>
+      </c>
       <c r="D225" s="3"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
@@ -12656,7 +14599,12 @@
       <c r="R225" s="1"/>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A226" s="2"/>
+      <c r="A226" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C226" s="6">
+        <v>0</v>
+      </c>
       <c r="D226" s="3"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
@@ -12674,7 +14622,12 @@
       <c r="R226" s="1"/>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A227" s="2"/>
+      <c r="A227" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C227" s="6">
+        <v>0</v>
+      </c>
       <c r="D227" s="3"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
@@ -12692,7 +14645,12 @@
       <c r="R227" s="1"/>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A228" s="2"/>
+      <c r="A228" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C228" s="6">
+        <v>63000</v>
+      </c>
       <c r="D228" s="3"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
@@ -12710,7 +14668,12 @@
       <c r="R228" s="1"/>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A229" s="2"/>
+      <c r="A229" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C229" s="6">
+        <v>0</v>
+      </c>
       <c r="D229" s="3"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
@@ -12728,7 +14691,12 @@
       <c r="R229" s="1"/>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A230" s="2"/>
+      <c r="A230" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C230" s="6">
+        <v>0</v>
+      </c>
       <c r="D230" s="3"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
@@ -12746,7 +14714,12 @@
       <c r="R230" s="1"/>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A231" s="2"/>
+      <c r="A231" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C231" s="6">
+        <v>0</v>
+      </c>
       <c r="D231" s="3"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
@@ -12764,7 +14737,12 @@
       <c r="R231" s="1"/>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A232" s="2"/>
+      <c r="A232" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C232" s="6">
+        <v>5139</v>
+      </c>
       <c r="D232" s="3"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
@@ -12782,7 +14760,12 @@
       <c r="R232" s="1"/>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A233" s="2"/>
+      <c r="A233" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C233" s="6">
+        <v>1000</v>
+      </c>
       <c r="D233" s="3"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
@@ -12800,7 +14783,12 @@
       <c r="R233" s="1"/>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A234" s="2"/>
+      <c r="A234" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C234" s="6">
+        <v>0</v>
+      </c>
       <c r="D234" s="3"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
@@ -12818,7 +14806,12 @@
       <c r="R234" s="1"/>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A235" s="2"/>
+      <c r="A235" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C235" s="6">
+        <v>0</v>
+      </c>
       <c r="D235" s="3"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
@@ -12836,7 +14829,12 @@
       <c r="R235" s="1"/>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A236" s="2"/>
+      <c r="A236" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C236" s="6">
+        <v>0</v>
+      </c>
       <c r="D236" s="3"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
@@ -12854,7 +14852,12 @@
       <c r="R236" s="1"/>
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A237" s="2"/>
+      <c r="A237" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C237" s="6">
+        <v>0</v>
+      </c>
       <c r="D237" s="3"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
@@ -12872,7 +14875,12 @@
       <c r="R237" s="1"/>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A238" s="2"/>
+      <c r="A238" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C238" s="6">
+        <v>0</v>
+      </c>
       <c r="D238" s="3"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
@@ -12890,7 +14898,12 @@
       <c r="R238" s="1"/>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A239" s="2"/>
+      <c r="A239" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C239" s="6">
+        <v>0</v>
+      </c>
       <c r="D239" s="3"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
@@ -12908,7 +14921,12 @@
       <c r="R239" s="1"/>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A240" s="2"/>
+      <c r="A240" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C240" s="6">
+        <v>0</v>
+      </c>
       <c r="D240" s="3"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
@@ -12926,7 +14944,12 @@
       <c r="R240" s="1"/>
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A241" s="2"/>
+      <c r="A241" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C241" s="6">
+        <v>0</v>
+      </c>
       <c r="D241" s="3"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
@@ -12944,7 +14967,12 @@
       <c r="R241" s="1"/>
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A242" s="2"/>
+      <c r="A242" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C242" s="6">
+        <v>0</v>
+      </c>
       <c r="D242" s="3"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
@@ -12962,7 +14990,12 @@
       <c r="R242" s="1"/>
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A243" s="2"/>
+      <c r="A243" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C243" s="6">
+        <v>0</v>
+      </c>
       <c r="D243" s="3"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
@@ -12980,7 +15013,12 @@
       <c r="R243" s="1"/>
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A244" s="2"/>
+      <c r="A244" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C244" s="6">
+        <v>0</v>
+      </c>
       <c r="D244" s="3"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
@@ -12998,7 +15036,12 @@
       <c r="R244" s="1"/>
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A245" s="2"/>
+      <c r="A245" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C245" s="6">
+        <v>0</v>
+      </c>
       <c r="D245" s="3"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
@@ -13016,7 +15059,12 @@
       <c r="R245" s="1"/>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A246" s="2"/>
+      <c r="A246" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C246" s="6">
+        <v>0</v>
+      </c>
       <c r="D246" s="3"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
@@ -13034,7 +15082,12 @@
       <c r="R246" s="1"/>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A247" s="2"/>
+      <c r="A247" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C247" s="6">
+        <v>0</v>
+      </c>
       <c r="D247" s="3"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
@@ -13052,7 +15105,12 @@
       <c r="R247" s="1"/>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A248" s="2"/>
+      <c r="A248" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C248" s="6">
+        <v>600</v>
+      </c>
       <c r="D248" s="3"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
@@ -13070,7 +15128,12 @@
       <c r="R248" s="1"/>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A249" s="2"/>
+      <c r="A249" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C249" s="6">
+        <v>0</v>
+      </c>
       <c r="D249" s="3"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
@@ -13088,7 +15151,12 @@
       <c r="R249" s="1"/>
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A250" s="2"/>
+      <c r="A250" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C250" s="6">
+        <v>0</v>
+      </c>
       <c r="D250" s="3"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
@@ -13106,7 +15174,12 @@
       <c r="R250" s="1"/>
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A251" s="2"/>
+      <c r="A251" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C251" s="6">
+        <v>0</v>
+      </c>
       <c r="D251" s="3"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
@@ -13124,7 +15197,12 @@
       <c r="R251" s="1"/>
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A252" s="2"/>
+      <c r="A252" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C252" s="6">
+        <v>0</v>
+      </c>
       <c r="D252" s="3"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
@@ -13142,7 +15220,12 @@
       <c r="R252" s="1"/>
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A253" s="2"/>
+      <c r="A253" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253" s="6">
+        <v>0</v>
+      </c>
       <c r="D253" s="3"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
@@ -13160,7 +15243,12 @@
       <c r="R253" s="1"/>
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A254" s="2"/>
+      <c r="A254" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C254" s="6">
+        <v>0</v>
+      </c>
       <c r="D254" s="3"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
@@ -13178,7 +15266,12 @@
       <c r="R254" s="1"/>
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A255" s="2"/>
+      <c r="A255" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C255" s="6">
+        <v>0</v>
+      </c>
       <c r="D255" s="3"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
@@ -13196,7 +15289,12 @@
       <c r="R255" s="1"/>
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A256" s="2"/>
+      <c r="A256" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C256" s="6">
+        <v>0</v>
+      </c>
       <c r="D256" s="3"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
@@ -13214,7 +15312,12 @@
       <c r="R256" s="1"/>
     </row>
     <row r="257" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A257" s="2"/>
+      <c r="A257" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C257" s="6">
+        <v>0</v>
+      </c>
       <c r="D257" s="3"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
@@ -13232,7 +15335,12 @@
       <c r="R257" s="1"/>
     </row>
     <row r="258" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A258" s="2"/>
+      <c r="A258" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C258" s="6">
+        <v>0</v>
+      </c>
       <c r="D258" s="3"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
@@ -13250,7 +15358,12 @@
       <c r="R258" s="1"/>
     </row>
     <row r="259" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A259" s="2"/>
+      <c r="A259" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C259" s="6">
+        <v>25000</v>
+      </c>
       <c r="D259" s="3"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
@@ -13268,7 +15381,12 @@
       <c r="R259" s="1"/>
     </row>
     <row r="260" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A260" s="2"/>
+      <c r="A260" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C260" s="6">
+        <v>0</v>
+      </c>
       <c r="D260" s="3"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
@@ -13286,7 +15404,12 @@
       <c r="R260" s="1"/>
     </row>
     <row r="261" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A261" s="2"/>
+      <c r="A261" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C261" s="6">
+        <v>0</v>
+      </c>
       <c r="D261" s="3"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
@@ -13304,7 +15427,12 @@
       <c r="R261" s="1"/>
     </row>
     <row r="262" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A262" s="2"/>
+      <c r="A262" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C262" s="6">
+        <v>20800</v>
+      </c>
       <c r="D262" s="3"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
@@ -13322,7 +15450,12 @@
       <c r="R262" s="1"/>
     </row>
     <row r="263" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A263" s="2"/>
+      <c r="A263" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C263" s="6">
+        <v>0</v>
+      </c>
       <c r="D263" s="3"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
@@ -13340,7 +15473,12 @@
       <c r="R263" s="1"/>
     </row>
     <row r="264" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A264" s="2"/>
+      <c r="A264" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C264" s="6">
+        <v>0</v>
+      </c>
       <c r="D264" s="3"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
@@ -13358,7 +15496,12 @@
       <c r="R264" s="1"/>
     </row>
     <row r="265" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A265" s="2"/>
+      <c r="A265" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C265" s="6">
+        <v>827</v>
+      </c>
       <c r="D265" s="3"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
@@ -13376,7 +15519,12 @@
       <c r="R265" s="1"/>
     </row>
     <row r="266" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A266" s="2"/>
+      <c r="A266" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C266" s="6">
+        <v>0</v>
+      </c>
       <c r="D266" s="3"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
@@ -13394,7 +15542,12 @@
       <c r="R266" s="1"/>
     </row>
     <row r="267" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A267" s="2"/>
+      <c r="A267" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C267" s="6">
+        <v>572</v>
+      </c>
       <c r="D267" s="3"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
@@ -13412,7 +15565,12 @@
       <c r="R267" s="1"/>
     </row>
     <row r="268" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A268" s="2"/>
+      <c r="A268" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C268" s="6">
+        <v>0</v>
+      </c>
       <c r="D268" s="3"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
@@ -13430,7 +15588,12 @@
       <c r="R268" s="1"/>
     </row>
     <row r="269" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A269" s="2"/>
+      <c r="A269" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C269" s="6">
+        <v>84</v>
+      </c>
       <c r="D269" s="3"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
@@ -13448,7 +15611,12 @@
       <c r="R269" s="1"/>
     </row>
     <row r="270" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A270" s="2"/>
+      <c r="A270" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C270" s="6">
+        <v>1000</v>
+      </c>
       <c r="D270" s="3"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
@@ -13466,7 +15634,12 @@
       <c r="R270" s="1"/>
     </row>
     <row r="271" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A271" s="2"/>
+      <c r="A271" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C271" s="6">
+        <v>0</v>
+      </c>
       <c r="D271" s="3"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
@@ -13484,7 +15657,12 @@
       <c r="R271" s="1"/>
     </row>
     <row r="272" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A272" s="2"/>
+      <c r="A272" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C272" s="6">
+        <v>0</v>
+      </c>
       <c r="D272" s="3"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
@@ -13502,7 +15680,12 @@
       <c r="R272" s="1"/>
     </row>
     <row r="273" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A273" s="2"/>
+      <c r="A273" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C273" s="6">
+        <v>0</v>
+      </c>
       <c r="D273" s="3"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
@@ -13520,7 +15703,12 @@
       <c r="R273" s="1"/>
     </row>
     <row r="274" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A274" s="2"/>
+      <c r="A274" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C274" s="6">
+        <v>2396</v>
+      </c>
       <c r="D274" s="3"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
@@ -13538,7 +15726,12 @@
       <c r="R274" s="1"/>
     </row>
     <row r="275" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A275" s="2"/>
+      <c r="A275" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D275" s="3"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
@@ -13556,9 +15749,13 @@
       <c r="R275" s="1"/>
     </row>
     <row r="276" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A276" s="2"/>
+      <c r="A276" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
+      <c r="C276" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D276" s="3"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
@@ -13576,9 +15773,13 @@
       <c r="R276" s="1"/>
     </row>
     <row r="277" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A277" s="2"/>
+      <c r="A277" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="B277" s="2"/>
-      <c r="C277" s="2"/>
+      <c r="C277" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D277" s="3"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
@@ -13596,9 +15797,13 @@
       <c r="R277" s="1"/>
     </row>
     <row r="278" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A278" s="2"/>
+      <c r="A278" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="B278" s="2"/>
-      <c r="C278" s="2"/>
+      <c r="C278" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="D278" s="3"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
@@ -13616,9 +15821,13 @@
       <c r="R278" s="1"/>
     </row>
     <row r="279" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A279" s="2"/>
+      <c r="A279" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
+      <c r="C279" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D279" s="3"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
@@ -13636,9 +15845,13 @@
       <c r="R279" s="1"/>
     </row>
     <row r="280" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A280" s="2"/>
+      <c r="A280" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="B280" s="2"/>
-      <c r="C280" s="2"/>
+      <c r="C280" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D280" s="3"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
@@ -13656,9 +15869,13 @@
       <c r="R280" s="1"/>
     </row>
     <row r="281" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A281" s="2"/>
+      <c r="A281" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="B281" s="2"/>
-      <c r="C281" s="2"/>
+      <c r="C281" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D281" s="3"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
@@ -13676,9 +15893,13 @@
       <c r="R281" s="1"/>
     </row>
     <row r="282" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A282" s="2"/>
+      <c r="A282" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="B282" s="2"/>
-      <c r="C282" s="2"/>
+      <c r="C282" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D282" s="3"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
@@ -13696,9 +15917,13 @@
       <c r="R282" s="1"/>
     </row>
     <row r="283" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A283" s="2"/>
+      <c r="A283" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="B283" s="2"/>
-      <c r="C283" s="2"/>
+      <c r="C283" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D283" s="3"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
@@ -13716,9 +15941,13 @@
       <c r="R283" s="1"/>
     </row>
     <row r="284" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A284" s="2"/>
+      <c r="A284" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="B284" s="2"/>
-      <c r="C284" s="2"/>
+      <c r="C284" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D284" s="3"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
@@ -13736,9 +15965,13 @@
       <c r="R284" s="1"/>
     </row>
     <row r="285" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A285" s="2"/>
+      <c r="A285" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="B285" s="2"/>
-      <c r="C285" s="2"/>
+      <c r="C285" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D285" s="3"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
@@ -13756,9 +15989,13 @@
       <c r="R285" s="1"/>
     </row>
     <row r="286" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A286" s="2"/>
+      <c r="A286" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="B286" s="2"/>
-      <c r="C286" s="2"/>
+      <c r="C286" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D286" s="3"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
@@ -13776,9 +16013,13 @@
       <c r="R286" s="1"/>
     </row>
     <row r="287" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A287" s="2"/>
+      <c r="A287" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="B287" s="2"/>
-      <c r="C287" s="2"/>
+      <c r="C287" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D287" s="3"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
@@ -13796,9 +16037,13 @@
       <c r="R287" s="1"/>
     </row>
     <row r="288" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A288" s="2"/>
+      <c r="A288" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="B288" s="2"/>
-      <c r="C288" s="2"/>
+      <c r="C288" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D288" s="3"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
@@ -13816,9 +16061,13 @@
       <c r="R288" s="1"/>
     </row>
     <row r="289" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A289" s="2"/>
+      <c r="A289" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="B289" s="2"/>
-      <c r="C289" s="2"/>
+      <c r="C289" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D289" s="3"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
@@ -13836,9 +16085,13 @@
       <c r="R289" s="1"/>
     </row>
     <row r="290" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A290" s="2"/>
+      <c r="A290" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="B290" s="2"/>
-      <c r="C290" s="2"/>
+      <c r="C290" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D290" s="3"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
@@ -13856,9 +16109,13 @@
       <c r="R290" s="1"/>
     </row>
     <row r="291" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A291" s="2"/>
+      <c r="A291" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="B291" s="2"/>
-      <c r="C291" s="2"/>
+      <c r="C291" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D291" s="3"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
@@ -13876,9 +16133,13 @@
       <c r="R291" s="1"/>
     </row>
     <row r="292" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A292" s="2"/>
+      <c r="A292" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="B292" s="2"/>
-      <c r="C292" s="2"/>
+      <c r="C292" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D292" s="3"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
@@ -13896,9 +16157,13 @@
       <c r="R292" s="1"/>
     </row>
     <row r="293" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A293" s="2"/>
+      <c r="A293" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="B293" s="2"/>
-      <c r="C293" s="2"/>
+      <c r="C293" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D293" s="3"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
@@ -13916,9 +16181,13 @@
       <c r="R293" s="1"/>
     </row>
     <row r="294" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A294" s="2"/>
+      <c r="A294" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B294" s="2"/>
-      <c r="C294" s="2"/>
+      <c r="C294" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D294" s="3"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
@@ -13936,9 +16205,13 @@
       <c r="R294" s="1"/>
     </row>
     <row r="295" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A295" s="2"/>
+      <c r="A295" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B295" s="2"/>
-      <c r="C295" s="2"/>
+      <c r="C295" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D295" s="3"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
@@ -13956,9 +16229,13 @@
       <c r="R295" s="1"/>
     </row>
     <row r="296" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A296" s="2"/>
+      <c r="A296" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="B296" s="2"/>
-      <c r="C296" s="2"/>
+      <c r="C296" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D296" s="3"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
@@ -13976,9 +16253,13 @@
       <c r="R296" s="1"/>
     </row>
     <row r="297" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A297" s="2"/>
+      <c r="A297" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B297" s="2"/>
-      <c r="C297" s="2"/>
+      <c r="C297" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D297" s="3"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
@@ -13996,9 +16277,13 @@
       <c r="R297" s="1"/>
     </row>
     <row r="298" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A298" s="2"/>
+      <c r="A298" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="B298" s="2"/>
-      <c r="C298" s="2"/>
+      <c r="C298" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D298" s="3"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
@@ -14016,9 +16301,13 @@
       <c r="R298" s="1"/>
     </row>
     <row r="299" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A299" s="2"/>
+      <c r="A299" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="B299" s="2"/>
-      <c r="C299" s="2"/>
+      <c r="C299" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D299" s="3"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
@@ -14036,9 +16325,13 @@
       <c r="R299" s="1"/>
     </row>
     <row r="300" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A300" s="2"/>
+      <c r="A300" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B300" s="2"/>
-      <c r="C300" s="2"/>
+      <c r="C300" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="D300" s="3"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
@@ -14056,9 +16349,13 @@
       <c r="R300" s="1"/>
     </row>
     <row r="301" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A301" s="2"/>
+      <c r="A301" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B301" s="2"/>
-      <c r="C301" s="2"/>
+      <c r="C301" s="2" t="s">
+        <v>384</v>
+      </c>
       <c r="D301" s="3"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
@@ -14076,9 +16373,13 @@
       <c r="R301" s="1"/>
     </row>
     <row r="302" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A302" s="2"/>
+      <c r="A302" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="B302" s="2"/>
-      <c r="C302" s="2"/>
+      <c r="C302" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="D302" s="3"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
@@ -14096,9 +16397,13 @@
       <c r="R302" s="1"/>
     </row>
     <row r="303" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A303" s="2"/>
+      <c r="A303" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B303" s="2"/>
-      <c r="C303" s="2"/>
+      <c r="C303" s="2" t="s">
+        <v>385</v>
+      </c>
       <c r="D303" s="3"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
@@ -14116,9 +16421,13 @@
       <c r="R303" s="1"/>
     </row>
     <row r="304" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A304" s="2"/>
+      <c r="A304" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="B304" s="2"/>
-      <c r="C304" s="2"/>
+      <c r="C304" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D304" s="3"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
@@ -14136,9 +16445,13 @@
       <c r="R304" s="1"/>
     </row>
     <row r="305" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A305" s="2"/>
+      <c r="A305" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B305" s="2"/>
-      <c r="C305" s="2"/>
+      <c r="C305" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="D305" s="3"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
@@ -14156,9 +16469,13 @@
       <c r="R305" s="1"/>
     </row>
     <row r="306" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A306" s="2"/>
+      <c r="A306" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B306" s="2"/>
-      <c r="C306" s="2"/>
+      <c r="C306" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D306" s="3"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
@@ -14176,9 +16493,13 @@
       <c r="R306" s="1"/>
     </row>
     <row r="307" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A307" s="2"/>
+      <c r="A307" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B307" s="2"/>
-      <c r="C307" s="2"/>
+      <c r="C307" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="D307" s="3"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
@@ -14196,9 +16517,13 @@
       <c r="R307" s="1"/>
     </row>
     <row r="308" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A308" s="2"/>
+      <c r="A308" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B308" s="2"/>
-      <c r="C308" s="2"/>
+      <c r="C308" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="D308" s="3"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
@@ -14216,9 +16541,13 @@
       <c r="R308" s="1"/>
     </row>
     <row r="309" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A309" s="2"/>
+      <c r="A309" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="B309" s="2"/>
-      <c r="C309" s="2"/>
+      <c r="C309" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="D309" s="3"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
@@ -14236,9 +16565,13 @@
       <c r="R309" s="1"/>
     </row>
     <row r="310" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A310" s="2"/>
+      <c r="A310" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="B310" s="2"/>
-      <c r="C310" s="2"/>
+      <c r="C310" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D310" s="3"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
@@ -14256,9 +16589,13 @@
       <c r="R310" s="1"/>
     </row>
     <row r="311" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A311" s="2"/>
+      <c r="A311" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B311" s="2"/>
-      <c r="C311" s="2"/>
+      <c r="C311" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="D311" s="3"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
@@ -14276,9 +16613,13 @@
       <c r="R311" s="1"/>
     </row>
     <row r="312" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A312" s="2"/>
+      <c r="A312" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B312" s="2"/>
-      <c r="C312" s="2"/>
+      <c r="C312" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D312" s="3"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
@@ -14296,9 +16637,13 @@
       <c r="R312" s="1"/>
     </row>
     <row r="313" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A313" s="2"/>
+      <c r="A313" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="B313" s="2"/>
-      <c r="C313" s="2"/>
+      <c r="C313" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="D313" s="3"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
@@ -14316,9 +16661,13 @@
       <c r="R313" s="1"/>
     </row>
     <row r="314" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A314" s="2"/>
+      <c r="A314" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="B314" s="2"/>
-      <c r="C314" s="2"/>
+      <c r="C314" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D314" s="3"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
@@ -14336,9 +16685,13 @@
       <c r="R314" s="1"/>
     </row>
     <row r="315" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A315" s="2"/>
+      <c r="A315" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B315" s="2"/>
-      <c r="C315" s="2"/>
+      <c r="C315" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="D315" s="3"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
@@ -14356,9 +16709,13 @@
       <c r="R315" s="1"/>
     </row>
     <row r="316" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A316" s="2"/>
+      <c r="A316" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="B316" s="2"/>
-      <c r="C316" s="2"/>
+      <c r="C316" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D316" s="3"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
@@ -14376,9 +16733,13 @@
       <c r="R316" s="1"/>
     </row>
     <row r="317" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A317" s="2"/>
+      <c r="A317" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="B317" s="2"/>
-      <c r="C317" s="2"/>
+      <c r="C317" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D317" s="3"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
@@ -14396,9 +16757,13 @@
       <c r="R317" s="1"/>
     </row>
     <row r="318" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A318" s="2"/>
+      <c r="A318" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="B318" s="2"/>
-      <c r="C318" s="2"/>
+      <c r="C318" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D318" s="3"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
@@ -14416,9 +16781,13 @@
       <c r="R318" s="1"/>
     </row>
     <row r="319" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A319" s="2"/>
+      <c r="A319" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="B319" s="2"/>
-      <c r="C319" s="2"/>
+      <c r="C319" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D319" s="3"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
@@ -14436,9 +16805,13 @@
       <c r="R319" s="1"/>
     </row>
     <row r="320" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A320" s="2"/>
+      <c r="A320" s="2" t="s">
+        <v>364</v>
+      </c>
       <c r="B320" s="2"/>
-      <c r="C320" s="2"/>
+      <c r="C320" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D320" s="3"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
@@ -14456,9 +16829,13 @@
       <c r="R320" s="1"/>
     </row>
     <row r="321" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A321" s="2"/>
+      <c r="A321" s="2" t="s">
+        <v>365</v>
+      </c>
       <c r="B321" s="2"/>
-      <c r="C321" s="2"/>
+      <c r="C321" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D321" s="3"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
@@ -14476,9 +16853,13 @@
       <c r="R321" s="1"/>
     </row>
     <row r="322" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A322" s="2"/>
+      <c r="A322" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B322" s="2"/>
-      <c r="C322" s="2"/>
+      <c r="C322" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="D322" s="3"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
@@ -14496,9 +16877,13 @@
       <c r="R322" s="1"/>
     </row>
     <row r="323" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A323" s="2"/>
+      <c r="A323" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="B323" s="2"/>
-      <c r="C323" s="2"/>
+      <c r="C323" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D323" s="3"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
@@ -14516,9 +16901,13 @@
       <c r="R323" s="1"/>
     </row>
     <row r="324" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A324" s="2"/>
+      <c r="A324" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="B324" s="2"/>
-      <c r="C324" s="2"/>
+      <c r="C324" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D324" s="3"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
@@ -14536,9 +16925,13 @@
       <c r="R324" s="1"/>
     </row>
     <row r="325" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A325" s="2"/>
+      <c r="A325" s="2" t="s">
+        <v>368</v>
+      </c>
       <c r="B325" s="2"/>
-      <c r="C325" s="2"/>
+      <c r="C325" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D325" s="3"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
@@ -14556,9 +16949,13 @@
       <c r="R325" s="1"/>
     </row>
     <row r="326" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A326" s="2"/>
+      <c r="A326" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="B326" s="2"/>
-      <c r="C326" s="2"/>
+      <c r="C326" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D326" s="3"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
@@ -14576,9 +16973,13 @@
       <c r="R326" s="1"/>
     </row>
     <row r="327" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A327" s="2"/>
+      <c r="A327" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B327" s="2"/>
-      <c r="C327" s="2"/>
+      <c r="C327" s="2" t="s">
+        <v>389</v>
+      </c>
       <c r="D327" s="3"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
@@ -14596,9 +16997,13 @@
       <c r="R327" s="1"/>
     </row>
     <row r="328" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A328" s="2"/>
+      <c r="A328" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B328" s="2"/>
-      <c r="C328" s="2"/>
+      <c r="C328" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="D328" s="3"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
@@ -14616,9 +17021,13 @@
       <c r="R328" s="1"/>
     </row>
     <row r="329" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A329" s="2"/>
+      <c r="A329" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B329" s="2"/>
-      <c r="C329" s="2"/>
+      <c r="C329" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="D329" s="3"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
@@ -14636,9 +17045,13 @@
       <c r="R329" s="1"/>
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A330" s="2"/>
+      <c r="A330" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="B330" s="2"/>
-      <c r="C330" s="2"/>
+      <c r="C330" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D330" s="3"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
@@ -14656,9 +17069,13 @@
       <c r="R330" s="1"/>
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A331" s="2"/>
+      <c r="A331" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B331" s="2"/>
-      <c r="C331" s="2"/>
+      <c r="C331" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="D331" s="3"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
@@ -14676,9 +17093,13 @@
       <c r="R331" s="1"/>
     </row>
     <row r="332" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A332" s="2"/>
+      <c r="A332" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B332" s="2"/>
-      <c r="C332" s="2"/>
+      <c r="C332" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D332" s="3"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
@@ -14696,9 +17117,13 @@
       <c r="R332" s="1"/>
     </row>
     <row r="333" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A333" s="2"/>
+      <c r="A333" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="B333" s="2"/>
-      <c r="C333" s="2"/>
+      <c r="C333" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="D333" s="3"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
@@ -14716,9 +17141,13 @@
       <c r="R333" s="1"/>
     </row>
     <row r="334" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A334" s="2"/>
+      <c r="A334" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B334" s="2"/>
-      <c r="C334" s="2"/>
+      <c r="C334" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="D334" s="3"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
@@ -14736,9 +17165,13 @@
       <c r="R334" s="1"/>
     </row>
     <row r="335" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A335" s="2"/>
+      <c r="A335" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B335" s="2"/>
-      <c r="C335" s="2"/>
+      <c r="C335" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="D335" s="3"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
@@ -14756,9 +17189,13 @@
       <c r="R335" s="1"/>
     </row>
     <row r="336" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A336" s="2"/>
+      <c r="A336" s="4" t="s">
+        <v>372</v>
+      </c>
       <c r="B336" s="2"/>
-      <c r="C336" s="2"/>
+      <c r="C336" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D336" s="3"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
@@ -14776,9 +17213,13 @@
       <c r="R336" s="1"/>
     </row>
     <row r="337" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A337" s="2"/>
+      <c r="A337" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="B337" s="2"/>
-      <c r="C337" s="2"/>
+      <c r="C337" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D337" s="3"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
@@ -14796,9 +17237,13 @@
       <c r="R337" s="1"/>
     </row>
     <row r="338" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A338" s="4"/>
+      <c r="A338" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="B338" s="2"/>
-      <c r="C338" s="2"/>
+      <c r="C338" s="2" t="s">
+        <v>389</v>
+      </c>
       <c r="D338" s="3"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
@@ -14816,9 +17261,13 @@
       <c r="R338" s="1"/>
     </row>
     <row r="339" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A339" s="4"/>
+      <c r="A339" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="B339" s="2"/>
-      <c r="C339" s="2"/>
+      <c r="C339" s="2" t="s">
+        <v>393</v>
+      </c>
       <c r="D339" s="3"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
@@ -14836,9 +17285,13 @@
       <c r="R339" s="1"/>
     </row>
     <row r="340" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A340" s="4"/>
+      <c r="A340" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="B340" s="2"/>
-      <c r="C340" s="2"/>
+      <c r="C340" s="2" t="s">
+        <v>394</v>
+      </c>
       <c r="D340" s="3"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
@@ -14856,9 +17309,13 @@
       <c r="R340" s="1"/>
     </row>
     <row r="341" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A341" s="4"/>
+      <c r="A341" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="B341" s="2"/>
-      <c r="C341" s="2"/>
+      <c r="C341" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="D341" s="3"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
@@ -14876,9 +17333,13 @@
       <c r="R341" s="1"/>
     </row>
     <row r="342" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A342" s="4"/>
+      <c r="A342" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="B342" s="2"/>
-      <c r="C342" s="2"/>
+      <c r="C342" s="2" t="s">
+        <v>374</v>
+      </c>
       <c r="D342" s="3"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
@@ -14896,9 +17357,13 @@
       <c r="R342" s="1"/>
     </row>
     <row r="343" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A343" s="4"/>
+      <c r="A343" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="B343" s="2"/>
-      <c r="C343" s="2"/>
+      <c r="C343" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="D343" s="3"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
@@ -14916,9 +17381,13 @@
       <c r="R343" s="1"/>
     </row>
     <row r="344" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A344" s="4"/>
+      <c r="A344" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="B344" s="2"/>
-      <c r="C344" s="2"/>
+      <c r="C344" s="2" t="s">
+        <v>397</v>
+      </c>
       <c r="D344" s="3"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
@@ -14936,9 +17405,13 @@
       <c r="R344" s="1"/>
     </row>
     <row r="345" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A345" s="4"/>
+      <c r="A345" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="B345" s="2"/>
-      <c r="C345" s="2"/>
+      <c r="C345" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="D345" s="3"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
@@ -14956,9 +17429,13 @@
       <c r="R345" s="1"/>
     </row>
     <row r="346" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A346" s="4"/>
+      <c r="A346" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="B346" s="2"/>
-      <c r="C346" s="2"/>
+      <c r="C346" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="D346" s="3"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
@@ -14976,9 +17453,13 @@
       <c r="R346" s="1"/>
     </row>
     <row r="347" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A347" s="4"/>
+      <c r="A347" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="B347" s="2"/>
-      <c r="C347" s="2"/>
+      <c r="C347" s="2" t="s">
+        <v>400</v>
+      </c>
       <c r="D347" s="3"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
@@ -14996,9 +17477,13 @@
       <c r="R347" s="1"/>
     </row>
     <row r="348" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A348" s="4"/>
+      <c r="A348" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="B348" s="2"/>
-      <c r="C348" s="2"/>
+      <c r="C348" s="6">
+        <v>145</v>
+      </c>
       <c r="D348" s="3"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
@@ -15016,7 +17501,9 @@
       <c r="R348" s="1"/>
     </row>
     <row r="349" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A349" s="4"/>
+      <c r="C349" s="6">
+        <v>849349</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/uploads/Besoin.xlsx
+++ b/public/uploads/Besoin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\arco\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD2212E-D049-4A7D-B2BA-8C091942A4E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C5B3E7-2E9C-485C-B66E-B9480CBF3665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/public/uploads/Besoin.xlsx
+++ b/public/uploads/Besoin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\arco\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C5B3E7-2E9C-485C-B66E-B9480CBF3665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEF1765-2B75-48F8-A42B-57E1B1217B19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$W$275</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Feuil2!$A$1:$W$349</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,8 +29,127 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>CLEMENTE</author>
+  </authors>
+  <commentList>
+    <comment ref="A457" authorId="0" shapeId="0" xr:uid="{27FDDBCB-6027-4E9E-8BFE-B1BB4E0C7EAD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>!SQL!DBJDE:43,*
+SELECT trim(IBLITM)         CODIGO ,
+       IMDSC1||IMDSC2 DESCRIPCION,
+       IBLTLV PLAZO,
+IBLNTY TIP_LIN,
+IBOPC COD_NR_ORD,
+IBMPST COD_PLAN,
+IBMPSP REG_LIM_PLAN,
+IBMTF1 LI_PLAN,
+IBMTF2 LI_CONG,
+       IBACQ/100  TAMANO_MEDIO_LOTE,
+       IBRQMX/100 TAMANO_MAXIMO,
+       IBRQMN/100 TAMANO_MINIMO,
+       IBMULT/100 MULTIPLO,
+       IMUOM9 um,
+       IBSAFE/100 STOCK_SEGURIDAD,
+       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'01', MFFQT/100 ,0)) ENE,
+       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'02', MFFQT/100 ,0)) FEB,
+       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'03', MFFQT/100 ,0)) MAR,
+       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'04', MFFQT/100 ,0)) ABR,
+       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'05', MFFQT/100 ,0)) MAY,
+       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'06', MFFQT/100 ,0)) JUN,
+       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'07', MFFQT/100 ,0)) JUL,
+       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'08', MFFQT/100 ,0)) AGO,
+       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'09', MFFQT/100 ,0)) SEP,
+       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'10', MFFQT/100 ,0)) OCT,
+       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'11', MFFQT/100 ,0)) NOV,
+       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'12', MFFQT/100 ,0)) DIC,
+     (
+      SELECT SUM(LIPQOH) / 100
+        FROM PRODDTA.F41021@DBJDE
+       WHERE LIMCU = LPAD('0101', 12, ' ')
+         AND LIITM = IMITM
+      ) EXISTENCIA,
+     ROUND(ARCO_CONSUMO_ARTICULO@DBJDE(IBLITM,0)+ARCO_CONSUMO_COMPONENTE@DBJDE(IBLITM,0)) CONSUMO_12M,
+     (
+      SELECT SUM(LIPREQ) / 100
+        FROM PRODDTA.F41021@DBJDE
+       WHERE LIMCU = LPAD('0101', 12, ' ')
+         AND LIITM = IMITM
+      ) PEND_COMPRAS,
+     (
+      SELECT SUM(LIQWBO) / 100
+        FROM PRODDTA.F41021@DBJDE
+       WHERE LIMCU = LPAD('0101', 12, ' ')
+         AND LIITM = IMITM
+      ) PEND_OF       ,
+    IBANPL    PLANIFICADOR,
+    ARCO_NOMBRE_TERCERO@DBJDE(IBANPL) PLANIF_NOMBRE,
+    IBBUYR    COMPRADOR,
+    ARCO_NOMBRE_TERCERO@DBJDE(IBBUYR) COMPRADOR_NOMBRE,   
+   IBPRP4 FPL,
+   IBSTKT T_ALM,
+   IMDRAW PLANO,
+   ARCO_UDC_PROD@dbjde(IBLITM ,IBMCU ,'CLM','C') CLM,
+   IBVEND  COD_PROV, 
+   ARCO_NOMBRE_TERCERO@DBJDE(IBVEND)  NOM_PROV ,
+    (
+      SELECT COUNT(*)
+         FROM PRODDTA.F3002@dbjde
+         START WITH IXITM =IMITM
+                       AND IXTBM = 'M  '
+                       AND SYSDATE &gt;= ARCO_TO_DATE@DBJDE(IXEFFF)
+                       AND SYSDATE &lt;= ARCO_TO_DATE@DBJDE(IXEFFT)
+          CONNECT BY PRIOR IXKIT = IXITM /* IXKITL  = IXLITM  */
+      )      CONSUMIDO,
+   IBOPV VAL_POL_ORD
+  FROM PRODDTA.F4101@DBJDE,
+       PRODDTA.F4102@DBJDE,
+       PRODDTA.F3460@DBJDE
+WHERE IBMCU = LPAD('{=R1C2}',12,' ')
+  AND (IBVEND = ('{=R2C2}') OR  IBVEND = ('{=R3C2}'))
+  AND IMLITM = IBLITM
+  AND MFITM(+) = IBITM
+  AND MFMCU(+) = IBMCU
+  AND MFTYPF(+)  = 'SA'
+  AND MFDRQJ(+)  BETWEEN ARCO_TO_JULIANA@DBJDE(TRUNC(SYSDATE,'YYYY')) AND
+                         ARCO_TO_JULIANA@DBJDE(ADD_MONTHS(TRUNC(SYSDATE,'YYYY'),12)-1)
+  AND IBSTKT &lt;&gt;'O'
+  AND IBSTKT &lt;&gt; 'U'
+GROUP BY trim(IBLITM) ,IMITM,IBLITM,IBMCU,
+IBOPV,
+IBLNTY,
+IBOPC,
+IBMPST,
+IBMPSP,
+IBMTF1,
+IBMTF2,
+       IMDSC1||IMDSC2,
+       IBLTLV ,
+       IBACQ/100  ,
+       IBRQMX/100 ,
+       IBRQMN/100 ,
+       IBMULT/100 ,
+       IBSAFE/100 ,
+       IBANPL, IBPRP4, IBSTKT, IMDRAW, IBVEND, IBBUYR,IMUOM9 
+ORDER BY  IBLITM</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="164">
   <si>
     <t>B120408</t>
   </si>
@@ -337,52 +457,10 @@
     <t>1TECH</t>
   </si>
   <si>
-    <t>1181960CR</t>
-  </si>
-  <si>
-    <t>1301300M</t>
-  </si>
-  <si>
     <t>2TECH</t>
   </si>
   <si>
     <t>212005U</t>
-  </si>
-  <si>
-    <t>903021A</t>
-  </si>
-  <si>
-    <t>903022A</t>
-  </si>
-  <si>
-    <t>903023A</t>
-  </si>
-  <si>
-    <t>903031A</t>
-  </si>
-  <si>
-    <t>903032A</t>
-  </si>
-  <si>
-    <t>903033A</t>
-  </si>
-  <si>
-    <t>903041A</t>
-  </si>
-  <si>
-    <t>903042A</t>
-  </si>
-  <si>
-    <t>903043A</t>
-  </si>
-  <si>
-    <t>903051A</t>
-  </si>
-  <si>
-    <t>903052A</t>
-  </si>
-  <si>
-    <t>903053A</t>
   </si>
   <si>
     <t>0046001</t>
@@ -457,51 +535,6 @@
     <t>0233510</t>
   </si>
   <si>
-    <t>1007711</t>
-  </si>
-  <si>
-    <t>1180072</t>
-  </si>
-  <si>
-    <t>1180450</t>
-  </si>
-  <si>
-    <t>1180480</t>
-  </si>
-  <si>
-    <t>1180490</t>
-  </si>
-  <si>
-    <t>1180500</t>
-  </si>
-  <si>
-    <t>1181051</t>
-  </si>
-  <si>
-    <t>1181150</t>
-  </si>
-  <si>
-    <t>1182030</t>
-  </si>
-  <si>
-    <t>1182100</t>
-  </si>
-  <si>
-    <t>1182170</t>
-  </si>
-  <si>
-    <t>1189552</t>
-  </si>
-  <si>
-    <t>1189561</t>
-  </si>
-  <si>
-    <t>1300186</t>
-  </si>
-  <si>
-    <t>1300187</t>
-  </si>
-  <si>
     <t>1330320</t>
   </si>
   <si>
@@ -532,37 +565,13 @@
     <t>37720</t>
   </si>
   <si>
-    <t>AS461</t>
-  </si>
-  <si>
     <t>AS463</t>
   </si>
   <si>
     <t>AS464</t>
   </si>
   <si>
-    <t>AS466</t>
-  </si>
-  <si>
-    <t>B120308</t>
-  </si>
-  <si>
-    <t>B121508</t>
-  </si>
-  <si>
-    <t>C30108</t>
-  </si>
-  <si>
-    <t>C30113</t>
-  </si>
-  <si>
-    <t>C30115</t>
-  </si>
-  <si>
     <t>KCM13</t>
-  </si>
-  <si>
-    <t>KCM15SP</t>
   </si>
   <si>
     <t>KCM19</t>
@@ -571,100 +580,7 @@
     <t>KCM45SP</t>
   </si>
   <si>
-    <t>KCM46</t>
-  </si>
-  <si>
-    <t>KCM47</t>
-  </si>
-  <si>
-    <t>MF200AD</t>
-  </si>
-  <si>
-    <t>SEAS452</t>
-  </si>
-  <si>
-    <t>SEAS453</t>
-  </si>
-  <si>
-    <t>SEAS455F</t>
-  </si>
-  <si>
-    <t>SEAS456F</t>
-  </si>
-  <si>
-    <t>SEAS464F</t>
-  </si>
-  <si>
-    <t>SEAS465F</t>
-  </si>
-  <si>
-    <t>SEA121108</t>
-  </si>
-  <si>
-    <t>SEA121308</t>
-  </si>
-  <si>
-    <t>SEA121408</t>
-  </si>
-  <si>
-    <t>SEA121508</t>
-  </si>
-  <si>
-    <t>SEC30114</t>
-  </si>
-  <si>
-    <t>SEC30116</t>
-  </si>
-  <si>
     <t>SEC4392</t>
-  </si>
-  <si>
-    <t>SENV870CF</t>
-  </si>
-  <si>
-    <t>SE0112708</t>
-  </si>
-  <si>
-    <t>SE0112908</t>
-  </si>
-  <si>
-    <t>SE0113108</t>
-  </si>
-  <si>
-    <t>SE0120508SF</t>
-  </si>
-  <si>
-    <t>SE0120708SF</t>
-  </si>
-  <si>
-    <t>SE0120908SF</t>
-  </si>
-  <si>
-    <t>SE01211NBF</t>
-  </si>
-  <si>
-    <t>SE01213NBF</t>
-  </si>
-  <si>
-    <t>SE01214NBF</t>
-  </si>
-  <si>
-    <t>SE01215NBF</t>
-  </si>
-  <si>
-    <t>SE02270</t>
-  </si>
-  <si>
-    <t>SE40100F</t>
-  </si>
-  <si>
-    <t>SE40105</t>
-  </si>
-  <si>
-    <t>SE5TECH</t>
-  </si>
-  <si>
-    <t>SE501225</t>
   </si>
   <si>
     <t>SE501275</t>
@@ -676,85 +592,7 @@
     <t>SE501295</t>
   </si>
   <si>
-    <t>SE503255</t>
-  </si>
-  <si>
-    <t>SE503505</t>
-  </si>
-  <si>
-    <t>SE503506</t>
-  </si>
-  <si>
-    <t>SE503530</t>
-  </si>
-  <si>
-    <t>SE503555</t>
-  </si>
-  <si>
-    <t>SE503556</t>
-  </si>
-  <si>
-    <t>SE503565</t>
-  </si>
-  <si>
-    <t>SE503605</t>
-  </si>
-  <si>
-    <t>SE503655</t>
-  </si>
-  <si>
-    <t>SE507255N</t>
-  </si>
-  <si>
-    <t>SE507265</t>
-  </si>
-  <si>
-    <t>SE507330</t>
-  </si>
-  <si>
-    <t>SE507505</t>
-  </si>
-  <si>
-    <t>SE507506</t>
-  </si>
-  <si>
-    <t>SE507530</t>
-  </si>
-  <si>
-    <t>SE507555</t>
-  </si>
-  <si>
-    <t>SE507556</t>
-  </si>
-  <si>
-    <t>SE507565</t>
-  </si>
-  <si>
-    <t>SE507605</t>
-  </si>
-  <si>
-    <t>SE507655</t>
-  </si>
-  <si>
-    <t>SL1112</t>
-  </si>
-  <si>
-    <t>SL1114</t>
-  </si>
-  <si>
-    <t>SL1115</t>
-  </si>
-  <si>
     <t>SL1132</t>
-  </si>
-  <si>
-    <t>SL1134</t>
-  </si>
-  <si>
-    <t>S2273A</t>
-  </si>
-  <si>
-    <t>00460</t>
   </si>
   <si>
     <t>00463</t>
@@ -763,361 +601,37 @@
     <t>0047201</t>
   </si>
   <si>
-    <t>00473</t>
-  </si>
-  <si>
-    <t>00474</t>
-  </si>
-  <si>
     <t>0112308</t>
-  </si>
-  <si>
-    <t>0112508</t>
-  </si>
-  <si>
-    <t>01127NB</t>
-  </si>
-  <si>
-    <t>01129NB</t>
-  </si>
-  <si>
-    <t>0113008</t>
-  </si>
-  <si>
-    <t>01131NB</t>
   </si>
   <si>
     <t>0113108</t>
   </si>
   <si>
-    <t>0113208</t>
-  </si>
-  <si>
     <t>0113508</t>
-  </si>
-  <si>
-    <t>0113908</t>
-  </si>
-  <si>
-    <t>0114008</t>
-  </si>
-  <si>
-    <t>0114108</t>
-  </si>
-  <si>
-    <t>0114208</t>
-  </si>
-  <si>
-    <t>0117208</t>
-  </si>
-  <si>
-    <t>0117408</t>
-  </si>
-  <si>
-    <t>0117608</t>
-  </si>
-  <si>
-    <t>0120008</t>
-  </si>
-  <si>
-    <t>0120108</t>
-  </si>
-  <si>
-    <t>01205C</t>
-  </si>
-  <si>
-    <t>01205NB</t>
-  </si>
-  <si>
-    <t>01206NB</t>
-  </si>
-  <si>
-    <t>0120608</t>
-  </si>
-  <si>
-    <t>01207C</t>
-  </si>
-  <si>
-    <t>01207NB</t>
-  </si>
-  <si>
-    <t>0120808</t>
-  </si>
-  <si>
-    <t>01209C</t>
-  </si>
-  <si>
-    <t>01209NB</t>
-  </si>
-  <si>
-    <t>01211NB</t>
-  </si>
-  <si>
-    <t>01213NB</t>
-  </si>
-  <si>
-    <t>01214NB</t>
-  </si>
-  <si>
-    <t>01215NB</t>
-  </si>
-  <si>
-    <t>02237</t>
-  </si>
-  <si>
-    <t>02270</t>
-  </si>
-  <si>
-    <t>02275</t>
   </si>
   <si>
     <t>02285</t>
   </si>
   <si>
-    <t>02400MAC01</t>
-  </si>
-  <si>
-    <t>02402MAC03</t>
-  </si>
-  <si>
-    <t>02408MAC</t>
-  </si>
-  <si>
-    <t>03004</t>
-  </si>
-  <si>
-    <t>03104</t>
-  </si>
-  <si>
-    <t>03106</t>
-  </si>
-  <si>
-    <t>03505</t>
-  </si>
-  <si>
-    <t>03702</t>
-  </si>
-  <si>
-    <t>03802</t>
-  </si>
-  <si>
-    <t>03803</t>
-  </si>
-  <si>
-    <t>03901</t>
-  </si>
-  <si>
-    <t>04001</t>
-  </si>
-  <si>
-    <t>1007621</t>
-  </si>
-  <si>
-    <t>1007629</t>
-  </si>
-  <si>
-    <t>1007709</t>
-  </si>
-  <si>
-    <t>1007771M</t>
-  </si>
-  <si>
-    <t>1009940</t>
-  </si>
-  <si>
-    <t>1009940M</t>
-  </si>
-  <si>
-    <t>1033132</t>
-  </si>
-  <si>
-    <t>1033134</t>
-  </si>
-  <si>
-    <t>1180323</t>
-  </si>
-  <si>
-    <t>1180481</t>
-  </si>
-  <si>
-    <t>1180923</t>
-  </si>
-  <si>
-    <t>1181031CR</t>
-  </si>
-  <si>
-    <t>1181375</t>
-  </si>
-  <si>
-    <t>1181530</t>
-  </si>
-  <si>
-    <t>1181930</t>
-  </si>
-  <si>
-    <t>1181952CR</t>
-  </si>
-  <si>
-    <t>1181953CR</t>
-  </si>
-  <si>
-    <t>1182171</t>
-  </si>
-  <si>
-    <t>1182190CR</t>
-  </si>
-  <si>
-    <t>1182191CR</t>
-  </si>
-  <si>
-    <t>1182241CR</t>
-  </si>
-  <si>
-    <t>1182271C</t>
-  </si>
-  <si>
-    <t>1300069</t>
-  </si>
-  <si>
-    <t>1300069B</t>
-  </si>
-  <si>
-    <t>1300069CR</t>
-  </si>
-  <si>
-    <t>1300069P</t>
-  </si>
-  <si>
-    <t>1300179CR</t>
-  </si>
-  <si>
-    <t>1300188</t>
-  </si>
-  <si>
-    <t>1300466CR</t>
-  </si>
-  <si>
-    <t>1300466NI</t>
-  </si>
-  <si>
-    <t>1301300CR</t>
-  </si>
-  <si>
-    <t>1301300NI</t>
-  </si>
-  <si>
-    <t>1309543</t>
-  </si>
-  <si>
-    <t>1309548CR</t>
-  </si>
-  <si>
     <t>1420151</t>
-  </si>
-  <si>
-    <t>1420154</t>
-  </si>
-  <si>
-    <t>1740743</t>
-  </si>
-  <si>
-    <t>1741171C</t>
-  </si>
-  <si>
-    <t>191206</t>
-  </si>
-  <si>
-    <t>191207</t>
   </si>
   <si>
     <t>191208</t>
   </si>
   <si>
-    <t>191209</t>
-  </si>
-  <si>
     <t>201015</t>
-  </si>
-  <si>
-    <t>2019000</t>
-  </si>
-  <si>
-    <t>2019060</t>
-  </si>
-  <si>
-    <t>207110</t>
-  </si>
-  <si>
-    <t>207150</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>208025</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>36310</t>
   </si>
   <si>
     <t>36330</t>
   </si>
   <si>
-    <t>36410</t>
-  </si>
-  <si>
-    <t>36430</t>
-  </si>
-  <si>
-    <t>37510</t>
-  </si>
-  <si>
-    <t>37710</t>
-  </si>
-  <si>
-    <t>37715</t>
-  </si>
-  <si>
-    <t>40100</t>
-  </si>
-  <si>
-    <t>40105</t>
-  </si>
-  <si>
-    <t>501225</t>
-  </si>
-  <si>
     <t>501285</t>
-  </si>
-  <si>
-    <t>501295</t>
   </si>
   <si>
     <t>503210</t>
   </si>
   <si>
-    <t>503240</t>
-  </si>
-  <si>
-    <t>503565</t>
-  </si>
-  <si>
-    <t>507200</t>
-  </si>
-  <si>
-    <t>507240</t>
-  </si>
-  <si>
-    <t>507260</t>
-  </si>
-  <si>
     <t>507265</t>
-  </si>
-  <si>
-    <t>507270</t>
   </si>
   <si>
     <t>507305</t>
@@ -1127,111 +641,6 @@
   </si>
   <si>
     <t>507365</t>
-  </si>
-  <si>
-    <t>507665</t>
-  </si>
-  <si>
-    <t>6300230</t>
-  </si>
-  <si>
-    <t>6300230N</t>
-  </si>
-  <si>
-    <t>6300230V</t>
-  </si>
-  <si>
-    <t>876060</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>876460</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>540</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>1 800</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>Rótulos de fila</t>
-  </si>
-  <si>
-    <t>3 000</t>
-  </si>
-  <si>
-    <t>1 080</t>
-  </si>
-  <si>
-    <t>5 400</t>
-  </si>
-  <si>
-    <t>840</t>
-  </si>
-  <si>
-    <t>1 560</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>1 260</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>1 640</t>
-  </si>
-  <si>
-    <t>680</t>
-  </si>
-  <si>
-    <t>1 642</t>
-  </si>
-  <si>
-    <t>2 842</t>
-  </si>
-  <si>
-    <t>1 385</t>
-  </si>
-  <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>1 112</t>
-  </si>
-  <si>
-    <t>493</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>616</t>
-  </si>
-  <si>
-    <t>242</t>
   </si>
 </sst>
 </file>
@@ -1243,7 +652,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1424,9 +833,16 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1615,6 +1031,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1867,7 +1289,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1880,15 +1302,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="124"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="124"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="124" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="124" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="124" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="129" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="124" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="129" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="124" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9203,8 +8623,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ACAE54-B3E6-44BA-9EA0-30D1932E1BEF}">
-  <dimension ref="A1:W349"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ACAE54-B3E6-44BA-9EA0-30D1932E1BEF}">
+  <dimension ref="A1:W608"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
@@ -9212,15 +8632,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
-    <col min="3" max="3" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="C1" s="14"/>
       <c r="E1" t="s">
         <v>30</v>
       </c>
@@ -9280,14 +8697,16 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="14">
-        <v>204</v>
-      </c>
-      <c r="D2" s="7"/>
+      <c r="B2" s="2">
+        <v>1455</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1455</v>
+      </c>
+      <c r="D2" s="11"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -9304,14 +8723,16 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="14">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7"/>
+      <c r="B3" s="2">
+        <v>2533</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2533</v>
+      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -9328,14 +8749,16 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="14">
-        <v>735</v>
-      </c>
-      <c r="D4" s="7"/>
+      <c r="B4" s="2">
+        <v>6048</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6048</v>
+      </c>
+      <c r="D4" s="11"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -9352,14 +8775,16 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="14">
-        <v>1680</v>
-      </c>
-      <c r="D5" s="13"/>
+      <c r="B5" s="2">
+        <v>15000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15000</v>
+      </c>
+      <c r="D5" s="11"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -9376,14 +8801,16 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="14">
-        <v>1680</v>
-      </c>
-      <c r="D6" s="13"/>
+      <c r="B6" s="2">
+        <v>21366</v>
+      </c>
+      <c r="C6" s="2">
+        <v>21366</v>
+      </c>
+      <c r="D6" s="11"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -9400,14 +8827,16 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="14">
-        <v>1680</v>
-      </c>
-      <c r="D7" s="7"/>
+      <c r="B7" s="2">
+        <v>11558</v>
+      </c>
+      <c r="C7" s="2">
+        <v>11558</v>
+      </c>
+      <c r="D7" s="11"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -9424,14 +8853,16 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="14">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2">
+        <v>265</v>
+      </c>
+      <c r="C8" s="2">
+        <v>265</v>
+      </c>
+      <c r="D8" s="11"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -9448,14 +8879,16 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="14">
-        <v>63</v>
-      </c>
-      <c r="D9" s="7"/>
+      <c r="A9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="2">
+        <v>211</v>
+      </c>
+      <c r="C9" s="2">
+        <v>211</v>
+      </c>
+      <c r="D9" s="11"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -9472,14 +8905,16 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="14">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7"/>
+      <c r="A10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="2">
+        <v>11225</v>
+      </c>
+      <c r="C10" s="2">
+        <v>11225</v>
+      </c>
+      <c r="D10" s="11"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -9496,14 +8931,16 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="14">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7"/>
+      <c r="A11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="2">
+        <v>400</v>
+      </c>
+      <c r="C11" s="2">
+        <v>400</v>
+      </c>
+      <c r="D11" s="11"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -9520,14 +8957,16 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="14">
-        <v>168</v>
-      </c>
-      <c r="D12" s="7"/>
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>115</v>
+      </c>
+      <c r="C12" s="2">
+        <v>115</v>
+      </c>
+      <c r="D12" s="11"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -9544,14 +8983,16 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7"/>
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>11</v>
+      </c>
+      <c r="D13" s="11"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -9568,14 +9009,16 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="14">
-        <v>60</v>
-      </c>
-      <c r="D14" s="7"/>
+      <c r="A14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="2">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2">
+        <v>22</v>
+      </c>
+      <c r="D14" s="11"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -9592,14 +9035,16 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="14">
-        <v>120</v>
-      </c>
-      <c r="D15" s="7"/>
+      <c r="A15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2">
+        <v>900</v>
+      </c>
+      <c r="C15" s="2">
+        <v>900</v>
+      </c>
+      <c r="D15" s="11"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -9616,14 +9061,16 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="14">
-        <v>800</v>
-      </c>
-      <c r="D16" s="7"/>
+      <c r="A16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="2">
+        <v>225</v>
+      </c>
+      <c r="C16" s="2">
+        <v>225</v>
+      </c>
+      <c r="D16" s="11"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -9640,14 +9087,16 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="14">
-        <v>600</v>
-      </c>
-      <c r="D17" s="7"/>
+      <c r="A17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2">
+        <v>522</v>
+      </c>
+      <c r="C17" s="2">
+        <v>522</v>
+      </c>
+      <c r="D17" s="11"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -9664,14 +9113,16 @@
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="14">
-        <v>600</v>
-      </c>
-      <c r="D18" s="7"/>
+      <c r="A18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="2">
+        <v>651</v>
+      </c>
+      <c r="C18" s="2">
+        <v>651</v>
+      </c>
+      <c r="D18" s="11"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -9688,14 +9139,16 @@
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="14">
-        <v>108</v>
-      </c>
-      <c r="D19" s="7"/>
+      <c r="A19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2">
+        <v>321684</v>
+      </c>
+      <c r="C19" s="2">
+        <v>321684</v>
+      </c>
+      <c r="D19" s="11"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -9712,14 +9165,16 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="14">
-        <v>80</v>
-      </c>
-      <c r="D20" s="7"/>
+      <c r="A20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="2">
+        <v>480</v>
+      </c>
+      <c r="C20" s="2">
+        <v>480</v>
+      </c>
+      <c r="D20" s="11"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -9736,14 +9191,16 @@
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="14">
-        <v>80</v>
-      </c>
-      <c r="D21" s="7"/>
+      <c r="A21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="2">
+        <v>8654</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8654</v>
+      </c>
+      <c r="D21" s="11"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -9760,14 +9217,16 @@
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="14">
-        <v>16</v>
-      </c>
-      <c r="D22" s="7"/>
+      <c r="A22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="2">
+        <v>654</v>
+      </c>
+      <c r="C22" s="2">
+        <v>654</v>
+      </c>
+      <c r="D22" s="11"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -9784,14 +9243,16 @@
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="14">
-        <v>128</v>
-      </c>
-      <c r="D23" s="7"/>
+      <c r="A23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="2">
+        <v>654654</v>
+      </c>
+      <c r="C23" s="2">
+        <v>654654</v>
+      </c>
+      <c r="D23" s="11"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -9808,14 +9269,16 @@
       <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="14">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7"/>
+      <c r="A24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="2">
+        <v>654</v>
+      </c>
+      <c r="C24" s="2">
+        <v>654</v>
+      </c>
+      <c r="D24" s="11"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -9832,14 +9295,16 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="14">
-        <v>180</v>
-      </c>
-      <c r="D25" s="7"/>
+      <c r="A25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="2">
+        <v>300</v>
+      </c>
+      <c r="C25" s="2">
+        <v>300</v>
+      </c>
+      <c r="D25" s="11"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -9856,14 +9321,16 @@
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="14">
-        <v>50</v>
-      </c>
-      <c r="D26" s="7"/>
+      <c r="A26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="2">
+        <v>651651</v>
+      </c>
+      <c r="C26" s="2">
+        <v>651651</v>
+      </c>
+      <c r="D26" s="11"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -9880,14 +9347,16 @@
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="14">
-        <v>675</v>
-      </c>
-      <c r="D27" s="7"/>
+      <c r="A27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="2">
+        <v>6546265</v>
+      </c>
+      <c r="C27" s="2">
+        <v>6546265</v>
+      </c>
+      <c r="D27" s="11"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -9904,14 +9373,16 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="14">
-        <v>1200</v>
-      </c>
-      <c r="D28" s="13"/>
+      <c r="A28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4623</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4623</v>
+      </c>
+      <c r="D28" s="11"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -9928,14 +9399,16 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="14">
-        <v>132</v>
-      </c>
-      <c r="D29" s="7"/>
+      <c r="A29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="2">
+        <v>654</v>
+      </c>
+      <c r="C29" s="2">
+        <v>654</v>
+      </c>
+      <c r="D29" s="11"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -9952,14 +9425,16 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="14">
-        <v>0</v>
-      </c>
-      <c r="D30" s="13"/>
+      <c r="A30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="2">
+        <v>654</v>
+      </c>
+      <c r="C30" s="2">
+        <v>654</v>
+      </c>
+      <c r="D30" s="11"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -9976,14 +9451,16 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="14">
-        <v>180</v>
-      </c>
-      <c r="D31" s="7"/>
+      <c r="A31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D31" s="11"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -10000,14 +9477,16 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="14">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7"/>
+      <c r="A32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="2">
+        <v>874</v>
+      </c>
+      <c r="C32" s="2">
+        <v>874</v>
+      </c>
+      <c r="D32" s="11"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -10024,14 +9503,16 @@
       <c r="R32" s="1"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="14">
-        <v>2340</v>
-      </c>
-      <c r="D33" s="7"/>
+      <c r="A33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="2">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6</v>
+      </c>
+      <c r="D33" s="11"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -10048,14 +9529,16 @@
       <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="14">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7"/>
+      <c r="A34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="2">
+        <v>64</v>
+      </c>
+      <c r="C34" s="2">
+        <v>64</v>
+      </c>
+      <c r="D34" s="11"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -10072,14 +9555,16 @@
       <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="14">
-        <v>10350</v>
-      </c>
-      <c r="D35" s="13"/>
+      <c r="A35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="2">
+        <v>654</v>
+      </c>
+      <c r="C35" s="2">
+        <v>654</v>
+      </c>
+      <c r="D35" s="11"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -10096,14 +9581,16 @@
       <c r="R35" s="1"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="14">
-        <v>6270</v>
-      </c>
-      <c r="D36" s="13"/>
+      <c r="A36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="2">
+        <v>6548</v>
+      </c>
+      <c r="C36" s="2">
+        <v>6548</v>
+      </c>
+      <c r="D36" s="11"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -10120,14 +9607,16 @@
       <c r="R36" s="1"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="14">
-        <v>150</v>
-      </c>
-      <c r="D37" s="7"/>
+      <c r="A37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="2">
+        <v>351</v>
+      </c>
+      <c r="C37" s="2">
+        <v>351</v>
+      </c>
+      <c r="D37" s="11"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -10144,14 +9633,16 @@
       <c r="R37" s="1"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="14">
-        <v>300</v>
-      </c>
-      <c r="D38" s="7"/>
+      <c r="A38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="2">
+        <v>64</v>
+      </c>
+      <c r="C38" s="2">
+        <v>64</v>
+      </c>
+      <c r="D38" s="11"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -10168,14 +9659,16 @@
       <c r="R38" s="1"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="14">
-        <v>480</v>
-      </c>
-      <c r="D39" s="7"/>
+      <c r="A39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="2">
+        <v>654</v>
+      </c>
+      <c r="C39" s="2">
+        <v>654</v>
+      </c>
+      <c r="D39" s="11"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -10192,14 +9685,16 @@
       <c r="R39" s="1"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="14">
-        <v>540</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="A40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="2">
+        <v>4080</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4080</v>
+      </c>
+      <c r="D40" s="11"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -10216,14 +9711,16 @@
       <c r="R40" s="1"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="14">
-        <v>1830</v>
-      </c>
-      <c r="D41" s="7"/>
+      <c r="A41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="2">
+        <v>654654</v>
+      </c>
+      <c r="C41" s="2">
+        <v>654654</v>
+      </c>
+      <c r="D41" s="11"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -10240,14 +9737,16 @@
       <c r="R41" s="1"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="14">
-        <v>58</v>
-      </c>
-      <c r="D42" s="7"/>
+      <c r="A42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="2">
+        <v>654</v>
+      </c>
+      <c r="C42" s="2">
+        <v>654</v>
+      </c>
+      <c r="D42" s="11"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -10264,14 +9763,16 @@
       <c r="R42" s="1"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="14">
-        <v>120</v>
-      </c>
-      <c r="D43" s="7"/>
+      <c r="A43" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="2">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2">
+        <v>6</v>
+      </c>
+      <c r="D43" s="11"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -10288,14 +9789,16 @@
       <c r="R43" s="1"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="14">
-        <v>300</v>
-      </c>
-      <c r="D44" s="7"/>
+      <c r="A44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="2">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2">
+        <v>9</v>
+      </c>
+      <c r="D44" s="11"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -10312,14 +9815,16 @@
       <c r="R44" s="1"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="14">
-        <v>10100</v>
-      </c>
-      <c r="D45" s="13"/>
+      <c r="A45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="2">
+        <v>55</v>
+      </c>
+      <c r="C45" s="2">
+        <v>55</v>
+      </c>
+      <c r="D45" s="11"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -10336,14 +9841,16 @@
       <c r="R45" s="1"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="14">
-        <v>3416</v>
-      </c>
-      <c r="D46" s="13"/>
+      <c r="A46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="2">
+        <v>84</v>
+      </c>
+      <c r="C46" s="2">
+        <v>84</v>
+      </c>
+      <c r="D46" s="11"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -10360,14 +9867,16 @@
       <c r="R46" s="1"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="14">
-        <v>700</v>
-      </c>
-      <c r="D47" s="7"/>
+      <c r="A47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="2">
+        <v>654</v>
+      </c>
+      <c r="C47" s="2">
+        <v>654</v>
+      </c>
+      <c r="D47" s="11"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -10384,14 +9893,16 @@
       <c r="R47" s="1"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="14">
-        <v>200</v>
-      </c>
-      <c r="D48" s="7"/>
+      <c r="A48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2">
+        <v>654</v>
+      </c>
+      <c r="C48" s="2">
+        <v>654</v>
+      </c>
+      <c r="D48" s="11"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -10408,14 +9919,16 @@
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="14">
-        <v>3000</v>
-      </c>
-      <c r="D49" s="13"/>
+      <c r="A49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="2">
+        <v>984621</v>
+      </c>
+      <c r="C49" s="2">
+        <v>984621</v>
+      </c>
+      <c r="D49" s="11"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -10432,14 +9945,16 @@
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="14">
-        <v>0</v>
-      </c>
-      <c r="D50" s="7"/>
+      <c r="A50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="2">
+        <v>68465</v>
+      </c>
+      <c r="C50" s="2">
+        <v>68465</v>
+      </c>
+      <c r="D50" s="11"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -10456,14 +9971,16 @@
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="14">
-        <v>0</v>
-      </c>
-      <c r="D51" s="7"/>
+      <c r="A51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="2">
+        <v>84654</v>
+      </c>
+      <c r="C51" s="2">
+        <v>84654</v>
+      </c>
+      <c r="D51" s="11"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -10480,14 +9997,16 @@
       <c r="R51" s="1"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="14">
-        <v>0</v>
-      </c>
-      <c r="D52" s="7"/>
+      <c r="A52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="2">
+        <v>8654</v>
+      </c>
+      <c r="C52" s="2">
+        <v>8654</v>
+      </c>
+      <c r="D52" s="11"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -10504,14 +10023,16 @@
       <c r="R52" s="1"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="14">
-        <v>0</v>
-      </c>
-      <c r="D53" s="7"/>
+      <c r="A53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="2">
+        <v>68465</v>
+      </c>
+      <c r="C53" s="2">
+        <v>68465</v>
+      </c>
+      <c r="D53" s="11"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -10528,14 +10049,16 @@
       <c r="R53" s="1"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="14">
-        <v>0</v>
-      </c>
-      <c r="D54" s="7"/>
+      <c r="A54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="2">
+        <v>8456</v>
+      </c>
+      <c r="C54" s="2">
+        <v>8456</v>
+      </c>
+      <c r="D54" s="11"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -10552,14 +10075,16 @@
       <c r="R54" s="1"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="14">
-        <v>0</v>
-      </c>
-      <c r="D55" s="7"/>
+      <c r="A55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="2">
+        <v>684</v>
+      </c>
+      <c r="C55" s="2">
+        <v>684</v>
+      </c>
+      <c r="D55" s="11"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -10576,14 +10101,16 @@
       <c r="R55" s="1"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="14">
-        <v>0</v>
-      </c>
-      <c r="D56" s="7"/>
+      <c r="A56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="2">
+        <v>654</v>
+      </c>
+      <c r="C56" s="2">
+        <v>654</v>
+      </c>
+      <c r="D56" s="11"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -10600,14 +10127,16 @@
       <c r="R56" s="1"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="14">
-        <v>0</v>
-      </c>
-      <c r="D57" s="7"/>
+      <c r="A57" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="2">
+        <v>8354</v>
+      </c>
+      <c r="C57" s="2">
+        <v>8354</v>
+      </c>
+      <c r="D57" s="11"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -10624,14 +10153,16 @@
       <c r="R57" s="1"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="14">
-        <v>0</v>
-      </c>
-      <c r="D58" s="7"/>
+      <c r="A58" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="2">
+        <v>84</v>
+      </c>
+      <c r="C58" s="2">
+        <v>84</v>
+      </c>
+      <c r="D58" s="11"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -10648,14 +10179,16 @@
       <c r="R58" s="1"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="14">
-        <v>0</v>
-      </c>
-      <c r="D59" s="13"/>
+      <c r="A59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="2">
+        <v>654</v>
+      </c>
+      <c r="C59" s="2">
+        <v>654</v>
+      </c>
+      <c r="D59" s="11"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -10672,14 +10205,16 @@
       <c r="R59" s="1"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="14">
-        <v>0</v>
-      </c>
-      <c r="D60" s="7"/>
+      <c r="A60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="2">
+        <v>84654</v>
+      </c>
+      <c r="C60" s="2">
+        <v>84654</v>
+      </c>
+      <c r="D60" s="11"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -10696,14 +10231,16 @@
       <c r="R60" s="1"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="14">
-        <v>0</v>
-      </c>
-      <c r="D61" s="7"/>
+      <c r="A61" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="2">
+        <v>8354</v>
+      </c>
+      <c r="C61" s="2">
+        <v>8354</v>
+      </c>
+      <c r="D61" s="11"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -10720,14 +10257,16 @@
       <c r="R61" s="1"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="14">
-        <v>0</v>
-      </c>
-      <c r="D62" s="7"/>
+      <c r="A62" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="2">
+        <v>84654</v>
+      </c>
+      <c r="C62" s="2">
+        <v>84654</v>
+      </c>
+      <c r="D62" s="11"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -10744,14 +10283,16 @@
       <c r="R62" s="1"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="14">
-        <v>0</v>
-      </c>
-      <c r="D63" s="13"/>
+      <c r="A63" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" s="2">
+        <v>68</v>
+      </c>
+      <c r="C63" s="2">
+        <v>68</v>
+      </c>
+      <c r="D63" s="11"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -10768,14 +10309,16 @@
       <c r="R63" s="1"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="14">
-        <v>0</v>
-      </c>
-      <c r="D64" s="7"/>
+      <c r="A64" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="2">
+        <v>654</v>
+      </c>
+      <c r="C64" s="2">
+        <v>654</v>
+      </c>
+      <c r="D64" s="11"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -10792,14 +10335,16 @@
       <c r="R64" s="1"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="14">
-        <v>0</v>
-      </c>
-      <c r="D65" s="7"/>
+      <c r="A65" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="2">
+        <v>8654</v>
+      </c>
+      <c r="C65" s="2">
+        <v>8654</v>
+      </c>
+      <c r="D65" s="11"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -10816,14 +10361,16 @@
       <c r="R65" s="1"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="14">
-        <v>0</v>
-      </c>
-      <c r="D66" s="7"/>
+      <c r="A66" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="2">
+        <v>865</v>
+      </c>
+      <c r="C66" s="2">
+        <v>865</v>
+      </c>
+      <c r="D66" s="11"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -10840,14 +10387,16 @@
       <c r="R66" s="1"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="14">
-        <v>0</v>
-      </c>
-      <c r="D67" s="7"/>
+      <c r="A67" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="2">
+        <v>48</v>
+      </c>
+      <c r="C67" s="2">
+        <v>48</v>
+      </c>
+      <c r="D67" s="11"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -10864,14 +10413,16 @@
       <c r="R67" s="1"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="14">
-        <v>0</v>
-      </c>
-      <c r="D68" s="7"/>
+      <c r="A68" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" s="2">
+        <v>654</v>
+      </c>
+      <c r="C68" s="2">
+        <v>654</v>
+      </c>
+      <c r="D68" s="11"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -10888,14 +10439,16 @@
       <c r="R68" s="1"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="14">
-        <v>0</v>
-      </c>
-      <c r="D69" s="7"/>
+      <c r="A69" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="2">
+        <v>8654</v>
+      </c>
+      <c r="C69" s="2">
+        <v>8654</v>
+      </c>
+      <c r="D69" s="11"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -10912,14 +10465,16 @@
       <c r="R69" s="1"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="14">
-        <v>0</v>
-      </c>
-      <c r="D70" s="7"/>
+      <c r="A70" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" s="2">
+        <v>8</v>
+      </c>
+      <c r="C70" s="2">
+        <v>8</v>
+      </c>
+      <c r="D70" s="11"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -10936,14 +10491,16 @@
       <c r="R70" s="1"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="14">
-        <v>0</v>
-      </c>
-      <c r="D71" s="7"/>
+      <c r="A71" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" s="2">
+        <v>8</v>
+      </c>
+      <c r="C71" s="2">
+        <v>8</v>
+      </c>
+      <c r="D71" s="11"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -10960,14 +10517,16 @@
       <c r="R71" s="1"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="14">
-        <v>0</v>
-      </c>
-      <c r="D72" s="7"/>
+      <c r="A72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="2">
+        <v>45</v>
+      </c>
+      <c r="C72" s="2">
+        <v>45</v>
+      </c>
+      <c r="D72" s="11"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -10984,14 +10543,16 @@
       <c r="R72" s="1"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="14">
-        <v>0</v>
-      </c>
-      <c r="D73" s="7"/>
+      <c r="A73" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="2">
+        <v>85</v>
+      </c>
+      <c r="C73" s="2">
+        <v>85</v>
+      </c>
+      <c r="D73" s="11"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -11008,14 +10569,16 @@
       <c r="R73" s="1"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="14">
-        <v>4686</v>
-      </c>
-      <c r="D74" s="7"/>
+      <c r="A74" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" s="2">
+        <v>8</v>
+      </c>
+      <c r="C74" s="2">
+        <v>8</v>
+      </c>
+      <c r="D74" s="11"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -11032,14 +10595,16 @@
       <c r="R74" s="1"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="14">
-        <v>0</v>
-      </c>
-      <c r="D75" s="7"/>
+      <c r="A75" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" s="2">
+        <v>4</v>
+      </c>
+      <c r="C75" s="2">
+        <v>4</v>
+      </c>
+      <c r="D75" s="11"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -11056,14 +10621,16 @@
       <c r="R75" s="1"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="14">
-        <v>0</v>
-      </c>
-      <c r="D76" s="7"/>
+      <c r="A76" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" s="2">
+        <v>5</v>
+      </c>
+      <c r="C76" s="2">
+        <v>5</v>
+      </c>
+      <c r="D76" s="11"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -11080,14 +10647,16 @@
       <c r="R76" s="1"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="14">
-        <v>0</v>
-      </c>
-      <c r="D77" s="7"/>
+      <c r="A77" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="2">
+        <v>2</v>
+      </c>
+      <c r="C77" s="2">
+        <v>2</v>
+      </c>
+      <c r="D77" s="11"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -11104,14 +10673,16 @@
       <c r="R77" s="1"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="14">
-        <v>1380</v>
-      </c>
-      <c r="D78" s="13"/>
+      <c r="A78" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" s="2">
+        <v>654</v>
+      </c>
+      <c r="C78" s="2">
+        <v>654</v>
+      </c>
+      <c r="D78" s="11"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -11128,14 +10699,16 @@
       <c r="R78" s="1"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="14">
-        <v>0</v>
-      </c>
-      <c r="D79" s="7"/>
+      <c r="A79" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="2">
+        <v>884</v>
+      </c>
+      <c r="C79" s="2">
+        <v>884</v>
+      </c>
+      <c r="D79" s="11"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -11152,14 +10725,16 @@
       <c r="R79" s="1"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="14">
-        <v>420</v>
-      </c>
-      <c r="D80" s="7"/>
+      <c r="A80" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" s="2">
+        <v>5564</v>
+      </c>
+      <c r="C80" s="2">
+        <v>5564</v>
+      </c>
+      <c r="D80" s="11"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -11176,14 +10751,16 @@
       <c r="R80" s="1"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="14">
-        <v>0</v>
-      </c>
-      <c r="D81" s="7"/>
+      <c r="A81" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B81" s="2">
+        <v>85</v>
+      </c>
+      <c r="C81" s="2">
+        <v>85</v>
+      </c>
+      <c r="D81" s="11"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -11200,14 +10777,16 @@
       <c r="R81" s="1"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="14">
-        <v>0</v>
-      </c>
-      <c r="D82" s="7"/>
+      <c r="A82" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="2">
+        <v>654</v>
+      </c>
+      <c r="C82" s="2">
+        <v>654</v>
+      </c>
+      <c r="D82" s="11"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -11224,14 +10803,16 @@
       <c r="R82" s="1"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="14">
-        <v>360</v>
-      </c>
-      <c r="D83" s="7"/>
+      <c r="A83" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" s="2">
+        <v>8</v>
+      </c>
+      <c r="C83" s="2">
+        <v>8</v>
+      </c>
+      <c r="D83" s="11"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -11248,14 +10829,16 @@
       <c r="R83" s="1"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="14">
-        <v>0</v>
-      </c>
-      <c r="D84" s="7"/>
+      <c r="A84" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="2">
+        <v>62</v>
+      </c>
+      <c r="C84" s="2">
+        <v>62</v>
+      </c>
+      <c r="D84" s="11"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -11272,14 +10855,16 @@
       <c r="R84" s="1"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B85" s="12"/>
-      <c r="C85" s="14">
-        <v>0</v>
-      </c>
-      <c r="D85" s="7"/>
+      <c r="A85" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+      <c r="D85" s="11"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -11296,14 +10881,16 @@
       <c r="R85" s="1"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="14">
-        <v>0</v>
-      </c>
-      <c r="D86" s="13"/>
+      <c r="A86" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" s="2">
+        <v>8654</v>
+      </c>
+      <c r="C86" s="2">
+        <v>8654</v>
+      </c>
+      <c r="D86" s="11"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -11320,14 +10907,16 @@
       <c r="R86" s="1"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="14">
-        <v>0</v>
-      </c>
-      <c r="D87" s="7"/>
+      <c r="A87" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B87" s="2">
+        <v>865</v>
+      </c>
+      <c r="C87" s="2">
+        <v>865</v>
+      </c>
+      <c r="D87" s="11"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -11344,14 +10933,16 @@
       <c r="R87" s="1"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="14">
-        <v>0</v>
-      </c>
-      <c r="D88" s="7"/>
+      <c r="A88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B88" s="2">
+        <v>864</v>
+      </c>
+      <c r="C88" s="2">
+        <v>864</v>
+      </c>
+      <c r="D88" s="11"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -11368,14 +10959,16 @@
       <c r="R88" s="1"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B89" s="12"/>
-      <c r="C89" s="14">
-        <v>0</v>
-      </c>
-      <c r="D89" s="13"/>
+      <c r="A89" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" s="2">
+        <v>651</v>
+      </c>
+      <c r="C89" s="2">
+        <v>651</v>
+      </c>
+      <c r="D89" s="11"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -11392,14 +10985,16 @@
       <c r="R89" s="1"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="14">
-        <v>0</v>
-      </c>
-      <c r="D90" s="13"/>
+      <c r="A90" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" s="2">
+        <v>684</v>
+      </c>
+      <c r="C90" s="2">
+        <v>684</v>
+      </c>
+      <c r="D90" s="11"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -11416,14 +11011,16 @@
       <c r="R90" s="1"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="14">
-        <v>0</v>
-      </c>
-      <c r="D91" s="13"/>
+      <c r="A91" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="2">
+        <v>651</v>
+      </c>
+      <c r="C91" s="2">
+        <v>651</v>
+      </c>
+      <c r="D91" s="11"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -11440,14 +11037,16 @@
       <c r="R91" s="1"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B92" s="12"/>
-      <c r="C92" s="14">
-        <v>9</v>
-      </c>
-      <c r="D92" s="13"/>
+      <c r="A92" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" s="2">
+        <v>684</v>
+      </c>
+      <c r="C92" s="2">
+        <v>684</v>
+      </c>
+      <c r="D92" s="11"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -11464,14 +11063,16 @@
       <c r="R92" s="1"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B93" s="12"/>
-      <c r="C93" s="14">
-        <v>0</v>
-      </c>
-      <c r="D93" s="13"/>
+      <c r="A93" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" s="2">
+        <v>561</v>
+      </c>
+      <c r="C93" s="2">
+        <v>561</v>
+      </c>
+      <c r="D93" s="11"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -11488,14 +11089,16 @@
       <c r="R93" s="1"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B94" s="12"/>
-      <c r="C94" s="14">
-        <v>0</v>
-      </c>
-      <c r="D94" s="7"/>
+      <c r="A94" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" s="2">
+        <v>84</v>
+      </c>
+      <c r="C94" s="2">
+        <v>84</v>
+      </c>
+      <c r="D94" s="11"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -11512,14 +11115,16 @@
       <c r="R94" s="1"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B95" s="12"/>
-      <c r="C95" s="14">
-        <v>0</v>
-      </c>
-      <c r="D95" s="13"/>
+      <c r="A95" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="2">
+        <v>351</v>
+      </c>
+      <c r="C95" s="2">
+        <v>351</v>
+      </c>
+      <c r="D95" s="11"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -11536,14 +11141,16 @@
       <c r="R95" s="1"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B96" s="12"/>
-      <c r="C96" s="14">
-        <v>0</v>
-      </c>
-      <c r="D96" s="13"/>
+      <c r="A96" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" s="2">
+        <v>84</v>
+      </c>
+      <c r="C96" s="2">
+        <v>84</v>
+      </c>
+      <c r="D96" s="11"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -11560,14 +11167,16 @@
       <c r="R96" s="1"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="14">
-        <v>0</v>
-      </c>
-      <c r="D97" s="13"/>
+      <c r="A97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="2">
+        <v>654</v>
+      </c>
+      <c r="C97" s="2">
+        <v>654</v>
+      </c>
+      <c r="D97" s="11"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -11584,14 +11193,16 @@
       <c r="R97" s="1"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B98" s="12"/>
-      <c r="C98" s="14">
-        <v>0</v>
-      </c>
-      <c r="D98" s="13"/>
+      <c r="A98" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B98" s="2">
+        <v>6548465</v>
+      </c>
+      <c r="C98" s="2">
+        <v>6548465</v>
+      </c>
+      <c r="D98" s="11"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -11608,14 +11219,16 @@
       <c r="R98" s="1"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="14">
-        <v>0</v>
-      </c>
-      <c r="D99" s="7"/>
+      <c r="A99" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B99" s="2">
+        <v>65465465</v>
+      </c>
+      <c r="C99" s="2">
+        <v>65465465</v>
+      </c>
+      <c r="D99" s="11"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -11632,14 +11245,16 @@
       <c r="R99" s="1"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B100" s="12"/>
-      <c r="C100" s="14">
-        <v>0</v>
-      </c>
-      <c r="D100" s="13"/>
+      <c r="A100" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B100" s="2">
+        <v>8654</v>
+      </c>
+      <c r="C100" s="2">
+        <v>8654</v>
+      </c>
+      <c r="D100" s="11"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -11656,14 +11271,16 @@
       <c r="R100" s="1"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B101" s="12"/>
-      <c r="C101" s="14">
-        <v>0</v>
-      </c>
-      <c r="D101" s="13"/>
+      <c r="A101" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B101" s="2">
+        <v>654648</v>
+      </c>
+      <c r="C101" s="2">
+        <v>654648</v>
+      </c>
+      <c r="D101" s="11"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -11680,14 +11297,16 @@
       <c r="R101" s="1"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B102" s="12"/>
-      <c r="C102" s="14">
-        <v>0</v>
-      </c>
-      <c r="D102" s="13"/>
+      <c r="A102" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="2">
+        <v>654865</v>
+      </c>
+      <c r="C102" s="2">
+        <v>654865</v>
+      </c>
+      <c r="D102" s="11"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -11704,14 +11323,16 @@
       <c r="R102" s="1"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B103" s="12"/>
-      <c r="C103" s="14">
-        <v>0</v>
-      </c>
-      <c r="D103" s="13"/>
+      <c r="A103" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B103" s="2">
+        <v>412</v>
+      </c>
+      <c r="C103" s="2">
+        <v>412</v>
+      </c>
+      <c r="D103" s="11"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -11728,14 +11349,16 @@
       <c r="R103" s="1"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A104" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B104" s="12"/>
-      <c r="C104" s="14">
-        <v>0</v>
-      </c>
-      <c r="D104" s="13"/>
+      <c r="A104" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B104" s="2">
+        <v>5421</v>
+      </c>
+      <c r="C104" s="2">
+        <v>5421</v>
+      </c>
+      <c r="D104" s="11"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -11752,14 +11375,16 @@
       <c r="R104" s="1"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="B105" s="12"/>
-      <c r="C105" s="14">
-        <v>0</v>
-      </c>
-      <c r="D105" s="7"/>
+      <c r="A105" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B105" s="2">
+        <v>54</v>
+      </c>
+      <c r="C105" s="2">
+        <v>54</v>
+      </c>
+      <c r="D105" s="11"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -11776,14 +11401,16 @@
       <c r="R105" s="1"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B106" s="12"/>
-      <c r="C106" s="14">
-        <v>0</v>
-      </c>
-      <c r="D106" s="13"/>
+      <c r="A106" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" s="2">
+        <v>21</v>
+      </c>
+      <c r="C106" s="2">
+        <v>21</v>
+      </c>
+      <c r="D106" s="11"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -11800,14 +11427,16 @@
       <c r="R106" s="1"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B107" s="12"/>
-      <c r="C107" s="14">
-        <v>0</v>
-      </c>
-      <c r="D107" s="7"/>
+      <c r="A107" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B107" s="2">
+        <v>4</v>
+      </c>
+      <c r="C107" s="2">
+        <v>4</v>
+      </c>
+      <c r="D107" s="11"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -11824,14 +11453,16 @@
       <c r="R107" s="1"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B108" s="12"/>
-      <c r="C108" s="14">
-        <v>9</v>
-      </c>
-      <c r="D108" s="7"/>
+      <c r="A108" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" s="2">
+        <v>54</v>
+      </c>
+      <c r="C108" s="2">
+        <v>54</v>
+      </c>
+      <c r="D108" s="11"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -11848,14 +11479,16 @@
       <c r="R108" s="1"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="14">
-        <v>0</v>
-      </c>
-      <c r="D109" s="7"/>
+      <c r="A109" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B109" s="2">
+        <v>64</v>
+      </c>
+      <c r="C109" s="2">
+        <v>64</v>
+      </c>
+      <c r="D109" s="11"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -11872,14 +11505,16 @@
       <c r="R109" s="1"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B110" s="12"/>
-      <c r="C110" s="14">
-        <v>0</v>
-      </c>
-      <c r="D110" s="7"/>
+      <c r="A110" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B110" s="2">
+        <v>947</v>
+      </c>
+      <c r="C110" s="2">
+        <v>947</v>
+      </c>
+      <c r="D110" s="11"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -11896,14 +11531,16 @@
       <c r="R110" s="1"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B111" s="12"/>
-      <c r="C111" s="14">
-        <v>296</v>
-      </c>
-      <c r="D111" s="13"/>
+      <c r="A111" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B111" s="2">
+        <v>521</v>
+      </c>
+      <c r="C111" s="2">
+        <v>521</v>
+      </c>
+      <c r="D111" s="11"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -11920,14 +11557,16 @@
       <c r="R111" s="1"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B112" s="12"/>
-      <c r="C112" s="14">
-        <v>0</v>
-      </c>
-      <c r="D112" s="13"/>
+      <c r="A112" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B112" s="2">
+        <v>654</v>
+      </c>
+      <c r="C112" s="2">
+        <v>654</v>
+      </c>
+      <c r="D112" s="11"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -11944,14 +11583,16 @@
       <c r="R112" s="1"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B113" s="12"/>
-      <c r="C113" s="14">
-        <v>0</v>
-      </c>
-      <c r="D113" s="7"/>
+      <c r="A113" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B113" s="2">
+        <v>321</v>
+      </c>
+      <c r="C113" s="2">
+        <v>321</v>
+      </c>
+      <c r="D113" s="11"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -11968,14 +11609,16 @@
       <c r="R113" s="1"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B114" s="12"/>
-      <c r="C114" s="14">
-        <v>0</v>
-      </c>
-      <c r="D114" s="7"/>
+      <c r="A114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="2">
+        <v>684</v>
+      </c>
+      <c r="C114" s="2">
+        <v>684</v>
+      </c>
+      <c r="D114" s="11"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -11992,14 +11635,16 @@
       <c r="R114" s="1"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A115" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B115" s="12"/>
-      <c r="C115" s="14">
-        <v>480</v>
-      </c>
-      <c r="D115" s="3"/>
+      <c r="A115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="2">
+        <v>32</v>
+      </c>
+      <c r="C115" s="2">
+        <v>32</v>
+      </c>
+      <c r="D115" s="12"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -12016,21 +11661,23 @@
       <c r="R115" s="1"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B116" s="12"/>
-      <c r="C116" s="14">
-        <v>0</v>
-      </c>
-      <c r="D116" s="3"/>
+      <c r="A116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="2">
+        <v>86</v>
+      </c>
+      <c r="C116" s="2">
+        <v>86</v>
+      </c>
+      <c r="D116" s="12"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
@@ -12040,22 +11687,24 @@
       <c r="R116" s="1"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A117" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B117" s="12"/>
-      <c r="C117" s="14">
-        <v>0</v>
-      </c>
-      <c r="D117" s="3"/>
+      <c r="A117" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B117" s="2">
+        <v>654</v>
+      </c>
+      <c r="C117" s="2">
+        <v>654</v>
+      </c>
+      <c r="D117" s="12"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
-      <c r="L117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="7"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
@@ -12064,22 +11713,24 @@
       <c r="R117" s="1"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B118" s="12"/>
-      <c r="C118" s="14">
-        <v>40</v>
-      </c>
-      <c r="D118" s="3"/>
+      <c r="A118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="2">
+        <v>984</v>
+      </c>
+      <c r="C118" s="2">
+        <v>984</v>
+      </c>
+      <c r="D118" s="12"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="12"/>
-      <c r="L118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="7"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
@@ -12088,14 +11739,16 @@
       <c r="R118" s="1"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B119" s="12"/>
-      <c r="C119" s="14">
-        <v>0</v>
-      </c>
-      <c r="D119" s="3"/>
+      <c r="A119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="2">
+        <v>654</v>
+      </c>
+      <c r="C119" s="2">
+        <v>654</v>
+      </c>
+      <c r="D119" s="12"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -12112,14 +11765,16 @@
       <c r="R119" s="1"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="B120" s="12"/>
-      <c r="C120" s="14">
-        <v>100</v>
-      </c>
-      <c r="D120" s="3"/>
+      <c r="A120" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B120" s="2">
+        <v>651</v>
+      </c>
+      <c r="C120" s="2">
+        <v>651</v>
+      </c>
+      <c r="D120" s="12"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -12136,14 +11791,16 @@
       <c r="R120" s="1"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B121" s="12"/>
-      <c r="C121" s="14">
-        <v>120</v>
-      </c>
-      <c r="D121" s="3"/>
+      <c r="A121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="2">
+        <v>684</v>
+      </c>
+      <c r="C121" s="2">
+        <v>684</v>
+      </c>
+      <c r="D121" s="12"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -12160,14 +11817,16 @@
       <c r="R121" s="1"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B122" s="12"/>
-      <c r="C122" s="14">
-        <v>0</v>
-      </c>
-      <c r="D122" s="3"/>
+      <c r="A122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="2">
+        <v>21</v>
+      </c>
+      <c r="C122" s="2">
+        <v>21</v>
+      </c>
+      <c r="D122" s="12"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -12184,14 +11843,16 @@
       <c r="R122" s="1"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B123" s="12"/>
-      <c r="C123" s="14">
-        <v>0</v>
-      </c>
-      <c r="D123" s="3"/>
+      <c r="A123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" s="2">
+        <v>654</v>
+      </c>
+      <c r="C123" s="2">
+        <v>654</v>
+      </c>
+      <c r="D123" s="12"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -12208,14 +11869,16 @@
       <c r="R123" s="1"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="B124" s="12"/>
-      <c r="C124" s="14">
-        <v>1008</v>
-      </c>
-      <c r="D124" s="3"/>
+      <c r="A124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="2">
+        <v>768</v>
+      </c>
+      <c r="C124" s="2">
+        <v>768</v>
+      </c>
+      <c r="D124" s="12"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -12232,14 +11895,16 @@
       <c r="R124" s="1"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B125" s="12"/>
-      <c r="C125" s="14">
-        <v>0</v>
-      </c>
-      <c r="D125" s="3"/>
+      <c r="A125" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="2">
+        <v>540</v>
+      </c>
+      <c r="C125" s="2">
+        <v>540</v>
+      </c>
+      <c r="D125" s="12"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -12256,14 +11921,16 @@
       <c r="R125" s="1"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B126" s="12"/>
-      <c r="C126" s="14">
-        <v>1440</v>
-      </c>
-      <c r="D126" s="3"/>
+      <c r="A126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" s="2">
+        <v>651</v>
+      </c>
+      <c r="C126" s="2">
+        <v>651</v>
+      </c>
+      <c r="D126" s="12"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -12280,14 +11947,16 @@
       <c r="R126" s="1"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B127" s="12"/>
-      <c r="C127" s="14">
-        <v>672</v>
-      </c>
-      <c r="D127" s="3"/>
+      <c r="A127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" s="2">
+        <v>684</v>
+      </c>
+      <c r="C127" s="2">
+        <v>684</v>
+      </c>
+      <c r="D127" s="12"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -12304,14 +11973,16 @@
       <c r="R127" s="1"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B128" s="12"/>
-      <c r="C128" s="14">
-        <v>4320</v>
-      </c>
-      <c r="D128" s="3"/>
+      <c r="A128" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128" s="2">
+        <v>900</v>
+      </c>
+      <c r="C128" s="2">
+        <v>900</v>
+      </c>
+      <c r="D128" s="12"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -12328,14 +11999,16 @@
       <c r="R128" s="1"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B129" s="12"/>
-      <c r="C129" s="14">
-        <v>0</v>
-      </c>
-      <c r="D129" s="3"/>
+      <c r="A129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" s="2">
+        <v>654</v>
+      </c>
+      <c r="C129" s="2">
+        <v>654</v>
+      </c>
+      <c r="D129" s="12"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -12352,14 +12025,16 @@
       <c r="R129" s="1"/>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B130" s="12"/>
-      <c r="C130" s="14">
-        <v>0</v>
-      </c>
-      <c r="D130" s="3"/>
+      <c r="A130" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B130" s="2">
+        <v>89</v>
+      </c>
+      <c r="C130" s="2">
+        <v>89</v>
+      </c>
+      <c r="D130" s="12"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -12376,14 +12051,16 @@
       <c r="R130" s="1"/>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B131" s="12"/>
-      <c r="C131" s="14">
-        <v>0</v>
-      </c>
-      <c r="D131" s="3"/>
+      <c r="A131" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B131" s="2">
+        <v>64</v>
+      </c>
+      <c r="C131" s="2">
+        <v>64</v>
+      </c>
+      <c r="D131" s="12"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -12400,14 +12077,16 @@
       <c r="R131" s="1"/>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A132" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B132" s="12"/>
-      <c r="C132" s="14">
-        <v>60</v>
-      </c>
-      <c r="D132" s="3"/>
+      <c r="A132" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B132" s="2">
+        <v>68464</v>
+      </c>
+      <c r="C132" s="2">
+        <v>68464</v>
+      </c>
+      <c r="D132" s="12"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -12424,14 +12103,16 @@
       <c r="R132" s="1"/>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B133" s="12"/>
-      <c r="C133" s="14">
-        <v>180</v>
-      </c>
-      <c r="D133" s="3"/>
+      <c r="A133" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B133" s="2">
+        <v>684654</v>
+      </c>
+      <c r="C133" s="2">
+        <v>684654</v>
+      </c>
+      <c r="D133" s="12"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -12448,14 +12129,16 @@
       <c r="R133" s="1"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A134" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="B134" s="12"/>
-      <c r="C134" s="14">
-        <v>0</v>
-      </c>
-      <c r="D134" s="3"/>
+      <c r="A134" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134" s="2">
+        <v>684</v>
+      </c>
+      <c r="C134" s="2">
+        <v>684</v>
+      </c>
+      <c r="D134" s="12"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -12472,14 +12155,16 @@
       <c r="R134" s="1"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A135" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B135" s="12"/>
-      <c r="C135" s="14">
-        <v>300</v>
-      </c>
-      <c r="D135" s="3"/>
+      <c r="A135" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" s="2">
+        <v>684</v>
+      </c>
+      <c r="C135" s="2">
+        <v>684</v>
+      </c>
+      <c r="D135" s="12"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -12496,14 +12181,16 @@
       <c r="R135" s="1"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A136" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="B136" s="12"/>
-      <c r="C136" s="14">
-        <v>0</v>
-      </c>
-      <c r="D136" s="3"/>
+      <c r="A136" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B136" s="2">
+        <v>684</v>
+      </c>
+      <c r="C136" s="2">
+        <v>684</v>
+      </c>
+      <c r="D136" s="12"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -12520,14 +12207,16 @@
       <c r="R136" s="1"/>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A137" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B137" s="12"/>
-      <c r="C137" s="14">
-        <v>2250</v>
-      </c>
-      <c r="D137" s="3"/>
+      <c r="A137" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" s="2">
+        <v>684</v>
+      </c>
+      <c r="C137" s="2">
+        <v>684</v>
+      </c>
+      <c r="D137" s="12"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -12544,14 +12233,16 @@
       <c r="R137" s="1"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A138" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B138" s="12"/>
-      <c r="C138" s="14">
-        <v>9000</v>
-      </c>
-      <c r="D138" s="3"/>
+      <c r="A138" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B138" s="2">
+        <v>65161</v>
+      </c>
+      <c r="C138" s="2">
+        <v>65161</v>
+      </c>
+      <c r="D138" s="12"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -12568,14 +12259,16 @@
       <c r="R138" s="1"/>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B139" s="12"/>
-      <c r="C139" s="14">
-        <v>0</v>
-      </c>
-      <c r="D139" s="3"/>
+      <c r="A139" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B139" s="2">
+        <v>321</v>
+      </c>
+      <c r="C139" s="2">
+        <v>321</v>
+      </c>
+      <c r="D139" s="12"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
@@ -12592,14 +12285,16 @@
       <c r="R139" s="1"/>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A140" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B140" s="12"/>
-      <c r="C140" s="14">
-        <v>1800</v>
-      </c>
-      <c r="D140" s="3"/>
+      <c r="A140" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140" s="2">
+        <v>351</v>
+      </c>
+      <c r="C140" s="2">
+        <v>351</v>
+      </c>
+      <c r="D140" s="12"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -12616,14 +12311,16 @@
       <c r="R140" s="1"/>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B141" s="12"/>
-      <c r="C141" s="14">
-        <v>1800</v>
-      </c>
-      <c r="D141" s="3"/>
+      <c r="A141" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B141" s="2">
+        <v>648</v>
+      </c>
+      <c r="C141" s="2">
+        <v>648</v>
+      </c>
+      <c r="D141" s="12"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -12640,14 +12337,16 @@
       <c r="R141" s="1"/>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B142" s="12"/>
-      <c r="C142" s="14">
-        <v>0</v>
-      </c>
-      <c r="D142" s="3"/>
+      <c r="A142" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B142" s="2">
+        <v>684</v>
+      </c>
+      <c r="C142" s="2">
+        <v>684</v>
+      </c>
+      <c r="D142" s="12"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -12664,14 +12363,10 @@
       <c r="R142" s="1"/>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A143" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="B143" s="12"/>
-      <c r="C143" s="14">
-        <v>900</v>
-      </c>
-      <c r="D143" s="3"/>
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="12"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -12688,14 +12383,10 @@
       <c r="R143" s="1"/>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A144" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B144" s="12"/>
-      <c r="C144" s="14">
-        <v>342</v>
-      </c>
-      <c r="D144" s="3"/>
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="12"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -12712,14 +12403,10 @@
       <c r="R144" s="1"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A145" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="B145" s="12"/>
-      <c r="C145" s="9">
-        <v>0</v>
-      </c>
-      <c r="D145" s="3"/>
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="12"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -12736,14 +12423,10 @@
       <c r="R145" s="1"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A146" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="B146" s="11"/>
-      <c r="C146" s="9">
-        <v>60</v>
-      </c>
-      <c r="D146" s="3"/>
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="12"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -12760,14 +12443,10 @@
       <c r="R146" s="1"/>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A147" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B147" s="11"/>
-      <c r="C147" s="9">
-        <v>200</v>
-      </c>
-      <c r="D147" s="3"/>
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="12"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -12784,14 +12463,10 @@
       <c r="R147" s="1"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A148" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B148" s="11"/>
-      <c r="C148" s="9">
-        <v>800</v>
-      </c>
-      <c r="D148" s="3"/>
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="12"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -12808,14 +12483,10 @@
       <c r="R148" s="1"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A149" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B149" s="11"/>
-      <c r="C149" s="9">
-        <v>0</v>
-      </c>
-      <c r="D149" s="3"/>
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="12"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -12832,14 +12503,10 @@
       <c r="R149" s="1"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A150" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="B150" s="11"/>
-      <c r="C150" s="9">
-        <v>40</v>
-      </c>
-      <c r="D150" s="3"/>
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="12"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -12856,14 +12523,10 @@
       <c r="R150" s="1"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A151" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B151" s="11"/>
-      <c r="C151" s="9">
-        <v>24</v>
-      </c>
-      <c r="D151" s="3"/>
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="12"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -12880,14 +12543,10 @@
       <c r="R151" s="1"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A152" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B152" s="11"/>
-      <c r="C152" s="9">
-        <v>0</v>
-      </c>
-      <c r="D152" s="3"/>
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="12"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -12904,14 +12563,10 @@
       <c r="R152" s="1"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A153" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B153" s="11"/>
-      <c r="C153" s="9">
-        <v>0</v>
-      </c>
-      <c r="D153" s="3"/>
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="12"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -12928,14 +12583,10 @@
       <c r="R153" s="1"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A154" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B154" s="11"/>
-      <c r="C154" s="9">
-        <v>0</v>
-      </c>
-      <c r="D154" s="3"/>
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="12"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -12952,14 +12603,10 @@
       <c r="R154" s="1"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A155" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="B155" s="11"/>
-      <c r="C155" s="9">
-        <v>0</v>
-      </c>
-      <c r="D155" s="3"/>
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="12"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -12976,14 +12623,10 @@
       <c r="R155" s="1"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A156" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B156" s="11"/>
-      <c r="C156" s="9">
-        <v>0</v>
-      </c>
-      <c r="D156" s="3"/>
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="12"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -13000,14 +12643,10 @@
       <c r="R156" s="1"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A157" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="B157" s="11"/>
-      <c r="C157" s="9">
-        <v>180</v>
-      </c>
-      <c r="D157" s="3"/>
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="12"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
@@ -13024,14 +12663,10 @@
       <c r="R157" s="1"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A158" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B158" s="11"/>
-      <c r="C158" s="9">
-        <v>480</v>
-      </c>
-      <c r="D158" s="3"/>
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="12"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
@@ -13048,14 +12683,10 @@
       <c r="R158" s="1"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A159" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B159" s="11"/>
-      <c r="C159" s="9">
-        <v>540</v>
-      </c>
-      <c r="D159" s="3"/>
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="12"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -13072,14 +12703,10 @@
       <c r="R159" s="1"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A160" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B160" s="11"/>
-      <c r="C160" s="9">
-        <v>0</v>
-      </c>
-      <c r="D160" s="3"/>
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="12"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
@@ -13096,14 +12723,10 @@
       <c r="R160" s="1"/>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A161" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="B161" s="11"/>
-      <c r="C161" s="9">
-        <v>0</v>
-      </c>
-      <c r="D161" s="3"/>
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="12"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
@@ -13120,14 +12743,10 @@
       <c r="R161" s="1"/>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A162" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B162" s="11"/>
-      <c r="C162" s="9">
-        <v>9000</v>
-      </c>
-      <c r="D162" s="3"/>
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="12"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -13144,14 +12763,10 @@
       <c r="R162" s="1"/>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A163" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B163" s="11"/>
-      <c r="C163" s="9">
-        <v>0</v>
-      </c>
-      <c r="D163" s="3"/>
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="12"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
@@ -13168,14 +12783,10 @@
       <c r="R163" s="1"/>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A164" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B164" s="11"/>
-      <c r="C164" s="9">
-        <v>2250</v>
-      </c>
-      <c r="D164" s="3"/>
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="12"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
@@ -13192,14 +12803,10 @@
       <c r="R164" s="1"/>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A165" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B165" s="11"/>
-      <c r="C165" s="9">
-        <v>0</v>
-      </c>
-      <c r="D165" s="3"/>
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="12"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
@@ -13216,14 +12823,10 @@
       <c r="R165" s="1"/>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A166" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="B166" s="11"/>
-      <c r="C166" s="9">
-        <v>0</v>
-      </c>
-      <c r="D166" s="3"/>
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="12"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -13240,14 +12843,10 @@
       <c r="R166" s="1"/>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B167" s="11"/>
-      <c r="C167" s="9">
-        <v>6750</v>
-      </c>
-      <c r="D167" s="3"/>
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="12"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
@@ -13264,14 +12863,10 @@
       <c r="R167" s="1"/>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B168" s="11"/>
-      <c r="C168" s="6">
-        <v>1200</v>
-      </c>
-      <c r="D168" s="3"/>
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="12"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -13288,13 +12883,10 @@
       <c r="R168" s="1"/>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C169" s="6">
-        <v>0</v>
-      </c>
-      <c r="D169" s="3"/>
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="12"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -13311,13 +12903,10 @@
       <c r="R169" s="1"/>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C170" s="6">
-        <v>0</v>
-      </c>
-      <c r="D170" s="3"/>
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="12"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -13334,13 +12923,10 @@
       <c r="R170" s="1"/>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C171" s="6">
-        <v>4500</v>
-      </c>
-      <c r="D171" s="3"/>
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="12"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -13357,13 +12943,10 @@
       <c r="R171" s="1"/>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C172" s="6">
-        <v>280</v>
-      </c>
-      <c r="D172" s="3"/>
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="12"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
@@ -13380,13 +12963,10 @@
       <c r="R172" s="1"/>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C173" s="6">
-        <v>0</v>
-      </c>
-      <c r="D173" s="3"/>
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="12"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
@@ -13403,13 +12983,10 @@
       <c r="R173" s="1"/>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C174" s="6">
-        <v>1080</v>
-      </c>
-      <c r="D174" s="3"/>
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="12"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -13426,13 +13003,10 @@
       <c r="R174" s="1"/>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C175" s="6">
-        <v>0</v>
-      </c>
-      <c r="D175" s="3"/>
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="12"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
@@ -13449,13 +13023,10 @@
       <c r="R175" s="1"/>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C176" s="6">
-        <v>720</v>
-      </c>
-      <c r="D176" s="3"/>
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="12"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
@@ -13472,13 +13043,10 @@
       <c r="R176" s="1"/>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C177" s="6">
-        <v>0</v>
-      </c>
-      <c r="D177" s="3"/>
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="12"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
@@ -13495,13 +13063,10 @@
       <c r="R177" s="1"/>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C178" s="6">
-        <v>1080</v>
-      </c>
-      <c r="D178" s="3"/>
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="12"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
@@ -13518,13 +13083,10 @@
       <c r="R178" s="1"/>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C179" s="6">
-        <v>0</v>
-      </c>
-      <c r="D179" s="3"/>
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="12"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
@@ -13541,13 +13103,10 @@
       <c r="R179" s="1"/>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C180" s="6">
-        <v>120</v>
-      </c>
-      <c r="D180" s="3"/>
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="12"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
@@ -13564,13 +13123,10 @@
       <c r="R180" s="1"/>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C181" s="6">
-        <v>600</v>
-      </c>
-      <c r="D181" s="3"/>
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="12"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
@@ -13587,13 +13143,10 @@
       <c r="R181" s="1"/>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C182" s="6">
-        <v>700</v>
-      </c>
-      <c r="D182" s="3"/>
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="12"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
@@ -13610,13 +13163,10 @@
       <c r="R182" s="1"/>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C183" s="6">
-        <v>0</v>
-      </c>
-      <c r="D183" s="3"/>
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="12"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
@@ -13633,13 +13183,10 @@
       <c r="R183" s="1"/>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C184" s="6">
-        <v>13500</v>
-      </c>
-      <c r="D184" s="3"/>
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="12"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
@@ -13656,13 +13203,10 @@
       <c r="R184" s="1"/>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C185" s="6">
-        <v>2300</v>
-      </c>
-      <c r="D185" s="3"/>
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="12"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
@@ -13679,13 +13223,10 @@
       <c r="R185" s="1"/>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C186" s="6">
-        <v>400</v>
-      </c>
-      <c r="D186" s="3"/>
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="12"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
@@ -13702,13 +13243,10 @@
       <c r="R186" s="1"/>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C187" s="6">
-        <v>0</v>
-      </c>
-      <c r="D187" s="3"/>
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="12"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
@@ -13725,13 +13263,10 @@
       <c r="R187" s="1"/>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C188" s="6">
-        <v>0</v>
-      </c>
-      <c r="D188" s="3"/>
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="12"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
@@ -13748,13 +13283,10 @@
       <c r="R188" s="1"/>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C189" s="6">
-        <v>4500</v>
-      </c>
-      <c r="D189" s="3"/>
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="12"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
@@ -13771,13 +13303,10 @@
       <c r="R189" s="1"/>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C190" s="6">
-        <v>3960</v>
-      </c>
-      <c r="D190" s="3"/>
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="12"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
@@ -13794,13 +13323,10 @@
       <c r="R190" s="1"/>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C191" s="6">
-        <v>0</v>
-      </c>
-      <c r="D191" s="3"/>
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="12"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
@@ -13817,13 +13343,10 @@
       <c r="R191" s="1"/>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C192" s="6">
-        <v>0</v>
-      </c>
-      <c r="D192" s="3"/>
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="12"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
@@ -13840,13 +13363,10 @@
       <c r="R192" s="1"/>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C193" s="6">
-        <v>7200</v>
-      </c>
-      <c r="D193" s="3"/>
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="12"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
@@ -13863,13 +13383,10 @@
       <c r="R193" s="1"/>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C194" s="6">
-        <v>0</v>
-      </c>
-      <c r="D194" s="3"/>
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="12"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
@@ -13886,13 +13403,10 @@
       <c r="R194" s="1"/>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C195" s="6">
-        <v>0</v>
-      </c>
-      <c r="D195" s="3"/>
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="12"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -13909,13 +13423,10 @@
       <c r="R195" s="1"/>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C196" s="6">
-        <v>0</v>
-      </c>
-      <c r="D196" s="3"/>
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="12"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
@@ -13932,13 +13443,10 @@
       <c r="R196" s="1"/>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C197" s="6">
-        <v>0</v>
-      </c>
-      <c r="D197" s="3"/>
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="12"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
@@ -13955,13 +13463,10 @@
       <c r="R197" s="1"/>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C198" s="6">
-        <v>0</v>
-      </c>
-      <c r="D198" s="3"/>
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="12"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
@@ -13978,13 +13483,10 @@
       <c r="R198" s="1"/>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C199" s="6">
-        <v>0</v>
-      </c>
-      <c r="D199" s="3"/>
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="12"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
@@ -14001,13 +13503,10 @@
       <c r="R199" s="1"/>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C200" s="6">
-        <v>0</v>
-      </c>
-      <c r="D200" s="3"/>
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="12"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
@@ -14024,13 +13523,10 @@
       <c r="R200" s="1"/>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C201" s="6">
-        <v>0</v>
-      </c>
-      <c r="D201" s="3"/>
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="12"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
@@ -14047,13 +13543,10 @@
       <c r="R201" s="1"/>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C202" s="6">
-        <v>0</v>
-      </c>
-      <c r="D202" s="3"/>
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="12"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
@@ -14070,13 +13563,10 @@
       <c r="R202" s="1"/>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C203" s="6">
-        <v>0</v>
-      </c>
-      <c r="D203" s="3"/>
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="12"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
@@ -14093,13 +13583,10 @@
       <c r="R203" s="1"/>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C204" s="6">
-        <v>0</v>
-      </c>
-      <c r="D204" s="3"/>
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="12"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
@@ -14116,13 +13603,10 @@
       <c r="R204" s="1"/>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C205" s="6">
-        <v>0</v>
-      </c>
-      <c r="D205" s="3"/>
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="12"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
@@ -14139,13 +13623,10 @@
       <c r="R205" s="1"/>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C206" s="6">
-        <v>200</v>
-      </c>
-      <c r="D206" s="3"/>
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="12"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
@@ -14162,13 +13643,10 @@
       <c r="R206" s="1"/>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C207" s="6">
-        <v>0</v>
-      </c>
-      <c r="D207" s="3"/>
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="12"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
@@ -14185,13 +13663,10 @@
       <c r="R207" s="1"/>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C208" s="6">
-        <v>0</v>
-      </c>
-      <c r="D208" s="3"/>
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="12"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
@@ -14208,13 +13683,10 @@
       <c r="R208" s="1"/>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C209" s="6">
-        <v>0</v>
-      </c>
-      <c r="D209" s="3"/>
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="12"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
@@ -14231,13 +13703,10 @@
       <c r="R209" s="1"/>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C210" s="6">
-        <v>0</v>
-      </c>
-      <c r="D210" s="3"/>
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="12"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
@@ -14254,13 +13723,10 @@
       <c r="R210" s="1"/>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C211" s="6">
-        <v>0</v>
-      </c>
-      <c r="D211" s="3"/>
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="12"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
@@ -14277,13 +13743,10 @@
       <c r="R211" s="1"/>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C212" s="6">
-        <v>0</v>
-      </c>
-      <c r="D212" s="3"/>
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="12"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
@@ -14300,13 +13763,10 @@
       <c r="R212" s="1"/>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C213" s="6">
-        <v>0</v>
-      </c>
-      <c r="D213" s="3"/>
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="12"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
@@ -14323,13 +13783,10 @@
       <c r="R213" s="1"/>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C214" s="6">
-        <v>0</v>
-      </c>
-      <c r="D214" s="3"/>
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="12"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
@@ -14346,13 +13803,10 @@
       <c r="R214" s="1"/>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C215" s="6">
-        <v>0</v>
-      </c>
-      <c r="D215" s="3"/>
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="12"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
@@ -14369,13 +13823,10 @@
       <c r="R215" s="1"/>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C216" s="6">
-        <v>280000</v>
-      </c>
-      <c r="D216" s="3"/>
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="12"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
@@ -14392,13 +13843,10 @@
       <c r="R216" s="1"/>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C217" s="6">
-        <v>5000</v>
-      </c>
-      <c r="D217" s="3"/>
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="12"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
@@ -14415,13 +13863,10 @@
       <c r="R217" s="1"/>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C218" s="6">
-        <v>0</v>
-      </c>
-      <c r="D218" s="3"/>
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="12"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
@@ -14438,13 +13883,10 @@
       <c r="R218" s="1"/>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C219" s="6">
-        <v>7000</v>
-      </c>
-      <c r="D219" s="3"/>
+      <c r="A219" s="2"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="12"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -14461,13 +13903,10 @@
       <c r="R219" s="1"/>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C220" s="6">
-        <v>0</v>
-      </c>
-      <c r="D220" s="3"/>
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="12"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -14484,13 +13923,10 @@
       <c r="R220" s="1"/>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C221" s="6">
-        <v>257500</v>
-      </c>
-      <c r="D221" s="3"/>
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="12"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
@@ -14507,13 +13943,10 @@
       <c r="R221" s="1"/>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C222" s="6">
-        <v>2500</v>
-      </c>
-      <c r="D222" s="3"/>
+      <c r="A222" s="2"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="12"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
@@ -14530,13 +13963,10 @@
       <c r="R222" s="1"/>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C223" s="6">
-        <v>0</v>
-      </c>
-      <c r="D223" s="3"/>
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="12"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
@@ -14553,13 +13983,10 @@
       <c r="R223" s="1"/>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C224" s="6">
-        <v>0</v>
-      </c>
-      <c r="D224" s="3"/>
+      <c r="A224" s="2"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="12"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
@@ -14576,13 +14003,10 @@
       <c r="R224" s="1"/>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C225" s="6">
-        <v>0</v>
-      </c>
-      <c r="D225" s="3"/>
+      <c r="A225" s="2"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="12"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
@@ -14599,13 +14023,10 @@
       <c r="R225" s="1"/>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C226" s="6">
-        <v>0</v>
-      </c>
-      <c r="D226" s="3"/>
+      <c r="A226" s="2"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="12"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
@@ -14622,13 +14043,10 @@
       <c r="R226" s="1"/>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C227" s="6">
-        <v>0</v>
-      </c>
-      <c r="D227" s="3"/>
+      <c r="A227" s="2"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="12"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -14645,13 +14063,10 @@
       <c r="R227" s="1"/>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C228" s="6">
-        <v>63000</v>
-      </c>
-      <c r="D228" s="3"/>
+      <c r="A228" s="2"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="12"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
@@ -14668,13 +14083,10 @@
       <c r="R228" s="1"/>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C229" s="6">
-        <v>0</v>
-      </c>
-      <c r="D229" s="3"/>
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="12"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -14691,13 +14103,10 @@
       <c r="R229" s="1"/>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C230" s="6">
-        <v>0</v>
-      </c>
-      <c r="D230" s="3"/>
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="12"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
@@ -14714,13 +14123,10 @@
       <c r="R230" s="1"/>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C231" s="6">
-        <v>0</v>
-      </c>
-      <c r="D231" s="3"/>
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="12"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
@@ -14737,13 +14143,10 @@
       <c r="R231" s="1"/>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C232" s="6">
-        <v>5139</v>
-      </c>
-      <c r="D232" s="3"/>
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="12"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
@@ -14760,13 +14163,10 @@
       <c r="R232" s="1"/>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C233" s="6">
-        <v>1000</v>
-      </c>
-      <c r="D233" s="3"/>
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="12"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
@@ -14783,13 +14183,10 @@
       <c r="R233" s="1"/>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C234" s="6">
-        <v>0</v>
-      </c>
-      <c r="D234" s="3"/>
+      <c r="A234" s="2"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="12"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
@@ -14806,13 +14203,10 @@
       <c r="R234" s="1"/>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A235" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C235" s="6">
-        <v>0</v>
-      </c>
-      <c r="D235" s="3"/>
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="12"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
@@ -14829,13 +14223,10 @@
       <c r="R235" s="1"/>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C236" s="6">
-        <v>0</v>
-      </c>
-      <c r="D236" s="3"/>
+      <c r="A236" s="2"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="12"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
@@ -14852,13 +14243,10 @@
       <c r="R236" s="1"/>
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C237" s="6">
-        <v>0</v>
-      </c>
-      <c r="D237" s="3"/>
+      <c r="A237" s="2"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="12"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
@@ -14875,13 +14263,10 @@
       <c r="R237" s="1"/>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C238" s="6">
-        <v>0</v>
-      </c>
-      <c r="D238" s="3"/>
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="12"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
@@ -14898,13 +14283,10 @@
       <c r="R238" s="1"/>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A239" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C239" s="6">
-        <v>0</v>
-      </c>
-      <c r="D239" s="3"/>
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="12"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
@@ -14921,13 +14303,10 @@
       <c r="R239" s="1"/>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C240" s="6">
-        <v>0</v>
-      </c>
-      <c r="D240" s="3"/>
+      <c r="A240" s="2"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="12"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
@@ -14944,13 +14323,10 @@
       <c r="R240" s="1"/>
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A241" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C241" s="6">
-        <v>0</v>
-      </c>
-      <c r="D241" s="3"/>
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="12"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
@@ -14967,13 +14343,10 @@
       <c r="R241" s="1"/>
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A242" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C242" s="6">
-        <v>0</v>
-      </c>
-      <c r="D242" s="3"/>
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="12"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
@@ -14990,13 +14363,10 @@
       <c r="R242" s="1"/>
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A243" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C243" s="6">
-        <v>0</v>
-      </c>
-      <c r="D243" s="3"/>
+      <c r="A243" s="2"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="12"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
@@ -15013,13 +14383,10 @@
       <c r="R243" s="1"/>
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A244" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C244" s="6">
-        <v>0</v>
-      </c>
-      <c r="D244" s="3"/>
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="12"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
@@ -15036,13 +14403,10 @@
       <c r="R244" s="1"/>
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A245" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C245" s="6">
-        <v>0</v>
-      </c>
-      <c r="D245" s="3"/>
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="12"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
@@ -15059,13 +14423,10 @@
       <c r="R245" s="1"/>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A246" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C246" s="6">
-        <v>0</v>
-      </c>
-      <c r="D246" s="3"/>
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="12"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
@@ -15082,13 +14443,10 @@
       <c r="R246" s="1"/>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A247" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C247" s="6">
-        <v>0</v>
-      </c>
-      <c r="D247" s="3"/>
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="12"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
@@ -15105,13 +14463,10 @@
       <c r="R247" s="1"/>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A248" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C248" s="6">
-        <v>600</v>
-      </c>
-      <c r="D248" s="3"/>
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
+      <c r="D248" s="12"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
@@ -15128,13 +14483,10 @@
       <c r="R248" s="1"/>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A249" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C249" s="6">
-        <v>0</v>
-      </c>
-      <c r="D249" s="3"/>
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="12"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
@@ -15151,13 +14503,10 @@
       <c r="R249" s="1"/>
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A250" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C250" s="6">
-        <v>0</v>
-      </c>
-      <c r="D250" s="3"/>
+      <c r="A250" s="2"/>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="12"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
@@ -15174,13 +14523,10 @@
       <c r="R250" s="1"/>
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A251" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C251" s="6">
-        <v>0</v>
-      </c>
-      <c r="D251" s="3"/>
+      <c r="A251" s="2"/>
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="12"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
@@ -15197,13 +14543,10 @@
       <c r="R251" s="1"/>
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A252" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C252" s="6">
-        <v>0</v>
-      </c>
-      <c r="D252" s="3"/>
+      <c r="A252" s="2"/>
+      <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="12"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
@@ -15220,13 +14563,10 @@
       <c r="R252" s="1"/>
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C253" s="6">
-        <v>0</v>
-      </c>
-      <c r="D253" s="3"/>
+      <c r="A253" s="2"/>
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="12"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
@@ -15243,13 +14583,10 @@
       <c r="R253" s="1"/>
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A254" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C254" s="6">
-        <v>0</v>
-      </c>
-      <c r="D254" s="3"/>
+      <c r="A254" s="2"/>
+      <c r="B254" s="2"/>
+      <c r="C254" s="2"/>
+      <c r="D254" s="12"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
@@ -15266,13 +14603,10 @@
       <c r="R254" s="1"/>
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A255" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C255" s="6">
-        <v>0</v>
-      </c>
-      <c r="D255" s="3"/>
+      <c r="A255" s="2"/>
+      <c r="B255" s="2"/>
+      <c r="C255" s="2"/>
+      <c r="D255" s="12"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
@@ -15289,13 +14623,10 @@
       <c r="R255" s="1"/>
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A256" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C256" s="6">
-        <v>0</v>
-      </c>
-      <c r="D256" s="3"/>
+      <c r="A256" s="2"/>
+      <c r="B256" s="2"/>
+      <c r="C256" s="2"/>
+      <c r="D256" s="12"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
@@ -15312,13 +14643,10 @@
       <c r="R256" s="1"/>
     </row>
     <row r="257" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A257" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C257" s="6">
-        <v>0</v>
-      </c>
-      <c r="D257" s="3"/>
+      <c r="A257" s="2"/>
+      <c r="B257" s="2"/>
+      <c r="C257" s="2"/>
+      <c r="D257" s="12"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
@@ -15335,13 +14663,10 @@
       <c r="R257" s="1"/>
     </row>
     <row r="258" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A258" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C258" s="6">
-        <v>0</v>
-      </c>
-      <c r="D258" s="3"/>
+      <c r="A258" s="2"/>
+      <c r="B258" s="2"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="12"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
@@ -15358,13 +14683,10 @@
       <c r="R258" s="1"/>
     </row>
     <row r="259" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A259" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C259" s="6">
-        <v>25000</v>
-      </c>
-      <c r="D259" s="3"/>
+      <c r="A259" s="2"/>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="12"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
@@ -15381,13 +14703,10 @@
       <c r="R259" s="1"/>
     </row>
     <row r="260" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A260" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C260" s="6">
-        <v>0</v>
-      </c>
-      <c r="D260" s="3"/>
+      <c r="A260" s="2"/>
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="12"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
@@ -15404,13 +14723,10 @@
       <c r="R260" s="1"/>
     </row>
     <row r="261" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A261" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C261" s="6">
-        <v>0</v>
-      </c>
-      <c r="D261" s="3"/>
+      <c r="A261" s="2"/>
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="12"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
@@ -15427,13 +14743,10 @@
       <c r="R261" s="1"/>
     </row>
     <row r="262" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A262" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C262" s="6">
-        <v>20800</v>
-      </c>
-      <c r="D262" s="3"/>
+      <c r="A262" s="2"/>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="12"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
@@ -15450,13 +14763,10 @@
       <c r="R262" s="1"/>
     </row>
     <row r="263" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A263" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C263" s="6">
-        <v>0</v>
-      </c>
-      <c r="D263" s="3"/>
+      <c r="A263" s="2"/>
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="12"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
@@ -15473,13 +14783,10 @@
       <c r="R263" s="1"/>
     </row>
     <row r="264" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A264" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C264" s="6">
-        <v>0</v>
-      </c>
-      <c r="D264" s="3"/>
+      <c r="A264" s="2"/>
+      <c r="B264" s="2"/>
+      <c r="C264" s="2"/>
+      <c r="D264" s="12"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
@@ -15496,13 +14803,10 @@
       <c r="R264" s="1"/>
     </row>
     <row r="265" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A265" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C265" s="6">
-        <v>827</v>
-      </c>
-      <c r="D265" s="3"/>
+      <c r="A265" s="2"/>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="12"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
@@ -15519,13 +14823,10 @@
       <c r="R265" s="1"/>
     </row>
     <row r="266" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A266" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C266" s="6">
-        <v>0</v>
-      </c>
-      <c r="D266" s="3"/>
+      <c r="A266" s="2"/>
+      <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="12"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
@@ -15542,13 +14843,10 @@
       <c r="R266" s="1"/>
     </row>
     <row r="267" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A267" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C267" s="6">
-        <v>572</v>
-      </c>
-      <c r="D267" s="3"/>
+      <c r="A267" s="2"/>
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="12"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
@@ -15565,13 +14863,10 @@
       <c r="R267" s="1"/>
     </row>
     <row r="268" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A268" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C268" s="6">
-        <v>0</v>
-      </c>
-      <c r="D268" s="3"/>
+      <c r="A268" s="2"/>
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="12"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
@@ -15588,13 +14883,10 @@
       <c r="R268" s="1"/>
     </row>
     <row r="269" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A269" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C269" s="6">
-        <v>84</v>
-      </c>
-      <c r="D269" s="3"/>
+      <c r="A269" s="2"/>
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="12"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
@@ -15611,13 +14903,10 @@
       <c r="R269" s="1"/>
     </row>
     <row r="270" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A270" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C270" s="6">
-        <v>1000</v>
-      </c>
-      <c r="D270" s="3"/>
+      <c r="A270" s="2"/>
+      <c r="B270" s="2"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="12"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
@@ -15634,13 +14923,10 @@
       <c r="R270" s="1"/>
     </row>
     <row r="271" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C271" s="6">
-        <v>0</v>
-      </c>
-      <c r="D271" s="3"/>
+      <c r="A271" s="2"/>
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="12"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
@@ -15657,13 +14943,10 @@
       <c r="R271" s="1"/>
     </row>
     <row r="272" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A272" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C272" s="6">
-        <v>0</v>
-      </c>
-      <c r="D272" s="3"/>
+      <c r="A272" s="2"/>
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="12"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
@@ -15680,13 +14963,10 @@
       <c r="R272" s="1"/>
     </row>
     <row r="273" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A273" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C273" s="6">
-        <v>0</v>
-      </c>
-      <c r="D273" s="3"/>
+      <c r="A273" s="2"/>
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="12"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
@@ -15703,13 +14983,10 @@
       <c r="R273" s="1"/>
     </row>
     <row r="274" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A274" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C274" s="6">
-        <v>2396</v>
-      </c>
-      <c r="D274" s="3"/>
+      <c r="A274" s="2"/>
+      <c r="B274" s="2"/>
+      <c r="C274" s="2"/>
+      <c r="D274" s="12"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
@@ -15726,13 +15003,10 @@
       <c r="R274" s="1"/>
     </row>
     <row r="275" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A275" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D275" s="3"/>
+      <c r="A275" s="2"/>
+      <c r="B275" s="2"/>
+      <c r="C275" s="2"/>
+      <c r="D275" s="12"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
@@ -15749,14 +15023,10 @@
       <c r="R275" s="1"/>
     </row>
     <row r="276" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A276" s="2" t="s">
-        <v>160</v>
-      </c>
+      <c r="A276" s="2"/>
       <c r="B276" s="2"/>
-      <c r="C276" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D276" s="3"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="12"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
@@ -15773,14 +15043,10 @@
       <c r="R276" s="1"/>
     </row>
     <row r="277" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A277" s="2" t="s">
-        <v>341</v>
-      </c>
+      <c r="A277" s="2"/>
       <c r="B277" s="2"/>
-      <c r="C277" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D277" s="3"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="12"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
@@ -15797,14 +15063,10 @@
       <c r="R277" s="1"/>
     </row>
     <row r="278" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A278" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A278" s="2"/>
       <c r="B278" s="2"/>
-      <c r="C278" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D278" s="3"/>
+      <c r="C278" s="2"/>
+      <c r="D278" s="12"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
@@ -15821,14 +15083,10 @@
       <c r="R278" s="1"/>
     </row>
     <row r="279" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A279" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="A279" s="2"/>
       <c r="B279" s="2"/>
-      <c r="C279" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D279" s="3"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="12"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
@@ -15845,14 +15103,10 @@
       <c r="R279" s="1"/>
     </row>
     <row r="280" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A280" s="2" t="s">
-        <v>343</v>
-      </c>
+      <c r="A280" s="2"/>
       <c r="B280" s="2"/>
-      <c r="C280" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D280" s="3"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="12"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
@@ -15869,14 +15123,10 @@
       <c r="R280" s="1"/>
     </row>
     <row r="281" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A281" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="A281" s="2"/>
       <c r="B281" s="2"/>
-      <c r="C281" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D281" s="3"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="12"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
@@ -15893,14 +15143,10 @@
       <c r="R281" s="1"/>
     </row>
     <row r="282" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A282" s="2" t="s">
-        <v>344</v>
-      </c>
+      <c r="A282" s="2"/>
       <c r="B282" s="2"/>
-      <c r="C282" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D282" s="3"/>
+      <c r="C282" s="2"/>
+      <c r="D282" s="12"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
@@ -15917,14 +15163,10 @@
       <c r="R282" s="1"/>
     </row>
     <row r="283" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A283" s="2" t="s">
-        <v>345</v>
-      </c>
+      <c r="A283" s="2"/>
       <c r="B283" s="2"/>
-      <c r="C283" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D283" s="3"/>
+      <c r="C283" s="2"/>
+      <c r="D283" s="12"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
@@ -15941,14 +15183,10 @@
       <c r="R283" s="1"/>
     </row>
     <row r="284" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A284" s="2" t="s">
-        <v>163</v>
-      </c>
+      <c r="A284" s="2"/>
       <c r="B284" s="2"/>
-      <c r="C284" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D284" s="3"/>
+      <c r="C284" s="2"/>
+      <c r="D284" s="12"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
@@ -15965,14 +15203,10 @@
       <c r="R284" s="1"/>
     </row>
     <row r="285" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A285" s="2" t="s">
-        <v>346</v>
-      </c>
+      <c r="A285" s="2"/>
       <c r="B285" s="2"/>
-      <c r="C285" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D285" s="3"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="12"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
@@ -15989,14 +15223,10 @@
       <c r="R285" s="1"/>
     </row>
     <row r="286" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A286" s="2" t="s">
-        <v>347</v>
-      </c>
+      <c r="A286" s="2"/>
       <c r="B286" s="2"/>
-      <c r="C286" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D286" s="3"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="12"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
@@ -16013,14 +15243,10 @@
       <c r="R286" s="1"/>
     </row>
     <row r="287" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A287" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="A287" s="2"/>
       <c r="B287" s="2"/>
-      <c r="C287" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D287" s="3"/>
+      <c r="C287" s="2"/>
+      <c r="D287" s="12"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
@@ -16037,14 +15263,10 @@
       <c r="R287" s="1"/>
     </row>
     <row r="288" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A288" s="2" t="s">
-        <v>165</v>
-      </c>
+      <c r="A288" s="2"/>
       <c r="B288" s="2"/>
-      <c r="C288" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D288" s="3"/>
+      <c r="C288" s="2"/>
+      <c r="D288" s="12"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
@@ -16061,14 +15283,10 @@
       <c r="R288" s="1"/>
     </row>
     <row r="289" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A289" s="2" t="s">
-        <v>348</v>
-      </c>
+      <c r="A289" s="2"/>
       <c r="B289" s="2"/>
-      <c r="C289" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D289" s="3"/>
+      <c r="C289" s="2"/>
+      <c r="D289" s="12"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
@@ -16085,14 +15303,10 @@
       <c r="R289" s="1"/>
     </row>
     <row r="290" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A290" s="2" t="s">
-        <v>349</v>
-      </c>
+      <c r="A290" s="2"/>
       <c r="B290" s="2"/>
-      <c r="C290" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D290" s="3"/>
+      <c r="C290" s="2"/>
+      <c r="D290" s="12"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
@@ -16109,14 +15323,10 @@
       <c r="R290" s="1"/>
     </row>
     <row r="291" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A291" s="2" t="s">
-        <v>166</v>
-      </c>
+      <c r="A291" s="2"/>
       <c r="B291" s="2"/>
-      <c r="C291" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D291" s="3"/>
+      <c r="C291" s="2"/>
+      <c r="D291" s="12"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
@@ -16133,14 +15343,10 @@
       <c r="R291" s="1"/>
     </row>
     <row r="292" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A292" s="2" t="s">
-        <v>350</v>
-      </c>
+      <c r="A292" s="2"/>
       <c r="B292" s="2"/>
-      <c r="C292" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D292" s="3"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="12"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
@@ -16157,14 +15363,10 @@
       <c r="R292" s="1"/>
     </row>
     <row r="293" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A293" s="2" t="s">
-        <v>351</v>
-      </c>
+      <c r="A293" s="2"/>
       <c r="B293" s="2"/>
-      <c r="C293" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D293" s="3"/>
+      <c r="C293" s="2"/>
+      <c r="D293" s="12"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
@@ -16181,14 +15383,10 @@
       <c r="R293" s="1"/>
     </row>
     <row r="294" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A294" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A294" s="2"/>
       <c r="B294" s="2"/>
-      <c r="C294" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D294" s="3"/>
+      <c r="C294" s="2"/>
+      <c r="D294" s="12"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
@@ -16205,14 +15403,10 @@
       <c r="R294" s="1"/>
     </row>
     <row r="295" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A295" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A295" s="2"/>
       <c r="B295" s="2"/>
-      <c r="C295" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D295" s="3"/>
+      <c r="C295" s="2"/>
+      <c r="D295" s="12"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
@@ -16229,14 +15423,10 @@
       <c r="R295" s="1"/>
     </row>
     <row r="296" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A296" s="2" t="s">
-        <v>352</v>
-      </c>
+      <c r="A296" s="2"/>
       <c r="B296" s="2"/>
-      <c r="C296" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D296" s="3"/>
+      <c r="C296" s="2"/>
+      <c r="D296" s="12"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
@@ -16253,14 +15443,10 @@
       <c r="R296" s="1"/>
     </row>
     <row r="297" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A297" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A297" s="2"/>
       <c r="B297" s="2"/>
-      <c r="C297" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D297" s="3"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="12"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
@@ -16277,14 +15463,10 @@
       <c r="R297" s="1"/>
     </row>
     <row r="298" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A298" s="2" t="s">
-        <v>353</v>
-      </c>
+      <c r="A298" s="2"/>
       <c r="B298" s="2"/>
-      <c r="C298" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D298" s="3"/>
+      <c r="C298" s="2"/>
+      <c r="D298" s="12"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
@@ -16301,14 +15483,10 @@
       <c r="R298" s="1"/>
     </row>
     <row r="299" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A299" s="2" t="s">
-        <v>354</v>
-      </c>
+      <c r="A299" s="2"/>
       <c r="B299" s="2"/>
-      <c r="C299" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D299" s="3"/>
+      <c r="C299" s="2"/>
+      <c r="D299" s="12"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
@@ -16325,14 +15503,10 @@
       <c r="R299" s="1"/>
     </row>
     <row r="300" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A300" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A300" s="2"/>
       <c r="B300" s="2"/>
-      <c r="C300" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D300" s="3"/>
+      <c r="C300" s="2"/>
+      <c r="D300" s="12"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
@@ -16349,14 +15523,10 @@
       <c r="R300" s="1"/>
     </row>
     <row r="301" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A301" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A301" s="2"/>
       <c r="B301" s="2"/>
-      <c r="C301" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D301" s="3"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="12"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
@@ -16373,14 +15543,10 @@
       <c r="R301" s="1"/>
     </row>
     <row r="302" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A302" s="2" t="s">
-        <v>355</v>
-      </c>
+      <c r="A302" s="2"/>
       <c r="B302" s="2"/>
-      <c r="C302" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D302" s="3"/>
+      <c r="C302" s="2"/>
+      <c r="D302" s="12"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
@@ -16397,14 +15563,10 @@
       <c r="R302" s="1"/>
     </row>
     <row r="303" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A303" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A303" s="2"/>
       <c r="B303" s="2"/>
-      <c r="C303" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D303" s="3"/>
+      <c r="C303" s="2"/>
+      <c r="D303" s="12"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
@@ -16421,14 +15583,10 @@
       <c r="R303" s="1"/>
     </row>
     <row r="304" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A304" s="2" t="s">
-        <v>356</v>
-      </c>
+      <c r="A304" s="2"/>
       <c r="B304" s="2"/>
-      <c r="C304" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D304" s="3"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="12"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
@@ -16445,14 +15603,10 @@
       <c r="R304" s="1"/>
     </row>
     <row r="305" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A305" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A305" s="2"/>
       <c r="B305" s="2"/>
-      <c r="C305" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D305" s="3"/>
+      <c r="C305" s="2"/>
+      <c r="D305" s="12"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
@@ -16469,14 +15623,10 @@
       <c r="R305" s="1"/>
     </row>
     <row r="306" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A306" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A306" s="2"/>
       <c r="B306" s="2"/>
-      <c r="C306" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D306" s="3"/>
+      <c r="C306" s="2"/>
+      <c r="D306" s="12"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
@@ -16493,14 +15643,10 @@
       <c r="R306" s="1"/>
     </row>
     <row r="307" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A307" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A307" s="2"/>
       <c r="B307" s="2"/>
-      <c r="C307" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D307" s="3"/>
+      <c r="C307" s="2"/>
+      <c r="D307" s="12"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
@@ -16517,14 +15663,10 @@
       <c r="R307" s="1"/>
     </row>
     <row r="308" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A308" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A308" s="2"/>
       <c r="B308" s="2"/>
-      <c r="C308" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D308" s="3"/>
+      <c r="C308" s="2"/>
+      <c r="D308" s="12"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
@@ -16541,14 +15683,10 @@
       <c r="R308" s="1"/>
     </row>
     <row r="309" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A309" s="2" t="s">
-        <v>357</v>
-      </c>
+      <c r="A309" s="2"/>
       <c r="B309" s="2"/>
-      <c r="C309" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D309" s="3"/>
+      <c r="C309" s="2"/>
+      <c r="D309" s="12"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
@@ -16565,14 +15703,10 @@
       <c r="R309" s="1"/>
     </row>
     <row r="310" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A310" s="2" t="s">
-        <v>358</v>
-      </c>
+      <c r="A310" s="2"/>
       <c r="B310" s="2"/>
-      <c r="C310" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D310" s="3"/>
+      <c r="C310" s="2"/>
+      <c r="D310" s="12"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
@@ -16589,14 +15723,10 @@
       <c r="R310" s="1"/>
     </row>
     <row r="311" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A311" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A311" s="2"/>
       <c r="B311" s="2"/>
-      <c r="C311" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D311" s="3"/>
+      <c r="C311" s="2"/>
+      <c r="D311" s="12"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
@@ -16613,14 +15743,10 @@
       <c r="R311" s="1"/>
     </row>
     <row r="312" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A312" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A312" s="2"/>
       <c r="B312" s="2"/>
-      <c r="C312" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D312" s="3"/>
+      <c r="C312" s="2"/>
+      <c r="D312" s="12"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
@@ -16637,14 +15763,10 @@
       <c r="R312" s="1"/>
     </row>
     <row r="313" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A313" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A313" s="2"/>
       <c r="B313" s="2"/>
-      <c r="C313" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D313" s="3"/>
+      <c r="C313" s="2"/>
+      <c r="D313" s="12"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
@@ -16661,14 +15783,10 @@
       <c r="R313" s="1"/>
     </row>
     <row r="314" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A314" s="2" t="s">
-        <v>359</v>
-      </c>
+      <c r="A314" s="2"/>
       <c r="B314" s="2"/>
-      <c r="C314" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D314" s="3"/>
+      <c r="C314" s="2"/>
+      <c r="D314" s="12"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
@@ -16685,14 +15803,10 @@
       <c r="R314" s="1"/>
     </row>
     <row r="315" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A315" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A315" s="2"/>
       <c r="B315" s="2"/>
-      <c r="C315" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D315" s="3"/>
+      <c r="C315" s="2"/>
+      <c r="D315" s="12"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
@@ -16709,14 +15823,10 @@
       <c r="R315" s="1"/>
     </row>
     <row r="316" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A316" s="2" t="s">
-        <v>360</v>
-      </c>
+      <c r="A316" s="2"/>
       <c r="B316" s="2"/>
-      <c r="C316" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D316" s="3"/>
+      <c r="C316" s="2"/>
+      <c r="D316" s="12"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
@@ -16733,14 +15843,10 @@
       <c r="R316" s="1"/>
     </row>
     <row r="317" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A317" s="2" t="s">
-        <v>361</v>
-      </c>
+      <c r="A317" s="2"/>
       <c r="B317" s="2"/>
-      <c r="C317" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D317" s="3"/>
+      <c r="C317" s="2"/>
+      <c r="D317" s="12"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
@@ -16757,14 +15863,10 @@
       <c r="R317" s="1"/>
     </row>
     <row r="318" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A318" s="2" t="s">
-        <v>362</v>
-      </c>
+      <c r="A318" s="2"/>
       <c r="B318" s="2"/>
-      <c r="C318" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D318" s="3"/>
+      <c r="C318" s="2"/>
+      <c r="D318" s="12"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
@@ -16781,14 +15883,10 @@
       <c r="R318" s="1"/>
     </row>
     <row r="319" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A319" s="2" t="s">
-        <v>363</v>
-      </c>
+      <c r="A319" s="2"/>
       <c r="B319" s="2"/>
-      <c r="C319" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D319" s="3"/>
+      <c r="C319" s="2"/>
+      <c r="D319" s="12"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
@@ -16805,14 +15903,10 @@
       <c r="R319" s="1"/>
     </row>
     <row r="320" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A320" s="2" t="s">
-        <v>364</v>
-      </c>
+      <c r="A320" s="2"/>
       <c r="B320" s="2"/>
-      <c r="C320" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D320" s="3"/>
+      <c r="C320" s="2"/>
+      <c r="D320" s="12"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
@@ -16829,14 +15923,10 @@
       <c r="R320" s="1"/>
     </row>
     <row r="321" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A321" s="2" t="s">
-        <v>365</v>
-      </c>
+      <c r="A321" s="2"/>
       <c r="B321" s="2"/>
-      <c r="C321" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D321" s="3"/>
+      <c r="C321" s="2"/>
+      <c r="D321" s="12"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
@@ -16853,14 +15943,10 @@
       <c r="R321" s="1"/>
     </row>
     <row r="322" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A322" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A322" s="2"/>
       <c r="B322" s="2"/>
-      <c r="C322" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D322" s="3"/>
+      <c r="C322" s="2"/>
+      <c r="D322" s="12"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
@@ -16877,14 +15963,10 @@
       <c r="R322" s="1"/>
     </row>
     <row r="323" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A323" s="2" t="s">
-        <v>366</v>
-      </c>
+      <c r="A323" s="2"/>
       <c r="B323" s="2"/>
-      <c r="C323" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D323" s="3"/>
+      <c r="C323" s="2"/>
+      <c r="D323" s="12"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
@@ -16901,14 +15983,10 @@
       <c r="R323" s="1"/>
     </row>
     <row r="324" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A324" s="2" t="s">
-        <v>367</v>
-      </c>
+      <c r="A324" s="2"/>
       <c r="B324" s="2"/>
-      <c r="C324" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D324" s="3"/>
+      <c r="C324" s="2"/>
+      <c r="D324" s="12"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
@@ -16925,14 +16003,10 @@
       <c r="R324" s="1"/>
     </row>
     <row r="325" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A325" s="2" t="s">
-        <v>368</v>
-      </c>
+      <c r="A325" s="2"/>
       <c r="B325" s="2"/>
-      <c r="C325" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D325" s="3"/>
+      <c r="C325" s="2"/>
+      <c r="D325" s="12"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
@@ -16949,14 +16023,10 @@
       <c r="R325" s="1"/>
     </row>
     <row r="326" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
-        <v>369</v>
-      </c>
+      <c r="A326" s="2"/>
       <c r="B326" s="2"/>
-      <c r="C326" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D326" s="3"/>
+      <c r="C326" s="2"/>
+      <c r="D326" s="12"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
@@ -16973,14 +16043,10 @@
       <c r="R326" s="1"/>
     </row>
     <row r="327" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A327" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A327" s="2"/>
       <c r="B327" s="2"/>
-      <c r="C327" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D327" s="3"/>
+      <c r="C327" s="2"/>
+      <c r="D327" s="12"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
@@ -16997,14 +16063,10 @@
       <c r="R327" s="1"/>
     </row>
     <row r="328" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A328" s="2"/>
       <c r="B328" s="2"/>
-      <c r="C328" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D328" s="3"/>
+      <c r="C328" s="2"/>
+      <c r="D328" s="12"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
@@ -17021,14 +16083,10 @@
       <c r="R328" s="1"/>
     </row>
     <row r="329" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A329" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A329" s="2"/>
       <c r="B329" s="2"/>
-      <c r="C329" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D329" s="3"/>
+      <c r="C329" s="2"/>
+      <c r="D329" s="12"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
@@ -17045,14 +16103,10 @@
       <c r="R329" s="1"/>
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A330" s="2" t="s">
-        <v>370</v>
-      </c>
+      <c r="A330" s="2"/>
       <c r="B330" s="2"/>
-      <c r="C330" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D330" s="3"/>
+      <c r="C330" s="2"/>
+      <c r="D330" s="12"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
@@ -17069,14 +16123,10 @@
       <c r="R330" s="1"/>
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A331" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A331" s="2"/>
       <c r="B331" s="2"/>
-      <c r="C331" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D331" s="3"/>
+      <c r="C331" s="2"/>
+      <c r="D331" s="12"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
@@ -17093,14 +16143,10 @@
       <c r="R331" s="1"/>
     </row>
     <row r="332" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A332" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A332" s="2"/>
       <c r="B332" s="2"/>
-      <c r="C332" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D332" s="3"/>
+      <c r="C332" s="2"/>
+      <c r="D332" s="12"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
@@ -17117,14 +16163,10 @@
       <c r="R332" s="1"/>
     </row>
     <row r="333" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A333" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A333" s="2"/>
       <c r="B333" s="2"/>
-      <c r="C333" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D333" s="3"/>
+      <c r="C333" s="2"/>
+      <c r="D333" s="12"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
@@ -17141,14 +16183,10 @@
       <c r="R333" s="1"/>
     </row>
     <row r="334" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A334" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A334" s="2"/>
       <c r="B334" s="2"/>
-      <c r="C334" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D334" s="3"/>
+      <c r="C334" s="2"/>
+      <c r="D334" s="12"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
@@ -17165,14 +16203,10 @@
       <c r="R334" s="1"/>
     </row>
     <row r="335" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A335" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A335" s="2"/>
       <c r="B335" s="2"/>
-      <c r="C335" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D335" s="3"/>
+      <c r="C335" s="2"/>
+      <c r="D335" s="12"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
@@ -17189,14 +16223,10 @@
       <c r="R335" s="1"/>
     </row>
     <row r="336" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A336" s="4" t="s">
-        <v>372</v>
-      </c>
+      <c r="A336" s="2"/>
       <c r="B336" s="2"/>
-      <c r="C336" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D336" s="3"/>
+      <c r="C336" s="2"/>
+      <c r="D336" s="12"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
@@ -17213,14 +16243,10 @@
       <c r="R336" s="1"/>
     </row>
     <row r="337" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A337" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="A337" s="2"/>
       <c r="B337" s="2"/>
-      <c r="C337" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D337" s="3"/>
+      <c r="C337" s="2"/>
+      <c r="D337" s="12"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
@@ -17237,14 +16263,10 @@
       <c r="R337" s="1"/>
     </row>
     <row r="338" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A338" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="A338" s="2"/>
       <c r="B338" s="2"/>
-      <c r="C338" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D338" s="3"/>
+      <c r="C338" s="2"/>
+      <c r="D338" s="12"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
@@ -17261,14 +16283,10 @@
       <c r="R338" s="1"/>
     </row>
     <row r="339" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A339" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="A339" s="2"/>
       <c r="B339" s="2"/>
-      <c r="C339" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D339" s="3"/>
+      <c r="C339" s="2"/>
+      <c r="D339" s="12"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
@@ -17285,14 +16303,10 @@
       <c r="R339" s="1"/>
     </row>
     <row r="340" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A340" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="A340" s="2"/>
       <c r="B340" s="2"/>
-      <c r="C340" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D340" s="3"/>
+      <c r="C340" s="2"/>
+      <c r="D340" s="12"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
@@ -17309,14 +16323,10 @@
       <c r="R340" s="1"/>
     </row>
     <row r="341" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A341" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="A341" s="2"/>
       <c r="B341" s="2"/>
-      <c r="C341" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D341" s="3"/>
+      <c r="C341" s="2"/>
+      <c r="D341" s="12"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
@@ -17333,14 +16343,10 @@
       <c r="R341" s="1"/>
     </row>
     <row r="342" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A342" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="A342" s="2"/>
       <c r="B342" s="2"/>
-      <c r="C342" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D342" s="3"/>
+      <c r="C342" s="2"/>
+      <c r="D342" s="12"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
@@ -17357,14 +16363,10 @@
       <c r="R342" s="1"/>
     </row>
     <row r="343" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A343" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="A343" s="2"/>
       <c r="B343" s="2"/>
-      <c r="C343" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D343" s="3"/>
+      <c r="C343" s="2"/>
+      <c r="D343" s="12"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
@@ -17381,14 +16383,10 @@
       <c r="R343" s="1"/>
     </row>
     <row r="344" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A344" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="A344" s="2"/>
       <c r="B344" s="2"/>
-      <c r="C344" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D344" s="3"/>
+      <c r="C344" s="2"/>
+      <c r="D344" s="12"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
@@ -17405,14 +16403,10 @@
       <c r="R344" s="1"/>
     </row>
     <row r="345" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A345" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="A345" s="2"/>
       <c r="B345" s="2"/>
-      <c r="C345" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D345" s="3"/>
+      <c r="C345" s="2"/>
+      <c r="D345" s="12"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
@@ -17429,14 +16423,10 @@
       <c r="R345" s="1"/>
     </row>
     <row r="346" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A346" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="A346" s="2"/>
       <c r="B346" s="2"/>
-      <c r="C346" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D346" s="3"/>
+      <c r="C346" s="2"/>
+      <c r="D346" s="12"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
@@ -17453,14 +16443,10 @@
       <c r="R346" s="1"/>
     </row>
     <row r="347" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A347" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="A347" s="2"/>
       <c r="B347" s="2"/>
-      <c r="C347" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D347" s="3"/>
+      <c r="C347" s="2"/>
+      <c r="D347" s="12"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
@@ -17477,14 +16463,10 @@
       <c r="R347" s="1"/>
     </row>
     <row r="348" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A348" s="6" t="s">
-        <v>117</v>
-      </c>
+      <c r="A348" s="2"/>
       <c r="B348" s="2"/>
-      <c r="C348" s="6">
-        <v>145</v>
-      </c>
-      <c r="D348" s="3"/>
+      <c r="C348" s="2"/>
+      <c r="D348" s="12"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
@@ -17501,11 +16483,1308 @@
       <c r="R348" s="1"/>
     </row>
     <row r="349" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C349" s="6">
-        <v>849349</v>
-      </c>
+      <c r="A349" s="10"/>
+      <c r="B349" s="10"/>
+      <c r="C349" s="10"/>
+    </row>
+    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A350" s="2"/>
+      <c r="B350" s="2"/>
+      <c r="C350" s="2"/>
+    </row>
+    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A351" s="2"/>
+      <c r="B351" s="2"/>
+      <c r="C351" s="2"/>
+    </row>
+    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A352" s="2"/>
+      <c r="B352" s="2"/>
+      <c r="C352" s="2"/>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="2"/>
+      <c r="B353" s="2"/>
+      <c r="C353" s="2"/>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="2"/>
+      <c r="B354" s="2"/>
+      <c r="C354" s="2"/>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="2"/>
+      <c r="B355" s="2"/>
+      <c r="C355" s="2"/>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="2"/>
+      <c r="B356" s="2"/>
+      <c r="C356" s="2"/>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="2"/>
+      <c r="B357" s="2"/>
+      <c r="C357" s="2"/>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="2"/>
+      <c r="B358" s="2"/>
+      <c r="C358" s="2"/>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="2"/>
+      <c r="B359" s="2"/>
+      <c r="C359" s="2"/>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="2"/>
+      <c r="B360" s="2"/>
+      <c r="C360" s="2"/>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="2"/>
+      <c r="B361" s="2"/>
+      <c r="C361" s="2"/>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="2"/>
+      <c r="B362" s="2"/>
+      <c r="C362" s="2"/>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="2"/>
+      <c r="B363" s="2"/>
+      <c r="C363" s="2"/>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="2"/>
+      <c r="B364" s="2"/>
+      <c r="C364" s="2"/>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="2"/>
+      <c r="B365" s="2"/>
+      <c r="C365" s="2"/>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="2"/>
+      <c r="B366" s="2"/>
+      <c r="C366" s="2"/>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="2"/>
+      <c r="B367" s="2"/>
+      <c r="C367" s="2"/>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="2"/>
+      <c r="B368" s="2"/>
+      <c r="C368" s="2"/>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="2"/>
+      <c r="B369" s="2"/>
+      <c r="C369" s="2"/>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="2"/>
+      <c r="B370" s="2"/>
+      <c r="C370" s="2"/>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="2"/>
+      <c r="B371" s="2"/>
+      <c r="C371" s="2"/>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="2"/>
+      <c r="B372" s="2"/>
+      <c r="C372" s="2"/>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="2"/>
+      <c r="B373" s="2"/>
+      <c r="C373" s="2"/>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="2"/>
+      <c r="B374" s="2"/>
+      <c r="C374" s="2"/>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="2"/>
+      <c r="B375" s="2"/>
+      <c r="C375" s="2"/>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="2"/>
+      <c r="B376" s="2"/>
+      <c r="C376" s="2"/>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="2"/>
+      <c r="B377" s="2"/>
+      <c r="C377" s="2"/>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="2"/>
+      <c r="B378" s="2"/>
+      <c r="C378" s="2"/>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="2"/>
+      <c r="B379" s="2"/>
+      <c r="C379" s="2"/>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="2"/>
+      <c r="B380" s="2"/>
+      <c r="C380" s="2"/>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="2"/>
+      <c r="B381" s="2"/>
+      <c r="C381" s="2"/>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="2"/>
+      <c r="B382" s="2"/>
+      <c r="C382" s="2"/>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="2"/>
+      <c r="B383" s="2"/>
+      <c r="C383" s="2"/>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="2"/>
+      <c r="B384" s="2"/>
+      <c r="C384" s="2"/>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="2"/>
+      <c r="B385" s="2"/>
+      <c r="C385" s="2"/>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="2"/>
+      <c r="B386" s="2"/>
+      <c r="C386" s="2"/>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="2"/>
+      <c r="B387" s="2"/>
+      <c r="C387" s="2"/>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="2"/>
+      <c r="B388" s="2"/>
+      <c r="C388" s="2"/>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="2"/>
+      <c r="B389" s="2"/>
+      <c r="C389" s="2"/>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="2"/>
+      <c r="B390" s="2"/>
+      <c r="C390" s="2"/>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="2"/>
+      <c r="B391" s="2"/>
+      <c r="C391" s="2"/>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="2"/>
+      <c r="B392" s="2"/>
+      <c r="C392" s="2"/>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="2"/>
+      <c r="B393" s="2"/>
+      <c r="C393" s="2"/>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="2"/>
+      <c r="B394" s="2"/>
+      <c r="C394" s="2"/>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="2"/>
+      <c r="B395" s="2"/>
+      <c r="C395" s="2"/>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="2"/>
+      <c r="B396" s="2"/>
+      <c r="C396" s="2"/>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="2"/>
+      <c r="B397" s="2"/>
+      <c r="C397" s="2"/>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="2"/>
+      <c r="B398" s="2"/>
+      <c r="C398" s="2"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="2"/>
+      <c r="B399" s="2"/>
+      <c r="C399" s="2"/>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="2"/>
+      <c r="B400" s="2"/>
+      <c r="C400" s="2"/>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="2"/>
+      <c r="B401" s="2"/>
+      <c r="C401" s="2"/>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="2"/>
+      <c r="B402" s="2"/>
+      <c r="C402" s="2"/>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="2"/>
+      <c r="B403" s="2"/>
+      <c r="C403" s="2"/>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="2"/>
+      <c r="B404" s="2"/>
+      <c r="C404" s="2"/>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="2"/>
+      <c r="B405" s="2"/>
+      <c r="C405" s="2"/>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="2"/>
+      <c r="B406" s="2"/>
+      <c r="C406" s="2"/>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="2"/>
+      <c r="B407" s="2"/>
+      <c r="C407" s="2"/>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="2"/>
+      <c r="B408" s="2"/>
+      <c r="C408" s="2"/>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="2"/>
+      <c r="B409" s="2"/>
+      <c r="C409" s="2"/>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="2"/>
+      <c r="B410" s="2"/>
+      <c r="C410" s="2"/>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="2"/>
+      <c r="B411" s="2"/>
+      <c r="C411" s="2"/>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="2"/>
+      <c r="B412" s="2"/>
+      <c r="C412" s="2"/>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="2"/>
+      <c r="B413" s="2"/>
+      <c r="C413" s="2"/>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="2"/>
+      <c r="B414" s="2"/>
+      <c r="C414" s="2"/>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="2"/>
+      <c r="B415" s="2"/>
+      <c r="C415" s="2"/>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="2"/>
+      <c r="B416" s="2"/>
+      <c r="C416" s="2"/>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="2"/>
+      <c r="B417" s="2"/>
+      <c r="C417" s="2"/>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="2"/>
+      <c r="B418" s="2"/>
+      <c r="C418" s="2"/>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="2"/>
+      <c r="B419" s="2"/>
+      <c r="C419" s="2"/>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="2"/>
+      <c r="B420" s="2"/>
+      <c r="C420" s="2"/>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="2"/>
+      <c r="B421" s="2"/>
+      <c r="C421" s="2"/>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="2"/>
+      <c r="B422" s="2"/>
+      <c r="C422" s="2"/>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="2"/>
+      <c r="B423" s="2"/>
+      <c r="C423" s="2"/>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="2"/>
+      <c r="B424" s="2"/>
+      <c r="C424" s="2"/>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="2"/>
+      <c r="B425" s="2"/>
+      <c r="C425" s="2"/>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="2"/>
+      <c r="B426" s="2"/>
+      <c r="C426" s="2"/>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="2"/>
+      <c r="B427" s="2"/>
+      <c r="C427" s="2"/>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="2"/>
+      <c r="B428" s="2"/>
+      <c r="C428" s="2"/>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="2"/>
+      <c r="B429" s="2"/>
+      <c r="C429" s="2"/>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="2"/>
+      <c r="B430" s="2"/>
+      <c r="C430" s="2"/>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="2"/>
+      <c r="B431" s="2"/>
+      <c r="C431" s="2"/>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="2"/>
+      <c r="B432" s="2"/>
+      <c r="C432" s="2"/>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="2"/>
+      <c r="B433" s="2"/>
+      <c r="C433" s="2"/>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="2"/>
+      <c r="B434" s="2"/>
+      <c r="C434" s="2"/>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="2"/>
+      <c r="B435" s="2"/>
+      <c r="C435" s="2"/>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="2"/>
+      <c r="B436" s="2"/>
+      <c r="C436" s="2"/>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="2"/>
+      <c r="B437" s="2"/>
+      <c r="C437" s="2"/>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="2"/>
+      <c r="B438" s="2"/>
+      <c r="C438" s="2"/>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="2"/>
+      <c r="B439" s="2"/>
+      <c r="C439" s="2"/>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="2"/>
+      <c r="B440" s="2"/>
+      <c r="C440" s="2"/>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="2"/>
+      <c r="B441" s="2"/>
+      <c r="C441" s="2"/>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="2"/>
+      <c r="B442" s="2"/>
+      <c r="C442" s="2"/>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="2"/>
+      <c r="B443" s="2"/>
+      <c r="C443" s="2"/>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="2"/>
+      <c r="B444" s="2"/>
+      <c r="C444" s="2"/>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="2"/>
+      <c r="B445" s="2"/>
+      <c r="C445" s="2"/>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="2"/>
+      <c r="B446" s="2"/>
+      <c r="C446" s="2"/>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="2"/>
+      <c r="B447" s="2"/>
+      <c r="C447" s="2"/>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="2"/>
+      <c r="B448" s="2"/>
+      <c r="C448" s="2"/>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="2"/>
+      <c r="B449" s="2"/>
+      <c r="C449" s="2"/>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="2"/>
+      <c r="B450" s="2"/>
+      <c r="C450" s="2"/>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="2"/>
+      <c r="B451" s="2"/>
+      <c r="C451" s="2"/>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="2"/>
+      <c r="B452" s="2"/>
+      <c r="C452" s="2"/>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="2"/>
+      <c r="B453" s="2"/>
+      <c r="C453" s="2"/>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="2"/>
+      <c r="B454" s="2"/>
+      <c r="C454" s="2"/>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="2"/>
+      <c r="B455" s="2"/>
+      <c r="C455" s="2"/>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="2"/>
+      <c r="B456" s="2"/>
+      <c r="C456" s="2"/>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="2"/>
+      <c r="B457" s="2"/>
+      <c r="C457" s="2"/>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="2"/>
+      <c r="B458" s="2"/>
+      <c r="C458" s="2"/>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="2"/>
+      <c r="B459" s="2"/>
+      <c r="C459" s="2"/>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="2"/>
+      <c r="B460" s="2"/>
+      <c r="C460" s="2"/>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="2"/>
+      <c r="B461" s="2"/>
+      <c r="C461" s="2"/>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="2"/>
+      <c r="B462" s="2"/>
+      <c r="C462" s="2"/>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="2"/>
+      <c r="B463" s="2"/>
+      <c r="C463" s="2"/>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="2"/>
+      <c r="B464" s="2"/>
+      <c r="C464" s="2"/>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="2"/>
+      <c r="B465" s="2"/>
+      <c r="C465" s="2"/>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="2"/>
+      <c r="B466" s="2"/>
+      <c r="C466" s="2"/>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="2"/>
+      <c r="B467" s="2"/>
+      <c r="C467" s="2"/>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="2"/>
+      <c r="B468" s="2"/>
+      <c r="C468" s="2"/>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="2"/>
+      <c r="B469" s="2"/>
+      <c r="C469" s="2"/>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="2"/>
+      <c r="B470" s="2"/>
+      <c r="C470" s="2"/>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="2"/>
+      <c r="B471" s="2"/>
+      <c r="C471" s="2"/>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="2"/>
+      <c r="B472" s="2"/>
+      <c r="C472" s="2"/>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="2"/>
+      <c r="B473" s="2"/>
+      <c r="C473" s="2"/>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="2"/>
+      <c r="B474" s="2"/>
+      <c r="C474" s="2"/>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="2"/>
+      <c r="B475" s="2"/>
+      <c r="C475" s="2"/>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="2"/>
+      <c r="B476" s="2"/>
+      <c r="C476" s="2"/>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="2"/>
+      <c r="B477" s="2"/>
+      <c r="C477" s="2"/>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="2"/>
+      <c r="B478" s="2"/>
+      <c r="C478" s="2"/>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="2"/>
+      <c r="B479" s="2"/>
+      <c r="C479" s="2"/>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="2"/>
+      <c r="B480" s="2"/>
+      <c r="C480" s="2"/>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="2"/>
+      <c r="B481" s="2"/>
+      <c r="C481" s="2"/>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="2"/>
+      <c r="B482" s="2"/>
+      <c r="C482" s="2"/>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="2"/>
+      <c r="B483" s="2"/>
+      <c r="C483" s="2"/>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="2"/>
+      <c r="B484" s="2"/>
+      <c r="C484" s="2"/>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="2"/>
+      <c r="B485" s="2"/>
+      <c r="C485" s="2"/>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="2"/>
+      <c r="B486" s="2"/>
+      <c r="C486" s="2"/>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="2"/>
+      <c r="B487" s="2"/>
+      <c r="C487" s="2"/>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="2"/>
+      <c r="B488" s="2"/>
+      <c r="C488" s="2"/>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="2"/>
+      <c r="B489" s="2"/>
+      <c r="C489" s="2"/>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="2"/>
+      <c r="B490" s="2"/>
+      <c r="C490" s="2"/>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="2"/>
+      <c r="B491" s="2"/>
+      <c r="C491" s="2"/>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="2"/>
+      <c r="B492" s="2"/>
+      <c r="C492" s="2"/>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="2"/>
+      <c r="B493" s="2"/>
+      <c r="C493" s="2"/>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="2"/>
+      <c r="B494" s="2"/>
+      <c r="C494" s="2"/>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="2"/>
+      <c r="B495" s="2"/>
+      <c r="C495" s="2"/>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="2"/>
+      <c r="B496" s="2"/>
+      <c r="C496" s="2"/>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="2"/>
+      <c r="B497" s="2"/>
+      <c r="C497" s="2"/>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="2"/>
+      <c r="B498" s="2"/>
+      <c r="C498" s="2"/>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="2"/>
+      <c r="B499" s="2"/>
+      <c r="C499" s="2"/>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="2"/>
+      <c r="B500" s="2"/>
+      <c r="C500" s="2"/>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="2"/>
+      <c r="B501" s="2"/>
+      <c r="C501" s="2"/>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="2"/>
+      <c r="B502" s="2"/>
+      <c r="C502" s="2"/>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="2"/>
+      <c r="B503" s="2"/>
+      <c r="C503" s="2"/>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="2"/>
+      <c r="B504" s="2"/>
+      <c r="C504" s="2"/>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="2"/>
+      <c r="B505" s="2"/>
+      <c r="C505" s="2"/>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="2"/>
+      <c r="B506" s="2"/>
+      <c r="C506" s="2"/>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="2"/>
+      <c r="B507" s="2"/>
+      <c r="C507" s="2"/>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="2"/>
+      <c r="B508" s="2"/>
+      <c r="C508" s="2"/>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="2"/>
+      <c r="B509" s="2"/>
+      <c r="C509" s="2"/>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="2"/>
+      <c r="B510" s="2"/>
+      <c r="C510" s="2"/>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="2"/>
+      <c r="B511" s="2"/>
+      <c r="C511" s="2"/>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="2"/>
+      <c r="B512" s="2"/>
+      <c r="C512" s="2"/>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="2"/>
+      <c r="B513" s="2"/>
+      <c r="C513" s="2"/>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="2"/>
+      <c r="B514" s="2"/>
+      <c r="C514" s="2"/>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="2"/>
+      <c r="B515" s="2"/>
+      <c r="C515" s="2"/>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="2"/>
+      <c r="B516" s="2"/>
+      <c r="C516" s="2"/>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="2"/>
+      <c r="B517" s="2"/>
+      <c r="C517" s="2"/>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="2"/>
+      <c r="B518" s="2"/>
+      <c r="C518" s="2"/>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="2"/>
+      <c r="B519" s="2"/>
+      <c r="C519" s="2"/>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="2"/>
+      <c r="B520" s="2"/>
+      <c r="C520" s="2"/>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="2"/>
+      <c r="B521" s="2"/>
+      <c r="C521" s="2"/>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="2"/>
+      <c r="B522" s="2"/>
+      <c r="C522" s="2"/>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="2"/>
+      <c r="B523" s="2"/>
+      <c r="C523" s="2"/>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="2"/>
+      <c r="B524" s="2"/>
+      <c r="C524" s="2"/>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="2"/>
+      <c r="B525" s="2"/>
+      <c r="C525" s="2"/>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="2"/>
+      <c r="B526" s="2"/>
+      <c r="C526" s="2"/>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="2"/>
+      <c r="B527" s="2"/>
+      <c r="C527" s="2"/>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="2"/>
+      <c r="B528" s="2"/>
+      <c r="C528" s="2"/>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="2"/>
+      <c r="B529" s="2"/>
+      <c r="C529" s="2"/>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="2"/>
+      <c r="B530" s="2"/>
+      <c r="C530" s="2"/>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="2"/>
+      <c r="B531" s="2"/>
+      <c r="C531" s="2"/>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="2"/>
+      <c r="B532" s="2"/>
+      <c r="C532" s="2"/>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="2"/>
+      <c r="B533" s="2"/>
+      <c r="C533" s="2"/>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="2"/>
+      <c r="B534" s="2"/>
+      <c r="C534" s="2"/>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="2"/>
+      <c r="B535" s="2"/>
+      <c r="C535" s="2"/>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="2"/>
+      <c r="B536" s="2"/>
+      <c r="C536" s="2"/>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="2"/>
+      <c r="B537" s="2"/>
+      <c r="C537" s="2"/>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="2"/>
+      <c r="B538" s="2"/>
+      <c r="C538" s="2"/>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="2"/>
+      <c r="B539" s="2"/>
+      <c r="C539" s="2"/>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="2"/>
+      <c r="B540" s="2"/>
+      <c r="C540" s="2"/>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="2"/>
+      <c r="B541" s="2"/>
+      <c r="C541" s="2"/>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="2"/>
+      <c r="B542" s="2"/>
+      <c r="C542" s="2"/>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="2"/>
+      <c r="B543" s="2"/>
+      <c r="C543" s="2"/>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="2"/>
+      <c r="B544" s="2"/>
+      <c r="C544" s="2"/>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="2"/>
+      <c r="B545" s="2"/>
+      <c r="C545" s="2"/>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="2"/>
+      <c r="B546" s="2"/>
+      <c r="C546" s="2"/>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="2"/>
+      <c r="B547" s="2"/>
+      <c r="C547" s="2"/>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="2"/>
+      <c r="B548" s="2"/>
+      <c r="C548" s="2"/>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="2"/>
+      <c r="B549" s="2"/>
+      <c r="C549" s="2"/>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="2"/>
+      <c r="B550" s="2"/>
+      <c r="C550" s="2"/>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="2"/>
+      <c r="B551" s="2"/>
+      <c r="C551" s="2"/>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="2"/>
+      <c r="B552" s="2"/>
+      <c r="C552" s="2"/>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="2"/>
+      <c r="B553" s="2"/>
+      <c r="C553" s="2"/>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="2"/>
+      <c r="B554" s="2"/>
+      <c r="C554" s="2"/>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="2"/>
+      <c r="B555" s="2"/>
+      <c r="C555" s="2"/>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="2"/>
+      <c r="B556" s="2"/>
+      <c r="C556" s="2"/>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="2"/>
+      <c r="B557" s="2"/>
+      <c r="C557" s="2"/>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="2"/>
+      <c r="B558" s="2"/>
+      <c r="C558" s="2"/>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="2"/>
+      <c r="B559" s="2"/>
+      <c r="C559" s="2"/>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="2"/>
+      <c r="B560" s="2"/>
+      <c r="C560" s="2"/>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="2"/>
+      <c r="B561" s="2"/>
+      <c r="C561" s="2"/>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="2"/>
+      <c r="B562" s="2"/>
+      <c r="C562" s="2"/>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="2"/>
+      <c r="B563" s="2"/>
+      <c r="C563" s="2"/>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="2"/>
+      <c r="B564" s="2"/>
+      <c r="C564" s="2"/>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="2"/>
+      <c r="B565" s="2"/>
+      <c r="C565" s="2"/>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="2"/>
+      <c r="B566" s="2"/>
+      <c r="C566" s="2"/>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="2"/>
+      <c r="B567" s="2"/>
+      <c r="C567" s="2"/>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="2"/>
+      <c r="B568" s="2"/>
+      <c r="C568" s="2"/>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="2"/>
+      <c r="B569" s="2"/>
+      <c r="C569" s="2"/>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="2"/>
+      <c r="B570" s="2"/>
+      <c r="C570" s="2"/>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="2"/>
+      <c r="B571" s="2"/>
+      <c r="C571" s="2"/>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="2"/>
+      <c r="B572" s="2"/>
+      <c r="C572" s="2"/>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="2"/>
+      <c r="B573" s="2"/>
+      <c r="C573" s="2"/>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="2"/>
+      <c r="B574" s="2"/>
+      <c r="C574" s="2"/>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="2"/>
+      <c r="B575" s="2"/>
+      <c r="C575" s="2"/>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="2"/>
+      <c r="B576" s="2"/>
+      <c r="C576" s="2"/>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="2"/>
+      <c r="B577" s="2"/>
+      <c r="C577" s="2"/>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="2"/>
+      <c r="B578" s="2"/>
+      <c r="C578" s="2"/>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="2"/>
+      <c r="B579" s="2"/>
+      <c r="C579" s="2"/>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="2"/>
+      <c r="B580" s="2"/>
+      <c r="C580" s="2"/>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="2"/>
+      <c r="B581" s="2"/>
+      <c r="C581" s="2"/>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="2"/>
+      <c r="B582" s="2"/>
+      <c r="C582" s="2"/>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="2"/>
+      <c r="B583" s="2"/>
+      <c r="C583" s="2"/>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="2"/>
+      <c r="B584" s="2"/>
+      <c r="C584" s="2"/>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="2"/>
+      <c r="B585" s="2"/>
+      <c r="C585" s="2"/>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="2"/>
+      <c r="B586" s="2"/>
+      <c r="C586" s="2"/>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="2"/>
+      <c r="B587" s="2"/>
+      <c r="C587" s="2"/>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="2"/>
+      <c r="B588" s="2"/>
+      <c r="C588" s="2"/>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="2"/>
+      <c r="B589" s="2"/>
+      <c r="C589" s="2"/>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="2"/>
+      <c r="B590" s="2"/>
+      <c r="C590" s="2"/>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="2"/>
+      <c r="B591" s="2"/>
+      <c r="C591" s="2"/>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="2"/>
+      <c r="B592" s="2"/>
+      <c r="C592" s="2"/>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="2"/>
+      <c r="B593" s="2"/>
+      <c r="C593" s="2"/>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="2"/>
+      <c r="B594" s="2"/>
+      <c r="C594" s="2"/>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="2"/>
+      <c r="B595" s="2"/>
+      <c r="C595" s="2"/>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="2"/>
+      <c r="B596" s="2"/>
+      <c r="C596" s="2"/>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="2"/>
+      <c r="B597" s="2"/>
+      <c r="C597" s="2"/>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="2"/>
+      <c r="B598" s="2"/>
+      <c r="C598" s="2"/>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="2"/>
+      <c r="B599" s="2"/>
+      <c r="C599" s="2"/>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="2"/>
+      <c r="B600" s="2"/>
+      <c r="C600" s="2"/>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="2"/>
+      <c r="B601" s="2"/>
+      <c r="C601" s="2"/>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="2"/>
+      <c r="B602" s="2"/>
+      <c r="C602" s="2"/>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="2"/>
+      <c r="B603" s="2"/>
+      <c r="C603" s="2"/>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="2"/>
+      <c r="B604" s="2"/>
+      <c r="C604" s="2"/>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="2"/>
+      <c r="B605" s="2"/>
+      <c r="C605" s="2"/>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="2"/>
+      <c r="B606" s="2"/>
+      <c r="C606" s="2"/>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="2"/>
+      <c r="B607" s="2"/>
+      <c r="C607" s="2"/>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="2"/>
+      <c r="B608" s="2"/>
+      <c r="C608" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W349" xr:uid="{C3846F03-6366-46E9-8D32-66B5DE77B5A5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/uploads/Besoin.xlsx
+++ b/public/uploads/Besoin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\arco\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEF1765-2B75-48F8-A42B-57E1B1217B19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1316E8F-171A-4852-B4D8-0F8DC9A9D9BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$W$275</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Feuil2!$A$1:$W$349</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,140 +28,351 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>CLEMENTE</author>
-  </authors>
-  <commentList>
-    <comment ref="A457" authorId="0" shapeId="0" xr:uid="{27FDDBCB-6027-4E9E-8BFE-B1BB4E0C7EAD}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>!SQL!DBJDE:43,*
-SELECT trim(IBLITM)         CODIGO ,
-       IMDSC1||IMDSC2 DESCRIPCION,
-       IBLTLV PLAZO,
-IBLNTY TIP_LIN,
-IBOPC COD_NR_ORD,
-IBMPST COD_PLAN,
-IBMPSP REG_LIM_PLAN,
-IBMTF1 LI_PLAN,
-IBMTF2 LI_CONG,
-       IBACQ/100  TAMANO_MEDIO_LOTE,
-       IBRQMX/100 TAMANO_MAXIMO,
-       IBRQMN/100 TAMANO_MINIMO,
-       IBMULT/100 MULTIPLO,
-       IMUOM9 um,
-       IBSAFE/100 STOCK_SEGURIDAD,
-       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'01', MFFQT/100 ,0)) ENE,
-       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'02', MFFQT/100 ,0)) FEB,
-       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'03', MFFQT/100 ,0)) MAR,
-       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'04', MFFQT/100 ,0)) ABR,
-       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'05', MFFQT/100 ,0)) MAY,
-       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'06', MFFQT/100 ,0)) JUN,
-       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'07', MFFQT/100 ,0)) JUL,
-       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'08', MFFQT/100 ,0)) AGO,
-       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'09', MFFQT/100 ,0)) SEP,
-       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'10', MFFQT/100 ,0)) OCT,
-       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'11', MFFQT/100 ,0)) NOV,
-       SUM(DECODE(TO_CHAR(ARCO_TO_DATE@DBJDE(MFDRQJ ),'MM'),'12', MFFQT/100 ,0)) DIC,
-     (
-      SELECT SUM(LIPQOH) / 100
-        FROM PRODDTA.F41021@DBJDE
-       WHERE LIMCU = LPAD('0101', 12, ' ')
-         AND LIITM = IMITM
-      ) EXISTENCIA,
-     ROUND(ARCO_CONSUMO_ARTICULO@DBJDE(IBLITM,0)+ARCO_CONSUMO_COMPONENTE@DBJDE(IBLITM,0)) CONSUMO_12M,
-     (
-      SELECT SUM(LIPREQ) / 100
-        FROM PRODDTA.F41021@DBJDE
-       WHERE LIMCU = LPAD('0101', 12, ' ')
-         AND LIITM = IMITM
-      ) PEND_COMPRAS,
-     (
-      SELECT SUM(LIQWBO) / 100
-        FROM PRODDTA.F41021@DBJDE
-       WHERE LIMCU = LPAD('0101', 12, ' ')
-         AND LIITM = IMITM
-      ) PEND_OF       ,
-    IBANPL    PLANIFICADOR,
-    ARCO_NOMBRE_TERCERO@DBJDE(IBANPL) PLANIF_NOMBRE,
-    IBBUYR    COMPRADOR,
-    ARCO_NOMBRE_TERCERO@DBJDE(IBBUYR) COMPRADOR_NOMBRE,   
-   IBPRP4 FPL,
-   IBSTKT T_ALM,
-   IMDRAW PLANO,
-   ARCO_UDC_PROD@dbjde(IBLITM ,IBMCU ,'CLM','C') CLM,
-   IBVEND  COD_PROV, 
-   ARCO_NOMBRE_TERCERO@DBJDE(IBVEND)  NOM_PROV ,
-    (
-      SELECT COUNT(*)
-         FROM PRODDTA.F3002@dbjde
-         START WITH IXITM =IMITM
-                       AND IXTBM = 'M  '
-                       AND SYSDATE &gt;= ARCO_TO_DATE@DBJDE(IXEFFF)
-                       AND SYSDATE &lt;= ARCO_TO_DATE@DBJDE(IXEFFT)
-          CONNECT BY PRIOR IXKIT = IXITM /* IXKITL  = IXLITM  */
-      )      CONSUMIDO,
-   IBOPV VAL_POL_ORD
-  FROM PRODDTA.F4101@DBJDE,
-       PRODDTA.F4102@DBJDE,
-       PRODDTA.F3460@DBJDE
-WHERE IBMCU = LPAD('{=R1C2}',12,' ')
-  AND (IBVEND = ('{=R2C2}') OR  IBVEND = ('{=R3C2}'))
-  AND IMLITM = IBLITM
-  AND MFITM(+) = IBITM
-  AND MFMCU(+) = IBMCU
-  AND MFTYPF(+)  = 'SA'
-  AND MFDRQJ(+)  BETWEEN ARCO_TO_JULIANA@DBJDE(TRUNC(SYSDATE,'YYYY')) AND
-                         ARCO_TO_JULIANA@DBJDE(ADD_MONTHS(TRUNC(SYSDATE,'YYYY'),12)-1)
-  AND IBSTKT &lt;&gt;'O'
-  AND IBSTKT &lt;&gt; 'U'
-GROUP BY trim(IBLITM) ,IMITM,IBLITM,IBMCU,
-IBOPV,
-IBLNTY,
-IBOPC,
-IBMPST,
-IBMPSP,
-IBMTF1,
-IBMTF2,
-       IMDSC1||IMDSC2,
-       IBLTLV ,
-       IBACQ/100  ,
-       IBRQMX/100 ,
-       IBRQMN/100 ,
-       IBMULT/100 ,
-       IBSAFE/100 ,
-       IBANPL, IBPRP4, IBSTKT, IMDRAW, IBVEND, IBBUYR,IMUOM9 
-ORDER BY  IBLITM</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="166">
+  <si>
+    <t>AS451</t>
+  </si>
+  <si>
+    <t>AS452</t>
+  </si>
+  <si>
+    <t>AS453</t>
+  </si>
+  <si>
+    <t>AS454</t>
+  </si>
+  <si>
+    <t>AS455</t>
+  </si>
+  <si>
+    <t>AS456</t>
+  </si>
+  <si>
+    <t>AS462</t>
+  </si>
+  <si>
+    <t>AS463</t>
+  </si>
+  <si>
+    <t>AS464</t>
+  </si>
+  <si>
+    <t>AS465</t>
+  </si>
   <si>
     <t>B120408</t>
   </si>
   <si>
+    <t>B120508</t>
+  </si>
+  <si>
+    <t>B120708</t>
+  </si>
+  <si>
+    <t>B120908</t>
+  </si>
+  <si>
+    <t>B121108</t>
+  </si>
+  <si>
+    <t>B121308</t>
+  </si>
+  <si>
+    <t>B121408</t>
+  </si>
+  <si>
+    <t>C30107</t>
+  </si>
+  <si>
+    <t>C30109</t>
+  </si>
+  <si>
+    <t>C30114</t>
+  </si>
+  <si>
+    <t>C30116</t>
+  </si>
+  <si>
+    <t>DE830C</t>
+  </si>
+  <si>
+    <t>KCM13</t>
+  </si>
+  <si>
+    <t>KCM14</t>
+  </si>
+  <si>
+    <t>KCM15</t>
+  </si>
+  <si>
+    <t>KCM16</t>
+  </si>
+  <si>
+    <t>KCM17</t>
+  </si>
+  <si>
+    <t>KCM18</t>
+  </si>
+  <si>
+    <t>KCM19</t>
+  </si>
+  <si>
+    <t>KCM45</t>
+  </si>
+  <si>
+    <t>KCM45SP</t>
+  </si>
+  <si>
+    <t>KCM48</t>
+  </si>
+  <si>
+    <t>MF210</t>
+  </si>
+  <si>
+    <t>NV870C</t>
+  </si>
+  <si>
+    <t>P2236</t>
+  </si>
+  <si>
+    <t>P2237</t>
+  </si>
+  <si>
+    <t>SA267</t>
+  </si>
+  <si>
+    <t>SEC4392</t>
+  </si>
+  <si>
+    <t>SE501215</t>
+  </si>
+  <si>
+    <t>SE501275</t>
+  </si>
+  <si>
+    <t>SE501285</t>
+  </si>
+  <si>
+    <t>SE501295</t>
+  </si>
+  <si>
+    <t>SE501615</t>
+  </si>
+  <si>
+    <t>SE503531</t>
+  </si>
+  <si>
+    <t>SE503555R</t>
+  </si>
+  <si>
+    <t>SE503556R</t>
+  </si>
+  <si>
     <t>SE507205</t>
   </si>
   <si>
     <t>SE507255</t>
   </si>
   <si>
+    <t>SE507531</t>
+  </si>
+  <si>
+    <t>SE507555R</t>
+  </si>
+  <si>
+    <t>SE507556R</t>
+  </si>
+  <si>
+    <t>SE507635</t>
+  </si>
+  <si>
+    <t>SL1111</t>
+  </si>
+  <si>
+    <t>SL1113</t>
+  </si>
+  <si>
+    <t>SL1116</t>
+  </si>
+  <si>
+    <t>SL1117</t>
+  </si>
+  <si>
+    <t>SL1132</t>
+  </si>
+  <si>
+    <t>SL1133</t>
+  </si>
+  <si>
+    <t>0046001</t>
+  </si>
+  <si>
+    <t>00462</t>
+  </si>
+  <si>
+    <t>00463</t>
+  </si>
+  <si>
+    <t>00472</t>
+  </si>
+  <si>
+    <t>0047201</t>
+  </si>
+  <si>
+    <t>0112308</t>
+  </si>
+  <si>
+    <t>0112408</t>
+  </si>
+  <si>
+    <t>0112608</t>
+  </si>
+  <si>
+    <t>0112708</t>
+  </si>
+  <si>
+    <t>0112808</t>
+  </si>
+  <si>
+    <t>0112908</t>
+  </si>
+  <si>
+    <t>0113108</t>
+  </si>
+  <si>
+    <t>0113108B</t>
+  </si>
+  <si>
+    <t>0113508</t>
+  </si>
+  <si>
+    <t>0113708</t>
+  </si>
+  <si>
+    <t>0113808</t>
+  </si>
+  <si>
+    <t>0120308</t>
+  </si>
+  <si>
+    <t>0120408</t>
+  </si>
+  <si>
+    <t>0120508</t>
+  </si>
+  <si>
+    <t>0120708</t>
+  </si>
+  <si>
+    <t>0120908</t>
+  </si>
+  <si>
+    <t>0121008</t>
+  </si>
+  <si>
+    <t>0121108</t>
+  </si>
+  <si>
+    <t>0121308</t>
+  </si>
+  <si>
+    <t>0121408</t>
+  </si>
+  <si>
+    <t>0121508</t>
+  </si>
+  <si>
+    <t>02229</t>
+  </si>
+  <si>
+    <t>02236</t>
+  </si>
+  <si>
+    <t>02267</t>
+  </si>
+  <si>
+    <t>02267U</t>
+  </si>
+  <si>
+    <t>02285</t>
+  </si>
+  <si>
+    <t>0233510</t>
+  </si>
+  <si>
+    <t>02400MAC</t>
+  </si>
+  <si>
+    <t>02400MAC02</t>
+  </si>
+  <si>
+    <t>02402MAC</t>
+  </si>
+  <si>
+    <t>02402MAC02</t>
+  </si>
+  <si>
+    <t>1TECH</t>
+  </si>
+  <si>
+    <t>1007711</t>
+  </si>
+  <si>
+    <t>1300186</t>
+  </si>
+  <si>
     <t>1301280</t>
   </si>
   <si>
+    <t>1330320</t>
+  </si>
+  <si>
+    <t>1420151</t>
+  </si>
+  <si>
+    <t>1420280</t>
+  </si>
+  <si>
+    <t>191208</t>
+  </si>
+  <si>
+    <t>2TECH</t>
+  </si>
+  <si>
+    <t>201015</t>
+  </si>
+  <si>
+    <t>20101501</t>
+  </si>
+  <si>
+    <t>208020</t>
+  </si>
+  <si>
+    <t>212005U</t>
+  </si>
+  <si>
+    <t>36115</t>
+  </si>
+  <si>
+    <t>36320</t>
+  </si>
+  <si>
+    <t>36330</t>
+  </si>
+  <si>
+    <t>36420</t>
+  </si>
+  <si>
+    <t>37515</t>
+  </si>
+  <si>
+    <t>37525</t>
+  </si>
+  <si>
+    <t>37720</t>
+  </si>
+  <si>
     <t>5TECH</t>
   </si>
   <si>
@@ -172,12 +382,18 @@
     <t>501275</t>
   </si>
   <si>
+    <t>501285</t>
+  </si>
+  <si>
     <t>503200</t>
   </si>
   <si>
     <t>503205</t>
   </si>
   <si>
+    <t>503210</t>
+  </si>
+  <si>
     <t>503215</t>
   </si>
   <si>
@@ -205,6 +421,18 @@
     <t>507255</t>
   </si>
   <si>
+    <t>507265</t>
+  </si>
+  <si>
+    <t>507305</t>
+  </si>
+  <si>
+    <t>507340</t>
+  </si>
+  <si>
+    <t>507365</t>
+  </si>
+  <si>
     <t>507505</t>
   </si>
   <si>
@@ -299,360 +527,17 @@
   </si>
   <si>
     <t>s1</t>
-  </si>
-  <si>
-    <t>AS451</t>
-  </si>
-  <si>
-    <t>AS452</t>
-  </si>
-  <si>
-    <t>AS453</t>
-  </si>
-  <si>
-    <t>AS454</t>
-  </si>
-  <si>
-    <t>AS455</t>
-  </si>
-  <si>
-    <t>AS456</t>
-  </si>
-  <si>
-    <t>AS462</t>
-  </si>
-  <si>
-    <t>AS465</t>
-  </si>
-  <si>
-    <t>B120508</t>
-  </si>
-  <si>
-    <t>B120708</t>
-  </si>
-  <si>
-    <t>B120908</t>
-  </si>
-  <si>
-    <t>B121108</t>
-  </si>
-  <si>
-    <t>B121308</t>
-  </si>
-  <si>
-    <t>B121408</t>
-  </si>
-  <si>
-    <t>C30107</t>
-  </si>
-  <si>
-    <t>C30109</t>
-  </si>
-  <si>
-    <t>C30114</t>
-  </si>
-  <si>
-    <t>C30116</t>
-  </si>
-  <si>
-    <t>DE830C</t>
-  </si>
-  <si>
-    <t>KCM14</t>
-  </si>
-  <si>
-    <t>KCM15</t>
-  </si>
-  <si>
-    <t>KCM16</t>
-  </si>
-  <si>
-    <t>KCM17</t>
-  </si>
-  <si>
-    <t>KCM18</t>
-  </si>
-  <si>
-    <t>KCM45</t>
-  </si>
-  <si>
-    <t>KCM48</t>
-  </si>
-  <si>
-    <t>MF210</t>
-  </si>
-  <si>
-    <t>NV870C</t>
-  </si>
-  <si>
-    <t>P2236</t>
-  </si>
-  <si>
-    <t>P2237</t>
-  </si>
-  <si>
-    <t>SA267</t>
-  </si>
-  <si>
-    <t>SE501215</t>
-  </si>
-  <si>
-    <t>SE501615</t>
-  </si>
-  <si>
-    <t>SE503531</t>
-  </si>
-  <si>
-    <t>SE503555R</t>
-  </si>
-  <si>
-    <t>SE503556R</t>
-  </si>
-  <si>
-    <t>SE507531</t>
-  </si>
-  <si>
-    <t>SE507555R</t>
-  </si>
-  <si>
-    <t>SE507556R</t>
-  </si>
-  <si>
-    <t>SE507635</t>
-  </si>
-  <si>
-    <t>SL1111</t>
-  </si>
-  <si>
-    <t>SL1113</t>
-  </si>
-  <si>
-    <t>SL1116</t>
-  </si>
-  <si>
-    <t>SL1117</t>
-  </si>
-  <si>
-    <t>SL1133</t>
-  </si>
-  <si>
-    <t>0113108B</t>
-  </si>
-  <si>
-    <t>02267U</t>
-  </si>
-  <si>
-    <t>02400MAC</t>
-  </si>
-  <si>
-    <t>02400MAC02</t>
-  </si>
-  <si>
-    <t>02402MAC</t>
-  </si>
-  <si>
-    <t>02402MAC02</t>
-  </si>
-  <si>
-    <t>1TECH</t>
-  </si>
-  <si>
-    <t>2TECH</t>
-  </si>
-  <si>
-    <t>212005U</t>
-  </si>
-  <si>
-    <t>0046001</t>
-  </si>
-  <si>
-    <t>00462</t>
-  </si>
-  <si>
-    <t>00472</t>
-  </si>
-  <si>
-    <t>0112408</t>
-  </si>
-  <si>
-    <t>0112608</t>
-  </si>
-  <si>
-    <t>0112708</t>
-  </si>
-  <si>
-    <t>0112808</t>
-  </si>
-  <si>
-    <t>0112908</t>
-  </si>
-  <si>
-    <t>0113708</t>
-  </si>
-  <si>
-    <t>0113808</t>
-  </si>
-  <si>
-    <t>0120308</t>
-  </si>
-  <si>
-    <t>0120408</t>
-  </si>
-  <si>
-    <t>0120508</t>
-  </si>
-  <si>
-    <t>0120708</t>
-  </si>
-  <si>
-    <t>0120908</t>
-  </si>
-  <si>
-    <t>0121008</t>
-  </si>
-  <si>
-    <t>0121108</t>
-  </si>
-  <si>
-    <t>0121308</t>
-  </si>
-  <si>
-    <t>0121408</t>
-  </si>
-  <si>
-    <t>0121508</t>
-  </si>
-  <si>
-    <t>02229</t>
-  </si>
-  <si>
-    <t>02236</t>
-  </si>
-  <si>
-    <t>02267</t>
-  </si>
-  <si>
-    <t>0233510</t>
-  </si>
-  <si>
-    <t>1330320</t>
-  </si>
-  <si>
-    <t>1420280</t>
-  </si>
-  <si>
-    <t>20101501</t>
-  </si>
-  <si>
-    <t>208020</t>
-  </si>
-  <si>
-    <t>36115</t>
-  </si>
-  <si>
-    <t>36320</t>
-  </si>
-  <si>
-    <t>36420</t>
-  </si>
-  <si>
-    <t>37515</t>
-  </si>
-  <si>
-    <t>37525</t>
-  </si>
-  <si>
-    <t>37720</t>
-  </si>
-  <si>
-    <t>AS463</t>
-  </si>
-  <si>
-    <t>AS464</t>
-  </si>
-  <si>
-    <t>KCM13</t>
-  </si>
-  <si>
-    <t>KCM19</t>
-  </si>
-  <si>
-    <t>KCM45SP</t>
-  </si>
-  <si>
-    <t>SEC4392</t>
-  </si>
-  <si>
-    <t>SE501275</t>
-  </si>
-  <si>
-    <t>SE501285</t>
-  </si>
-  <si>
-    <t>SE501295</t>
-  </si>
-  <si>
-    <t>SL1132</t>
-  </si>
-  <si>
-    <t>00463</t>
-  </si>
-  <si>
-    <t>0047201</t>
-  </si>
-  <si>
-    <t>0112308</t>
-  </si>
-  <si>
-    <t>0113108</t>
-  </si>
-  <si>
-    <t>0113508</t>
-  </si>
-  <si>
-    <t>02285</t>
-  </si>
-  <si>
-    <t>1420151</t>
-  </si>
-  <si>
-    <t>191208</t>
-  </si>
-  <si>
-    <t>201015</t>
-  </si>
-  <si>
-    <t>36330</t>
-  </si>
-  <si>
-    <t>501285</t>
-  </si>
-  <si>
-    <t>503210</t>
-  </si>
-  <si>
-    <t>507265</t>
-  </si>
-  <si>
-    <t>507305</t>
-  </si>
-  <si>
-    <t>507340</t>
-  </si>
-  <si>
-    <t>507365</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -829,20 +714,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1034,12 +907,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1157,7 +1024,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="130">
+  <cellStyleXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1282,14 +1149,8 @@
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1300,19 +1161,9 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="124"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="124" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="129" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="124" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="130">
+  <cellStyles count="124">
     <cellStyle name="20 % - Accent1" xfId="100" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Accent2" xfId="103" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Accent3" xfId="106" builtinId="38" customBuiltin="1"/>
@@ -1342,7 +1193,6 @@
     <cellStyle name="Cellule liée" xfId="93" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="90" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Euro" xfId="41" xr:uid="{6F032425-AA29-4781-BF41-28570BC2A9AF}"/>
-    <cellStyle name="Euro 2" xfId="127" xr:uid="{1E92AD64-30EC-48A0-BB8A-3F110C1966CF}"/>
     <cellStyle name="Insatisfaisant" xfId="89" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Millares 2" xfId="7" xr:uid="{D850CEC9-76FC-4CA8-8BD8-612A50E5D260}"/>
     <cellStyle name="Milliers 2" xfId="4" xr:uid="{9186E3AD-B555-4766-A2EC-2E6603AFE573}"/>
@@ -1356,7 +1206,6 @@
     <cellStyle name="Milliers 6" xfId="37" xr:uid="{0AF3428C-9950-4CDD-91F8-98B5D86AF820}"/>
     <cellStyle name="Milliers 6 2" xfId="68" xr:uid="{A5ED4310-6F50-4D28-A442-BA9B8FEFE3F3}"/>
     <cellStyle name="Milliers 7" xfId="82" xr:uid="{47F2368E-C534-4DA7-ACE6-AB90262A9A1F}"/>
-    <cellStyle name="Milliers 8" xfId="129" xr:uid="{7AD866C1-9113-41D2-B32F-F931E225A06C}"/>
     <cellStyle name="Neutre 2" xfId="117" xr:uid="{FD30209F-F33A-4114-B2FF-1DFEB9EF8F65}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="25" xr:uid="{4DA92978-F365-4BE2-A247-2D57F0C10865}"/>
@@ -1387,7 +1236,6 @@
     <cellStyle name="Normal 2 12" xfId="45" xr:uid="{5BF41079-4118-447E-9E2C-5A3A13DBD1DF}"/>
     <cellStyle name="Normal 2 13" xfId="53" xr:uid="{56C0AB16-01B6-4E71-AC7F-476101E8BCFC}"/>
     <cellStyle name="Normal 2 13 2" xfId="79" xr:uid="{4F0DBEFF-EA15-418F-9391-DE86FEDAD448}"/>
-    <cellStyle name="Normal 2 13 3" xfId="128" xr:uid="{B55166D7-2A08-4821-9F9E-DE0AAC3AF36E}"/>
     <cellStyle name="Normal 2 2" xfId="5" xr:uid="{8E3D565A-9D3F-45F4-9C7E-549518F34D05}"/>
     <cellStyle name="Normal 2 2 10" xfId="46" xr:uid="{73A14F2F-0849-4B0D-AB40-D79CC07172E4}"/>
     <cellStyle name="Normal 2 2 11" xfId="55" xr:uid="{B61162F9-953F-4405-B8C4-5BD25A5833DC}"/>
@@ -1414,7 +1262,6 @@
     <cellStyle name="Normal 21" xfId="52" xr:uid="{49C40330-636C-45A4-A8C6-1935A2AE1769}"/>
     <cellStyle name="Normal 21 2" xfId="78" xr:uid="{518656AC-976A-458C-B19E-5BEF3A42E3D9}"/>
     <cellStyle name="Normal 22" xfId="1" xr:uid="{9BB63E36-ECA0-44E2-B756-67809ED3DEF6}"/>
-    <cellStyle name="Normal 23" xfId="124" xr:uid="{BF5C3DBB-EB42-4410-9AD0-E409CC70925D}"/>
     <cellStyle name="Normal 3" xfId="6" xr:uid="{A6878867-081F-48A1-AD40-A379EE6F00C3}"/>
     <cellStyle name="Normal 3 2" xfId="8" xr:uid="{85DF95D2-F989-4CA9-A30D-794C47AAD4D6}"/>
     <cellStyle name="Normal 3 3" xfId="10" xr:uid="{7B9549DC-6E46-47AB-A5A5-E1F78FA59396}"/>
@@ -1423,9 +1270,7 @@
     <cellStyle name="Normal 4" xfId="14" xr:uid="{DCBB47C5-4E91-4884-8CDD-B8539F5ED20D}"/>
     <cellStyle name="Normal 4 2" xfId="59" xr:uid="{B8684E3B-E617-49A9-8DAA-CEE9EE42FF9F}"/>
     <cellStyle name="Normal 5" xfId="19" xr:uid="{6F4BD8E7-4218-4C6C-A40F-9E3CDF806C94}"/>
-    <cellStyle name="Normal 5 2" xfId="126" xr:uid="{FAA83D9E-E56D-4A7A-AE90-5DCF3B96BADE}"/>
     <cellStyle name="Normal 6" xfId="18" xr:uid="{E9FF1DA0-7F2C-4088-8720-3F986825A41F}"/>
-    <cellStyle name="Normal 6 2" xfId="125" xr:uid="{49B5ACD5-52DD-477B-A599-2B0A52994A33}"/>
     <cellStyle name="Normal 7" xfId="20" xr:uid="{FEBA1121-8EFF-40B0-941A-9D50CB0DD322}"/>
     <cellStyle name="Normal 7 2" xfId="61" xr:uid="{127A7CFF-26FD-4C4F-B033-4D70281021D4}"/>
     <cellStyle name="Normal 8" xfId="21" xr:uid="{9D51AB70-1A13-46FD-9838-0FA0551F464E}"/>
@@ -1723,86 +1568,86 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:W349"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="M1" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="N1" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="O1" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="P1" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="Q1" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="R1" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="S1" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="T1" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="U1" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="V1" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="W1" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5">
@@ -8623,90 +8468,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ACAE54-B3E6-44BA-9EA0-30D1932E1BEF}">
-  <dimension ref="A1:W608"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ACAE54-B3E6-44BA-9EA0-30D1932E1BEF}">
+  <dimension ref="A1:W349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="6"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" t="s">
+        <v>145</v>
+      </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="M1" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="N1" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="O1" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="P1" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="Q1" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="R1" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="S1" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="T1" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="U1" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="V1" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="W1" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1455</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1455</v>
-      </c>
-      <c r="D2" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6">
+        <v>1448</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -8724,15 +8574,13 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2533</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2533</v>
-      </c>
-      <c r="D3" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
+        <v>1323</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -8750,15 +8598,13 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="2">
-        <v>6048</v>
-      </c>
-      <c r="C4" s="2">
-        <v>6048</v>
-      </c>
-      <c r="D4" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5">
+        <v>5817</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -8776,15 +8622,13 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="2">
-        <v>15000</v>
-      </c>
-      <c r="C5" s="2">
-        <v>15000</v>
-      </c>
-      <c r="D5" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5">
+        <v>10080</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -8802,15 +8646,13 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="2">
-        <v>21366</v>
-      </c>
-      <c r="C6" s="2">
-        <v>21366</v>
-      </c>
-      <c r="D6" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5">
+        <v>20622</v>
+      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -8828,15 +8670,13 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="2">
-        <v>11558</v>
-      </c>
-      <c r="C7" s="2">
-        <v>11558</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
+        <v>9429</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -8854,15 +8694,13 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="2">
-        <v>265</v>
-      </c>
-      <c r="C8" s="2">
-        <v>265</v>
-      </c>
-      <c r="D8" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
+        <v>84</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -8880,15 +8718,13 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="2">
-        <v>211</v>
-      </c>
-      <c r="C9" s="2">
-        <v>211</v>
-      </c>
-      <c r="D9" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -8906,15 +8742,13 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="2">
-        <v>11225</v>
-      </c>
-      <c r="C10" s="2">
-        <v>11225</v>
-      </c>
-      <c r="D10" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5">
+        <v>2310</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -8932,15 +8766,13 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="2">
-        <v>400</v>
-      </c>
-      <c r="C11" s="2">
-        <v>400</v>
-      </c>
-      <c r="D11" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5">
+        <v>132</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -8958,15 +8790,13 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2">
-        <v>115</v>
-      </c>
-      <c r="C12" s="2">
-        <v>115</v>
-      </c>
-      <c r="D12" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5">
+        <v>240</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -8984,15 +8814,13 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="C13" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" s="11"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -9010,15 +8838,13 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="2">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2">
-        <v>22</v>
-      </c>
-      <c r="D14" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5">
+        <v>1400</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -9036,15 +8862,13 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5">
         <v>900</v>
       </c>
-      <c r="C15" s="2">
-        <v>900</v>
-      </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -9062,15 +8886,13 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="2">
-        <v>225</v>
-      </c>
-      <c r="C16" s="2">
-        <v>225</v>
-      </c>
-      <c r="D16" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5">
+        <v>312</v>
+      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -9088,15 +8910,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="2">
-        <v>522</v>
-      </c>
-      <c r="C17" s="2">
-        <v>522</v>
-      </c>
-      <c r="D17" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5">
+        <v>320</v>
+      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -9114,15 +8934,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="2">
-        <v>651</v>
-      </c>
-      <c r="C18" s="2">
-        <v>651</v>
-      </c>
-      <c r="D18" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5">
+        <v>160</v>
+      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -9140,15 +8958,13 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="2">
-        <v>321684</v>
-      </c>
-      <c r="C19" s="2">
-        <v>321684</v>
-      </c>
-      <c r="D19" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5">
+        <v>192</v>
+      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -9166,15 +8982,13 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5">
         <v>480</v>
       </c>
-      <c r="C20" s="2">
-        <v>480</v>
-      </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -9192,15 +9006,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="2">
-        <v>8654</v>
-      </c>
-      <c r="C21" s="2">
-        <v>8654</v>
-      </c>
-      <c r="D21" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5">
+        <v>1170</v>
+      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -9218,15 +9030,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="2">
-        <v>654</v>
-      </c>
-      <c r="C22" s="2">
-        <v>654</v>
-      </c>
-      <c r="D22" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5">
+        <v>192</v>
+      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -9244,15 +9054,13 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="2">
-        <v>654654</v>
-      </c>
-      <c r="C23" s="2">
-        <v>654654</v>
-      </c>
-      <c r="D23" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5">
+        <v>5600</v>
+      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -9270,15 +9078,13 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="2">
-        <v>654</v>
-      </c>
-      <c r="C24" s="2">
-        <v>654</v>
-      </c>
-      <c r="D24" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5">
+        <v>90</v>
+      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -9296,15 +9102,13 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5">
         <v>300</v>
       </c>
-      <c r="C25" s="2">
-        <v>300</v>
-      </c>
-      <c r="D25" s="11"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -9322,15 +9126,13 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="2">
-        <v>651651</v>
-      </c>
-      <c r="C26" s="2">
-        <v>651651</v>
-      </c>
-      <c r="D26" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5">
+        <v>6630</v>
+      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -9348,15 +9150,13 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="2">
-        <v>6546265</v>
-      </c>
-      <c r="C27" s="2">
-        <v>6546265</v>
-      </c>
-      <c r="D27" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5">
+        <v>23850</v>
+      </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -9374,15 +9174,13 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="2">
-        <v>4623</v>
-      </c>
-      <c r="C28" s="2">
-        <v>4623</v>
-      </c>
-      <c r="D28" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5">
+        <v>11130</v>
+      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -9400,15 +9198,13 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="2">
-        <v>654</v>
-      </c>
-      <c r="C29" s="2">
-        <v>654</v>
-      </c>
-      <c r="D29" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5">
+        <v>450</v>
+      </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -9426,15 +9222,13 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" s="2">
-        <v>654</v>
-      </c>
-      <c r="C30" s="2">
-        <v>654</v>
-      </c>
-      <c r="D30" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5">
+        <v>300</v>
+      </c>
+      <c r="D30" s="3"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -9452,15 +9246,13 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5">
         <v>1500</v>
       </c>
-      <c r="C31" s="2">
-        <v>1500</v>
-      </c>
-      <c r="D31" s="11"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -9478,15 +9270,13 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" s="2">
-        <v>874</v>
-      </c>
-      <c r="C32" s="2">
-        <v>874</v>
-      </c>
-      <c r="D32" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5">
+        <v>360</v>
+      </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -9504,15 +9294,13 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="2">
-        <v>6</v>
-      </c>
-      <c r="C33" s="2">
-        <v>6</v>
-      </c>
-      <c r="D33" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5">
+        <v>330</v>
+      </c>
+      <c r="D33" s="3"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -9530,15 +9318,13 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="2">
-        <v>64</v>
-      </c>
-      <c r="C34" s="2">
-        <v>64</v>
-      </c>
-      <c r="D34" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5">
+        <v>7400</v>
+      </c>
+      <c r="D34" s="3"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -9556,15 +9342,13 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="2">
-        <v>654</v>
-      </c>
-      <c r="C35" s="2">
-        <v>654</v>
-      </c>
-      <c r="D35" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5">
+        <v>12857</v>
+      </c>
+      <c r="D35" s="3"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -9582,15 +9366,13 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="2">
-        <v>6548</v>
-      </c>
-      <c r="C36" s="2">
-        <v>6548</v>
-      </c>
-      <c r="D36" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5">
+        <v>2100</v>
+      </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -9608,15 +9390,13 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="2">
-        <v>351</v>
-      </c>
-      <c r="C37" s="2">
-        <v>351</v>
-      </c>
-      <c r="D37" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5">
+        <v>500</v>
+      </c>
+      <c r="D37" s="3"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -9634,15 +9414,13 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="2">
-        <v>64</v>
-      </c>
-      <c r="C38" s="2">
-        <v>64</v>
-      </c>
-      <c r="D38" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5">
+        <v>13500</v>
+      </c>
+      <c r="D38" s="3"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -9660,15 +9438,13 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="2">
-        <v>654</v>
-      </c>
-      <c r="C39" s="2">
-        <v>654</v>
-      </c>
-      <c r="D39" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5">
+        <v>2550</v>
+      </c>
+      <c r="D39" s="3"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -9686,15 +9462,13 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5">
         <v>4080</v>
       </c>
-      <c r="C40" s="2">
-        <v>4080</v>
-      </c>
-      <c r="D40" s="11"/>
+      <c r="D40" s="3"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -9712,15 +9486,13 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="2">
-        <v>654654</v>
-      </c>
-      <c r="C41" s="2">
-        <v>654654</v>
-      </c>
-      <c r="D41" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5">
+        <v>1620</v>
+      </c>
+      <c r="D41" s="3"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -9738,15 +9510,13 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B42" s="2">
-        <v>654</v>
-      </c>
-      <c r="C42" s="2">
-        <v>654</v>
-      </c>
-      <c r="D42" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5">
+        <v>1320</v>
+      </c>
+      <c r="D42" s="3"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -9764,15 +9534,13 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B43" s="2">
-        <v>6</v>
-      </c>
-      <c r="C43" s="2">
-        <v>6</v>
-      </c>
-      <c r="D43" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5">
+        <v>120</v>
+      </c>
+      <c r="D43" s="3"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -9790,15 +9558,13 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="2">
-        <v>9</v>
-      </c>
-      <c r="C44" s="2">
-        <v>9</v>
-      </c>
-      <c r="D44" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5">
+        <v>900</v>
+      </c>
+      <c r="D44" s="3"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -9815,16 +9581,14 @@
       <c r="R44" s="1"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="2">
-        <v>55</v>
-      </c>
-      <c r="C45" s="2">
-        <v>55</v>
-      </c>
-      <c r="D45" s="11"/>
+      <c r="A45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5">
+        <v>540</v>
+      </c>
+      <c r="D45" s="3"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -9842,15 +9606,13 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="2">
-        <v>84</v>
-      </c>
-      <c r="C46" s="2">
-        <v>84</v>
-      </c>
-      <c r="D46" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5">
+        <v>840</v>
+      </c>
+      <c r="D46" s="3"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -9867,16 +9629,14 @@
       <c r="R46" s="1"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="2">
-        <v>654</v>
-      </c>
-      <c r="C47" s="2">
-        <v>654</v>
-      </c>
-      <c r="D47" s="11"/>
+      <c r="A47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5">
+        <v>230</v>
+      </c>
+      <c r="D47" s="3"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -9894,15 +9654,13 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="2">
-        <v>654</v>
-      </c>
-      <c r="C48" s="2">
-        <v>654</v>
-      </c>
-      <c r="D48" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5">
+        <v>4440</v>
+      </c>
+      <c r="D48" s="3"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -9920,15 +9678,13 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="2">
-        <v>984621</v>
-      </c>
-      <c r="C49" s="2">
-        <v>984621</v>
-      </c>
-      <c r="D49" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5">
+        <v>5970</v>
+      </c>
+      <c r="D49" s="3"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -9945,16 +9701,14 @@
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" s="2">
-        <v>68465</v>
-      </c>
-      <c r="C50" s="2">
-        <v>68465</v>
-      </c>
-      <c r="D50" s="11"/>
+      <c r="A50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5">
+        <v>506</v>
+      </c>
+      <c r="D50" s="3"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -9972,15 +9726,13 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" s="2">
-        <v>84654</v>
-      </c>
-      <c r="C51" s="2">
-        <v>84654</v>
-      </c>
-      <c r="D51" s="11"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5">
+        <v>960</v>
+      </c>
+      <c r="D51" s="3"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -9997,16 +9749,14 @@
       <c r="R51" s="1"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" s="2">
-        <v>8654</v>
-      </c>
-      <c r="C52" s="2">
-        <v>8654</v>
-      </c>
-      <c r="D52" s="11"/>
+      <c r="A52" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5">
+        <v>304</v>
+      </c>
+      <c r="D52" s="3"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -10024,15 +9774,13 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="2">
-        <v>68465</v>
-      </c>
-      <c r="C53" s="2">
-        <v>68465</v>
-      </c>
-      <c r="D53" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5">
+        <v>640</v>
+      </c>
+      <c r="D53" s="3"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -10050,15 +9798,13 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" s="2">
-        <v>8456</v>
-      </c>
-      <c r="C54" s="2">
-        <v>8456</v>
-      </c>
-      <c r="D54" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5">
+        <v>40</v>
+      </c>
+      <c r="D54" s="3"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -10076,15 +9822,13 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" s="2">
-        <v>684</v>
-      </c>
-      <c r="C55" s="2">
-        <v>684</v>
-      </c>
-      <c r="D55" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5">
+        <v>720</v>
+      </c>
+      <c r="D55" s="3"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -10102,15 +9846,13 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="2">
-        <v>654</v>
-      </c>
-      <c r="C56" s="2">
-        <v>654</v>
-      </c>
-      <c r="D56" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5">
+        <v>72</v>
+      </c>
+      <c r="D56" s="3"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -10128,15 +9870,13 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B57" s="2">
-        <v>8354</v>
-      </c>
-      <c r="C57" s="2">
-        <v>8354</v>
-      </c>
-      <c r="D57" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5">
+        <v>40</v>
+      </c>
+      <c r="D57" s="3"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -10154,15 +9894,13 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B58" s="2">
-        <v>84</v>
-      </c>
-      <c r="C58" s="2">
-        <v>84</v>
-      </c>
-      <c r="D58" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5">
+        <v>450</v>
+      </c>
+      <c r="D58" s="3"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -10180,15 +9918,13 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="2">
-        <v>654</v>
-      </c>
-      <c r="C59" s="2">
-        <v>654</v>
-      </c>
-      <c r="D59" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5">
+        <v>640</v>
+      </c>
+      <c r="D59" s="3"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -10206,15 +9942,13 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B60" s="2">
-        <v>84654</v>
-      </c>
-      <c r="C60" s="2">
-        <v>84654</v>
-      </c>
-      <c r="D60" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5">
+        <v>528</v>
+      </c>
+      <c r="D60" s="3"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -10232,15 +9966,13 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B61" s="2">
-        <v>8354</v>
-      </c>
-      <c r="C61" s="2">
-        <v>8354</v>
-      </c>
-      <c r="D61" s="11"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5">
+        <v>3600</v>
+      </c>
+      <c r="D61" s="3"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -10258,15 +9990,13 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B62" s="2">
-        <v>84654</v>
-      </c>
-      <c r="C62" s="2">
-        <v>84654</v>
-      </c>
-      <c r="D62" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5">
+        <v>360</v>
+      </c>
+      <c r="D62" s="3"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -10284,15 +10014,13 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B63" s="2">
-        <v>68</v>
-      </c>
-      <c r="C63" s="2">
-        <v>68</v>
-      </c>
-      <c r="D63" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5">
+        <v>12960</v>
+      </c>
+      <c r="D63" s="3"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -10310,15 +10038,13 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B64" s="2">
-        <v>654</v>
-      </c>
-      <c r="C64" s="2">
-        <v>654</v>
-      </c>
-      <c r="D64" s="11"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5">
+        <v>1080</v>
+      </c>
+      <c r="D64" s="3"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -10336,15 +10062,13 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B65" s="2">
-        <v>8654</v>
-      </c>
-      <c r="C65" s="2">
-        <v>8654</v>
-      </c>
-      <c r="D65" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5">
+        <v>180</v>
+      </c>
+      <c r="D65" s="3"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -10362,15 +10086,13 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B66" s="2">
-        <v>865</v>
-      </c>
-      <c r="C66" s="2">
-        <v>865</v>
-      </c>
-      <c r="D66" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5">
+        <v>480</v>
+      </c>
+      <c r="D66" s="3"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -10388,15 +10110,13 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B67" s="2">
-        <v>48</v>
-      </c>
-      <c r="C67" s="2">
-        <v>48</v>
-      </c>
-      <c r="D67" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5">
+        <v>600</v>
+      </c>
+      <c r="D67" s="3"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -10414,15 +10134,13 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B68" s="2">
-        <v>654</v>
-      </c>
-      <c r="C68" s="2">
-        <v>654</v>
-      </c>
-      <c r="D68" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5">
+        <v>4500</v>
+      </c>
+      <c r="D68" s="3"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -10440,15 +10158,13 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B69" s="2">
-        <v>8654</v>
-      </c>
-      <c r="C69" s="2">
-        <v>8654</v>
-      </c>
-      <c r="D69" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5">
+        <v>6750</v>
+      </c>
+      <c r="D69" s="3"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -10466,15 +10182,13 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B70" s="2">
-        <v>8</v>
-      </c>
-      <c r="C70" s="2">
-        <v>8</v>
-      </c>
-      <c r="D70" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5">
+        <v>4200</v>
+      </c>
+      <c r="D70" s="3"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -10492,15 +10206,13 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B71" s="2">
-        <v>8</v>
-      </c>
-      <c r="C71" s="2">
-        <v>8</v>
-      </c>
-      <c r="D71" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5">
+        <v>300</v>
+      </c>
+      <c r="D71" s="3"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -10518,15 +10230,13 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B72" s="2">
-        <v>45</v>
-      </c>
-      <c r="C72" s="2">
-        <v>45</v>
-      </c>
-      <c r="D72" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5">
+        <v>5469</v>
+      </c>
+      <c r="D72" s="3"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -10544,15 +10254,13 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B73" s="2">
-        <v>85</v>
-      </c>
-      <c r="C73" s="2">
-        <v>85</v>
-      </c>
-      <c r="D73" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5">
+        <v>16</v>
+      </c>
+      <c r="D73" s="3"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -10570,15 +10278,13 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B74" s="2">
-        <v>8</v>
-      </c>
-      <c r="C74" s="2">
-        <v>8</v>
-      </c>
-      <c r="D74" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5">
+        <v>400</v>
+      </c>
+      <c r="D74" s="3"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -10596,15 +10302,13 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B75" s="2">
-        <v>4</v>
-      </c>
-      <c r="C75" s="2">
-        <v>4</v>
-      </c>
-      <c r="D75" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5">
+        <v>1600</v>
+      </c>
+      <c r="D75" s="3"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -10622,15 +10326,13 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B76" s="2">
-        <v>5</v>
-      </c>
-      <c r="C76" s="2">
-        <v>5</v>
-      </c>
-      <c r="D76" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5">
+        <v>1200</v>
+      </c>
+      <c r="D76" s="3"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -10648,15 +10350,13 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B77" s="2">
-        <v>2</v>
-      </c>
-      <c r="C77" s="2">
-        <v>2</v>
-      </c>
-      <c r="D77" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5">
+        <v>1860</v>
+      </c>
+      <c r="D77" s="3"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -10674,15 +10374,13 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B78" s="2">
-        <v>654</v>
-      </c>
-      <c r="C78" s="2">
-        <v>654</v>
-      </c>
-      <c r="D78" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5">
+        <v>18000</v>
+      </c>
+      <c r="D78" s="3"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -10700,15 +10398,13 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B79" s="2">
-        <v>884</v>
-      </c>
-      <c r="C79" s="2">
-        <v>884</v>
-      </c>
-      <c r="D79" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5">
+        <v>13480</v>
+      </c>
+      <c r="D79" s="3"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -10726,15 +10422,13 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B80" s="2">
-        <v>5564</v>
-      </c>
-      <c r="C80" s="2">
-        <v>5564</v>
-      </c>
-      <c r="D80" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5">
+        <v>9660</v>
+      </c>
+      <c r="D80" s="3"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -10752,15 +10446,13 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B81" s="2">
-        <v>85</v>
-      </c>
-      <c r="C81" s="2">
-        <v>85</v>
-      </c>
-      <c r="D81" s="11"/>
+        <v>79</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5">
+        <v>1240</v>
+      </c>
+      <c r="D81" s="3"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -10778,15 +10470,13 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B82" s="2">
-        <v>654</v>
-      </c>
-      <c r="C82" s="2">
-        <v>654</v>
-      </c>
-      <c r="D82" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5">
+        <v>3780</v>
+      </c>
+      <c r="D82" s="3"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -10804,15 +10494,13 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B83" s="2">
-        <v>8</v>
-      </c>
-      <c r="C83" s="2">
-        <v>8</v>
-      </c>
-      <c r="D83" s="11"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5">
+        <v>2880</v>
+      </c>
+      <c r="D83" s="3"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -10830,15 +10518,13 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B84" s="2">
-        <v>62</v>
-      </c>
-      <c r="C84" s="2">
-        <v>62</v>
-      </c>
-      <c r="D84" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5">
+        <v>3060</v>
+      </c>
+      <c r="D84" s="3"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -10856,15 +10542,13 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B85" s="2">
-        <v>1</v>
-      </c>
-      <c r="C85" s="2">
-        <v>1</v>
-      </c>
-      <c r="D85" s="11"/>
+        <v>83</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5">
+        <v>160</v>
+      </c>
+      <c r="D85" s="3"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -10882,15 +10566,13 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B86" s="2">
-        <v>8654</v>
-      </c>
-      <c r="C86" s="2">
-        <v>8654</v>
-      </c>
-      <c r="D86" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5">
+        <v>500</v>
+      </c>
+      <c r="D86" s="3"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -10908,15 +10590,13 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B87" s="2">
-        <v>865</v>
-      </c>
-      <c r="C87" s="2">
-        <v>865</v>
-      </c>
-      <c r="D87" s="11"/>
+        <v>85</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5">
+        <v>1300</v>
+      </c>
+      <c r="D87" s="3"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -10934,15 +10614,13 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B88" s="2">
-        <v>864</v>
-      </c>
-      <c r="C88" s="2">
-        <v>864</v>
-      </c>
-      <c r="D88" s="11"/>
+        <v>86</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5">
+        <v>33000</v>
+      </c>
+      <c r="D88" s="3"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -10960,15 +10638,13 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B89" s="2">
-        <v>651</v>
-      </c>
-      <c r="C89" s="2">
-        <v>651</v>
-      </c>
-      <c r="D89" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5">
+        <v>4100</v>
+      </c>
+      <c r="D89" s="3"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -10986,15 +10662,13 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B90" s="2">
-        <v>684</v>
-      </c>
-      <c r="C90" s="2">
-        <v>684</v>
-      </c>
-      <c r="D90" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D90" s="3"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -11012,15 +10686,13 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B91" s="2">
-        <v>651</v>
-      </c>
-      <c r="C91" s="2">
-        <v>651</v>
-      </c>
-      <c r="D91" s="11"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5">
+        <v>15750</v>
+      </c>
+      <c r="D91" s="3"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -11038,15 +10710,13 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92" s="2">
-        <v>684</v>
-      </c>
-      <c r="C92" s="2">
-        <v>684</v>
-      </c>
-      <c r="D92" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5">
+        <v>3960</v>
+      </c>
+      <c r="D92" s="3"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -11064,15 +10734,13 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93" s="2">
-        <v>561</v>
-      </c>
-      <c r="C93" s="2">
-        <v>561</v>
-      </c>
-      <c r="D93" s="11"/>
+        <v>91</v>
+      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5">
+        <v>1980</v>
+      </c>
+      <c r="D93" s="3"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -11090,15 +10758,13 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94" s="2">
-        <v>84</v>
-      </c>
-      <c r="C94" s="2">
-        <v>84</v>
-      </c>
-      <c r="D94" s="11"/>
+        <v>92</v>
+      </c>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5">
+        <v>51980</v>
+      </c>
+      <c r="D94" s="3"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -11116,15 +10782,13 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95" s="2">
-        <v>351</v>
-      </c>
-      <c r="C95" s="2">
-        <v>351</v>
-      </c>
-      <c r="D95" s="11"/>
+        <v>93</v>
+      </c>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5">
+        <v>7200</v>
+      </c>
+      <c r="D95" s="3"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -11142,15 +10806,13 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96" s="2">
-        <v>84</v>
-      </c>
-      <c r="C96" s="2">
-        <v>84</v>
-      </c>
-      <c r="D96" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5">
+        <v>200</v>
+      </c>
+      <c r="D96" s="3"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -11168,15 +10830,13 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" s="2">
-        <v>654</v>
-      </c>
-      <c r="C97" s="2">
-        <v>654</v>
-      </c>
-      <c r="D97" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5">
+        <v>0</v>
+      </c>
+      <c r="D97" s="3"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -11194,15 +10854,13 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B98" s="2">
-        <v>6548465</v>
-      </c>
-      <c r="C98" s="2">
-        <v>6548465</v>
-      </c>
-      <c r="D98" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5">
+        <v>0</v>
+      </c>
+      <c r="D98" s="3"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -11220,15 +10878,13 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B99" s="2">
-        <v>65465465</v>
-      </c>
-      <c r="C99" s="2">
-        <v>65465465</v>
-      </c>
-      <c r="D99" s="11"/>
+        <v>97</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5">
+        <v>16731</v>
+      </c>
+      <c r="D99" s="3"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -11246,15 +10902,13 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B100" s="2">
-        <v>8654</v>
-      </c>
-      <c r="C100" s="2">
-        <v>8654</v>
-      </c>
-      <c r="D100" s="11"/>
+        <v>98</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5">
+        <v>27457</v>
+      </c>
+      <c r="D100" s="3"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -11272,15 +10926,13 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B101" s="2">
-        <v>654648</v>
-      </c>
-      <c r="C101" s="2">
-        <v>654648</v>
-      </c>
-      <c r="D101" s="11"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D101" s="3"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -11298,15 +10950,13 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" s="2">
-        <v>654865</v>
-      </c>
-      <c r="C102" s="2">
-        <v>654865</v>
-      </c>
-      <c r="D102" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5">
+        <v>29211</v>
+      </c>
+      <c r="D102" s="3"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -11324,15 +10974,13 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B103" s="2">
-        <v>412</v>
-      </c>
-      <c r="C103" s="2">
-        <v>412</v>
-      </c>
-      <c r="D103" s="11"/>
+        <v>101</v>
+      </c>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5">
+        <v>237</v>
+      </c>
+      <c r="D103" s="3"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -11350,15 +10998,13 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B104" s="2">
-        <v>5421</v>
-      </c>
-      <c r="C104" s="2">
-        <v>5421</v>
-      </c>
-      <c r="D104" s="11"/>
+        <v>102</v>
+      </c>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5">
+        <v>126</v>
+      </c>
+      <c r="D104" s="3"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -11376,15 +11022,13 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B105" s="2">
-        <v>54</v>
-      </c>
-      <c r="C105" s="2">
-        <v>54</v>
-      </c>
-      <c r="D105" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D105" s="3"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -11402,15 +11046,13 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106" s="2">
-        <v>21</v>
-      </c>
-      <c r="C106" s="2">
-        <v>21</v>
-      </c>
-      <c r="D106" s="11"/>
+        <v>104</v>
+      </c>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D106" s="3"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -11428,15 +11070,13 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B107" s="2">
-        <v>4</v>
-      </c>
-      <c r="C107" s="2">
-        <v>4</v>
-      </c>
-      <c r="D107" s="11"/>
+        <v>105</v>
+      </c>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D107" s="3"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -11454,15 +11094,13 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B108" s="2">
-        <v>54</v>
-      </c>
-      <c r="C108" s="2">
-        <v>54</v>
-      </c>
-      <c r="D108" s="11"/>
+        <v>106</v>
+      </c>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5">
+        <v>8700</v>
+      </c>
+      <c r="D108" s="3"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -11480,15 +11118,13 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B109" s="2">
-        <v>64</v>
-      </c>
-      <c r="C109" s="2">
-        <v>64</v>
-      </c>
-      <c r="D109" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5">
+        <v>320</v>
+      </c>
+      <c r="D109" s="3"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -11506,15 +11142,13 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B110" s="2">
-        <v>947</v>
-      </c>
-      <c r="C110" s="2">
-        <v>947</v>
-      </c>
-      <c r="D110" s="11"/>
+        <v>108</v>
+      </c>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5">
+        <v>1200</v>
+      </c>
+      <c r="D110" s="3"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -11532,15 +11166,13 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B111" s="2">
-        <v>521</v>
-      </c>
-      <c r="C111" s="2">
-        <v>521</v>
-      </c>
-      <c r="D111" s="11"/>
+        <v>109</v>
+      </c>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5">
+        <v>80</v>
+      </c>
+      <c r="D111" s="3"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -11558,15 +11190,13 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B112" s="2">
-        <v>654</v>
-      </c>
-      <c r="C112" s="2">
-        <v>654</v>
-      </c>
-      <c r="D112" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5">
+        <v>1580</v>
+      </c>
+      <c r="D112" s="3"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -11584,15 +11214,13 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B113" s="2">
-        <v>321</v>
-      </c>
-      <c r="C113" s="2">
-        <v>321</v>
-      </c>
-      <c r="D113" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5">
+        <v>363</v>
+      </c>
+      <c r="D113" s="3"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -11610,15 +11238,13 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B114" s="2">
-        <v>684</v>
-      </c>
-      <c r="C114" s="2">
-        <v>684</v>
-      </c>
-      <c r="D114" s="11"/>
+        <v>112</v>
+      </c>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5">
+        <v>41</v>
+      </c>
+      <c r="D114" s="3"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -11636,15 +11262,13 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B115" s="2">
-        <v>32</v>
-      </c>
-      <c r="C115" s="2">
-        <v>32</v>
-      </c>
-      <c r="D115" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5">
+        <v>600</v>
+      </c>
+      <c r="D115" s="3"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -11662,22 +11286,20 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B116" s="2">
-        <v>86</v>
-      </c>
-      <c r="C116" s="2">
-        <v>86</v>
-      </c>
-      <c r="D116" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5">
+        <v>4750</v>
+      </c>
+      <c r="D116" s="3"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="9"/>
-      <c r="K116" s="9"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
@@ -11688,23 +11310,21 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B117" s="2">
-        <v>654</v>
-      </c>
-      <c r="C117" s="2">
-        <v>654</v>
-      </c>
-      <c r="D117" s="12"/>
+        <v>115</v>
+      </c>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5">
+        <v>360</v>
+      </c>
+      <c r="D117" s="3"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
-      <c r="I117" s="8"/>
-      <c r="J117" s="9"/>
-      <c r="K117" s="9"/>
-      <c r="L117" s="7"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
@@ -11714,23 +11334,21 @@
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B118" s="2">
-        <v>984</v>
-      </c>
-      <c r="C118" s="2">
-        <v>984</v>
-      </c>
-      <c r="D118" s="12"/>
+        <v>116</v>
+      </c>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5">
+        <v>1200</v>
+      </c>
+      <c r="D118" s="3"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="9"/>
-      <c r="K118" s="9"/>
-      <c r="L118" s="7"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
@@ -11740,15 +11358,13 @@
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B119" s="2">
-        <v>654</v>
-      </c>
-      <c r="C119" s="2">
-        <v>654</v>
-      </c>
-      <c r="D119" s="12"/>
+        <v>117</v>
+      </c>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5">
+        <v>60</v>
+      </c>
+      <c r="D119" s="3"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -11766,15 +11382,13 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B120" s="2">
-        <v>651</v>
-      </c>
-      <c r="C120" s="2">
-        <v>651</v>
-      </c>
-      <c r="D120" s="12"/>
+        <v>118</v>
+      </c>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5">
+        <v>1980</v>
+      </c>
+      <c r="D120" s="3"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -11792,15 +11406,13 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121" s="2">
-        <v>684</v>
-      </c>
-      <c r="C121" s="2">
-        <v>684</v>
-      </c>
-      <c r="D121" s="12"/>
+        <v>119</v>
+      </c>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5">
+        <v>14340</v>
+      </c>
+      <c r="D121" s="3"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -11818,15 +11430,13 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B122" s="2">
-        <v>21</v>
-      </c>
-      <c r="C122" s="2">
-        <v>21</v>
-      </c>
-      <c r="D122" s="12"/>
+        <v>120</v>
+      </c>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5">
+        <v>48</v>
+      </c>
+      <c r="D122" s="3"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -11844,15 +11454,13 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B123" s="2">
-        <v>654</v>
-      </c>
-      <c r="C123" s="2">
-        <v>654</v>
-      </c>
-      <c r="D123" s="12"/>
+        <v>121</v>
+      </c>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5">
+        <v>1877</v>
+      </c>
+      <c r="D123" s="3"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -11870,15 +11478,13 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B124" s="2">
-        <v>768</v>
-      </c>
-      <c r="C124" s="2">
-        <v>768</v>
-      </c>
-      <c r="D124" s="12"/>
+        <v>122</v>
+      </c>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5">
+        <v>2460</v>
+      </c>
+      <c r="D124" s="3"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -11896,15 +11502,13 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B125" s="2">
-        <v>540</v>
-      </c>
-      <c r="C125" s="2">
-        <v>540</v>
-      </c>
-      <c r="D125" s="12"/>
+        <v>123</v>
+      </c>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5">
+        <v>6420</v>
+      </c>
+      <c r="D125" s="3"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -11922,15 +11526,13 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B126" s="2">
-        <v>651</v>
-      </c>
-      <c r="C126" s="2">
-        <v>651</v>
-      </c>
-      <c r="D126" s="12"/>
+        <v>124</v>
+      </c>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5">
+        <v>768</v>
+      </c>
+      <c r="D126" s="3"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -11948,15 +11550,13 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B127" s="2">
-        <v>684</v>
-      </c>
-      <c r="C127" s="2">
-        <v>684</v>
-      </c>
-      <c r="D127" s="12"/>
+        <v>125</v>
+      </c>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5">
+        <v>540</v>
+      </c>
+      <c r="D127" s="3"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -11974,15 +11574,13 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B128" s="2">
-        <v>900</v>
-      </c>
-      <c r="C128" s="2">
-        <v>900</v>
-      </c>
-      <c r="D128" s="12"/>
+        <v>126</v>
+      </c>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5">
+        <v>12600</v>
+      </c>
+      <c r="D128" s="3"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -12000,15 +11598,13 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B129" s="2">
-        <v>654</v>
-      </c>
-      <c r="C129" s="2">
-        <v>654</v>
-      </c>
-      <c r="D129" s="12"/>
+        <v>127</v>
+      </c>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5">
+        <v>192</v>
+      </c>
+      <c r="D129" s="3"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -12026,15 +11622,13 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B130" s="2">
-        <v>89</v>
-      </c>
-      <c r="C130" s="2">
-        <v>89</v>
-      </c>
-      <c r="D130" s="12"/>
+        <v>128</v>
+      </c>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5">
+        <v>900</v>
+      </c>
+      <c r="D130" s="3"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -12052,15 +11646,13 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B131" s="2">
-        <v>64</v>
-      </c>
-      <c r="C131" s="2">
-        <v>64</v>
-      </c>
-      <c r="D131" s="12"/>
+        <v>129</v>
+      </c>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5">
+        <v>1680</v>
+      </c>
+      <c r="D131" s="3"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -12078,15 +11670,13 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B132" s="2">
-        <v>68464</v>
-      </c>
-      <c r="C132" s="2">
-        <v>68464</v>
-      </c>
-      <c r="D132" s="12"/>
+        <v>130</v>
+      </c>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5">
+        <v>900</v>
+      </c>
+      <c r="D132" s="3"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -12104,15 +11694,13 @@
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B133" s="2">
-        <v>684654</v>
-      </c>
-      <c r="C133" s="2">
-        <v>684654</v>
-      </c>
-      <c r="D133" s="12"/>
+        <v>131</v>
+      </c>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5">
+        <v>5400</v>
+      </c>
+      <c r="D133" s="3"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -12130,15 +11718,13 @@
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B134" s="2">
-        <v>684</v>
-      </c>
-      <c r="C134" s="2">
-        <v>684</v>
-      </c>
-      <c r="D134" s="12"/>
+        <v>132</v>
+      </c>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5">
+        <v>20</v>
+      </c>
+      <c r="D134" s="3"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -12156,15 +11742,13 @@
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B135" s="2">
-        <v>684</v>
-      </c>
-      <c r="C135" s="2">
-        <v>684</v>
-      </c>
-      <c r="D135" s="12"/>
+        <v>133</v>
+      </c>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5">
+        <v>3600</v>
+      </c>
+      <c r="D135" s="3"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -12182,15 +11766,13 @@
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B136" s="2">
-        <v>684</v>
-      </c>
-      <c r="C136" s="2">
-        <v>684</v>
-      </c>
-      <c r="D136" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5">
+        <v>660</v>
+      </c>
+      <c r="D136" s="3"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -12208,15 +11790,13 @@
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B137" s="2">
-        <v>684</v>
-      </c>
-      <c r="C137" s="2">
-        <v>684</v>
-      </c>
-      <c r="D137" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5">
+        <v>3607</v>
+      </c>
+      <c r="D137" s="3"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -12234,15 +11814,13 @@
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B138" s="2">
-        <v>65161</v>
-      </c>
-      <c r="C138" s="2">
-        <v>65161</v>
-      </c>
-      <c r="D138" s="12"/>
+        <v>136</v>
+      </c>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5">
+        <v>6940</v>
+      </c>
+      <c r="D138" s="3"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -12260,15 +11838,13 @@
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B139" s="2">
-        <v>321</v>
-      </c>
-      <c r="C139" s="2">
-        <v>321</v>
-      </c>
-      <c r="D139" s="12"/>
+        <v>137</v>
+      </c>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5">
+        <v>1520</v>
+      </c>
+      <c r="D139" s="3"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
@@ -12286,15 +11862,13 @@
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B140" s="2">
-        <v>351</v>
-      </c>
-      <c r="C140" s="2">
-        <v>351</v>
-      </c>
-      <c r="D140" s="12"/>
+        <v>138</v>
+      </c>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5">
+        <v>2320</v>
+      </c>
+      <c r="D140" s="3"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -12312,15 +11886,13 @@
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B141" s="2">
-        <v>648</v>
-      </c>
-      <c r="C141" s="2">
-        <v>648</v>
-      </c>
-      <c r="D141" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5">
+        <v>140</v>
+      </c>
+      <c r="D141" s="3"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -12338,15 +11910,13 @@
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B142" s="2">
-        <v>684</v>
-      </c>
-      <c r="C142" s="2">
-        <v>684</v>
-      </c>
-      <c r="D142" s="12"/>
+        <v>140</v>
+      </c>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5">
+        <v>4520</v>
+      </c>
+      <c r="D142" s="3"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -12363,10 +11933,14 @@
       <c r="R142" s="1"/>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="12"/>
+      <c r="A143" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5">
+        <v>4480</v>
+      </c>
+      <c r="D143" s="3"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -12383,10 +11957,14 @@
       <c r="R143" s="1"/>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="12"/>
+      <c r="A144" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5">
+        <v>1840</v>
+      </c>
+      <c r="D144" s="3"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -12404,9 +11982,8 @@
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="12"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="3"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -12424,9 +12001,8 @@
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="12"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="3"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -12444,9 +12020,8 @@
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="12"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="3"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -12464,9 +12039,8 @@
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="12"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="3"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -12484,9 +12058,8 @@
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="12"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="3"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -12504,9 +12077,8 @@
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="12"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="3"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -12524,9 +12096,8 @@
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="12"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="3"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -12544,9 +12115,8 @@
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="12"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="3"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -12564,9 +12134,8 @@
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="12"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="3"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -12584,9 +12153,8 @@
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="12"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="3"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -12604,9 +12172,8 @@
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="12"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="3"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -12624,9 +12191,8 @@
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="12"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="3"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -12644,9 +12210,8 @@
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="12"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="3"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
@@ -12664,9 +12229,8 @@
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="12"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="3"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
@@ -12684,9 +12248,8 @@
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="12"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="3"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -12704,9 +12267,8 @@
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="12"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="3"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
@@ -12724,9 +12286,8 @@
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="12"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="3"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
@@ -12744,9 +12305,8 @@
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="12"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="3"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -12764,9 +12324,8 @@
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="12"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="3"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
@@ -12784,9 +12343,8 @@
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="12"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="3"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
@@ -12804,9 +12362,8 @@
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="12"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="3"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
@@ -12824,9 +12381,8 @@
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="12"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="3"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -12844,9 +12400,8 @@
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="12"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="3"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
@@ -12864,9 +12419,8 @@
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="12"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="3"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -12884,9 +12438,8 @@
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="12"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="3"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -12904,9 +12457,8 @@
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="12"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="3"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -12924,9 +12476,8 @@
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="12"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="3"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -12944,9 +12495,8 @@
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="12"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="3"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
@@ -12964,9 +12514,8 @@
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="12"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="3"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
@@ -12984,9 +12533,8 @@
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="12"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="3"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -13004,9 +12552,8 @@
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="12"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="3"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
@@ -13024,9 +12571,8 @@
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="12"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="3"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
@@ -13044,9 +12590,8 @@
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="12"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="3"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
@@ -13064,9 +12609,8 @@
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="12"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="3"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
@@ -13084,9 +12628,8 @@
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="12"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="3"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
@@ -13104,9 +12647,8 @@
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="12"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="3"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
@@ -13124,9 +12666,8 @@
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="12"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="3"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
@@ -13144,9 +12685,8 @@
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="12"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="3"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
@@ -13164,9 +12704,8 @@
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="12"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="3"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
@@ -13184,9 +12723,8 @@
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="12"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="3"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
@@ -13204,9 +12742,8 @@
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="12"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="3"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
@@ -13224,9 +12761,8 @@
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="12"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="3"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
@@ -13244,9 +12780,8 @@
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="12"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="3"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
@@ -13264,9 +12799,8 @@
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="12"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="3"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
@@ -13284,9 +12818,8 @@
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="12"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="3"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
@@ -13304,9 +12837,8 @@
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="12"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="3"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
@@ -13324,9 +12856,8 @@
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="12"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="3"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
@@ -13344,9 +12875,8 @@
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="12"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="3"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
@@ -13364,9 +12894,8 @@
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="12"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="3"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
@@ -13384,9 +12913,8 @@
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="12"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="3"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
@@ -13404,9 +12932,8 @@
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="12"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="3"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -13424,9 +12951,8 @@
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="12"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="3"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
@@ -13444,9 +12970,8 @@
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="12"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="3"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
@@ -13464,9 +12989,8 @@
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="12"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="3"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
@@ -13484,9 +13008,8 @@
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="12"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="3"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
@@ -13504,9 +13027,8 @@
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="12"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="3"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
@@ -13524,9 +13046,8 @@
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="12"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="3"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
@@ -13544,9 +13065,8 @@
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="12"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="3"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
@@ -13564,9 +13084,8 @@
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="12"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="3"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
@@ -13584,9 +13103,8 @@
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="12"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="3"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
@@ -13604,9 +13122,8 @@
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="12"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="3"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
@@ -13624,9 +13141,8 @@
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="12"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="3"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
@@ -13644,9 +13160,8 @@
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="12"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="3"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
@@ -13664,9 +13179,8 @@
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="12"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="3"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
@@ -13684,9 +13198,8 @@
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="12"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="3"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
@@ -13704,9 +13217,8 @@
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="12"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="3"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
@@ -13724,9 +13236,8 @@
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="12"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="3"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
@@ -13744,9 +13255,8 @@
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="12"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="3"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
@@ -13764,9 +13274,8 @@
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="12"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="3"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
@@ -13784,9 +13293,8 @@
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="12"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="3"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
@@ -13804,9 +13312,8 @@
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="12"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="3"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
@@ -13824,9 +13331,8 @@
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="12"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="3"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
@@ -13844,9 +13350,8 @@
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="12"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="3"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
@@ -13864,9 +13369,8 @@
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="12"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="3"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
@@ -13884,9 +13388,8 @@
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="12"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="3"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -13904,9 +13407,8 @@
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="12"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="3"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -13924,9 +13426,8 @@
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="12"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="3"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
@@ -13944,9 +13445,8 @@
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="12"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="3"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
@@ -13964,9 +13464,8 @@
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="12"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="3"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
@@ -13984,9 +13483,8 @@
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="12"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="3"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
@@ -14004,9 +13502,8 @@
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="12"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="3"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
@@ -14024,9 +13521,8 @@
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="12"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="3"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
@@ -14044,9 +13540,8 @@
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="12"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="3"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -14064,9 +13559,8 @@
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="12"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="3"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
@@ -14084,9 +13578,8 @@
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="12"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="3"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -14104,9 +13597,8 @@
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="12"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="3"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
@@ -14124,9 +13616,8 @@
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="12"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="3"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
@@ -14144,9 +13635,8 @@
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="12"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="3"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
@@ -14164,9 +13654,8 @@
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="12"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="3"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
@@ -14184,9 +13673,8 @@
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="12"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="3"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
@@ -14204,9 +13692,8 @@
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="12"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="3"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
@@ -14224,9 +13711,8 @@
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="12"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="3"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
@@ -14244,9 +13730,8 @@
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
-      <c r="D237" s="12"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="3"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
@@ -14264,9 +13749,8 @@
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-      <c r="D238" s="12"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="3"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
@@ -14284,9 +13768,8 @@
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-      <c r="D239" s="12"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="3"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
@@ -14304,9 +13787,8 @@
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="12"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="3"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
@@ -14324,9 +13806,8 @@
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-      <c r="D241" s="12"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="3"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
@@ -14344,9 +13825,8 @@
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="12"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="3"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
@@ -14364,9 +13844,8 @@
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
-      <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="12"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="3"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
@@ -14384,9 +13863,8 @@
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="12"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="3"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
@@ -14404,9 +13882,8 @@
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="12"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="3"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
@@ -14424,9 +13901,8 @@
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="12"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="3"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
@@ -14444,9 +13920,8 @@
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
-      <c r="D247" s="12"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="3"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
@@ -14464,9 +13939,8 @@
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
-      <c r="D248" s="12"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="3"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
@@ -14484,9 +13958,8 @@
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="12"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="3"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
@@ -14504,9 +13977,8 @@
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
-      <c r="D250" s="12"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="3"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
@@ -14524,9 +13996,8 @@
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
-      <c r="D251" s="12"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="3"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
@@ -14544,9 +14015,8 @@
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="12"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="3"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
@@ -14564,9 +14034,8 @@
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
-      <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
-      <c r="D253" s="12"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="3"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
@@ -14584,9 +14053,8 @@
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="12"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="3"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
@@ -14604,9 +14072,8 @@
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="12"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="3"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
@@ -14624,9 +14091,8 @@
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
-      <c r="D256" s="12"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="3"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
@@ -14644,9 +14110,8 @@
     </row>
     <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
-      <c r="D257" s="12"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="3"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
@@ -14664,9 +14129,8 @@
     </row>
     <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
-      <c r="D258" s="12"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="3"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
@@ -14684,9 +14148,8 @@
     </row>
     <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
-      <c r="D259" s="12"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="3"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
@@ -14704,9 +14167,8 @@
     </row>
     <row r="260" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
-      <c r="D260" s="12"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="3"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
@@ -14724,9 +14186,8 @@
     </row>
     <row r="261" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
-      <c r="C261" s="2"/>
-      <c r="D261" s="12"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="3"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
@@ -14744,9 +14205,8 @@
     </row>
     <row r="262" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="12"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="3"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
@@ -14764,9 +14224,8 @@
     </row>
     <row r="263" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="12"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="3"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
@@ -14784,9 +14243,8 @@
     </row>
     <row r="264" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
-      <c r="D264" s="12"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="3"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
@@ -14804,9 +14262,8 @@
     </row>
     <row r="265" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
-      <c r="D265" s="12"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="3"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
@@ -14824,9 +14281,8 @@
     </row>
     <row r="266" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
-      <c r="C266" s="2"/>
-      <c r="D266" s="12"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="3"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
@@ -14844,9 +14300,8 @@
     </row>
     <row r="267" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
-      <c r="D267" s="12"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="3"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
@@ -14864,9 +14319,8 @@
     </row>
     <row r="268" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
-      <c r="D268" s="12"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="3"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
@@ -14884,9 +14338,8 @@
     </row>
     <row r="269" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
-      <c r="C269" s="2"/>
-      <c r="D269" s="12"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="3"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
@@ -14904,9 +14357,8 @@
     </row>
     <row r="270" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
-      <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
-      <c r="D270" s="12"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="3"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
@@ -14924,9 +14376,8 @@
     </row>
     <row r="271" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
-      <c r="D271" s="12"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="3"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
@@ -14944,9 +14395,8 @@
     </row>
     <row r="272" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
-      <c r="B272" s="2"/>
-      <c r="C272" s="2"/>
-      <c r="D272" s="12"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="3"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
@@ -14964,9 +14414,8 @@
     </row>
     <row r="273" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
-      <c r="B273" s="2"/>
-      <c r="C273" s="2"/>
-      <c r="D273" s="12"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="3"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
@@ -14984,9 +14433,8 @@
     </row>
     <row r="274" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
-      <c r="C274" s="2"/>
-      <c r="D274" s="12"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="3"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
@@ -15004,9 +14452,8 @@
     </row>
     <row r="275" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
-      <c r="B275" s="2"/>
-      <c r="C275" s="2"/>
-      <c r="D275" s="12"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="3"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
@@ -15025,8 +14472,8 @@
     <row r="276" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
-      <c r="D276" s="12"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="3"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
@@ -15046,7 +14493,7 @@
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
-      <c r="D277" s="12"/>
+      <c r="D277" s="3"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
@@ -15066,7 +14513,7 @@
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
-      <c r="D278" s="12"/>
+      <c r="D278" s="3"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
@@ -15086,7 +14533,7 @@
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
-      <c r="D279" s="12"/>
+      <c r="D279" s="3"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
@@ -15106,7 +14553,7 @@
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
-      <c r="D280" s="12"/>
+      <c r="D280" s="3"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
@@ -15126,7 +14573,7 @@
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
-      <c r="D281" s="12"/>
+      <c r="D281" s="3"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
@@ -15146,7 +14593,7 @@
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
-      <c r="D282" s="12"/>
+      <c r="D282" s="3"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
@@ -15166,7 +14613,7 @@
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
-      <c r="D283" s="12"/>
+      <c r="D283" s="3"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
@@ -15186,7 +14633,7 @@
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
-      <c r="D284" s="12"/>
+      <c r="D284" s="3"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
@@ -15206,7 +14653,7 @@
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
-      <c r="D285" s="12"/>
+      <c r="D285" s="3"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
@@ -15226,7 +14673,7 @@
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
-      <c r="D286" s="12"/>
+      <c r="D286" s="3"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
@@ -15246,7 +14693,7 @@
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
-      <c r="D287" s="12"/>
+      <c r="D287" s="3"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
@@ -15266,7 +14713,7 @@
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
-      <c r="D288" s="12"/>
+      <c r="D288" s="3"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
@@ -15286,7 +14733,7 @@
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
-      <c r="D289" s="12"/>
+      <c r="D289" s="3"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
@@ -15306,7 +14753,7 @@
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
-      <c r="D290" s="12"/>
+      <c r="D290" s="3"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
@@ -15326,7 +14773,7 @@
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
-      <c r="D291" s="12"/>
+      <c r="D291" s="3"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
@@ -15346,7 +14793,7 @@
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
-      <c r="D292" s="12"/>
+      <c r="D292" s="3"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
@@ -15366,7 +14813,7 @@
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
-      <c r="D293" s="12"/>
+      <c r="D293" s="3"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
@@ -15386,7 +14833,7 @@
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
-      <c r="D294" s="12"/>
+      <c r="D294" s="3"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
@@ -15406,7 +14853,7 @@
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
-      <c r="D295" s="12"/>
+      <c r="D295" s="3"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
@@ -15426,7 +14873,7 @@
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
-      <c r="D296" s="12"/>
+      <c r="D296" s="3"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
@@ -15446,7 +14893,7 @@
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
-      <c r="D297" s="12"/>
+      <c r="D297" s="3"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
@@ -15466,7 +14913,7 @@
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
-      <c r="D298" s="12"/>
+      <c r="D298" s="3"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
@@ -15486,7 +14933,7 @@
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
-      <c r="D299" s="12"/>
+      <c r="D299" s="3"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
@@ -15506,7 +14953,7 @@
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
-      <c r="D300" s="12"/>
+      <c r="D300" s="3"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
@@ -15526,7 +14973,7 @@
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
-      <c r="D301" s="12"/>
+      <c r="D301" s="3"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
@@ -15546,7 +14993,7 @@
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
-      <c r="D302" s="12"/>
+      <c r="D302" s="3"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
@@ -15566,7 +15013,7 @@
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
-      <c r="D303" s="12"/>
+      <c r="D303" s="3"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
@@ -15586,7 +15033,7 @@
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
-      <c r="D304" s="12"/>
+      <c r="D304" s="3"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
@@ -15606,7 +15053,7 @@
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
-      <c r="D305" s="12"/>
+      <c r="D305" s="3"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
@@ -15626,7 +15073,7 @@
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
-      <c r="D306" s="12"/>
+      <c r="D306" s="3"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
@@ -15646,7 +15093,7 @@
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
-      <c r="D307" s="12"/>
+      <c r="D307" s="3"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
@@ -15666,7 +15113,7 @@
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
-      <c r="D308" s="12"/>
+      <c r="D308" s="3"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
@@ -15686,7 +15133,7 @@
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
-      <c r="D309" s="12"/>
+      <c r="D309" s="3"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
@@ -15706,7 +15153,7 @@
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
-      <c r="D310" s="12"/>
+      <c r="D310" s="3"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
@@ -15726,7 +15173,7 @@
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
-      <c r="D311" s="12"/>
+      <c r="D311" s="3"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
@@ -15746,7 +15193,7 @@
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
-      <c r="D312" s="12"/>
+      <c r="D312" s="3"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
@@ -15766,7 +15213,7 @@
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
-      <c r="D313" s="12"/>
+      <c r="D313" s="3"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
@@ -15786,7 +15233,7 @@
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
-      <c r="D314" s="12"/>
+      <c r="D314" s="3"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
@@ -15806,7 +15253,7 @@
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
-      <c r="D315" s="12"/>
+      <c r="D315" s="3"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
@@ -15826,7 +15273,7 @@
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
-      <c r="D316" s="12"/>
+      <c r="D316" s="3"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
@@ -15846,7 +15293,7 @@
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
-      <c r="D317" s="12"/>
+      <c r="D317" s="3"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
@@ -15866,7 +15313,7 @@
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
-      <c r="D318" s="12"/>
+      <c r="D318" s="3"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
@@ -15886,7 +15333,7 @@
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
-      <c r="D319" s="12"/>
+      <c r="D319" s="3"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
@@ -15906,7 +15353,7 @@
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
-      <c r="D320" s="12"/>
+      <c r="D320" s="3"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
@@ -15926,7 +15373,7 @@
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
-      <c r="D321" s="12"/>
+      <c r="D321" s="3"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
@@ -15946,7 +15393,7 @@
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
-      <c r="D322" s="12"/>
+      <c r="D322" s="3"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
@@ -15966,7 +15413,7 @@
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
-      <c r="D323" s="12"/>
+      <c r="D323" s="3"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
@@ -15986,7 +15433,7 @@
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
-      <c r="D324" s="12"/>
+      <c r="D324" s="3"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
@@ -16006,7 +15453,7 @@
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
-      <c r="D325" s="12"/>
+      <c r="D325" s="3"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
@@ -16026,7 +15473,7 @@
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
-      <c r="D326" s="12"/>
+      <c r="D326" s="3"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
@@ -16046,7 +15493,7 @@
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
-      <c r="D327" s="12"/>
+      <c r="D327" s="3"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
@@ -16066,7 +15513,7 @@
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
-      <c r="D328" s="12"/>
+      <c r="D328" s="3"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
@@ -16086,7 +15533,7 @@
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
-      <c r="D329" s="12"/>
+      <c r="D329" s="3"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
@@ -16106,7 +15553,7 @@
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
-      <c r="D330" s="12"/>
+      <c r="D330" s="3"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
@@ -16126,7 +15573,7 @@
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
-      <c r="D331" s="12"/>
+      <c r="D331" s="3"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
@@ -16146,7 +15593,7 @@
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
-      <c r="D332" s="12"/>
+      <c r="D332" s="3"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
@@ -16166,7 +15613,7 @@
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
-      <c r="D333" s="12"/>
+      <c r="D333" s="3"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
@@ -16186,7 +15633,7 @@
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
-      <c r="D334" s="12"/>
+      <c r="D334" s="3"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
@@ -16206,7 +15653,7 @@
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
-      <c r="D335" s="12"/>
+      <c r="D335" s="3"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
@@ -16226,7 +15673,7 @@
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
-      <c r="D336" s="12"/>
+      <c r="D336" s="3"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
@@ -16243,10 +15690,10 @@
       <c r="R336" s="1"/>
     </row>
     <row r="337" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A337" s="2"/>
+      <c r="A337" s="4"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
-      <c r="D337" s="12"/>
+      <c r="D337" s="3"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
@@ -16263,10 +15710,10 @@
       <c r="R337" s="1"/>
     </row>
     <row r="338" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A338" s="2"/>
+      <c r="A338" s="4"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
-      <c r="D338" s="12"/>
+      <c r="D338" s="3"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
@@ -16283,10 +15730,10 @@
       <c r="R338" s="1"/>
     </row>
     <row r="339" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A339" s="2"/>
+      <c r="A339" s="4"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
-      <c r="D339" s="12"/>
+      <c r="D339" s="3"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
@@ -16303,10 +15750,10 @@
       <c r="R339" s="1"/>
     </row>
     <row r="340" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A340" s="2"/>
+      <c r="A340" s="4"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
-      <c r="D340" s="12"/>
+      <c r="D340" s="3"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
@@ -16323,10 +15770,10 @@
       <c r="R340" s="1"/>
     </row>
     <row r="341" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A341" s="2"/>
+      <c r="A341" s="4"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
-      <c r="D341" s="12"/>
+      <c r="D341" s="3"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
@@ -16343,10 +15790,10 @@
       <c r="R341" s="1"/>
     </row>
     <row r="342" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A342" s="2"/>
+      <c r="A342" s="4"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
-      <c r="D342" s="12"/>
+      <c r="D342" s="3"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
@@ -16363,10 +15810,10 @@
       <c r="R342" s="1"/>
     </row>
     <row r="343" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A343" s="2"/>
+      <c r="A343" s="4"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
-      <c r="D343" s="12"/>
+      <c r="D343" s="3"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
@@ -16383,10 +15830,10 @@
       <c r="R343" s="1"/>
     </row>
     <row r="344" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A344" s="2"/>
+      <c r="A344" s="4"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
-      <c r="D344" s="12"/>
+      <c r="D344" s="3"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
@@ -16403,10 +15850,10 @@
       <c r="R344" s="1"/>
     </row>
     <row r="345" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A345" s="2"/>
+      <c r="A345" s="4"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
-      <c r="D345" s="12"/>
+      <c r="D345" s="3"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
@@ -16423,10 +15870,10 @@
       <c r="R345" s="1"/>
     </row>
     <row r="346" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A346" s="2"/>
+      <c r="A346" s="4"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
-      <c r="D346" s="12"/>
+      <c r="D346" s="3"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
@@ -16443,10 +15890,10 @@
       <c r="R346" s="1"/>
     </row>
     <row r="347" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A347" s="2"/>
+      <c r="A347" s="4"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
-      <c r="D347" s="12"/>
+      <c r="D347" s="3"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
@@ -16463,10 +15910,10 @@
       <c r="R347" s="1"/>
     </row>
     <row r="348" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A348" s="2"/>
+      <c r="A348" s="4"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
-      <c r="D348" s="12"/>
+      <c r="D348" s="3"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
@@ -16483,1308 +15930,9 @@
       <c r="R348" s="1"/>
     </row>
     <row r="349" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A349" s="10"/>
-      <c r="B349" s="10"/>
-      <c r="C349" s="10"/>
-    </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A350" s="2"/>
-      <c r="B350" s="2"/>
-      <c r="C350" s="2"/>
-    </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A351" s="2"/>
-      <c r="B351" s="2"/>
-      <c r="C351" s="2"/>
-    </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A352" s="2"/>
-      <c r="B352" s="2"/>
-      <c r="C352" s="2"/>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" s="2"/>
-      <c r="B353" s="2"/>
-      <c r="C353" s="2"/>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="2"/>
-      <c r="B354" s="2"/>
-      <c r="C354" s="2"/>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" s="2"/>
-      <c r="B355" s="2"/>
-      <c r="C355" s="2"/>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" s="2"/>
-      <c r="B356" s="2"/>
-      <c r="C356" s="2"/>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" s="2"/>
-      <c r="B357" s="2"/>
-      <c r="C357" s="2"/>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="2"/>
-      <c r="B358" s="2"/>
-      <c r="C358" s="2"/>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" s="2"/>
-      <c r="B359" s="2"/>
-      <c r="C359" s="2"/>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="2"/>
-      <c r="B360" s="2"/>
-      <c r="C360" s="2"/>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" s="2"/>
-      <c r="B361" s="2"/>
-      <c r="C361" s="2"/>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" s="2"/>
-      <c r="B362" s="2"/>
-      <c r="C362" s="2"/>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="2"/>
-      <c r="B363" s="2"/>
-      <c r="C363" s="2"/>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="2"/>
-      <c r="B364" s="2"/>
-      <c r="C364" s="2"/>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="2"/>
-      <c r="B365" s="2"/>
-      <c r="C365" s="2"/>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366" s="2"/>
-      <c r="B366" s="2"/>
-      <c r="C366" s="2"/>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" s="2"/>
-      <c r="B367" s="2"/>
-      <c r="C367" s="2"/>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368" s="2"/>
-      <c r="B368" s="2"/>
-      <c r="C368" s="2"/>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="2"/>
-      <c r="B369" s="2"/>
-      <c r="C369" s="2"/>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" s="2"/>
-      <c r="B370" s="2"/>
-      <c r="C370" s="2"/>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="2"/>
-      <c r="B371" s="2"/>
-      <c r="C371" s="2"/>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" s="2"/>
-      <c r="B372" s="2"/>
-      <c r="C372" s="2"/>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" s="2"/>
-      <c r="B373" s="2"/>
-      <c r="C373" s="2"/>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="2"/>
-      <c r="B374" s="2"/>
-      <c r="C374" s="2"/>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="2"/>
-      <c r="B375" s="2"/>
-      <c r="C375" s="2"/>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="2"/>
-      <c r="B376" s="2"/>
-      <c r="C376" s="2"/>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" s="2"/>
-      <c r="B377" s="2"/>
-      <c r="C377" s="2"/>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" s="2"/>
-      <c r="B378" s="2"/>
-      <c r="C378" s="2"/>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" s="2"/>
-      <c r="B379" s="2"/>
-      <c r="C379" s="2"/>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="2"/>
-      <c r="B380" s="2"/>
-      <c r="C380" s="2"/>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" s="2"/>
-      <c r="B381" s="2"/>
-      <c r="C381" s="2"/>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="2"/>
-      <c r="B382" s="2"/>
-      <c r="C382" s="2"/>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383" s="2"/>
-      <c r="B383" s="2"/>
-      <c r="C383" s="2"/>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384" s="2"/>
-      <c r="B384" s="2"/>
-      <c r="C384" s="2"/>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="2"/>
-      <c r="B385" s="2"/>
-      <c r="C385" s="2"/>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="2"/>
-      <c r="B386" s="2"/>
-      <c r="C386" s="2"/>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="2"/>
-      <c r="B387" s="2"/>
-      <c r="C387" s="2"/>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388" s="2"/>
-      <c r="B388" s="2"/>
-      <c r="C388" s="2"/>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389" s="2"/>
-      <c r="B389" s="2"/>
-      <c r="C389" s="2"/>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" s="2"/>
-      <c r="B390" s="2"/>
-      <c r="C390" s="2"/>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="2"/>
-      <c r="B391" s="2"/>
-      <c r="C391" s="2"/>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" s="2"/>
-      <c r="B392" s="2"/>
-      <c r="C392" s="2"/>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="2"/>
-      <c r="B393" s="2"/>
-      <c r="C393" s="2"/>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" s="2"/>
-      <c r="B394" s="2"/>
-      <c r="C394" s="2"/>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" s="2"/>
-      <c r="B395" s="2"/>
-      <c r="C395" s="2"/>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="2"/>
-      <c r="B396" s="2"/>
-      <c r="C396" s="2"/>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="2"/>
-      <c r="B397" s="2"/>
-      <c r="C397" s="2"/>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="2"/>
-      <c r="B398" s="2"/>
-      <c r="C398" s="2"/>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" s="2"/>
-      <c r="B399" s="2"/>
-      <c r="C399" s="2"/>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400" s="2"/>
-      <c r="B400" s="2"/>
-      <c r="C400" s="2"/>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401" s="2"/>
-      <c r="B401" s="2"/>
-      <c r="C401" s="2"/>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="2"/>
-      <c r="B402" s="2"/>
-      <c r="C402" s="2"/>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403" s="2"/>
-      <c r="B403" s="2"/>
-      <c r="C403" s="2"/>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="2"/>
-      <c r="B404" s="2"/>
-      <c r="C404" s="2"/>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405" s="2"/>
-      <c r="B405" s="2"/>
-      <c r="C405" s="2"/>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406" s="2"/>
-      <c r="B406" s="2"/>
-      <c r="C406" s="2"/>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="2"/>
-      <c r="B407" s="2"/>
-      <c r="C407" s="2"/>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="2"/>
-      <c r="B408" s="2"/>
-      <c r="C408" s="2"/>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="2"/>
-      <c r="B409" s="2"/>
-      <c r="C409" s="2"/>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" s="2"/>
-      <c r="B410" s="2"/>
-      <c r="C410" s="2"/>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" s="2"/>
-      <c r="B411" s="2"/>
-      <c r="C411" s="2"/>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" s="2"/>
-      <c r="B412" s="2"/>
-      <c r="C412" s="2"/>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="2"/>
-      <c r="B413" s="2"/>
-      <c r="C413" s="2"/>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" s="2"/>
-      <c r="B414" s="2"/>
-      <c r="C414" s="2"/>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="2"/>
-      <c r="B415" s="2"/>
-      <c r="C415" s="2"/>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416" s="2"/>
-      <c r="B416" s="2"/>
-      <c r="C416" s="2"/>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A417" s="2"/>
-      <c r="B417" s="2"/>
-      <c r="C417" s="2"/>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" s="2"/>
-      <c r="B418" s="2"/>
-      <c r="C418" s="2"/>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" s="2"/>
-      <c r="B419" s="2"/>
-      <c r="C419" s="2"/>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" s="2"/>
-      <c r="B420" s="2"/>
-      <c r="C420" s="2"/>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A421" s="2"/>
-      <c r="B421" s="2"/>
-      <c r="C421" s="2"/>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A422" s="2"/>
-      <c r="B422" s="2"/>
-      <c r="C422" s="2"/>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423" s="2"/>
-      <c r="B423" s="2"/>
-      <c r="C423" s="2"/>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" s="2"/>
-      <c r="B424" s="2"/>
-      <c r="C424" s="2"/>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A425" s="2"/>
-      <c r="B425" s="2"/>
-      <c r="C425" s="2"/>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" s="2"/>
-      <c r="B426" s="2"/>
-      <c r="C426" s="2"/>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427" s="2"/>
-      <c r="B427" s="2"/>
-      <c r="C427" s="2"/>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A428" s="2"/>
-      <c r="B428" s="2"/>
-      <c r="C428" s="2"/>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" s="2"/>
-      <c r="B429" s="2"/>
-      <c r="C429" s="2"/>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" s="2"/>
-      <c r="B430" s="2"/>
-      <c r="C430" s="2"/>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" s="2"/>
-      <c r="B431" s="2"/>
-      <c r="C431" s="2"/>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A432" s="2"/>
-      <c r="B432" s="2"/>
-      <c r="C432" s="2"/>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A433" s="2"/>
-      <c r="B433" s="2"/>
-      <c r="C433" s="2"/>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A434" s="2"/>
-      <c r="B434" s="2"/>
-      <c r="C434" s="2"/>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435" s="2"/>
-      <c r="B435" s="2"/>
-      <c r="C435" s="2"/>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A436" s="2"/>
-      <c r="B436" s="2"/>
-      <c r="C436" s="2"/>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437" s="2"/>
-      <c r="B437" s="2"/>
-      <c r="C437" s="2"/>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" s="2"/>
-      <c r="B438" s="2"/>
-      <c r="C438" s="2"/>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A439" s="2"/>
-      <c r="B439" s="2"/>
-      <c r="C439" s="2"/>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440" s="2"/>
-      <c r="B440" s="2"/>
-      <c r="C440" s="2"/>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441" s="2"/>
-      <c r="B441" s="2"/>
-      <c r="C441" s="2"/>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442" s="2"/>
-      <c r="B442" s="2"/>
-      <c r="C442" s="2"/>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A443" s="2"/>
-      <c r="B443" s="2"/>
-      <c r="C443" s="2"/>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A444" s="2"/>
-      <c r="B444" s="2"/>
-      <c r="C444" s="2"/>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A445" s="2"/>
-      <c r="B445" s="2"/>
-      <c r="C445" s="2"/>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446" s="2"/>
-      <c r="B446" s="2"/>
-      <c r="C446" s="2"/>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A447" s="2"/>
-      <c r="B447" s="2"/>
-      <c r="C447" s="2"/>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448" s="2"/>
-      <c r="B448" s="2"/>
-      <c r="C448" s="2"/>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A449" s="2"/>
-      <c r="B449" s="2"/>
-      <c r="C449" s="2"/>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A450" s="2"/>
-      <c r="B450" s="2"/>
-      <c r="C450" s="2"/>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451" s="2"/>
-      <c r="B451" s="2"/>
-      <c r="C451" s="2"/>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" s="2"/>
-      <c r="B452" s="2"/>
-      <c r="C452" s="2"/>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" s="2"/>
-      <c r="B453" s="2"/>
-      <c r="C453" s="2"/>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A454" s="2"/>
-      <c r="B454" s="2"/>
-      <c r="C454" s="2"/>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A455" s="2"/>
-      <c r="B455" s="2"/>
-      <c r="C455" s="2"/>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A456" s="2"/>
-      <c r="B456" s="2"/>
-      <c r="C456" s="2"/>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457" s="2"/>
-      <c r="B457" s="2"/>
-      <c r="C457" s="2"/>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A458" s="2"/>
-      <c r="B458" s="2"/>
-      <c r="C458" s="2"/>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459" s="2"/>
-      <c r="B459" s="2"/>
-      <c r="C459" s="2"/>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A460" s="2"/>
-      <c r="B460" s="2"/>
-      <c r="C460" s="2"/>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A461" s="2"/>
-      <c r="B461" s="2"/>
-      <c r="C461" s="2"/>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462" s="2"/>
-      <c r="B462" s="2"/>
-      <c r="C462" s="2"/>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463" s="2"/>
-      <c r="B463" s="2"/>
-      <c r="C463" s="2"/>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A464" s="2"/>
-      <c r="B464" s="2"/>
-      <c r="C464" s="2"/>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A465" s="2"/>
-      <c r="B465" s="2"/>
-      <c r="C465" s="2"/>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A466" s="2"/>
-      <c r="B466" s="2"/>
-      <c r="C466" s="2"/>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A467" s="2"/>
-      <c r="B467" s="2"/>
-      <c r="C467" s="2"/>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A468" s="2"/>
-      <c r="B468" s="2"/>
-      <c r="C468" s="2"/>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A469" s="2"/>
-      <c r="B469" s="2"/>
-      <c r="C469" s="2"/>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A470" s="2"/>
-      <c r="B470" s="2"/>
-      <c r="C470" s="2"/>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A471" s="2"/>
-      <c r="B471" s="2"/>
-      <c r="C471" s="2"/>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A472" s="2"/>
-      <c r="B472" s="2"/>
-      <c r="C472" s="2"/>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473" s="2"/>
-      <c r="B473" s="2"/>
-      <c r="C473" s="2"/>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A474" s="2"/>
-      <c r="B474" s="2"/>
-      <c r="C474" s="2"/>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A475" s="2"/>
-      <c r="B475" s="2"/>
-      <c r="C475" s="2"/>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A476" s="2"/>
-      <c r="B476" s="2"/>
-      <c r="C476" s="2"/>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A477" s="2"/>
-      <c r="B477" s="2"/>
-      <c r="C477" s="2"/>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A478" s="2"/>
-      <c r="B478" s="2"/>
-      <c r="C478" s="2"/>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A479" s="2"/>
-      <c r="B479" s="2"/>
-      <c r="C479" s="2"/>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A480" s="2"/>
-      <c r="B480" s="2"/>
-      <c r="C480" s="2"/>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A481" s="2"/>
-      <c r="B481" s="2"/>
-      <c r="C481" s="2"/>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A482" s="2"/>
-      <c r="B482" s="2"/>
-      <c r="C482" s="2"/>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A483" s="2"/>
-      <c r="B483" s="2"/>
-      <c r="C483" s="2"/>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A484" s="2"/>
-      <c r="B484" s="2"/>
-      <c r="C484" s="2"/>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A485" s="2"/>
-      <c r="B485" s="2"/>
-      <c r="C485" s="2"/>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A486" s="2"/>
-      <c r="B486" s="2"/>
-      <c r="C486" s="2"/>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A487" s="2"/>
-      <c r="B487" s="2"/>
-      <c r="C487" s="2"/>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A488" s="2"/>
-      <c r="B488" s="2"/>
-      <c r="C488" s="2"/>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A489" s="2"/>
-      <c r="B489" s="2"/>
-      <c r="C489" s="2"/>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A490" s="2"/>
-      <c r="B490" s="2"/>
-      <c r="C490" s="2"/>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A491" s="2"/>
-      <c r="B491" s="2"/>
-      <c r="C491" s="2"/>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A492" s="2"/>
-      <c r="B492" s="2"/>
-      <c r="C492" s="2"/>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A493" s="2"/>
-      <c r="B493" s="2"/>
-      <c r="C493" s="2"/>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A494" s="2"/>
-      <c r="B494" s="2"/>
-      <c r="C494" s="2"/>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A495" s="2"/>
-      <c r="B495" s="2"/>
-      <c r="C495" s="2"/>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A496" s="2"/>
-      <c r="B496" s="2"/>
-      <c r="C496" s="2"/>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A497" s="2"/>
-      <c r="B497" s="2"/>
-      <c r="C497" s="2"/>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A498" s="2"/>
-      <c r="B498" s="2"/>
-      <c r="C498" s="2"/>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A499" s="2"/>
-      <c r="B499" s="2"/>
-      <c r="C499" s="2"/>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A500" s="2"/>
-      <c r="B500" s="2"/>
-      <c r="C500" s="2"/>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A501" s="2"/>
-      <c r="B501" s="2"/>
-      <c r="C501" s="2"/>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A502" s="2"/>
-      <c r="B502" s="2"/>
-      <c r="C502" s="2"/>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A503" s="2"/>
-      <c r="B503" s="2"/>
-      <c r="C503" s="2"/>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A504" s="2"/>
-      <c r="B504" s="2"/>
-      <c r="C504" s="2"/>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A505" s="2"/>
-      <c r="B505" s="2"/>
-      <c r="C505" s="2"/>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A506" s="2"/>
-      <c r="B506" s="2"/>
-      <c r="C506" s="2"/>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A507" s="2"/>
-      <c r="B507" s="2"/>
-      <c r="C507" s="2"/>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A508" s="2"/>
-      <c r="B508" s="2"/>
-      <c r="C508" s="2"/>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A509" s="2"/>
-      <c r="B509" s="2"/>
-      <c r="C509" s="2"/>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A510" s="2"/>
-      <c r="B510" s="2"/>
-      <c r="C510" s="2"/>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A511" s="2"/>
-      <c r="B511" s="2"/>
-      <c r="C511" s="2"/>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A512" s="2"/>
-      <c r="B512" s="2"/>
-      <c r="C512" s="2"/>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A513" s="2"/>
-      <c r="B513" s="2"/>
-      <c r="C513" s="2"/>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A514" s="2"/>
-      <c r="B514" s="2"/>
-      <c r="C514" s="2"/>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A515" s="2"/>
-      <c r="B515" s="2"/>
-      <c r="C515" s="2"/>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A516" s="2"/>
-      <c r="B516" s="2"/>
-      <c r="C516" s="2"/>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A517" s="2"/>
-      <c r="B517" s="2"/>
-      <c r="C517" s="2"/>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A518" s="2"/>
-      <c r="B518" s="2"/>
-      <c r="C518" s="2"/>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A519" s="2"/>
-      <c r="B519" s="2"/>
-      <c r="C519" s="2"/>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A520" s="2"/>
-      <c r="B520" s="2"/>
-      <c r="C520" s="2"/>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A521" s="2"/>
-      <c r="B521" s="2"/>
-      <c r="C521" s="2"/>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A522" s="2"/>
-      <c r="B522" s="2"/>
-      <c r="C522" s="2"/>
-    </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A523" s="2"/>
-      <c r="B523" s="2"/>
-      <c r="C523" s="2"/>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A524" s="2"/>
-      <c r="B524" s="2"/>
-      <c r="C524" s="2"/>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A525" s="2"/>
-      <c r="B525" s="2"/>
-      <c r="C525" s="2"/>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A526" s="2"/>
-      <c r="B526" s="2"/>
-      <c r="C526" s="2"/>
-    </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A527" s="2"/>
-      <c r="B527" s="2"/>
-      <c r="C527" s="2"/>
-    </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A528" s="2"/>
-      <c r="B528" s="2"/>
-      <c r="C528" s="2"/>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A529" s="2"/>
-      <c r="B529" s="2"/>
-      <c r="C529" s="2"/>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A530" s="2"/>
-      <c r="B530" s="2"/>
-      <c r="C530" s="2"/>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A531" s="2"/>
-      <c r="B531" s="2"/>
-      <c r="C531" s="2"/>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A532" s="2"/>
-      <c r="B532" s="2"/>
-      <c r="C532" s="2"/>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A533" s="2"/>
-      <c r="B533" s="2"/>
-      <c r="C533" s="2"/>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A534" s="2"/>
-      <c r="B534" s="2"/>
-      <c r="C534" s="2"/>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A535" s="2"/>
-      <c r="B535" s="2"/>
-      <c r="C535" s="2"/>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A536" s="2"/>
-      <c r="B536" s="2"/>
-      <c r="C536" s="2"/>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A537" s="2"/>
-      <c r="B537" s="2"/>
-      <c r="C537" s="2"/>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A538" s="2"/>
-      <c r="B538" s="2"/>
-      <c r="C538" s="2"/>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A539" s="2"/>
-      <c r="B539" s="2"/>
-      <c r="C539" s="2"/>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A540" s="2"/>
-      <c r="B540" s="2"/>
-      <c r="C540" s="2"/>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A541" s="2"/>
-      <c r="B541" s="2"/>
-      <c r="C541" s="2"/>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A542" s="2"/>
-      <c r="B542" s="2"/>
-      <c r="C542" s="2"/>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A543" s="2"/>
-      <c r="B543" s="2"/>
-      <c r="C543" s="2"/>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A544" s="2"/>
-      <c r="B544" s="2"/>
-      <c r="C544" s="2"/>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A545" s="2"/>
-      <c r="B545" s="2"/>
-      <c r="C545" s="2"/>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A546" s="2"/>
-      <c r="B546" s="2"/>
-      <c r="C546" s="2"/>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A547" s="2"/>
-      <c r="B547" s="2"/>
-      <c r="C547" s="2"/>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A548" s="2"/>
-      <c r="B548" s="2"/>
-      <c r="C548" s="2"/>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A549" s="2"/>
-      <c r="B549" s="2"/>
-      <c r="C549" s="2"/>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A550" s="2"/>
-      <c r="B550" s="2"/>
-      <c r="C550" s="2"/>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A551" s="2"/>
-      <c r="B551" s="2"/>
-      <c r="C551" s="2"/>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A552" s="2"/>
-      <c r="B552" s="2"/>
-      <c r="C552" s="2"/>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A553" s="2"/>
-      <c r="B553" s="2"/>
-      <c r="C553" s="2"/>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A554" s="2"/>
-      <c r="B554" s="2"/>
-      <c r="C554" s="2"/>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A555" s="2"/>
-      <c r="B555" s="2"/>
-      <c r="C555" s="2"/>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A556" s="2"/>
-      <c r="B556" s="2"/>
-      <c r="C556" s="2"/>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A557" s="2"/>
-      <c r="B557" s="2"/>
-      <c r="C557" s="2"/>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A558" s="2"/>
-      <c r="B558" s="2"/>
-      <c r="C558" s="2"/>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A559" s="2"/>
-      <c r="B559" s="2"/>
-      <c r="C559" s="2"/>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A560" s="2"/>
-      <c r="B560" s="2"/>
-      <c r="C560" s="2"/>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A561" s="2"/>
-      <c r="B561" s="2"/>
-      <c r="C561" s="2"/>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A562" s="2"/>
-      <c r="B562" s="2"/>
-      <c r="C562" s="2"/>
-    </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A563" s="2"/>
-      <c r="B563" s="2"/>
-      <c r="C563" s="2"/>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A564" s="2"/>
-      <c r="B564" s="2"/>
-      <c r="C564" s="2"/>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A565" s="2"/>
-      <c r="B565" s="2"/>
-      <c r="C565" s="2"/>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A566" s="2"/>
-      <c r="B566" s="2"/>
-      <c r="C566" s="2"/>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A567" s="2"/>
-      <c r="B567" s="2"/>
-      <c r="C567" s="2"/>
-    </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A568" s="2"/>
-      <c r="B568" s="2"/>
-      <c r="C568" s="2"/>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A569" s="2"/>
-      <c r="B569" s="2"/>
-      <c r="C569" s="2"/>
-    </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A570" s="2"/>
-      <c r="B570" s="2"/>
-      <c r="C570" s="2"/>
-    </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A571" s="2"/>
-      <c r="B571" s="2"/>
-      <c r="C571" s="2"/>
-    </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A572" s="2"/>
-      <c r="B572" s="2"/>
-      <c r="C572" s="2"/>
-    </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A573" s="2"/>
-      <c r="B573" s="2"/>
-      <c r="C573" s="2"/>
-    </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A574" s="2"/>
-      <c r="B574" s="2"/>
-      <c r="C574" s="2"/>
-    </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A575" s="2"/>
-      <c r="B575" s="2"/>
-      <c r="C575" s="2"/>
-    </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A576" s="2"/>
-      <c r="B576" s="2"/>
-      <c r="C576" s="2"/>
-    </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A577" s="2"/>
-      <c r="B577" s="2"/>
-      <c r="C577" s="2"/>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A578" s="2"/>
-      <c r="B578" s="2"/>
-      <c r="C578" s="2"/>
-    </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A579" s="2"/>
-      <c r="B579" s="2"/>
-      <c r="C579" s="2"/>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A580" s="2"/>
-      <c r="B580" s="2"/>
-      <c r="C580" s="2"/>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A581" s="2"/>
-      <c r="B581" s="2"/>
-      <c r="C581" s="2"/>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A582" s="2"/>
-      <c r="B582" s="2"/>
-      <c r="C582" s="2"/>
-    </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A583" s="2"/>
-      <c r="B583" s="2"/>
-      <c r="C583" s="2"/>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A584" s="2"/>
-      <c r="B584" s="2"/>
-      <c r="C584" s="2"/>
-    </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A585" s="2"/>
-      <c r="B585" s="2"/>
-      <c r="C585" s="2"/>
-    </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A586" s="2"/>
-      <c r="B586" s="2"/>
-      <c r="C586" s="2"/>
-    </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A587" s="2"/>
-      <c r="B587" s="2"/>
-      <c r="C587" s="2"/>
-    </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A588" s="2"/>
-      <c r="B588" s="2"/>
-      <c r="C588" s="2"/>
-    </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A589" s="2"/>
-      <c r="B589" s="2"/>
-      <c r="C589" s="2"/>
-    </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A590" s="2"/>
-      <c r="B590" s="2"/>
-      <c r="C590" s="2"/>
-    </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A591" s="2"/>
-      <c r="B591" s="2"/>
-      <c r="C591" s="2"/>
-    </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A592" s="2"/>
-      <c r="B592" s="2"/>
-      <c r="C592" s="2"/>
-    </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A593" s="2"/>
-      <c r="B593" s="2"/>
-      <c r="C593" s="2"/>
-    </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A594" s="2"/>
-      <c r="B594" s="2"/>
-      <c r="C594" s="2"/>
-    </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A595" s="2"/>
-      <c r="B595" s="2"/>
-      <c r="C595" s="2"/>
-    </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A596" s="2"/>
-      <c r="B596" s="2"/>
-      <c r="C596" s="2"/>
-    </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A597" s="2"/>
-      <c r="B597" s="2"/>
-      <c r="C597" s="2"/>
-    </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A598" s="2"/>
-      <c r="B598" s="2"/>
-      <c r="C598" s="2"/>
-    </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A599" s="2"/>
-      <c r="B599" s="2"/>
-      <c r="C599" s="2"/>
-    </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A600" s="2"/>
-      <c r="B600" s="2"/>
-      <c r="C600" s="2"/>
-    </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A601" s="2"/>
-      <c r="B601" s="2"/>
-      <c r="C601" s="2"/>
-    </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A602" s="2"/>
-      <c r="B602" s="2"/>
-      <c r="C602" s="2"/>
-    </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A603" s="2"/>
-      <c r="B603" s="2"/>
-      <c r="C603" s="2"/>
-    </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A604" s="2"/>
-      <c r="B604" s="2"/>
-      <c r="C604" s="2"/>
-    </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A605" s="2"/>
-      <c r="B605" s="2"/>
-      <c r="C605" s="2"/>
-    </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A606" s="2"/>
-      <c r="B606" s="2"/>
-      <c r="C606" s="2"/>
-    </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A607" s="2"/>
-      <c r="B607" s="2"/>
-      <c r="C607" s="2"/>
-    </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A608" s="2"/>
-      <c r="B608" s="2"/>
-      <c r="C608" s="2"/>
+      <c r="C349" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W349" xr:uid="{C3846F03-6366-46E9-8D32-66B5DE77B5A5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>